--- a/Historicos/ta_municipios_jalisco.xlsx
+++ b/Historicos/ta_municipios_jalisco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Desktop\Respaldo_Susana\Enero2021\Actualizaciones pagina\Datos históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3282450A-F8F4-4535-B0FC-168BFFECB6AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96828C67-C11C-4548-A2A1-32EA128BEDB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="142">
   <si>
     <t>Acatic</t>
   </si>
@@ -1121,7 +1121,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1180,6 +1180,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1560,7 +1563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IT145"/>
+  <dimension ref="A1:IU145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1680,17 +1683,17 @@
     <col min="252" max="252" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>125</v>
       </c>
@@ -2447,14 +2450,17 @@
       <c r="IR4" s="26">
         <v>2020</v>
       </c>
-      <c r="IS4" s="27">
+      <c r="IS4" s="26">
         <v>2020</v>
       </c>
-      <c r="IT4" s="27">
+      <c r="IT4" s="25">
         <v>2021</v>
       </c>
+      <c r="IU4" s="27">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
       <c r="B5" s="4" t="s">
         <v>129</v>
@@ -3209,14 +3215,17 @@
       <c r="IR5" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="IS5" s="28" t="s">
+      <c r="IS5" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="IT5" s="28" t="s">
+      <c r="IT5" s="31" t="s">
         <v>129</v>
       </c>
+      <c r="IU5" s="28" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="6" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -3973,14 +3982,17 @@
       <c r="IR6" s="6">
         <v>4679</v>
       </c>
-      <c r="IS6" s="7">
+      <c r="IS6" s="6">
         <v>4685</v>
       </c>
-      <c r="IT6" s="7">
+      <c r="IT6" s="5">
         <v>4658</v>
       </c>
+      <c r="IU6" s="7">
+        <v>4653</v>
+      </c>
     </row>
-    <row r="7" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -4737,14 +4749,17 @@
       <c r="IR7" s="6">
         <v>5735</v>
       </c>
-      <c r="IS7" s="7">
+      <c r="IS7" s="6">
         <v>5979</v>
       </c>
-      <c r="IT7" s="7">
+      <c r="IT7" s="5">
         <v>6495</v>
       </c>
+      <c r="IU7" s="7">
+        <v>6621</v>
+      </c>
     </row>
-    <row r="8" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -5501,14 +5516,17 @@
       <c r="IR8" s="6">
         <v>1301</v>
       </c>
-      <c r="IS8" s="7">
+      <c r="IS8" s="6">
         <v>1349</v>
       </c>
-      <c r="IT8" s="7">
+      <c r="IT8" s="5">
         <v>1390</v>
       </c>
+      <c r="IU8" s="7">
+        <v>1709</v>
+      </c>
     </row>
-    <row r="9" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -6265,14 +6283,17 @@
       <c r="IR9" s="17">
         <v>63</v>
       </c>
-      <c r="IS9" s="7">
+      <c r="IS9" s="6">
         <v>76</v>
       </c>
-      <c r="IT9" s="7">
+      <c r="IT9" s="5">
         <v>74</v>
       </c>
+      <c r="IU9" s="7">
+        <v>85</v>
+      </c>
     </row>
-    <row r="10" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -7029,14 +7050,17 @@
       <c r="IR10" s="6">
         <v>1724</v>
       </c>
-      <c r="IS10" s="7">
+      <c r="IS10" s="6">
         <v>1683</v>
       </c>
-      <c r="IT10" s="7">
+      <c r="IT10" s="5">
         <v>1726</v>
       </c>
+      <c r="IU10" s="7">
+        <v>1735</v>
+      </c>
     </row>
-    <row r="11" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -7793,14 +7817,17 @@
       <c r="IR11" s="6">
         <v>5887</v>
       </c>
-      <c r="IS11" s="7">
+      <c r="IS11" s="6">
         <v>6545</v>
       </c>
-      <c r="IT11" s="7">
+      <c r="IT11" s="5">
         <v>6637</v>
       </c>
+      <c r="IU11" s="7">
+        <v>6829</v>
+      </c>
     </row>
-    <row r="12" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -8557,14 +8584,17 @@
       <c r="IR12" s="6">
         <v>11683</v>
       </c>
-      <c r="IS12" s="7">
+      <c r="IS12" s="6">
         <v>11603</v>
       </c>
-      <c r="IT12" s="7">
+      <c r="IT12" s="5">
         <v>11665</v>
       </c>
+      <c r="IU12" s="7">
+        <v>12554</v>
+      </c>
     </row>
-    <row r="13" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -9321,14 +9351,17 @@
       <c r="IR13" s="17">
         <v>64</v>
       </c>
-      <c r="IS13" s="7">
+      <c r="IS13" s="6">
         <v>62</v>
       </c>
-      <c r="IT13" s="7">
+      <c r="IT13" s="5">
         <v>58</v>
       </c>
+      <c r="IU13" s="7">
+        <v>69</v>
+      </c>
     </row>
-    <row r="14" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -10085,14 +10118,17 @@
       <c r="IR14" s="17">
         <v>17</v>
       </c>
-      <c r="IS14" s="7">
+      <c r="IS14" s="6">
         <v>18</v>
       </c>
-      <c r="IT14" s="7">
+      <c r="IT14" s="5">
         <v>18</v>
       </c>
+      <c r="IU14" s="7">
+        <v>18</v>
+      </c>
     </row>
-    <row r="15" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -10849,14 +10885,17 @@
       <c r="IR15" s="17">
         <v>88</v>
       </c>
-      <c r="IS15" s="7">
+      <c r="IS15" s="6">
         <v>93</v>
       </c>
-      <c r="IT15" s="7">
+      <c r="IT15" s="5">
         <v>90</v>
       </c>
+      <c r="IU15" s="7">
+        <v>88</v>
+      </c>
     </row>
-    <row r="16" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -11613,14 +11652,17 @@
       <c r="IR16" s="6">
         <v>9558</v>
       </c>
-      <c r="IS16" s="7">
+      <c r="IS16" s="6">
         <v>9622</v>
       </c>
-      <c r="IT16" s="7">
+      <c r="IT16" s="5">
         <v>9668</v>
       </c>
+      <c r="IU16" s="7">
+        <v>9766</v>
+      </c>
     </row>
-    <row r="17" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -12377,14 +12419,17 @@
       <c r="IR17" s="17">
         <v>622</v>
       </c>
-      <c r="IS17" s="7">
+      <c r="IS17" s="6">
         <v>547</v>
       </c>
-      <c r="IT17" s="7">
+      <c r="IT17" s="5">
         <v>586</v>
       </c>
+      <c r="IU17" s="7">
+        <v>568</v>
+      </c>
     </row>
-    <row r="18" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -13141,14 +13186,17 @@
       <c r="IR18" s="6">
         <v>11584</v>
       </c>
-      <c r="IS18" s="7">
+      <c r="IS18" s="6">
         <v>11330</v>
       </c>
-      <c r="IT18" s="7">
+      <c r="IT18" s="5">
         <v>11240</v>
       </c>
+      <c r="IU18" s="7">
+        <v>11077</v>
+      </c>
     </row>
-    <row r="19" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -13905,14 +13953,17 @@
       <c r="IR19" s="6">
         <v>3054</v>
       </c>
-      <c r="IS19" s="7">
+      <c r="IS19" s="6">
         <v>3204</v>
       </c>
-      <c r="IT19" s="7">
+      <c r="IT19" s="5">
         <v>3085</v>
       </c>
+      <c r="IU19" s="7">
+        <v>3172</v>
+      </c>
     </row>
-    <row r="20" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -14669,14 +14720,17 @@
       <c r="IR20" s="17">
         <v>356</v>
       </c>
-      <c r="IS20" s="7">
+      <c r="IS20" s="6">
         <v>351</v>
       </c>
-      <c r="IT20" s="7">
+      <c r="IT20" s="5">
         <v>337</v>
       </c>
+      <c r="IU20" s="7">
+        <v>332</v>
+      </c>
     </row>
-    <row r="21" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -15433,14 +15487,17 @@
       <c r="IR21" s="17">
         <v>668</v>
       </c>
-      <c r="IS21" s="7">
+      <c r="IS21" s="6">
         <v>655</v>
       </c>
-      <c r="IT21" s="7">
+      <c r="IT21" s="5">
         <v>657</v>
       </c>
+      <c r="IU21" s="7">
+        <v>685</v>
+      </c>
     </row>
-    <row r="22" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -16197,14 +16254,17 @@
       <c r="IR22" s="17">
         <v>284</v>
       </c>
-      <c r="IS22" s="7">
+      <c r="IS22" s="6">
         <v>271</v>
       </c>
-      <c r="IT22" s="7">
+      <c r="IT22" s="5">
         <v>282</v>
       </c>
+      <c r="IU22" s="7">
+        <v>277</v>
+      </c>
     </row>
-    <row r="23" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -16961,14 +17021,17 @@
       <c r="IR23" s="17">
         <v>46</v>
       </c>
-      <c r="IS23" s="7">
+      <c r="IS23" s="6">
         <v>46</v>
       </c>
-      <c r="IT23" s="7">
+      <c r="IT23" s="5">
         <v>46</v>
       </c>
+      <c r="IU23" s="7">
+        <v>47</v>
+      </c>
     </row>
-    <row r="24" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -17725,14 +17788,17 @@
       <c r="IR24" s="6">
         <v>3074</v>
       </c>
-      <c r="IS24" s="7">
+      <c r="IS24" s="6">
         <v>3393</v>
       </c>
-      <c r="IT24" s="7">
+      <c r="IT24" s="5">
         <v>3403</v>
       </c>
+      <c r="IU24" s="7">
+        <v>3415</v>
+      </c>
     </row>
-    <row r="25" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -18489,14 +18555,17 @@
       <c r="IR25" s="6">
         <v>5816</v>
       </c>
-      <c r="IS25" s="7">
+      <c r="IS25" s="6">
         <v>5591</v>
       </c>
-      <c r="IT25" s="7">
+      <c r="IT25" s="5">
         <v>5550</v>
       </c>
+      <c r="IU25" s="7">
+        <v>5463</v>
+      </c>
     </row>
-    <row r="26" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -19253,14 +19322,17 @@
       <c r="IR26" s="17">
         <v>2</v>
       </c>
-      <c r="IS26" s="7">
+      <c r="IS26" s="6">
         <v>1</v>
       </c>
-      <c r="IT26" s="7">
+      <c r="IT26" s="5">
         <v>1</v>
       </c>
+      <c r="IU26" s="7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -20017,14 +20089,17 @@
       <c r="IR27" s="17">
         <v>136</v>
       </c>
-      <c r="IS27" s="7">
+      <c r="IS27" s="6">
         <v>141</v>
       </c>
-      <c r="IT27" s="7">
+      <c r="IT27" s="5">
         <v>147</v>
       </c>
+      <c r="IU27" s="7">
+        <v>160</v>
+      </c>
     </row>
-    <row r="28" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -20781,14 +20856,17 @@
       <c r="IR28" s="6">
         <v>2127</v>
       </c>
-      <c r="IS28" s="7">
+      <c r="IS28" s="6">
         <v>2158</v>
       </c>
-      <c r="IT28" s="7">
+      <c r="IT28" s="5">
         <v>2171</v>
       </c>
+      <c r="IU28" s="7">
+        <v>2195</v>
+      </c>
     </row>
-    <row r="29" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -21545,14 +21623,17 @@
       <c r="IR29" s="6">
         <v>2382</v>
       </c>
-      <c r="IS29" s="7">
+      <c r="IS29" s="6">
         <v>2350</v>
       </c>
-      <c r="IT29" s="7">
+      <c r="IT29" s="5">
         <v>2303</v>
       </c>
+      <c r="IU29" s="7">
+        <v>2320</v>
+      </c>
     </row>
-    <row r="30" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -22309,14 +22390,17 @@
       <c r="IR30" s="17">
         <v>603</v>
       </c>
-      <c r="IS30" s="7">
+      <c r="IS30" s="6">
         <v>605</v>
       </c>
-      <c r="IT30" s="7">
+      <c r="IT30" s="5">
         <v>608</v>
       </c>
+      <c r="IU30" s="7">
+        <v>614</v>
+      </c>
     </row>
-    <row r="31" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
@@ -23073,14 +23157,17 @@
       <c r="IR31" s="17">
         <v>125</v>
       </c>
-      <c r="IS31" s="7">
+      <c r="IS31" s="6">
         <v>126</v>
       </c>
-      <c r="IT31" s="7">
+      <c r="IT31" s="5">
         <v>125</v>
       </c>
+      <c r="IU31" s="7">
+        <v>127</v>
+      </c>
     </row>
-    <row r="32" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
@@ -23837,14 +23924,17 @@
       <c r="IR32" s="17">
         <v>71</v>
       </c>
-      <c r="IS32" s="7">
+      <c r="IS32" s="6">
         <v>58</v>
       </c>
-      <c r="IT32" s="7">
+      <c r="IT32" s="5">
         <v>42</v>
       </c>
+      <c r="IU32" s="7">
+        <v>40</v>
+      </c>
     </row>
-    <row r="33" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -24601,14 +24691,17 @@
       <c r="IR33" s="17">
         <v>55</v>
       </c>
-      <c r="IS33" s="7">
+      <c r="IS33" s="6">
         <v>53</v>
       </c>
-      <c r="IT33" s="7">
+      <c r="IT33" s="5">
         <v>56</v>
       </c>
+      <c r="IU33" s="7">
+        <v>62</v>
+      </c>
     </row>
-    <row r="34" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -25365,14 +25458,17 @@
       <c r="IR34" s="17">
         <v>198</v>
       </c>
-      <c r="IS34" s="7">
+      <c r="IS34" s="6">
         <v>199</v>
       </c>
-      <c r="IT34" s="7">
+      <c r="IT34" s="5">
         <v>206</v>
       </c>
+      <c r="IU34" s="7">
+        <v>198</v>
+      </c>
     </row>
-    <row r="35" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -26129,14 +26225,17 @@
       <c r="IR35" s="17">
         <v>729</v>
       </c>
-      <c r="IS35" s="7">
+      <c r="IS35" s="6">
         <v>720</v>
       </c>
-      <c r="IT35" s="7">
+      <c r="IT35" s="5">
         <v>719</v>
       </c>
+      <c r="IU35" s="7">
+        <v>727</v>
+      </c>
     </row>
-    <row r="36" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -26893,14 +26992,17 @@
       <c r="IR36" s="17">
         <v>10</v>
       </c>
-      <c r="IS36" s="7">
+      <c r="IS36" s="6">
         <v>9</v>
       </c>
-      <c r="IT36" s="7">
+      <c r="IT36" s="5">
         <v>8</v>
       </c>
+      <c r="IU36" s="7">
+        <v>7</v>
+      </c>
     </row>
-    <row r="37" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -27657,14 +27759,17 @@
       <c r="IR37" s="6">
         <v>2207</v>
       </c>
-      <c r="IS37" s="7">
+      <c r="IS37" s="6">
         <v>2190</v>
       </c>
-      <c r="IT37" s="7">
+      <c r="IT37" s="5">
         <v>2144</v>
       </c>
+      <c r="IU37" s="7">
+        <v>2234</v>
+      </c>
     </row>
-    <row r="38" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -28421,14 +28526,17 @@
       <c r="IR38" s="6">
         <v>2511</v>
       </c>
-      <c r="IS38" s="7">
+      <c r="IS38" s="6">
         <v>2503</v>
       </c>
-      <c r="IT38" s="7">
+      <c r="IT38" s="5">
         <v>2510</v>
       </c>
+      <c r="IU38" s="7">
+        <v>2494</v>
+      </c>
     </row>
-    <row r="39" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
@@ -29185,14 +29293,17 @@
       <c r="IR39" s="17">
         <v>155</v>
       </c>
-      <c r="IS39" s="7">
+      <c r="IS39" s="6">
         <v>158</v>
       </c>
-      <c r="IT39" s="7">
+      <c r="IT39" s="5">
         <v>162</v>
       </c>
+      <c r="IU39" s="7">
+        <v>163</v>
+      </c>
     </row>
-    <row r="40" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
@@ -29949,14 +30060,17 @@
       <c r="IR40" s="6">
         <v>51110</v>
       </c>
-      <c r="IS40" s="7">
+      <c r="IS40" s="6">
         <v>50854</v>
       </c>
-      <c r="IT40" s="7">
+      <c r="IT40" s="5">
         <v>51742</v>
       </c>
+      <c r="IU40" s="7">
+        <v>52101</v>
+      </c>
     </row>
-    <row r="41" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -30713,14 +30827,17 @@
       <c r="IR41" s="6">
         <v>3263</v>
       </c>
-      <c r="IS41" s="7">
+      <c r="IS41" s="6">
         <v>3243</v>
       </c>
-      <c r="IT41" s="7">
+      <c r="IT41" s="5">
         <v>3216</v>
       </c>
+      <c r="IU41" s="7">
+        <v>3234</v>
+      </c>
     </row>
-    <row r="42" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -31477,14 +31594,17 @@
       <c r="IR42" s="17">
         <v>726</v>
       </c>
-      <c r="IS42" s="7">
+      <c r="IS42" s="6">
         <v>706</v>
       </c>
-      <c r="IT42" s="7">
+      <c r="IT42" s="5">
         <v>709</v>
       </c>
+      <c r="IU42" s="7">
+        <v>707</v>
+      </c>
     </row>
-    <row r="43" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -32241,14 +32361,17 @@
       <c r="IR43" s="6">
         <v>1632</v>
       </c>
-      <c r="IS43" s="7">
+      <c r="IS43" s="6">
         <v>1601</v>
       </c>
-      <c r="IT43" s="7">
+      <c r="IT43" s="5">
         <v>1609</v>
       </c>
+      <c r="IU43" s="7">
+        <v>1506</v>
+      </c>
     </row>
-    <row r="44" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -33005,14 +33128,17 @@
       <c r="IR44" s="17">
         <v>158</v>
       </c>
-      <c r="IS44" s="7">
+      <c r="IS44" s="6">
         <v>151</v>
       </c>
-      <c r="IT44" s="7">
+      <c r="IT44" s="5">
         <v>151</v>
       </c>
+      <c r="IU44" s="7">
+        <v>149</v>
+      </c>
     </row>
-    <row r="45" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -33769,14 +33895,17 @@
       <c r="IR45" s="6">
         <v>704121</v>
       </c>
-      <c r="IS45" s="7">
+      <c r="IS45" s="6">
         <v>691788</v>
       </c>
-      <c r="IT45" s="7">
+      <c r="IT45" s="5">
         <v>690583</v>
       </c>
+      <c r="IU45" s="7">
+        <v>694592</v>
+      </c>
     </row>
-    <row r="46" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
@@ -34533,14 +34662,17 @@
       <c r="IR46" s="17">
         <v>206</v>
       </c>
-      <c r="IS46" s="7">
+      <c r="IS46" s="6">
         <v>211</v>
       </c>
-      <c r="IT46" s="7">
+      <c r="IT46" s="5">
         <v>203</v>
       </c>
+      <c r="IU46" s="7">
+        <v>205</v>
+      </c>
     </row>
-    <row r="47" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
@@ -35297,14 +35429,17 @@
       <c r="IR47" s="17">
         <v>119</v>
       </c>
-      <c r="IS47" s="7">
+      <c r="IS47" s="6">
         <v>123</v>
       </c>
-      <c r="IT47" s="7">
+      <c r="IT47" s="5">
         <v>116</v>
       </c>
+      <c r="IU47" s="7">
+        <v>116</v>
+      </c>
     </row>
-    <row r="48" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -36061,14 +36196,17 @@
       <c r="IR48" s="17">
         <v>637</v>
       </c>
-      <c r="IS48" s="7">
+      <c r="IS48" s="6">
         <v>657</v>
       </c>
-      <c r="IT48" s="7">
+      <c r="IT48" s="5">
         <v>612</v>
       </c>
+      <c r="IU48" s="7">
+        <v>668</v>
+      </c>
     </row>
-    <row r="49" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -36825,14 +36963,17 @@
       <c r="IR49" s="6">
         <v>4074</v>
       </c>
-      <c r="IS49" s="7">
+      <c r="IS49" s="6">
         <v>4059</v>
       </c>
-      <c r="IT49" s="7">
+      <c r="IT49" s="5">
         <v>3488</v>
       </c>
+      <c r="IU49" s="7">
+        <v>3538</v>
+      </c>
     </row>
-    <row r="50" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -37589,14 +37730,17 @@
       <c r="IR50" s="17">
         <v>543</v>
       </c>
-      <c r="IS50" s="7">
+      <c r="IS50" s="6">
         <v>541</v>
       </c>
-      <c r="IT50" s="7">
+      <c r="IT50" s="5">
         <v>537</v>
       </c>
+      <c r="IU50" s="7">
+        <v>532</v>
+      </c>
     </row>
-    <row r="51" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -38353,14 +38497,17 @@
       <c r="IR51" s="6">
         <v>2575</v>
       </c>
-      <c r="IS51" s="7">
+      <c r="IS51" s="6">
         <v>2549</v>
       </c>
-      <c r="IT51" s="7">
+      <c r="IT51" s="5">
         <v>2531</v>
       </c>
+      <c r="IU51" s="7">
+        <v>2541</v>
+      </c>
     </row>
-    <row r="52" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -39117,14 +39264,17 @@
       <c r="IR52" s="6">
         <v>1341</v>
       </c>
-      <c r="IS52" s="7">
+      <c r="IS52" s="6">
         <v>1320</v>
       </c>
-      <c r="IT52" s="7">
+      <c r="IT52" s="5">
         <v>1386</v>
       </c>
+      <c r="IU52" s="7">
+        <v>1369</v>
+      </c>
     </row>
-    <row r="53" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -39881,14 +40031,17 @@
       <c r="IR53" s="6">
         <v>1752</v>
       </c>
-      <c r="IS53" s="7">
+      <c r="IS53" s="6">
         <v>1735</v>
       </c>
-      <c r="IT53" s="7">
+      <c r="IT53" s="5">
         <v>1727</v>
       </c>
+      <c r="IU53" s="7">
+        <v>1748</v>
+      </c>
     </row>
-    <row r="54" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>48</v>
       </c>
@@ -40645,14 +40798,17 @@
       <c r="IR54" s="17">
         <v>58</v>
       </c>
-      <c r="IS54" s="7">
+      <c r="IS54" s="6">
         <v>60</v>
       </c>
-      <c r="IT54" s="7">
+      <c r="IT54" s="5">
         <v>57</v>
       </c>
+      <c r="IU54" s="7">
+        <v>56</v>
+      </c>
     </row>
-    <row r="55" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
@@ -41409,14 +41565,17 @@
       <c r="IR55" s="6">
         <v>8612</v>
       </c>
-      <c r="IS55" s="7">
+      <c r="IS55" s="6">
         <v>8259</v>
       </c>
-      <c r="IT55" s="7">
+      <c r="IT55" s="5">
         <v>8081</v>
       </c>
+      <c r="IU55" s="7">
+        <v>8120</v>
+      </c>
     </row>
-    <row r="56" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -42173,14 +42332,17 @@
       <c r="IR56" s="6">
         <v>1147</v>
       </c>
-      <c r="IS56" s="7">
+      <c r="IS56" s="6">
         <v>1157</v>
       </c>
-      <c r="IT56" s="7">
+      <c r="IT56" s="5">
         <v>1186</v>
       </c>
+      <c r="IU56" s="7">
+        <v>1228</v>
+      </c>
     </row>
-    <row r="57" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>51</v>
       </c>
@@ -42937,14 +43099,17 @@
       <c r="IR57" s="17">
         <v>92</v>
       </c>
-      <c r="IS57" s="7">
+      <c r="IS57" s="6">
         <v>87</v>
       </c>
-      <c r="IT57" s="7">
+      <c r="IT57" s="5">
         <v>86</v>
       </c>
+      <c r="IU57" s="7">
+        <v>84</v>
+      </c>
     </row>
-    <row r="58" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -43701,14 +43866,17 @@
       <c r="IR58" s="6">
         <v>5122</v>
       </c>
-      <c r="IS58" s="7">
+      <c r="IS58" s="6">
         <v>4995</v>
       </c>
-      <c r="IT58" s="7">
+      <c r="IT58" s="5">
         <v>5009</v>
       </c>
+      <c r="IU58" s="7">
+        <v>5120</v>
+      </c>
     </row>
-    <row r="59" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>53</v>
       </c>
@@ -44465,14 +44633,17 @@
       <c r="IR59" s="6">
         <v>2600</v>
       </c>
-      <c r="IS59" s="7">
+      <c r="IS59" s="6">
         <v>2377</v>
       </c>
-      <c r="IT59" s="7">
+      <c r="IT59" s="5">
         <v>2532</v>
       </c>
+      <c r="IU59" s="7">
+        <v>2452</v>
+      </c>
     </row>
-    <row r="60" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
@@ -45229,14 +45400,17 @@
       <c r="IR60" s="17">
         <v>95</v>
       </c>
-      <c r="IS60" s="7">
+      <c r="IS60" s="6">
         <v>93</v>
       </c>
-      <c r="IT60" s="7">
+      <c r="IT60" s="5">
         <v>93</v>
       </c>
+      <c r="IU60" s="7">
+        <v>96</v>
+      </c>
     </row>
-    <row r="61" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>55</v>
       </c>
@@ -45993,14 +46167,17 @@
       <c r="IR61" s="6">
         <v>34189</v>
       </c>
-      <c r="IS61" s="7">
+      <c r="IS61" s="6">
         <v>33688</v>
       </c>
-      <c r="IT61" s="7">
+      <c r="IT61" s="5">
         <v>33391</v>
       </c>
+      <c r="IU61" s="7">
+        <v>33454</v>
+      </c>
     </row>
-    <row r="62" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -46757,14 +46934,17 @@
       <c r="IR62" s="6">
         <v>1120</v>
       </c>
-      <c r="IS62" s="7">
+      <c r="IS62" s="6">
         <v>1033</v>
       </c>
-      <c r="IT62" s="7">
+      <c r="IT62" s="5">
         <v>986</v>
       </c>
+      <c r="IU62" s="7">
+        <v>990</v>
+      </c>
     </row>
-    <row r="63" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
@@ -47521,14 +47701,17 @@
       <c r="IR63" s="17">
         <v>568</v>
       </c>
-      <c r="IS63" s="7">
+      <c r="IS63" s="6">
         <v>561</v>
       </c>
-      <c r="IT63" s="7">
+      <c r="IT63" s="5">
         <v>569</v>
       </c>
+      <c r="IU63" s="7">
+        <v>571</v>
+      </c>
     </row>
-    <row r="64" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
@@ -48285,14 +48468,17 @@
       <c r="IR64" s="17">
         <v>954</v>
       </c>
-      <c r="IS64" s="7">
+      <c r="IS64" s="6">
         <v>964</v>
       </c>
-      <c r="IT64" s="7">
+      <c r="IT64" s="5">
         <v>895</v>
       </c>
+      <c r="IU64" s="7">
+        <v>890</v>
+      </c>
     </row>
-    <row r="65" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>59</v>
       </c>
@@ -49049,14 +49235,17 @@
       <c r="IR65" s="17">
         <v>50</v>
       </c>
-      <c r="IS65" s="7">
+      <c r="IS65" s="6">
         <v>52</v>
       </c>
-      <c r="IT65" s="7">
+      <c r="IT65" s="5">
         <v>54</v>
       </c>
+      <c r="IU65" s="7">
+        <v>53</v>
+      </c>
     </row>
-    <row r="66" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>60</v>
       </c>
@@ -49813,14 +50002,17 @@
       <c r="IR66" s="17">
         <v>183</v>
       </c>
-      <c r="IS66" s="7">
+      <c r="IS66" s="6">
         <v>183</v>
       </c>
-      <c r="IT66" s="7">
+      <c r="IT66" s="5">
         <v>184</v>
       </c>
+      <c r="IU66" s="7">
+        <v>187</v>
+      </c>
     </row>
-    <row r="67" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>61</v>
       </c>
@@ -50577,14 +50769,17 @@
       <c r="IR67" s="17">
         <v>29</v>
       </c>
-      <c r="IS67" s="7">
+      <c r="IS67" s="6">
         <v>29</v>
       </c>
-      <c r="IT67" s="7">
+      <c r="IT67" s="5">
         <v>21</v>
       </c>
+      <c r="IU67" s="7">
+        <v>20</v>
+      </c>
     </row>
-    <row r="68" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>62</v>
       </c>
@@ -51341,14 +51536,17 @@
       <c r="IR68" s="6">
         <v>21036</v>
       </c>
-      <c r="IS68" s="7">
+      <c r="IS68" s="6">
         <v>20854</v>
       </c>
-      <c r="IT68" s="7">
+      <c r="IT68" s="5">
         <v>20938</v>
       </c>
+      <c r="IU68" s="7">
+        <v>21160</v>
+      </c>
     </row>
-    <row r="69" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>63</v>
       </c>
@@ -52105,14 +52303,17 @@
       <c r="IR69" s="17">
         <v>540</v>
       </c>
-      <c r="IS69" s="7">
+      <c r="IS69" s="6">
         <v>526</v>
       </c>
-      <c r="IT69" s="7">
+      <c r="IT69" s="5">
         <v>475</v>
       </c>
+      <c r="IU69" s="7">
+        <v>473</v>
+      </c>
     </row>
-    <row r="70" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>64</v>
       </c>
@@ -52869,14 +53070,17 @@
       <c r="IR70" s="17">
         <v>450</v>
       </c>
-      <c r="IS70" s="7">
+      <c r="IS70" s="6">
         <v>445</v>
       </c>
-      <c r="IT70" s="7">
+      <c r="IT70" s="5">
         <v>465</v>
       </c>
+      <c r="IU70" s="7">
+        <v>473</v>
+      </c>
     </row>
-    <row r="71" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>65</v>
       </c>
@@ -53633,14 +53837,17 @@
       <c r="IR71" s="6">
         <v>4041</v>
       </c>
-      <c r="IS71" s="7">
+      <c r="IS71" s="6">
         <v>3917</v>
       </c>
-      <c r="IT71" s="7">
+      <c r="IT71" s="5">
         <v>3970</v>
       </c>
+      <c r="IU71" s="7">
+        <v>4001</v>
+      </c>
     </row>
-    <row r="72" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>66</v>
       </c>
@@ -54397,14 +54604,17 @@
       <c r="IR72" s="6">
         <v>69301</v>
       </c>
-      <c r="IS72" s="7">
+      <c r="IS72" s="6">
         <v>68359</v>
       </c>
-      <c r="IT72" s="7">
+      <c r="IT72" s="5">
         <v>67692</v>
       </c>
+      <c r="IU72" s="7">
+        <v>67004</v>
+      </c>
     </row>
-    <row r="73" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
@@ -55161,14 +55371,17 @@
       <c r="IR73" s="17">
         <v>70</v>
       </c>
-      <c r="IS73" s="7">
+      <c r="IS73" s="6">
         <v>22</v>
       </c>
-      <c r="IT73" s="7">
+      <c r="IT73" s="5">
         <v>22</v>
       </c>
+      <c r="IU73" s="7">
+        <v>15</v>
+      </c>
     </row>
-    <row r="74" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>68</v>
       </c>
@@ -55925,14 +56138,17 @@
       <c r="IR74" s="17">
         <v>27</v>
       </c>
-      <c r="IS74" s="7">
+      <c r="IS74" s="6">
         <v>26</v>
       </c>
-      <c r="IT74" s="7">
+      <c r="IT74" s="5">
         <v>35</v>
       </c>
+      <c r="IU74" s="7">
+        <v>38</v>
+      </c>
     </row>
-    <row r="75" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>69</v>
       </c>
@@ -56689,14 +56905,17 @@
       <c r="IR75" s="17">
         <v>83</v>
       </c>
-      <c r="IS75" s="7">
+      <c r="IS75" s="6">
         <v>83</v>
       </c>
-      <c r="IT75" s="7">
+      <c r="IT75" s="5">
         <v>84</v>
       </c>
+      <c r="IU75" s="7">
+        <v>85</v>
+      </c>
     </row>
-    <row r="76" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>70</v>
       </c>
@@ -57453,14 +57672,17 @@
       <c r="IR76" s="6">
         <v>4454</v>
       </c>
-      <c r="IS76" s="7">
+      <c r="IS76" s="6">
         <v>3860</v>
       </c>
-      <c r="IT76" s="7">
+      <c r="IT76" s="5">
         <v>4015</v>
       </c>
+      <c r="IU76" s="7">
+        <v>4002</v>
+      </c>
     </row>
-    <row r="77" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
@@ -58217,14 +58439,17 @@
       <c r="IR77" s="17">
         <v>670</v>
       </c>
-      <c r="IS77" s="7">
+      <c r="IS77" s="6">
         <v>663</v>
       </c>
-      <c r="IT77" s="7">
+      <c r="IT77" s="5">
         <v>663</v>
       </c>
+      <c r="IU77" s="7">
+        <v>662</v>
+      </c>
     </row>
-    <row r="78" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
@@ -58981,14 +59206,17 @@
       <c r="IR78" s="6">
         <v>14114</v>
       </c>
-      <c r="IS78" s="7">
+      <c r="IS78" s="6">
         <v>14048</v>
       </c>
-      <c r="IT78" s="7">
+      <c r="IT78" s="5">
         <v>14016</v>
       </c>
+      <c r="IU78" s="7">
+        <v>14129</v>
+      </c>
     </row>
-    <row r="79" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
@@ -59745,14 +59973,17 @@
       <c r="IR79" s="17">
         <v>130</v>
       </c>
-      <c r="IS79" s="7">
+      <c r="IS79" s="6">
         <v>124</v>
       </c>
-      <c r="IT79" s="7">
+      <c r="IT79" s="5">
         <v>130</v>
       </c>
+      <c r="IU79" s="7">
+        <v>148</v>
+      </c>
     </row>
-    <row r="80" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>74</v>
       </c>
@@ -60509,14 +60740,17 @@
       <c r="IR80" s="17">
         <v>809</v>
       </c>
-      <c r="IS80" s="7">
+      <c r="IS80" s="6">
         <v>820</v>
       </c>
-      <c r="IT80" s="7">
+      <c r="IT80" s="5">
         <v>825</v>
       </c>
+      <c r="IU80" s="7">
+        <v>823</v>
+      </c>
     </row>
-    <row r="81" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
@@ -61273,14 +61507,17 @@
       <c r="IR81" s="17">
         <v>31</v>
       </c>
-      <c r="IS81" s="7">
+      <c r="IS81" s="6">
         <v>31</v>
       </c>
-      <c r="IT81" s="7">
+      <c r="IT81" s="5">
         <v>29</v>
       </c>
+      <c r="IU81" s="7">
+        <v>80</v>
+      </c>
     </row>
-    <row r="82" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>76</v>
       </c>
@@ -62037,14 +62274,17 @@
       <c r="IR82" s="17">
         <v>347</v>
       </c>
-      <c r="IS82" s="7">
+      <c r="IS82" s="6">
         <v>339</v>
       </c>
-      <c r="IT82" s="7">
+      <c r="IT82" s="5">
         <v>340</v>
       </c>
+      <c r="IU82" s="7">
+        <v>93</v>
+      </c>
     </row>
-    <row r="83" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>77</v>
       </c>
@@ -62801,14 +63041,17 @@
       <c r="IR83" s="6">
         <v>1043</v>
       </c>
-      <c r="IS83" s="7">
+      <c r="IS83" s="6">
         <v>1034</v>
       </c>
-      <c r="IT83" s="7">
+      <c r="IT83" s="5">
         <v>1011</v>
       </c>
+      <c r="IU83" s="7">
+        <v>1024</v>
+      </c>
     </row>
-    <row r="84" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
@@ -63565,14 +63808,17 @@
       <c r="IR84" s="6">
         <v>3753</v>
       </c>
-      <c r="IS84" s="7">
+      <c r="IS84" s="6">
         <v>3723</v>
       </c>
-      <c r="IT84" s="7">
+      <c r="IT84" s="5">
         <v>3715</v>
       </c>
+      <c r="IU84" s="7">
+        <v>3724</v>
+      </c>
     </row>
-    <row r="85" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
@@ -64329,14 +64575,17 @@
       <c r="IR85" s="17">
         <v>104</v>
       </c>
-      <c r="IS85" s="7">
+      <c r="IS85" s="6">
         <v>107</v>
       </c>
-      <c r="IT85" s="7">
+      <c r="IT85" s="5">
         <v>119</v>
       </c>
+      <c r="IU85" s="7">
+        <v>118</v>
+      </c>
     </row>
-    <row r="86" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>80</v>
       </c>
@@ -65093,14 +65342,17 @@
       <c r="IR86" s="17">
         <v>1</v>
       </c>
-      <c r="IS86" s="7">
+      <c r="IS86" s="6">
         <v>1</v>
       </c>
-      <c r="IT86" s="7">
+      <c r="IT86" s="5">
         <v>1</v>
       </c>
+      <c r="IU86" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>81</v>
       </c>
@@ -65857,14 +66109,17 @@
       <c r="IR87" s="17">
         <v>1</v>
       </c>
-      <c r="IS87" s="7">
+      <c r="IS87" s="6">
         <v>1</v>
       </c>
-      <c r="IT87" s="7">
+      <c r="IT87" s="5">
         <v>1</v>
       </c>
+      <c r="IU87" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
@@ -66621,14 +66876,17 @@
       <c r="IR88" s="6">
         <v>4107</v>
       </c>
-      <c r="IS88" s="7">
+      <c r="IS88" s="6">
         <v>4014</v>
       </c>
-      <c r="IT88" s="7">
+      <c r="IT88" s="5">
         <v>4127</v>
       </c>
+      <c r="IU88" s="7">
+        <v>4374</v>
+      </c>
     </row>
-    <row r="89" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>83</v>
       </c>
@@ -67385,14 +67643,17 @@
       <c r="IR89" s="6">
         <v>14644</v>
       </c>
-      <c r="IS89" s="7">
+      <c r="IS89" s="6">
         <v>15301</v>
       </c>
-      <c r="IT89" s="7">
+      <c r="IT89" s="5">
         <v>15854</v>
       </c>
+      <c r="IU89" s="7">
+        <v>16011</v>
+      </c>
     </row>
-    <row r="90" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
@@ -68149,14 +68410,17 @@
       <c r="IR90" s="17">
         <v>419</v>
       </c>
-      <c r="IS90" s="7">
+      <c r="IS90" s="6">
         <v>424</v>
       </c>
-      <c r="IT90" s="7">
+      <c r="IT90" s="5">
         <v>412</v>
       </c>
+      <c r="IU90" s="7">
+        <v>404</v>
+      </c>
     </row>
-    <row r="91" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
@@ -68913,14 +69177,17 @@
       <c r="IR91" s="6">
         <v>7151</v>
       </c>
-      <c r="IS91" s="7">
+      <c r="IS91" s="6">
         <v>7434</v>
       </c>
-      <c r="IT91" s="7">
+      <c r="IT91" s="5">
         <v>7478</v>
       </c>
+      <c r="IU91" s="7">
+        <v>7494</v>
+      </c>
     </row>
-    <row r="92" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>86</v>
       </c>
@@ -69677,14 +69944,17 @@
       <c r="IR92" s="6">
         <v>2524</v>
       </c>
-      <c r="IS92" s="7">
+      <c r="IS92" s="6">
         <v>2425</v>
       </c>
-      <c r="IT92" s="7">
+      <c r="IT92" s="5">
         <v>2586</v>
       </c>
+      <c r="IU92" s="7">
+        <v>2565</v>
+      </c>
     </row>
-    <row r="93" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -70441,14 +70711,17 @@
       <c r="IR93" s="17">
         <v>723</v>
       </c>
-      <c r="IS93" s="7">
+      <c r="IS93" s="6">
         <v>715</v>
       </c>
-      <c r="IT93" s="7">
+      <c r="IT93" s="5">
         <v>712</v>
       </c>
+      <c r="IU93" s="7">
+        <v>715</v>
+      </c>
     </row>
-    <row r="94" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
@@ -71205,14 +71478,17 @@
       <c r="IR94" s="17">
         <v>47</v>
       </c>
-      <c r="IS94" s="7">
+      <c r="IS94" s="6">
         <v>48</v>
       </c>
-      <c r="IT94" s="7">
+      <c r="IT94" s="5">
         <v>62</v>
       </c>
+      <c r="IU94" s="7">
+        <v>64</v>
+      </c>
     </row>
-    <row r="95" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
@@ -71969,14 +72245,17 @@
       <c r="IR95" s="17">
         <v>931</v>
       </c>
-      <c r="IS95" s="7">
+      <c r="IS95" s="6">
         <v>934</v>
       </c>
-      <c r="IT95" s="7">
+      <c r="IT95" s="5">
         <v>939</v>
       </c>
+      <c r="IU95" s="7">
+        <v>946</v>
+      </c>
     </row>
-    <row r="96" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>90</v>
       </c>
@@ -72733,14 +73012,17 @@
       <c r="IR96" s="17">
         <v>112</v>
       </c>
-      <c r="IS96" s="7">
+      <c r="IS96" s="6">
         <v>113</v>
       </c>
-      <c r="IT96" s="7">
+      <c r="IT96" s="5">
         <v>113</v>
       </c>
+      <c r="IU96" s="7">
+        <v>114</v>
+      </c>
     </row>
-    <row r="97" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>91</v>
       </c>
@@ -73497,14 +73779,17 @@
       <c r="IR97" s="6">
         <v>1730</v>
       </c>
-      <c r="IS97" s="7">
+      <c r="IS97" s="6">
         <v>1719</v>
       </c>
-      <c r="IT97" s="7">
+      <c r="IT97" s="5">
         <v>1732</v>
       </c>
+      <c r="IU97" s="7">
+        <v>1724</v>
+      </c>
     </row>
-    <row r="98" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>92</v>
       </c>
@@ -74261,14 +74546,17 @@
       <c r="IR98" s="17">
         <v>566</v>
       </c>
-      <c r="IS98" s="7">
+      <c r="IS98" s="6">
         <v>531</v>
       </c>
-      <c r="IT98" s="7">
+      <c r="IT98" s="5">
         <v>534</v>
       </c>
+      <c r="IU98" s="7">
+        <v>563</v>
+      </c>
     </row>
-    <row r="99" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
@@ -75025,14 +75313,17 @@
       <c r="IR99" s="6">
         <v>36851</v>
       </c>
-      <c r="IS99" s="7">
+      <c r="IS99" s="6">
         <v>36514</v>
       </c>
-      <c r="IT99" s="7">
+      <c r="IT99" s="5">
         <v>36638</v>
       </c>
+      <c r="IU99" s="7">
+        <v>37142</v>
+      </c>
     </row>
-    <row r="100" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>94</v>
       </c>
@@ -75789,14 +76080,17 @@
       <c r="IR100" s="6">
         <v>6140</v>
       </c>
-      <c r="IS100" s="7">
+      <c r="IS100" s="6">
         <v>5844</v>
       </c>
-      <c r="IT100" s="7">
+      <c r="IT100" s="5">
         <v>5875</v>
       </c>
+      <c r="IU100" s="7">
+        <v>6023</v>
+      </c>
     </row>
-    <row r="101" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>95</v>
       </c>
@@ -76553,14 +76847,17 @@
       <c r="IR101" s="17">
         <v>544</v>
       </c>
-      <c r="IS101" s="7">
+      <c r="IS101" s="6">
         <v>586</v>
       </c>
-      <c r="IT101" s="7">
+      <c r="IT101" s="5">
         <v>742</v>
       </c>
+      <c r="IU101" s="7">
+        <v>927</v>
+      </c>
     </row>
-    <row r="102" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>96</v>
       </c>
@@ -77317,14 +77614,17 @@
       <c r="IR102" s="17">
         <v>543</v>
       </c>
-      <c r="IS102" s="7">
+      <c r="IS102" s="6">
         <v>538</v>
       </c>
-      <c r="IT102" s="7">
+      <c r="IT102" s="5">
         <v>544</v>
       </c>
+      <c r="IU102" s="7">
+        <v>537</v>
+      </c>
     </row>
-    <row r="103" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>97</v>
       </c>
@@ -78081,14 +78381,17 @@
       <c r="IR103" s="6">
         <v>87232</v>
       </c>
-      <c r="IS103" s="7">
+      <c r="IS103" s="6">
         <v>86998</v>
       </c>
-      <c r="IT103" s="7">
+      <c r="IT103" s="5">
         <v>88153</v>
       </c>
+      <c r="IU103" s="7">
+        <v>89437</v>
+      </c>
     </row>
-    <row r="104" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>98</v>
       </c>
@@ -78845,14 +79148,17 @@
       <c r="IR104" s="6">
         <v>114040</v>
       </c>
-      <c r="IS104" s="7">
+      <c r="IS104" s="6">
         <v>111170</v>
       </c>
-      <c r="IT104" s="7">
+      <c r="IT104" s="5">
         <v>113318</v>
       </c>
+      <c r="IU104" s="7">
+        <v>115406</v>
+      </c>
     </row>
-    <row r="105" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>99</v>
       </c>
@@ -79609,14 +79915,17 @@
       <c r="IR105" s="17">
         <v>956</v>
       </c>
-      <c r="IS105" s="7">
+      <c r="IS105" s="6">
         <v>958</v>
       </c>
-      <c r="IT105" s="7">
+      <c r="IT105" s="5">
         <v>950</v>
       </c>
+      <c r="IU105" s="7">
+        <v>980</v>
+      </c>
     </row>
-    <row r="106" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>100</v>
       </c>
@@ -80373,14 +80682,17 @@
       <c r="IR106" s="17">
         <v>991</v>
       </c>
-      <c r="IS106" s="7">
+      <c r="IS106" s="6">
         <v>927</v>
       </c>
-      <c r="IT106" s="7">
+      <c r="IT106" s="5">
         <v>917</v>
       </c>
+      <c r="IU106" s="7">
+        <v>960</v>
+      </c>
     </row>
-    <row r="107" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>101</v>
       </c>
@@ -81137,14 +81449,17 @@
       <c r="IR107" s="6">
         <v>30064</v>
       </c>
-      <c r="IS107" s="7">
+      <c r="IS107" s="6">
         <v>29922</v>
       </c>
-      <c r="IT107" s="7">
+      <c r="IT107" s="5">
         <v>29826</v>
       </c>
+      <c r="IU107" s="7">
+        <v>30192</v>
+      </c>
     </row>
-    <row r="108" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>102</v>
       </c>
@@ -81901,14 +82216,17 @@
       <c r="IR108" s="17">
         <v>956</v>
       </c>
-      <c r="IS108" s="7">
+      <c r="IS108" s="6">
         <v>943</v>
       </c>
-      <c r="IT108" s="7">
+      <c r="IT108" s="5">
         <v>951</v>
       </c>
+      <c r="IU108" s="7">
+        <v>972</v>
+      </c>
     </row>
-    <row r="109" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>103</v>
       </c>
@@ -82665,14 +82983,17 @@
       <c r="IR109" s="17">
         <v>449</v>
       </c>
-      <c r="IS109" s="7">
+      <c r="IS109" s="6">
         <v>447</v>
       </c>
-      <c r="IT109" s="7">
+      <c r="IT109" s="5">
         <v>425</v>
       </c>
+      <c r="IU109" s="7">
+        <v>440</v>
+      </c>
     </row>
-    <row r="110" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>104</v>
       </c>
@@ -83429,14 +83750,17 @@
       <c r="IR110" s="17">
         <v>52</v>
       </c>
-      <c r="IS110" s="7">
+      <c r="IS110" s="6">
         <v>49</v>
       </c>
-      <c r="IT110" s="7">
+      <c r="IT110" s="5">
         <v>49</v>
       </c>
+      <c r="IU110" s="7">
+        <v>48</v>
+      </c>
     </row>
-    <row r="111" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -84193,14 +84517,17 @@
       <c r="IR111" s="6">
         <v>1924</v>
       </c>
-      <c r="IS111" s="7">
+      <c r="IS111" s="6">
         <v>1917</v>
       </c>
-      <c r="IT111" s="7">
+      <c r="IT111" s="5">
         <v>1926</v>
       </c>
+      <c r="IU111" s="7">
+        <v>1923</v>
+      </c>
     </row>
-    <row r="112" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>106</v>
       </c>
@@ -84957,14 +85284,17 @@
       <c r="IR112" s="6">
         <v>3073</v>
       </c>
-      <c r="IS112" s="7">
+      <c r="IS112" s="6">
         <v>2826</v>
       </c>
-      <c r="IT112" s="7">
+      <c r="IT112" s="5">
         <v>2846</v>
       </c>
+      <c r="IU112" s="7">
+        <v>3012</v>
+      </c>
     </row>
-    <row r="113" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -85721,14 +86051,17 @@
       <c r="IR113" s="17">
         <v>363</v>
       </c>
-      <c r="IS113" s="7">
+      <c r="IS113" s="6">
         <v>367</v>
       </c>
-      <c r="IT113" s="7">
+      <c r="IT113" s="5">
         <v>356</v>
       </c>
+      <c r="IU113" s="7">
+        <v>338</v>
+      </c>
     </row>
-    <row r="114" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>108</v>
       </c>
@@ -86485,14 +86818,17 @@
       <c r="IR114" s="6">
         <v>3492</v>
       </c>
-      <c r="IS114" s="7">
+      <c r="IS114" s="6">
         <v>3449</v>
       </c>
-      <c r="IT114" s="7">
+      <c r="IT114" s="5">
         <v>3255</v>
       </c>
+      <c r="IU114" s="7">
+        <v>3199</v>
+      </c>
     </row>
-    <row r="115" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>109</v>
       </c>
@@ -87249,14 +87585,17 @@
       <c r="IR115" s="6">
         <v>1184</v>
       </c>
-      <c r="IS115" s="7">
+      <c r="IS115" s="6">
         <v>1169</v>
       </c>
-      <c r="IT115" s="7">
+      <c r="IT115" s="5">
         <v>1199</v>
       </c>
+      <c r="IU115" s="7">
+        <v>1355</v>
+      </c>
     </row>
-    <row r="116" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>110</v>
       </c>
@@ -88013,14 +88352,17 @@
       <c r="IR116" s="17">
         <v>555</v>
       </c>
-      <c r="IS116" s="7">
+      <c r="IS116" s="6">
         <v>564</v>
       </c>
-      <c r="IT116" s="7">
+      <c r="IT116" s="5">
         <v>572</v>
       </c>
+      <c r="IU116" s="7">
+        <v>608</v>
+      </c>
     </row>
-    <row r="117" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>111</v>
       </c>
@@ -88777,14 +89119,17 @@
       <c r="IR117" s="6">
         <v>2028</v>
       </c>
-      <c r="IS117" s="7">
+      <c r="IS117" s="6">
         <v>1972</v>
       </c>
-      <c r="IT117" s="7">
+      <c r="IT117" s="5">
         <v>1971</v>
       </c>
+      <c r="IU117" s="7">
+        <v>1974</v>
+      </c>
     </row>
-    <row r="118" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>112</v>
       </c>
@@ -89541,14 +89886,17 @@
       <c r="IR118" s="17">
         <v>450</v>
       </c>
-      <c r="IS118" s="7">
+      <c r="IS118" s="6">
         <v>428</v>
       </c>
-      <c r="IT118" s="7">
+      <c r="IT118" s="5">
         <v>360</v>
       </c>
+      <c r="IU118" s="7">
+        <v>387</v>
+      </c>
     </row>
-    <row r="119" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>113</v>
       </c>
@@ -90305,14 +90653,17 @@
       <c r="IR119" s="6">
         <v>1065</v>
       </c>
-      <c r="IS119" s="7">
+      <c r="IS119" s="6">
         <v>1029</v>
       </c>
-      <c r="IT119" s="7">
+      <c r="IT119" s="5">
         <v>1055</v>
       </c>
+      <c r="IU119" s="7">
+        <v>1068</v>
+      </c>
     </row>
-    <row r="120" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>114</v>
       </c>
@@ -91069,14 +91420,17 @@
       <c r="IR120" s="17">
         <v>41</v>
       </c>
-      <c r="IS120" s="7">
+      <c r="IS120" s="6">
         <v>41</v>
       </c>
-      <c r="IT120" s="7">
+      <c r="IT120" s="5">
         <v>41</v>
       </c>
+      <c r="IU120" s="7">
+        <v>41</v>
+      </c>
     </row>
-    <row r="121" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>115</v>
       </c>
@@ -91833,14 +92187,17 @@
       <c r="IR121" s="17">
         <v>664</v>
       </c>
-      <c r="IS121" s="7">
+      <c r="IS121" s="6">
         <v>670</v>
       </c>
-      <c r="IT121" s="7">
+      <c r="IT121" s="5">
         <v>652</v>
       </c>
+      <c r="IU121" s="7">
+        <v>639</v>
+      </c>
     </row>
-    <row r="122" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>116</v>
       </c>
@@ -92597,14 +92954,17 @@
       <c r="IR122" s="17">
         <v>167</v>
       </c>
-      <c r="IS122" s="7">
+      <c r="IS122" s="6">
         <v>160</v>
       </c>
-      <c r="IT122" s="7">
+      <c r="IT122" s="5">
         <v>144</v>
       </c>
+      <c r="IU122" s="7">
+        <v>136</v>
+      </c>
     </row>
-    <row r="123" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>117</v>
       </c>
@@ -93361,14 +93721,17 @@
       <c r="IR123" s="17">
         <v>646</v>
       </c>
-      <c r="IS123" s="7">
+      <c r="IS123" s="6">
         <v>631</v>
       </c>
-      <c r="IT123" s="7">
+      <c r="IT123" s="5">
         <v>668</v>
       </c>
+      <c r="IU123" s="7">
+        <v>671</v>
+      </c>
     </row>
-    <row r="124" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>118</v>
       </c>
@@ -94125,14 +94488,17 @@
       <c r="IR124" s="6">
         <v>2872</v>
       </c>
-      <c r="IS124" s="7">
+      <c r="IS124" s="6">
         <v>2821</v>
       </c>
-      <c r="IT124" s="7">
+      <c r="IT124" s="5">
         <v>2424</v>
       </c>
+      <c r="IU124" s="7">
+        <v>2854</v>
+      </c>
     </row>
-    <row r="125" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>119</v>
       </c>
@@ -94889,14 +95255,17 @@
       <c r="IR125" s="6">
         <v>397832</v>
       </c>
-      <c r="IS125" s="7">
+      <c r="IS125" s="6">
         <v>393255</v>
       </c>
-      <c r="IT125" s="7">
+      <c r="IT125" s="5">
         <v>396938</v>
       </c>
+      <c r="IU125" s="7">
+        <v>399380</v>
+      </c>
     </row>
-    <row r="126" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>120</v>
       </c>
@@ -95653,14 +96022,17 @@
       <c r="IR126" s="6">
         <v>7418</v>
       </c>
-      <c r="IS126" s="7">
+      <c r="IS126" s="6">
         <v>7135</v>
       </c>
-      <c r="IT126" s="7">
+      <c r="IT126" s="5">
         <v>7548</v>
       </c>
+      <c r="IU126" s="7">
+        <v>7457</v>
+      </c>
     </row>
-    <row r="127" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>121</v>
       </c>
@@ -96417,14 +96789,17 @@
       <c r="IR127" s="17">
         <v>43</v>
       </c>
-      <c r="IS127" s="7">
+      <c r="IS127" s="6">
         <v>43</v>
       </c>
-      <c r="IT127" s="7">
+      <c r="IT127" s="5">
         <v>44</v>
       </c>
+      <c r="IU127" s="7">
+        <v>45</v>
+      </c>
     </row>
-    <row r="128" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>122</v>
       </c>
@@ -97181,14 +97556,17 @@
       <c r="IR128" s="6">
         <v>2564</v>
       </c>
-      <c r="IS128" s="7">
+      <c r="IS128" s="6">
         <v>2543</v>
       </c>
-      <c r="IT128" s="7">
+      <c r="IT128" s="5">
         <v>2480</v>
       </c>
+      <c r="IU128" s="7">
+        <v>2454</v>
+      </c>
     </row>
-    <row r="129" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>123</v>
       </c>
@@ -97945,14 +98323,17 @@
       <c r="IR129" s="6">
         <v>35212</v>
       </c>
-      <c r="IS129" s="7">
+      <c r="IS129" s="6">
         <v>34212</v>
       </c>
-      <c r="IT129" s="7">
+      <c r="IT129" s="5">
         <v>34488</v>
       </c>
+      <c r="IU129" s="7">
+        <v>34240</v>
+      </c>
     </row>
-    <row r="130" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>124</v>
       </c>
@@ -98709,14 +99090,17 @@
       <c r="IR130" s="6">
         <v>6209</v>
       </c>
-      <c r="IS130" s="7">
+      <c r="IS130" s="6">
         <v>6148</v>
       </c>
-      <c r="IT130" s="7">
+      <c r="IT130" s="5">
         <v>6051</v>
       </c>
+      <c r="IU130" s="7">
+        <v>6028</v>
+      </c>
     </row>
-    <row r="131" spans="1:254" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:255" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="21" t="s">
         <v>127</v>
       </c>
@@ -99473,14 +99857,17 @@
       <c r="IR131" s="22">
         <v>1805269</v>
       </c>
-      <c r="IS131" s="24">
+      <c r="IS131" s="22">
         <v>1780367</v>
       </c>
-      <c r="IT131" s="24">
+      <c r="IT131" s="23">
         <v>1787122</v>
       </c>
+      <c r="IU131" s="24">
+        <v>1800733</v>
+      </c>
     </row>
-    <row r="132" spans="1:254" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:255" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="19"/>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
@@ -99728,7 +100115,7 @@
       <c r="IL132" s="19"/>
       <c r="IM132" s="19"/>
     </row>
-    <row r="133" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>126</v>
       </c>

--- a/Historicos/ta_municipios_jalisco.xlsx
+++ b/Historicos/ta_municipios_jalisco.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Documents\GitHub\SIE\Historicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96828C67-C11C-4548-A2A1-32EA128BEDB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="ta municipios" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="142">
   <si>
     <t>Acatic</t>
   </si>
@@ -471,7 +470,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -814,7 +813,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1076,6 +1075,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1121,7 +1131,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1172,7 +1182,13 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1180,9 +1196,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1318,23 +1331,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1370,23 +1366,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1562,139 +1541,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IU145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="33" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="33" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="38" max="45" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="45" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="11" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="50" max="57" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="57" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="11" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="62" max="69" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="69" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="11" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="74" max="81" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="81" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="11" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="86" max="93" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="93" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="11" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="98" max="105" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="98" max="105" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="11" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="110" max="117" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="110" max="117" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="11" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="122" max="129" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="129" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="132" max="132" width="11" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="134" max="141" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="141" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="144" max="144" width="11" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="146" max="153" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="146" max="153" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="156" max="156" width="11" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="158" max="165" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="158" max="165" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="168" max="168" width="11" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="170" max="177" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="170" max="177" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="180" max="180" width="11" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="182" max="189" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="182" max="189" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="192" max="192" width="11" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="194" max="201" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="194" max="201" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="204" max="204" width="11" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="206" max="213" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="206" max="213" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="216" max="216" width="11" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="218" max="225" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="218" max="225" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="11" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="230" max="237" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="230" max="237" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="240" max="240" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="10.1796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="242" max="249" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="10.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="242" max="249" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:255" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="8">
@@ -2456,12 +2435,15 @@
       <c r="IT4" s="25">
         <v>2021</v>
       </c>
-      <c r="IU4" s="27">
+      <c r="IU4" s="26">
         <v>2021</v>
       </c>
+      <c r="IV4" s="27">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:255" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
+    <row r="5" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
       <c r="B5" s="4" t="s">
         <v>129</v>
       </c>
@@ -3218,14 +3200,17 @@
       <c r="IS5" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="IT5" s="31" t="s">
+      <c r="IT5" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="IU5" s="28" t="s">
+      <c r="IU5" s="29" t="s">
         <v>130</v>
       </c>
+      <c r="IV5" s="30" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="6" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -3988,11 +3973,14 @@
       <c r="IT6" s="5">
         <v>4658</v>
       </c>
-      <c r="IU6" s="7">
+      <c r="IU6" s="6">
         <v>4653</v>
       </c>
+      <c r="IV6" s="7">
+        <v>4638</v>
+      </c>
     </row>
-    <row r="7" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -4755,11 +4743,14 @@
       <c r="IT7" s="5">
         <v>6495</v>
       </c>
-      <c r="IU7" s="7">
+      <c r="IU7" s="6">
         <v>6621</v>
       </c>
+      <c r="IV7" s="7">
+        <v>6786</v>
+      </c>
     </row>
-    <row r="8" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -5522,11 +5513,14 @@
       <c r="IT8" s="5">
         <v>1390</v>
       </c>
-      <c r="IU8" s="7">
+      <c r="IU8" s="6">
         <v>1709</v>
       </c>
+      <c r="IV8" s="7">
+        <v>1474</v>
+      </c>
     </row>
-    <row r="9" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -6289,11 +6283,14 @@
       <c r="IT9" s="5">
         <v>74</v>
       </c>
-      <c r="IU9" s="7">
+      <c r="IU9" s="6">
         <v>85</v>
       </c>
+      <c r="IV9" s="7">
+        <v>82</v>
+      </c>
     </row>
-    <row r="10" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -7056,11 +7053,14 @@
       <c r="IT10" s="5">
         <v>1726</v>
       </c>
-      <c r="IU10" s="7">
+      <c r="IU10" s="6">
         <v>1735</v>
       </c>
+      <c r="IV10" s="7">
+        <v>1794</v>
+      </c>
     </row>
-    <row r="11" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -7823,11 +7823,14 @@
       <c r="IT11" s="5">
         <v>6637</v>
       </c>
-      <c r="IU11" s="7">
+      <c r="IU11" s="6">
         <v>6829</v>
       </c>
+      <c r="IV11" s="7">
+        <v>6857</v>
+      </c>
     </row>
-    <row r="12" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -8590,11 +8593,14 @@
       <c r="IT12" s="5">
         <v>11665</v>
       </c>
-      <c r="IU12" s="7">
+      <c r="IU12" s="6">
         <v>12554</v>
       </c>
+      <c r="IV12" s="7">
+        <v>11943</v>
+      </c>
     </row>
-    <row r="13" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -9357,11 +9363,14 @@
       <c r="IT13" s="5">
         <v>58</v>
       </c>
-      <c r="IU13" s="7">
+      <c r="IU13" s="6">
         <v>69</v>
       </c>
+      <c r="IV13" s="7">
+        <v>71</v>
+      </c>
     </row>
-    <row r="14" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -10124,11 +10133,14 @@
       <c r="IT14" s="5">
         <v>18</v>
       </c>
-      <c r="IU14" s="7">
+      <c r="IU14" s="6">
         <v>18</v>
       </c>
+      <c r="IV14" s="7">
+        <v>18</v>
+      </c>
     </row>
-    <row r="15" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -10891,11 +10903,14 @@
       <c r="IT15" s="5">
         <v>90</v>
       </c>
-      <c r="IU15" s="7">
+      <c r="IU15" s="6">
         <v>88</v>
       </c>
+      <c r="IV15" s="7">
+        <v>86</v>
+      </c>
     </row>
-    <row r="16" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -11658,11 +11673,14 @@
       <c r="IT16" s="5">
         <v>9668</v>
       </c>
-      <c r="IU16" s="7">
+      <c r="IU16" s="6">
         <v>9766</v>
       </c>
+      <c r="IV16" s="7">
+        <v>9974</v>
+      </c>
     </row>
-    <row r="17" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -12425,11 +12443,14 @@
       <c r="IT17" s="5">
         <v>586</v>
       </c>
-      <c r="IU17" s="7">
+      <c r="IU17" s="6">
         <v>568</v>
       </c>
+      <c r="IV17" s="7">
+        <v>589</v>
+      </c>
     </row>
-    <row r="18" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -13192,11 +13213,14 @@
       <c r="IT18" s="5">
         <v>11240</v>
       </c>
-      <c r="IU18" s="7">
+      <c r="IU18" s="6">
         <v>11077</v>
       </c>
+      <c r="IV18" s="7">
+        <v>11133</v>
+      </c>
     </row>
-    <row r="19" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -13959,11 +13983,14 @@
       <c r="IT19" s="5">
         <v>3085</v>
       </c>
-      <c r="IU19" s="7">
+      <c r="IU19" s="6">
         <v>3172</v>
       </c>
+      <c r="IV19" s="7">
+        <v>3362</v>
+      </c>
     </row>
-    <row r="20" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -14726,11 +14753,14 @@
       <c r="IT20" s="5">
         <v>337</v>
       </c>
-      <c r="IU20" s="7">
+      <c r="IU20" s="6">
         <v>332</v>
       </c>
+      <c r="IV20" s="7">
+        <v>337</v>
+      </c>
     </row>
-    <row r="21" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -15493,11 +15523,14 @@
       <c r="IT21" s="5">
         <v>657</v>
       </c>
-      <c r="IU21" s="7">
+      <c r="IU21" s="6">
         <v>685</v>
       </c>
+      <c r="IV21" s="7">
+        <v>685</v>
+      </c>
     </row>
-    <row r="22" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -16260,11 +16293,14 @@
       <c r="IT22" s="5">
         <v>282</v>
       </c>
-      <c r="IU22" s="7">
+      <c r="IU22" s="6">
         <v>277</v>
       </c>
+      <c r="IV22" s="7">
+        <v>305</v>
+      </c>
     </row>
-    <row r="23" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -17027,11 +17063,14 @@
       <c r="IT23" s="5">
         <v>46</v>
       </c>
-      <c r="IU23" s="7">
+      <c r="IU23" s="6">
         <v>47</v>
       </c>
+      <c r="IV23" s="7">
+        <v>45</v>
+      </c>
     </row>
-    <row r="24" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -17794,11 +17833,14 @@
       <c r="IT24" s="5">
         <v>3403</v>
       </c>
-      <c r="IU24" s="7">
+      <c r="IU24" s="6">
         <v>3415</v>
       </c>
+      <c r="IV24" s="7">
+        <v>3390</v>
+      </c>
     </row>
-    <row r="25" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -18561,11 +18603,14 @@
       <c r="IT25" s="5">
         <v>5550</v>
       </c>
-      <c r="IU25" s="7">
+      <c r="IU25" s="6">
         <v>5463</v>
       </c>
+      <c r="IV25" s="7">
+        <v>5422</v>
+      </c>
     </row>
-    <row r="26" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -19328,11 +19373,14 @@
       <c r="IT26" s="5">
         <v>1</v>
       </c>
-      <c r="IU26" s="7">
+      <c r="IU26" s="6">
         <v>2</v>
       </c>
+      <c r="IV26" s="7">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -20095,11 +20143,14 @@
       <c r="IT27" s="5">
         <v>147</v>
       </c>
-      <c r="IU27" s="7">
+      <c r="IU27" s="6">
         <v>160</v>
       </c>
+      <c r="IV27" s="7">
+        <v>168</v>
+      </c>
     </row>
-    <row r="28" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -20862,11 +20913,14 @@
       <c r="IT28" s="5">
         <v>2171</v>
       </c>
-      <c r="IU28" s="7">
+      <c r="IU28" s="6">
         <v>2195</v>
       </c>
+      <c r="IV28" s="7">
+        <v>2225</v>
+      </c>
     </row>
-    <row r="29" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -21629,11 +21683,14 @@
       <c r="IT29" s="5">
         <v>2303</v>
       </c>
-      <c r="IU29" s="7">
+      <c r="IU29" s="6">
         <v>2320</v>
       </c>
+      <c r="IV29" s="7">
+        <v>2326</v>
+      </c>
     </row>
-    <row r="30" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -22396,11 +22453,14 @@
       <c r="IT30" s="5">
         <v>608</v>
       </c>
-      <c r="IU30" s="7">
+      <c r="IU30" s="6">
         <v>614</v>
       </c>
+      <c r="IV30" s="7">
+        <v>672</v>
+      </c>
     </row>
-    <row r="31" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
@@ -23163,11 +23223,14 @@
       <c r="IT31" s="5">
         <v>125</v>
       </c>
-      <c r="IU31" s="7">
+      <c r="IU31" s="6">
         <v>127</v>
       </c>
+      <c r="IV31" s="7">
+        <v>128</v>
+      </c>
     </row>
-    <row r="32" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
@@ -23930,11 +23993,14 @@
       <c r="IT32" s="5">
         <v>42</v>
       </c>
-      <c r="IU32" s="7">
+      <c r="IU32" s="6">
         <v>40</v>
       </c>
+      <c r="IV32" s="7">
+        <v>42</v>
+      </c>
     </row>
-    <row r="33" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -24697,11 +24763,14 @@
       <c r="IT33" s="5">
         <v>56</v>
       </c>
-      <c r="IU33" s="7">
+      <c r="IU33" s="6">
         <v>62</v>
       </c>
+      <c r="IV33" s="7">
+        <v>62</v>
+      </c>
     </row>
-    <row r="34" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -25464,11 +25533,14 @@
       <c r="IT34" s="5">
         <v>206</v>
       </c>
-      <c r="IU34" s="7">
+      <c r="IU34" s="6">
         <v>198</v>
       </c>
+      <c r="IV34" s="7">
+        <v>196</v>
+      </c>
     </row>
-    <row r="35" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -26231,11 +26303,14 @@
       <c r="IT35" s="5">
         <v>719</v>
       </c>
-      <c r="IU35" s="7">
+      <c r="IU35" s="6">
         <v>727</v>
       </c>
+      <c r="IV35" s="7">
+        <v>731</v>
+      </c>
     </row>
-    <row r="36" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -26998,11 +27073,14 @@
       <c r="IT36" s="5">
         <v>8</v>
       </c>
-      <c r="IU36" s="7">
+      <c r="IU36" s="6">
         <v>7</v>
       </c>
+      <c r="IV36" s="7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="37" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -27765,11 +27843,14 @@
       <c r="IT37" s="5">
         <v>2144</v>
       </c>
-      <c r="IU37" s="7">
+      <c r="IU37" s="6">
         <v>2234</v>
       </c>
+      <c r="IV37" s="7">
+        <v>2426</v>
+      </c>
     </row>
-    <row r="38" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -28532,11 +28613,14 @@
       <c r="IT38" s="5">
         <v>2510</v>
       </c>
-      <c r="IU38" s="7">
+      <c r="IU38" s="6">
         <v>2494</v>
       </c>
+      <c r="IV38" s="7">
+        <v>2477</v>
+      </c>
     </row>
-    <row r="39" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
@@ -29299,11 +29383,14 @@
       <c r="IT39" s="5">
         <v>162</v>
       </c>
-      <c r="IU39" s="7">
+      <c r="IU39" s="6">
         <v>163</v>
       </c>
+      <c r="IV39" s="7">
+        <v>157</v>
+      </c>
     </row>
-    <row r="40" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
@@ -30066,11 +30153,14 @@
       <c r="IT40" s="5">
         <v>51742</v>
       </c>
-      <c r="IU40" s="7">
+      <c r="IU40" s="6">
         <v>52101</v>
       </c>
+      <c r="IV40" s="7">
+        <v>52634</v>
+      </c>
     </row>
-    <row r="41" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -30833,11 +30923,14 @@
       <c r="IT41" s="5">
         <v>3216</v>
       </c>
-      <c r="IU41" s="7">
+      <c r="IU41" s="6">
         <v>3234</v>
       </c>
+      <c r="IV41" s="7">
+        <v>3233</v>
+      </c>
     </row>
-    <row r="42" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -31600,11 +31693,14 @@
       <c r="IT42" s="5">
         <v>709</v>
       </c>
-      <c r="IU42" s="7">
+      <c r="IU42" s="6">
         <v>707</v>
       </c>
+      <c r="IV42" s="7">
+        <v>694</v>
+      </c>
     </row>
-    <row r="43" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -32367,11 +32463,14 @@
       <c r="IT43" s="5">
         <v>1609</v>
       </c>
-      <c r="IU43" s="7">
+      <c r="IU43" s="6">
         <v>1506</v>
       </c>
+      <c r="IV43" s="7">
+        <v>1455</v>
+      </c>
     </row>
-    <row r="44" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -33134,11 +33233,14 @@
       <c r="IT44" s="5">
         <v>151</v>
       </c>
-      <c r="IU44" s="7">
+      <c r="IU44" s="6">
         <v>149</v>
       </c>
+      <c r="IV44" s="7">
+        <v>152</v>
+      </c>
     </row>
-    <row r="45" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -33901,11 +34003,14 @@
       <c r="IT45" s="5">
         <v>690583</v>
       </c>
-      <c r="IU45" s="7">
+      <c r="IU45" s="6">
         <v>694592</v>
       </c>
+      <c r="IV45" s="7">
+        <v>695004</v>
+      </c>
     </row>
-    <row r="46" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
@@ -34668,11 +34773,14 @@
       <c r="IT46" s="5">
         <v>203</v>
       </c>
-      <c r="IU46" s="7">
+      <c r="IU46" s="6">
         <v>205</v>
       </c>
+      <c r="IV46" s="7">
+        <v>195</v>
+      </c>
     </row>
-    <row r="47" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
@@ -35435,11 +35543,14 @@
       <c r="IT47" s="5">
         <v>116</v>
       </c>
-      <c r="IU47" s="7">
+      <c r="IU47" s="6">
         <v>116</v>
       </c>
+      <c r="IV47" s="7">
+        <v>97</v>
+      </c>
     </row>
-    <row r="48" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -36202,11 +36313,14 @@
       <c r="IT48" s="5">
         <v>612</v>
       </c>
-      <c r="IU48" s="7">
+      <c r="IU48" s="6">
         <v>668</v>
       </c>
+      <c r="IV48" s="7">
+        <v>734</v>
+      </c>
     </row>
-    <row r="49" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -36969,11 +37083,14 @@
       <c r="IT49" s="5">
         <v>3488</v>
       </c>
-      <c r="IU49" s="7">
+      <c r="IU49" s="6">
         <v>3538</v>
       </c>
+      <c r="IV49" s="7">
+        <v>3790</v>
+      </c>
     </row>
-    <row r="50" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -37736,11 +37853,14 @@
       <c r="IT50" s="5">
         <v>537</v>
       </c>
-      <c r="IU50" s="7">
+      <c r="IU50" s="6">
         <v>532</v>
       </c>
+      <c r="IV50" s="7">
+        <v>534</v>
+      </c>
     </row>
-    <row r="51" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -38503,11 +38623,14 @@
       <c r="IT51" s="5">
         <v>2531</v>
       </c>
-      <c r="IU51" s="7">
+      <c r="IU51" s="6">
         <v>2541</v>
       </c>
+      <c r="IV51" s="7">
+        <v>2556</v>
+      </c>
     </row>
-    <row r="52" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -39270,11 +39393,14 @@
       <c r="IT52" s="5">
         <v>1386</v>
       </c>
-      <c r="IU52" s="7">
+      <c r="IU52" s="6">
         <v>1369</v>
       </c>
+      <c r="IV52" s="7">
+        <v>1356</v>
+      </c>
     </row>
-    <row r="53" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -40037,11 +40163,14 @@
       <c r="IT53" s="5">
         <v>1727</v>
       </c>
-      <c r="IU53" s="7">
+      <c r="IU53" s="6">
         <v>1748</v>
       </c>
+      <c r="IV53" s="7">
+        <v>1720</v>
+      </c>
     </row>
-    <row r="54" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>48</v>
       </c>
@@ -40804,11 +40933,14 @@
       <c r="IT54" s="5">
         <v>57</v>
       </c>
-      <c r="IU54" s="7">
+      <c r="IU54" s="6">
         <v>56</v>
       </c>
+      <c r="IV54" s="7">
+        <v>57</v>
+      </c>
     </row>
-    <row r="55" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
@@ -41571,11 +41703,14 @@
       <c r="IT55" s="5">
         <v>8081</v>
       </c>
-      <c r="IU55" s="7">
+      <c r="IU55" s="6">
         <v>8120</v>
       </c>
+      <c r="IV55" s="7">
+        <v>8200</v>
+      </c>
     </row>
-    <row r="56" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -42338,11 +42473,14 @@
       <c r="IT56" s="5">
         <v>1186</v>
       </c>
-      <c r="IU56" s="7">
+      <c r="IU56" s="6">
         <v>1228</v>
       </c>
+      <c r="IV56" s="7">
+        <v>1322</v>
+      </c>
     </row>
-    <row r="57" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>51</v>
       </c>
@@ -43105,11 +43243,14 @@
       <c r="IT57" s="5">
         <v>86</v>
       </c>
-      <c r="IU57" s="7">
+      <c r="IU57" s="6">
         <v>84</v>
       </c>
+      <c r="IV57" s="7">
+        <v>82</v>
+      </c>
     </row>
-    <row r="58" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -43872,11 +44013,14 @@
       <c r="IT58" s="5">
         <v>5009</v>
       </c>
-      <c r="IU58" s="7">
+      <c r="IU58" s="6">
         <v>5120</v>
       </c>
+      <c r="IV58" s="7">
+        <v>5173</v>
+      </c>
     </row>
-    <row r="59" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>53</v>
       </c>
@@ -44639,11 +44783,14 @@
       <c r="IT59" s="5">
         <v>2532</v>
       </c>
-      <c r="IU59" s="7">
+      <c r="IU59" s="6">
         <v>2452</v>
       </c>
+      <c r="IV59" s="7">
+        <v>2402</v>
+      </c>
     </row>
-    <row r="60" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
@@ -45406,11 +45553,14 @@
       <c r="IT60" s="5">
         <v>93</v>
       </c>
-      <c r="IU60" s="7">
+      <c r="IU60" s="6">
         <v>96</v>
       </c>
+      <c r="IV60" s="7">
+        <v>98</v>
+      </c>
     </row>
-    <row r="61" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>55</v>
       </c>
@@ -46173,11 +46323,14 @@
       <c r="IT61" s="5">
         <v>33391</v>
       </c>
-      <c r="IU61" s="7">
+      <c r="IU61" s="6">
         <v>33454</v>
       </c>
+      <c r="IV61" s="7">
+        <v>33733</v>
+      </c>
     </row>
-    <row r="62" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -46940,11 +47093,14 @@
       <c r="IT62" s="5">
         <v>986</v>
       </c>
-      <c r="IU62" s="7">
+      <c r="IU62" s="6">
         <v>990</v>
       </c>
+      <c r="IV62" s="7">
+        <v>1038</v>
+      </c>
     </row>
-    <row r="63" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
@@ -47707,11 +47863,14 @@
       <c r="IT63" s="5">
         <v>569</v>
       </c>
-      <c r="IU63" s="7">
+      <c r="IU63" s="6">
         <v>571</v>
       </c>
+      <c r="IV63" s="7">
+        <v>581</v>
+      </c>
     </row>
-    <row r="64" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
@@ -48474,11 +48633,14 @@
       <c r="IT64" s="5">
         <v>895</v>
       </c>
-      <c r="IU64" s="7">
+      <c r="IU64" s="6">
         <v>890</v>
       </c>
+      <c r="IV64" s="7">
+        <v>945</v>
+      </c>
     </row>
-    <row r="65" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>59</v>
       </c>
@@ -49241,11 +49403,14 @@
       <c r="IT65" s="5">
         <v>54</v>
       </c>
-      <c r="IU65" s="7">
+      <c r="IU65" s="6">
         <v>53</v>
       </c>
+      <c r="IV65" s="7">
+        <v>12</v>
+      </c>
     </row>
-    <row r="66" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>60</v>
       </c>
@@ -50008,11 +50173,14 @@
       <c r="IT66" s="5">
         <v>184</v>
       </c>
-      <c r="IU66" s="7">
+      <c r="IU66" s="6">
         <v>187</v>
       </c>
+      <c r="IV66" s="7">
+        <v>161</v>
+      </c>
     </row>
-    <row r="67" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>61</v>
       </c>
@@ -50775,11 +50943,14 @@
       <c r="IT67" s="5">
         <v>21</v>
       </c>
-      <c r="IU67" s="7">
+      <c r="IU67" s="6">
         <v>20</v>
       </c>
+      <c r="IV67" s="7">
+        <v>20</v>
+      </c>
     </row>
-    <row r="68" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>62</v>
       </c>
@@ -51542,11 +51713,14 @@
       <c r="IT68" s="5">
         <v>20938</v>
       </c>
-      <c r="IU68" s="7">
+      <c r="IU68" s="6">
         <v>21160</v>
       </c>
+      <c r="IV68" s="7">
+        <v>21093</v>
+      </c>
     </row>
-    <row r="69" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>63</v>
       </c>
@@ -52309,11 +52483,14 @@
       <c r="IT69" s="5">
         <v>475</v>
       </c>
-      <c r="IU69" s="7">
+      <c r="IU69" s="6">
         <v>473</v>
       </c>
+      <c r="IV69" s="7">
+        <v>454</v>
+      </c>
     </row>
-    <row r="70" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>64</v>
       </c>
@@ -53076,11 +53253,14 @@
       <c r="IT70" s="5">
         <v>465</v>
       </c>
-      <c r="IU70" s="7">
+      <c r="IU70" s="6">
         <v>473</v>
       </c>
+      <c r="IV70" s="7">
+        <v>492</v>
+      </c>
     </row>
-    <row r="71" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>65</v>
       </c>
@@ -53843,11 +54023,14 @@
       <c r="IT71" s="5">
         <v>3970</v>
       </c>
-      <c r="IU71" s="7">
+      <c r="IU71" s="6">
         <v>4001</v>
       </c>
+      <c r="IV71" s="7">
+        <v>4018</v>
+      </c>
     </row>
-    <row r="72" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>66</v>
       </c>
@@ -54610,11 +54793,14 @@
       <c r="IT72" s="5">
         <v>67692</v>
       </c>
-      <c r="IU72" s="7">
+      <c r="IU72" s="6">
         <v>67004</v>
       </c>
+      <c r="IV72" s="7">
+        <v>68412</v>
+      </c>
     </row>
-    <row r="73" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
@@ -55377,11 +55563,14 @@
       <c r="IT73" s="5">
         <v>22</v>
       </c>
-      <c r="IU73" s="7">
+      <c r="IU73" s="6">
         <v>15</v>
       </c>
+      <c r="IV73" s="7">
+        <v>14</v>
+      </c>
     </row>
-    <row r="74" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>68</v>
       </c>
@@ -56144,11 +56333,14 @@
       <c r="IT74" s="5">
         <v>35</v>
       </c>
-      <c r="IU74" s="7">
+      <c r="IU74" s="6">
         <v>38</v>
       </c>
+      <c r="IV74" s="7">
+        <v>39</v>
+      </c>
     </row>
-    <row r="75" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>69</v>
       </c>
@@ -56911,11 +57103,14 @@
       <c r="IT75" s="5">
         <v>84</v>
       </c>
-      <c r="IU75" s="7">
+      <c r="IU75" s="6">
         <v>85</v>
       </c>
+      <c r="IV75" s="7">
+        <v>81</v>
+      </c>
     </row>
-    <row r="76" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>70</v>
       </c>
@@ -57678,11 +57873,14 @@
       <c r="IT76" s="5">
         <v>4015</v>
       </c>
-      <c r="IU76" s="7">
+      <c r="IU76" s="6">
         <v>4002</v>
       </c>
+      <c r="IV76" s="7">
+        <v>3257</v>
+      </c>
     </row>
-    <row r="77" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
@@ -58445,11 +58643,14 @@
       <c r="IT77" s="5">
         <v>663</v>
       </c>
-      <c r="IU77" s="7">
+      <c r="IU77" s="6">
         <v>662</v>
       </c>
+      <c r="IV77" s="7">
+        <v>686</v>
+      </c>
     </row>
-    <row r="78" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
@@ -59212,11 +59413,14 @@
       <c r="IT78" s="5">
         <v>14016</v>
       </c>
-      <c r="IU78" s="7">
+      <c r="IU78" s="6">
         <v>14129</v>
       </c>
+      <c r="IV78" s="7">
+        <v>14212</v>
+      </c>
     </row>
-    <row r="79" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
@@ -59979,11 +60183,14 @@
       <c r="IT79" s="5">
         <v>130</v>
       </c>
-      <c r="IU79" s="7">
+      <c r="IU79" s="6">
         <v>148</v>
       </c>
+      <c r="IV79" s="7">
+        <v>156</v>
+      </c>
     </row>
-    <row r="80" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>74</v>
       </c>
@@ -60746,11 +60953,14 @@
       <c r="IT80" s="5">
         <v>825</v>
       </c>
-      <c r="IU80" s="7">
+      <c r="IU80" s="6">
         <v>823</v>
       </c>
+      <c r="IV80" s="7">
+        <v>833</v>
+      </c>
     </row>
-    <row r="81" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
@@ -61513,11 +61723,14 @@
       <c r="IT81" s="5">
         <v>29</v>
       </c>
-      <c r="IU81" s="7">
+      <c r="IU81" s="6">
         <v>80</v>
       </c>
+      <c r="IV81" s="7">
+        <v>79</v>
+      </c>
     </row>
-    <row r="82" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>76</v>
       </c>
@@ -62280,11 +62493,14 @@
       <c r="IT82" s="5">
         <v>340</v>
       </c>
-      <c r="IU82" s="7">
+      <c r="IU82" s="6">
         <v>93</v>
       </c>
+      <c r="IV82" s="7">
+        <v>105</v>
+      </c>
     </row>
-    <row r="83" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>77</v>
       </c>
@@ -63047,11 +63263,14 @@
       <c r="IT83" s="5">
         <v>1011</v>
       </c>
-      <c r="IU83" s="7">
+      <c r="IU83" s="6">
         <v>1024</v>
       </c>
+      <c r="IV83" s="7">
+        <v>1041</v>
+      </c>
     </row>
-    <row r="84" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
@@ -63814,11 +64033,14 @@
       <c r="IT84" s="5">
         <v>3715</v>
       </c>
-      <c r="IU84" s="7">
+      <c r="IU84" s="6">
         <v>3724</v>
       </c>
+      <c r="IV84" s="7">
+        <v>3723</v>
+      </c>
     </row>
-    <row r="85" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
@@ -64581,11 +64803,14 @@
       <c r="IT85" s="5">
         <v>119</v>
       </c>
-      <c r="IU85" s="7">
+      <c r="IU85" s="6">
         <v>118</v>
       </c>
+      <c r="IV85" s="7">
+        <v>118</v>
+      </c>
     </row>
-    <row r="86" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>80</v>
       </c>
@@ -65348,11 +65573,14 @@
       <c r="IT86" s="5">
         <v>1</v>
       </c>
-      <c r="IU86" s="7">
+      <c r="IU86" s="6">
         <v>1</v>
       </c>
+      <c r="IV86" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>81</v>
       </c>
@@ -66115,11 +66343,14 @@
       <c r="IT87" s="5">
         <v>1</v>
       </c>
-      <c r="IU87" s="7">
+      <c r="IU87" s="6">
         <v>0</v>
       </c>
+      <c r="IV87" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
@@ -66882,11 +67113,14 @@
       <c r="IT88" s="5">
         <v>4127</v>
       </c>
-      <c r="IU88" s="7">
+      <c r="IU88" s="6">
         <v>4374</v>
       </c>
+      <c r="IV88" s="7">
+        <v>4548</v>
+      </c>
     </row>
-    <row r="89" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>83</v>
       </c>
@@ -67649,11 +67883,14 @@
       <c r="IT89" s="5">
         <v>15854</v>
       </c>
-      <c r="IU89" s="7">
+      <c r="IU89" s="6">
         <v>16011</v>
       </c>
+      <c r="IV89" s="7">
+        <v>16318</v>
+      </c>
     </row>
-    <row r="90" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
@@ -68416,11 +68653,14 @@
       <c r="IT90" s="5">
         <v>412</v>
       </c>
-      <c r="IU90" s="7">
+      <c r="IU90" s="6">
         <v>404</v>
       </c>
+      <c r="IV90" s="7">
+        <v>409</v>
+      </c>
     </row>
-    <row r="91" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
@@ -69183,11 +69423,14 @@
       <c r="IT91" s="5">
         <v>7478</v>
       </c>
-      <c r="IU91" s="7">
+      <c r="IU91" s="6">
         <v>7494</v>
       </c>
+      <c r="IV91" s="7">
+        <v>7341</v>
+      </c>
     </row>
-    <row r="92" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>86</v>
       </c>
@@ -69950,11 +70193,14 @@
       <c r="IT92" s="5">
         <v>2586</v>
       </c>
-      <c r="IU92" s="7">
+      <c r="IU92" s="6">
         <v>2565</v>
       </c>
+      <c r="IV92" s="7">
+        <v>2494</v>
+      </c>
     </row>
-    <row r="93" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -70717,11 +70963,14 @@
       <c r="IT93" s="5">
         <v>712</v>
       </c>
-      <c r="IU93" s="7">
+      <c r="IU93" s="6">
         <v>715</v>
       </c>
+      <c r="IV93" s="7">
+        <v>703</v>
+      </c>
     </row>
-    <row r="94" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
@@ -71484,11 +71733,14 @@
       <c r="IT94" s="5">
         <v>62</v>
       </c>
-      <c r="IU94" s="7">
+      <c r="IU94" s="6">
         <v>64</v>
       </c>
+      <c r="IV94" s="7">
+        <v>65</v>
+      </c>
     </row>
-    <row r="95" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
@@ -72251,11 +72503,14 @@
       <c r="IT95" s="5">
         <v>939</v>
       </c>
-      <c r="IU95" s="7">
+      <c r="IU95" s="6">
         <v>946</v>
       </c>
+      <c r="IV95" s="7">
+        <v>953</v>
+      </c>
     </row>
-    <row r="96" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>90</v>
       </c>
@@ -73018,11 +73273,14 @@
       <c r="IT96" s="5">
         <v>113</v>
       </c>
-      <c r="IU96" s="7">
+      <c r="IU96" s="6">
         <v>114</v>
       </c>
+      <c r="IV96" s="7">
+        <v>116</v>
+      </c>
     </row>
-    <row r="97" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>91</v>
       </c>
@@ -73785,11 +74043,14 @@
       <c r="IT97" s="5">
         <v>1732</v>
       </c>
-      <c r="IU97" s="7">
+      <c r="IU97" s="6">
         <v>1724</v>
       </c>
+      <c r="IV97" s="7">
+        <v>1696</v>
+      </c>
     </row>
-    <row r="98" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>92</v>
       </c>
@@ -74552,11 +74813,14 @@
       <c r="IT98" s="5">
         <v>534</v>
       </c>
-      <c r="IU98" s="7">
+      <c r="IU98" s="6">
         <v>563</v>
       </c>
+      <c r="IV98" s="7">
+        <v>493</v>
+      </c>
     </row>
-    <row r="99" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
@@ -75319,11 +75583,14 @@
       <c r="IT99" s="5">
         <v>36638</v>
       </c>
-      <c r="IU99" s="7">
+      <c r="IU99" s="6">
         <v>37142</v>
       </c>
+      <c r="IV99" s="7">
+        <v>37440</v>
+      </c>
     </row>
-    <row r="100" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>94</v>
       </c>
@@ -76086,11 +76353,14 @@
       <c r="IT100" s="5">
         <v>5875</v>
       </c>
-      <c r="IU100" s="7">
+      <c r="IU100" s="6">
         <v>6023</v>
       </c>
+      <c r="IV100" s="7">
+        <v>6112</v>
+      </c>
     </row>
-    <row r="101" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>95</v>
       </c>
@@ -76853,11 +77123,14 @@
       <c r="IT101" s="5">
         <v>742</v>
       </c>
-      <c r="IU101" s="7">
+      <c r="IU101" s="6">
         <v>927</v>
       </c>
+      <c r="IV101" s="7">
+        <v>909</v>
+      </c>
     </row>
-    <row r="102" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>96</v>
       </c>
@@ -77620,11 +77893,14 @@
       <c r="IT102" s="5">
         <v>544</v>
       </c>
-      <c r="IU102" s="7">
+      <c r="IU102" s="6">
         <v>537</v>
       </c>
+      <c r="IV102" s="7">
+        <v>539</v>
+      </c>
     </row>
-    <row r="103" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>97</v>
       </c>
@@ -78387,11 +78663,14 @@
       <c r="IT103" s="5">
         <v>88153</v>
       </c>
-      <c r="IU103" s="7">
+      <c r="IU103" s="6">
         <v>89437</v>
       </c>
+      <c r="IV103" s="7">
+        <v>89704</v>
+      </c>
     </row>
-    <row r="104" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>98</v>
       </c>
@@ -79154,11 +79433,14 @@
       <c r="IT104" s="5">
         <v>113318</v>
       </c>
-      <c r="IU104" s="7">
+      <c r="IU104" s="6">
         <v>115406</v>
       </c>
+      <c r="IV104" s="7">
+        <v>115900</v>
+      </c>
     </row>
-    <row r="105" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>99</v>
       </c>
@@ -79921,11 +80203,14 @@
       <c r="IT105" s="5">
         <v>950</v>
       </c>
-      <c r="IU105" s="7">
+      <c r="IU105" s="6">
         <v>980</v>
       </c>
+      <c r="IV105" s="7">
+        <v>921</v>
+      </c>
     </row>
-    <row r="106" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>100</v>
       </c>
@@ -80688,11 +80973,14 @@
       <c r="IT106" s="5">
         <v>917</v>
       </c>
-      <c r="IU106" s="7">
+      <c r="IU106" s="6">
         <v>960</v>
       </c>
+      <c r="IV106" s="7">
+        <v>985</v>
+      </c>
     </row>
-    <row r="107" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>101</v>
       </c>
@@ -81455,11 +81743,14 @@
       <c r="IT107" s="5">
         <v>29826</v>
       </c>
-      <c r="IU107" s="7">
+      <c r="IU107" s="6">
         <v>30192</v>
       </c>
+      <c r="IV107" s="7">
+        <v>30354</v>
+      </c>
     </row>
-    <row r="108" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>102</v>
       </c>
@@ -82222,11 +82513,14 @@
       <c r="IT108" s="5">
         <v>951</v>
       </c>
-      <c r="IU108" s="7">
+      <c r="IU108" s="6">
         <v>972</v>
       </c>
+      <c r="IV108" s="7">
+        <v>1011</v>
+      </c>
     </row>
-    <row r="109" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>103</v>
       </c>
@@ -82989,11 +83283,14 @@
       <c r="IT109" s="5">
         <v>425</v>
       </c>
-      <c r="IU109" s="7">
+      <c r="IU109" s="6">
         <v>440</v>
       </c>
+      <c r="IV109" s="7">
+        <v>448</v>
+      </c>
     </row>
-    <row r="110" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>104</v>
       </c>
@@ -83756,11 +84053,14 @@
       <c r="IT110" s="5">
         <v>49</v>
       </c>
-      <c r="IU110" s="7">
+      <c r="IU110" s="6">
         <v>48</v>
       </c>
+      <c r="IV110" s="7">
+        <v>49</v>
+      </c>
     </row>
-    <row r="111" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -84523,11 +84823,14 @@
       <c r="IT111" s="5">
         <v>1926</v>
       </c>
-      <c r="IU111" s="7">
+      <c r="IU111" s="6">
         <v>1923</v>
       </c>
+      <c r="IV111" s="7">
+        <v>1949</v>
+      </c>
     </row>
-    <row r="112" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>106</v>
       </c>
@@ -85290,11 +85593,14 @@
       <c r="IT112" s="5">
         <v>2846</v>
       </c>
-      <c r="IU112" s="7">
+      <c r="IU112" s="6">
         <v>3012</v>
       </c>
+      <c r="IV112" s="7">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="113" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -86057,11 +86363,14 @@
       <c r="IT113" s="5">
         <v>356</v>
       </c>
-      <c r="IU113" s="7">
+      <c r="IU113" s="6">
         <v>338</v>
       </c>
+      <c r="IV113" s="7">
+        <v>342</v>
+      </c>
     </row>
-    <row r="114" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>108</v>
       </c>
@@ -86824,11 +87133,14 @@
       <c r="IT114" s="5">
         <v>3255</v>
       </c>
-      <c r="IU114" s="7">
+      <c r="IU114" s="6">
         <v>3199</v>
       </c>
+      <c r="IV114" s="7">
+        <v>3161</v>
+      </c>
     </row>
-    <row r="115" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>109</v>
       </c>
@@ -87591,11 +87903,14 @@
       <c r="IT115" s="5">
         <v>1199</v>
       </c>
-      <c r="IU115" s="7">
+      <c r="IU115" s="6">
         <v>1355</v>
       </c>
+      <c r="IV115" s="7">
+        <v>1311</v>
+      </c>
     </row>
-    <row r="116" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>110</v>
       </c>
@@ -88358,11 +88673,14 @@
       <c r="IT116" s="5">
         <v>572</v>
       </c>
-      <c r="IU116" s="7">
+      <c r="IU116" s="6">
         <v>608</v>
       </c>
+      <c r="IV116" s="7">
+        <v>585</v>
+      </c>
     </row>
-    <row r="117" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>111</v>
       </c>
@@ -89125,11 +89443,14 @@
       <c r="IT117" s="5">
         <v>1971</v>
       </c>
-      <c r="IU117" s="7">
+      <c r="IU117" s="6">
         <v>1974</v>
       </c>
+      <c r="IV117" s="7">
+        <v>2002</v>
+      </c>
     </row>
-    <row r="118" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>112</v>
       </c>
@@ -89892,11 +90213,14 @@
       <c r="IT118" s="5">
         <v>360</v>
       </c>
-      <c r="IU118" s="7">
+      <c r="IU118" s="6">
         <v>387</v>
       </c>
+      <c r="IV118" s="7">
+        <v>428</v>
+      </c>
     </row>
-    <row r="119" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>113</v>
       </c>
@@ -90659,11 +90983,14 @@
       <c r="IT119" s="5">
         <v>1055</v>
       </c>
-      <c r="IU119" s="7">
+      <c r="IU119" s="6">
         <v>1068</v>
       </c>
+      <c r="IV119" s="7">
+        <v>1071</v>
+      </c>
     </row>
-    <row r="120" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>114</v>
       </c>
@@ -91426,11 +91753,14 @@
       <c r="IT120" s="5">
         <v>41</v>
       </c>
-      <c r="IU120" s="7">
+      <c r="IU120" s="6">
         <v>41</v>
       </c>
+      <c r="IV120" s="7">
+        <v>42</v>
+      </c>
     </row>
-    <row r="121" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>115</v>
       </c>
@@ -92193,11 +92523,14 @@
       <c r="IT121" s="5">
         <v>652</v>
       </c>
-      <c r="IU121" s="7">
+      <c r="IU121" s="6">
         <v>639</v>
       </c>
+      <c r="IV121" s="7">
+        <v>647</v>
+      </c>
     </row>
-    <row r="122" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>116</v>
       </c>
@@ -92960,11 +93293,14 @@
       <c r="IT122" s="5">
         <v>144</v>
       </c>
-      <c r="IU122" s="7">
+      <c r="IU122" s="6">
         <v>136</v>
       </c>
+      <c r="IV122" s="7">
+        <v>139</v>
+      </c>
     </row>
-    <row r="123" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>117</v>
       </c>
@@ -93727,11 +94063,14 @@
       <c r="IT123" s="5">
         <v>668</v>
       </c>
-      <c r="IU123" s="7">
+      <c r="IU123" s="6">
         <v>671</v>
       </c>
+      <c r="IV123" s="7">
+        <v>649</v>
+      </c>
     </row>
-    <row r="124" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>118</v>
       </c>
@@ -94494,11 +94833,14 @@
       <c r="IT124" s="5">
         <v>2424</v>
       </c>
-      <c r="IU124" s="7">
+      <c r="IU124" s="6">
         <v>2854</v>
       </c>
+      <c r="IV124" s="7">
+        <v>1707</v>
+      </c>
     </row>
-    <row r="125" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>119</v>
       </c>
@@ -95261,11 +95603,14 @@
       <c r="IT125" s="5">
         <v>396938</v>
       </c>
-      <c r="IU125" s="7">
+      <c r="IU125" s="6">
         <v>399380</v>
       </c>
+      <c r="IV125" s="7">
+        <v>399307</v>
+      </c>
     </row>
-    <row r="126" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>120</v>
       </c>
@@ -96028,11 +96373,14 @@
       <c r="IT126" s="5">
         <v>7548</v>
       </c>
-      <c r="IU126" s="7">
+      <c r="IU126" s="6">
         <v>7457</v>
       </c>
+      <c r="IV126" s="7">
+        <v>7384</v>
+      </c>
     </row>
-    <row r="127" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>121</v>
       </c>
@@ -96795,11 +97143,14 @@
       <c r="IT127" s="5">
         <v>44</v>
       </c>
-      <c r="IU127" s="7">
+      <c r="IU127" s="6">
         <v>45</v>
       </c>
+      <c r="IV127" s="7">
+        <v>45</v>
+      </c>
     </row>
-    <row r="128" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>122</v>
       </c>
@@ -97562,11 +97913,14 @@
       <c r="IT128" s="5">
         <v>2480</v>
       </c>
-      <c r="IU128" s="7">
+      <c r="IU128" s="6">
         <v>2454</v>
       </c>
+      <c r="IV128" s="7">
+        <v>2433</v>
+      </c>
     </row>
-    <row r="129" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>123</v>
       </c>
@@ -98329,11 +98683,14 @@
       <c r="IT129" s="5">
         <v>34488</v>
       </c>
-      <c r="IU129" s="7">
+      <c r="IU129" s="6">
         <v>34240</v>
       </c>
+      <c r="IV129" s="7">
+        <v>34287</v>
+      </c>
     </row>
-    <row r="130" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>124</v>
       </c>
@@ -99096,11 +99453,14 @@
       <c r="IT130" s="5">
         <v>6051</v>
       </c>
-      <c r="IU130" s="7">
+      <c r="IU130" s="6">
         <v>6028</v>
       </c>
+      <c r="IV130" s="7">
+        <v>6021</v>
+      </c>
     </row>
-    <row r="131" spans="1:255" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
         <v>127</v>
       </c>
@@ -99863,11 +100223,14 @@
       <c r="IT131" s="23">
         <v>1787122</v>
       </c>
-      <c r="IU131" s="24">
+      <c r="IU131" s="22">
         <v>1800733</v>
       </c>
+      <c r="IV131" s="24">
+        <v>1803619</v>
+      </c>
     </row>
-    <row r="132" spans="1:255" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:256" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="19"/>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
@@ -100115,12 +100478,12 @@
       <c r="IL132" s="19"/>
       <c r="IM132" s="19"/>
     </row>
-    <row r="133" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="18"/>
     </row>
   </sheetData>

--- a/Historicos/ta_municipios_jalisco.xlsx
+++ b/Historicos/ta_municipios_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="142">
   <si>
     <t>Acatic</t>
   </si>
@@ -471,7 +471,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,6 +606,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1087,7 +1092,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1130,6 +1135,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1198,7 +1206,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1233,6 +1241,7 @@
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1542,11 +1551,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV145"/>
+  <dimension ref="A1:IW145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,17 +1671,17 @@
     <col min="252" max="252" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>125</v>
       </c>
@@ -2438,11 +2447,14 @@
       <c r="IU4" s="26">
         <v>2021</v>
       </c>
-      <c r="IV4" s="27">
+      <c r="IV4" s="26">
         <v>2021</v>
       </c>
+      <c r="IW4" s="27">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="4" t="s">
         <v>129</v>
@@ -3206,11 +3218,14 @@
       <c r="IU5" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="IV5" s="30" t="s">
+      <c r="IV5" s="29" t="s">
         <v>131</v>
       </c>
+      <c r="IW5" s="30" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="6" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -3976,11 +3991,14 @@
       <c r="IU6" s="6">
         <v>4653</v>
       </c>
-      <c r="IV6" s="7">
+      <c r="IV6" s="6">
         <v>4638</v>
       </c>
+      <c r="IW6" s="7">
+        <v>4607</v>
+      </c>
     </row>
-    <row r="7" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -4746,11 +4764,14 @@
       <c r="IU7" s="6">
         <v>6621</v>
       </c>
-      <c r="IV7" s="7">
+      <c r="IV7" s="6">
         <v>6786</v>
       </c>
+      <c r="IW7" s="7">
+        <v>6308</v>
+      </c>
     </row>
-    <row r="8" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -5516,11 +5537,14 @@
       <c r="IU8" s="6">
         <v>1709</v>
       </c>
-      <c r="IV8" s="7">
+      <c r="IV8" s="6">
         <v>1474</v>
       </c>
+      <c r="IW8" s="7">
+        <v>1463</v>
+      </c>
     </row>
-    <row r="9" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -6286,11 +6310,14 @@
       <c r="IU9" s="6">
         <v>85</v>
       </c>
-      <c r="IV9" s="7">
+      <c r="IV9" s="6">
         <v>82</v>
       </c>
+      <c r="IW9" s="7">
+        <v>83</v>
+      </c>
     </row>
-    <row r="10" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -7056,11 +7083,14 @@
       <c r="IU10" s="6">
         <v>1735</v>
       </c>
-      <c r="IV10" s="7">
+      <c r="IV10" s="6">
         <v>1794</v>
       </c>
+      <c r="IW10" s="7">
+        <v>1817</v>
+      </c>
     </row>
-    <row r="11" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -7826,11 +7856,14 @@
       <c r="IU11" s="6">
         <v>6829</v>
       </c>
-      <c r="IV11" s="7">
+      <c r="IV11" s="6">
         <v>6857</v>
       </c>
+      <c r="IW11" s="7">
+        <v>6901</v>
+      </c>
     </row>
-    <row r="12" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -8596,11 +8629,14 @@
       <c r="IU12" s="6">
         <v>12554</v>
       </c>
-      <c r="IV12" s="7">
+      <c r="IV12" s="6">
         <v>11943</v>
       </c>
+      <c r="IW12" s="7">
+        <v>11847</v>
+      </c>
     </row>
-    <row r="13" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -9366,11 +9402,14 @@
       <c r="IU13" s="6">
         <v>69</v>
       </c>
-      <c r="IV13" s="7">
+      <c r="IV13" s="6">
         <v>71</v>
       </c>
+      <c r="IW13" s="7">
+        <v>65</v>
+      </c>
     </row>
-    <row r="14" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -10136,11 +10175,14 @@
       <c r="IU14" s="6">
         <v>18</v>
       </c>
-      <c r="IV14" s="7">
+      <c r="IV14" s="6">
         <v>18</v>
       </c>
+      <c r="IW14" s="7">
+        <v>19</v>
+      </c>
     </row>
-    <row r="15" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -10906,11 +10948,14 @@
       <c r="IU15" s="6">
         <v>88</v>
       </c>
-      <c r="IV15" s="7">
+      <c r="IV15" s="6">
         <v>86</v>
       </c>
+      <c r="IW15" s="7">
+        <v>91</v>
+      </c>
     </row>
-    <row r="16" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -11676,11 +11721,14 @@
       <c r="IU16" s="6">
         <v>9766</v>
       </c>
-      <c r="IV16" s="7">
+      <c r="IV16" s="6">
         <v>9974</v>
       </c>
+      <c r="IW16" s="7">
+        <v>9993</v>
+      </c>
     </row>
-    <row r="17" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -12446,11 +12494,14 @@
       <c r="IU17" s="6">
         <v>568</v>
       </c>
-      <c r="IV17" s="7">
+      <c r="IV17" s="6">
         <v>589</v>
       </c>
+      <c r="IW17" s="7">
+        <v>615</v>
+      </c>
     </row>
-    <row r="18" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -13216,11 +13267,14 @@
       <c r="IU18" s="6">
         <v>11077</v>
       </c>
-      <c r="IV18" s="7">
+      <c r="IV18" s="6">
         <v>11133</v>
       </c>
+      <c r="IW18" s="7">
+        <v>11248</v>
+      </c>
     </row>
-    <row r="19" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -13986,11 +14040,14 @@
       <c r="IU19" s="6">
         <v>3172</v>
       </c>
-      <c r="IV19" s="7">
+      <c r="IV19" s="6">
         <v>3362</v>
       </c>
+      <c r="IW19" s="7">
+        <v>3432</v>
+      </c>
     </row>
-    <row r="20" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -14756,11 +14813,14 @@
       <c r="IU20" s="6">
         <v>332</v>
       </c>
-      <c r="IV20" s="7">
+      <c r="IV20" s="6">
         <v>337</v>
       </c>
+      <c r="IW20" s="7">
+        <v>341</v>
+      </c>
     </row>
-    <row r="21" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -15526,11 +15586,14 @@
       <c r="IU21" s="6">
         <v>685</v>
       </c>
-      <c r="IV21" s="7">
+      <c r="IV21" s="6">
         <v>685</v>
       </c>
+      <c r="IW21" s="7">
+        <v>662</v>
+      </c>
     </row>
-    <row r="22" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -16296,11 +16359,14 @@
       <c r="IU22" s="6">
         <v>277</v>
       </c>
-      <c r="IV22" s="7">
+      <c r="IV22" s="6">
         <v>305</v>
       </c>
+      <c r="IW22" s="7">
+        <v>333</v>
+      </c>
     </row>
-    <row r="23" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -17066,11 +17132,14 @@
       <c r="IU23" s="6">
         <v>47</v>
       </c>
-      <c r="IV23" s="7">
+      <c r="IV23" s="6">
         <v>45</v>
       </c>
+      <c r="IW23" s="7">
+        <v>47</v>
+      </c>
     </row>
-    <row r="24" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -17836,11 +17905,14 @@
       <c r="IU24" s="6">
         <v>3415</v>
       </c>
-      <c r="IV24" s="7">
+      <c r="IV24" s="6">
         <v>3390</v>
       </c>
+      <c r="IW24" s="7">
+        <v>3420</v>
+      </c>
     </row>
-    <row r="25" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -18606,11 +18678,14 @@
       <c r="IU25" s="6">
         <v>5463</v>
       </c>
-      <c r="IV25" s="7">
+      <c r="IV25" s="6">
         <v>5422</v>
       </c>
+      <c r="IW25" s="7">
+        <v>5459</v>
+      </c>
     </row>
-    <row r="26" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -19376,11 +19451,14 @@
       <c r="IU26" s="6">
         <v>2</v>
       </c>
-      <c r="IV26" s="7">
+      <c r="IV26" s="6">
         <v>3</v>
       </c>
+      <c r="IW26" s="7">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -20146,11 +20224,14 @@
       <c r="IU27" s="6">
         <v>160</v>
       </c>
-      <c r="IV27" s="7">
+      <c r="IV27" s="6">
         <v>168</v>
       </c>
+      <c r="IW27" s="7">
+        <v>162</v>
+      </c>
     </row>
-    <row r="28" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -20916,11 +20997,14 @@
       <c r="IU28" s="6">
         <v>2195</v>
       </c>
-      <c r="IV28" s="7">
+      <c r="IV28" s="6">
         <v>2225</v>
       </c>
+      <c r="IW28" s="7">
+        <v>2272</v>
+      </c>
     </row>
-    <row r="29" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -21686,11 +21770,14 @@
       <c r="IU29" s="6">
         <v>2320</v>
       </c>
-      <c r="IV29" s="7">
+      <c r="IV29" s="6">
         <v>2326</v>
       </c>
+      <c r="IW29" s="7">
+        <v>2319</v>
+      </c>
     </row>
-    <row r="30" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -22456,11 +22543,14 @@
       <c r="IU30" s="6">
         <v>614</v>
       </c>
-      <c r="IV30" s="7">
+      <c r="IV30" s="6">
         <v>672</v>
       </c>
+      <c r="IW30" s="7">
+        <v>681</v>
+      </c>
     </row>
-    <row r="31" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
@@ -23226,11 +23316,14 @@
       <c r="IU31" s="6">
         <v>127</v>
       </c>
-      <c r="IV31" s="7">
+      <c r="IV31" s="6">
         <v>128</v>
       </c>
+      <c r="IW31" s="7">
+        <v>135</v>
+      </c>
     </row>
-    <row r="32" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
@@ -23996,11 +24089,14 @@
       <c r="IU32" s="6">
         <v>40</v>
       </c>
-      <c r="IV32" s="7">
+      <c r="IV32" s="6">
         <v>42</v>
       </c>
+      <c r="IW32" s="7">
+        <v>43</v>
+      </c>
     </row>
-    <row r="33" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -24766,11 +24862,14 @@
       <c r="IU33" s="6">
         <v>62</v>
       </c>
-      <c r="IV33" s="7">
+      <c r="IV33" s="6">
         <v>62</v>
       </c>
+      <c r="IW33" s="7">
+        <v>61</v>
+      </c>
     </row>
-    <row r="34" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -25536,11 +25635,14 @@
       <c r="IU34" s="6">
         <v>198</v>
       </c>
-      <c r="IV34" s="7">
+      <c r="IV34" s="6">
         <v>196</v>
       </c>
+      <c r="IW34" s="7">
+        <v>197</v>
+      </c>
     </row>
-    <row r="35" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -26306,11 +26408,14 @@
       <c r="IU35" s="6">
         <v>727</v>
       </c>
-      <c r="IV35" s="7">
+      <c r="IV35" s="6">
         <v>731</v>
       </c>
+      <c r="IW35" s="7">
+        <v>730</v>
+      </c>
     </row>
-    <row r="36" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -27076,11 +27181,14 @@
       <c r="IU36" s="6">
         <v>7</v>
       </c>
-      <c r="IV36" s="7">
+      <c r="IV36" s="6">
         <v>5</v>
       </c>
+      <c r="IW36" s="7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="37" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -27846,11 +27954,14 @@
       <c r="IU37" s="6">
         <v>2234</v>
       </c>
-      <c r="IV37" s="7">
+      <c r="IV37" s="6">
         <v>2426</v>
       </c>
+      <c r="IW37" s="7">
+        <v>2539</v>
+      </c>
     </row>
-    <row r="38" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -28616,11 +28727,14 @@
       <c r="IU38" s="6">
         <v>2494</v>
       </c>
-      <c r="IV38" s="7">
+      <c r="IV38" s="6">
         <v>2477</v>
       </c>
+      <c r="IW38" s="7">
+        <v>2468</v>
+      </c>
     </row>
-    <row r="39" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
@@ -29386,11 +29500,14 @@
       <c r="IU39" s="6">
         <v>163</v>
       </c>
-      <c r="IV39" s="7">
+      <c r="IV39" s="6">
         <v>157</v>
       </c>
+      <c r="IW39" s="7">
+        <v>159</v>
+      </c>
     </row>
-    <row r="40" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
@@ -30156,11 +30273,14 @@
       <c r="IU40" s="6">
         <v>52101</v>
       </c>
-      <c r="IV40" s="7">
+      <c r="IV40" s="6">
         <v>52634</v>
       </c>
+      <c r="IW40" s="7">
+        <v>53471</v>
+      </c>
     </row>
-    <row r="41" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -30926,11 +31046,14 @@
       <c r="IU41" s="6">
         <v>3234</v>
       </c>
-      <c r="IV41" s="7">
+      <c r="IV41" s="6">
         <v>3233</v>
       </c>
+      <c r="IW41" s="7">
+        <v>3266</v>
+      </c>
     </row>
-    <row r="42" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -31696,11 +31819,14 @@
       <c r="IU42" s="6">
         <v>707</v>
       </c>
-      <c r="IV42" s="7">
+      <c r="IV42" s="6">
         <v>694</v>
       </c>
+      <c r="IW42" s="7">
+        <v>684</v>
+      </c>
     </row>
-    <row r="43" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -32466,11 +32592,14 @@
       <c r="IU43" s="6">
         <v>1506</v>
       </c>
-      <c r="IV43" s="7">
+      <c r="IV43" s="6">
         <v>1455</v>
       </c>
+      <c r="IW43" s="7">
+        <v>1511</v>
+      </c>
     </row>
-    <row r="44" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -33236,11 +33365,14 @@
       <c r="IU44" s="6">
         <v>149</v>
       </c>
-      <c r="IV44" s="7">
+      <c r="IV44" s="6">
         <v>152</v>
       </c>
+      <c r="IW44" s="7">
+        <v>153</v>
+      </c>
     </row>
-    <row r="45" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -34006,11 +34138,14 @@
       <c r="IU45" s="6">
         <v>694592</v>
       </c>
-      <c r="IV45" s="7">
+      <c r="IV45" s="6">
         <v>695004</v>
       </c>
+      <c r="IW45" s="7">
+        <v>695470</v>
+      </c>
     </row>
-    <row r="46" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
@@ -34776,11 +34911,14 @@
       <c r="IU46" s="6">
         <v>205</v>
       </c>
-      <c r="IV46" s="7">
+      <c r="IV46" s="6">
         <v>195</v>
       </c>
+      <c r="IW46" s="7">
+        <v>191</v>
+      </c>
     </row>
-    <row r="47" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
@@ -35546,11 +35684,14 @@
       <c r="IU47" s="6">
         <v>116</v>
       </c>
-      <c r="IV47" s="7">
+      <c r="IV47" s="6">
         <v>97</v>
       </c>
+      <c r="IW47" s="7">
+        <v>94</v>
+      </c>
     </row>
-    <row r="48" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -36316,11 +36457,14 @@
       <c r="IU48" s="6">
         <v>668</v>
       </c>
-      <c r="IV48" s="7">
+      <c r="IV48" s="6">
         <v>734</v>
       </c>
+      <c r="IW48" s="7">
+        <v>799</v>
+      </c>
     </row>
-    <row r="49" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -37086,11 +37230,14 @@
       <c r="IU49" s="6">
         <v>3538</v>
       </c>
-      <c r="IV49" s="7">
+      <c r="IV49" s="6">
         <v>3790</v>
       </c>
+      <c r="IW49" s="7">
+        <v>3864</v>
+      </c>
     </row>
-    <row r="50" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -37856,11 +38003,14 @@
       <c r="IU50" s="6">
         <v>532</v>
       </c>
-      <c r="IV50" s="7">
+      <c r="IV50" s="6">
         <v>534</v>
       </c>
+      <c r="IW50" s="7">
+        <v>532</v>
+      </c>
     </row>
-    <row r="51" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -38626,11 +38776,14 @@
       <c r="IU51" s="6">
         <v>2541</v>
       </c>
-      <c r="IV51" s="7">
+      <c r="IV51" s="6">
         <v>2556</v>
       </c>
+      <c r="IW51" s="7">
+        <v>2602</v>
+      </c>
     </row>
-    <row r="52" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -39396,11 +39549,14 @@
       <c r="IU52" s="6">
         <v>1369</v>
       </c>
-      <c r="IV52" s="7">
+      <c r="IV52" s="6">
         <v>1356</v>
       </c>
+      <c r="IW52" s="7">
+        <v>1369</v>
+      </c>
     </row>
-    <row r="53" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -40166,11 +40322,14 @@
       <c r="IU53" s="6">
         <v>1748</v>
       </c>
-      <c r="IV53" s="7">
+      <c r="IV53" s="6">
         <v>1720</v>
       </c>
+      <c r="IW53" s="7">
+        <v>1722</v>
+      </c>
     </row>
-    <row r="54" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>48</v>
       </c>
@@ -40936,11 +41095,14 @@
       <c r="IU54" s="6">
         <v>56</v>
       </c>
-      <c r="IV54" s="7">
+      <c r="IV54" s="6">
         <v>57</v>
       </c>
+      <c r="IW54" s="7">
+        <v>58</v>
+      </c>
     </row>
-    <row r="55" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
@@ -41706,11 +41868,14 @@
       <c r="IU55" s="6">
         <v>8120</v>
       </c>
-      <c r="IV55" s="7">
+      <c r="IV55" s="6">
         <v>8200</v>
       </c>
+      <c r="IW55" s="7">
+        <v>8212</v>
+      </c>
     </row>
-    <row r="56" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -42476,11 +42641,14 @@
       <c r="IU56" s="6">
         <v>1228</v>
       </c>
-      <c r="IV56" s="7">
+      <c r="IV56" s="6">
         <v>1322</v>
       </c>
+      <c r="IW56" s="7">
+        <v>1316</v>
+      </c>
     </row>
-    <row r="57" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>51</v>
       </c>
@@ -43246,11 +43414,14 @@
       <c r="IU57" s="6">
         <v>84</v>
       </c>
-      <c r="IV57" s="7">
+      <c r="IV57" s="6">
         <v>82</v>
       </c>
+      <c r="IW57" s="7">
+        <v>84</v>
+      </c>
     </row>
-    <row r="58" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -44016,11 +44187,14 @@
       <c r="IU58" s="6">
         <v>5120</v>
       </c>
-      <c r="IV58" s="7">
+      <c r="IV58" s="6">
         <v>5173</v>
       </c>
+      <c r="IW58" s="7">
+        <v>5226</v>
+      </c>
     </row>
-    <row r="59" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>53</v>
       </c>
@@ -44786,11 +44960,14 @@
       <c r="IU59" s="6">
         <v>2452</v>
       </c>
-      <c r="IV59" s="7">
+      <c r="IV59" s="6">
         <v>2402</v>
       </c>
+      <c r="IW59" s="7">
+        <v>2349</v>
+      </c>
     </row>
-    <row r="60" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
@@ -45556,11 +45733,14 @@
       <c r="IU60" s="6">
         <v>96</v>
       </c>
-      <c r="IV60" s="7">
+      <c r="IV60" s="6">
         <v>98</v>
       </c>
+      <c r="IW60" s="7">
+        <v>104</v>
+      </c>
     </row>
-    <row r="61" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>55</v>
       </c>
@@ -46326,11 +46506,14 @@
       <c r="IU61" s="6">
         <v>33454</v>
       </c>
-      <c r="IV61" s="7">
+      <c r="IV61" s="6">
         <v>33733</v>
       </c>
+      <c r="IW61" s="7">
+        <v>33523</v>
+      </c>
     </row>
-    <row r="62" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -47096,11 +47279,14 @@
       <c r="IU62" s="6">
         <v>990</v>
       </c>
-      <c r="IV62" s="7">
+      <c r="IV62" s="6">
         <v>1038</v>
       </c>
+      <c r="IW62" s="7">
+        <v>1051</v>
+      </c>
     </row>
-    <row r="63" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
@@ -47866,11 +48052,14 @@
       <c r="IU63" s="6">
         <v>571</v>
       </c>
-      <c r="IV63" s="7">
+      <c r="IV63" s="6">
         <v>581</v>
       </c>
+      <c r="IW63" s="7">
+        <v>606</v>
+      </c>
     </row>
-    <row r="64" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
@@ -48636,11 +48825,14 @@
       <c r="IU64" s="6">
         <v>890</v>
       </c>
-      <c r="IV64" s="7">
+      <c r="IV64" s="6">
         <v>945</v>
       </c>
+      <c r="IW64" s="7">
+        <v>994</v>
+      </c>
     </row>
-    <row r="65" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>59</v>
       </c>
@@ -49406,11 +49598,14 @@
       <c r="IU65" s="6">
         <v>53</v>
       </c>
-      <c r="IV65" s="7">
+      <c r="IV65" s="6">
         <v>12</v>
       </c>
+      <c r="IW65" s="7">
+        <v>12</v>
+      </c>
     </row>
-    <row r="66" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>60</v>
       </c>
@@ -50176,11 +50371,14 @@
       <c r="IU66" s="6">
         <v>187</v>
       </c>
-      <c r="IV66" s="7">
+      <c r="IV66" s="6">
         <v>161</v>
       </c>
+      <c r="IW66" s="7">
+        <v>167</v>
+      </c>
     </row>
-    <row r="67" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>61</v>
       </c>
@@ -50946,11 +51144,14 @@
       <c r="IU67" s="6">
         <v>20</v>
       </c>
-      <c r="IV67" s="7">
+      <c r="IV67" s="6">
         <v>20</v>
       </c>
+      <c r="IW67" s="7">
+        <v>27</v>
+      </c>
     </row>
-    <row r="68" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>62</v>
       </c>
@@ -51716,11 +51917,14 @@
       <c r="IU68" s="6">
         <v>21160</v>
       </c>
-      <c r="IV68" s="7">
+      <c r="IV68" s="6">
         <v>21093</v>
       </c>
+      <c r="IW68" s="7">
+        <v>21391</v>
+      </c>
     </row>
-    <row r="69" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>63</v>
       </c>
@@ -52486,11 +52690,14 @@
       <c r="IU69" s="6">
         <v>473</v>
       </c>
-      <c r="IV69" s="7">
+      <c r="IV69" s="6">
         <v>454</v>
       </c>
+      <c r="IW69" s="7">
+        <v>461</v>
+      </c>
     </row>
-    <row r="70" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>64</v>
       </c>
@@ -53256,11 +53463,14 @@
       <c r="IU70" s="6">
         <v>473</v>
       </c>
-      <c r="IV70" s="7">
+      <c r="IV70" s="6">
         <v>492</v>
       </c>
+      <c r="IW70" s="7">
+        <v>508</v>
+      </c>
     </row>
-    <row r="71" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>65</v>
       </c>
@@ -54026,11 +54236,14 @@
       <c r="IU71" s="6">
         <v>4001</v>
       </c>
-      <c r="IV71" s="7">
+      <c r="IV71" s="6">
         <v>4018</v>
       </c>
+      <c r="IW71" s="7">
+        <v>4071</v>
+      </c>
     </row>
-    <row r="72" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>66</v>
       </c>
@@ -54796,11 +55009,14 @@
       <c r="IU72" s="6">
         <v>67004</v>
       </c>
-      <c r="IV72" s="7">
+      <c r="IV72" s="6">
         <v>68412</v>
       </c>
+      <c r="IW72" s="7">
+        <v>69003</v>
+      </c>
     </row>
-    <row r="73" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
@@ -55566,11 +55782,14 @@
       <c r="IU73" s="6">
         <v>15</v>
       </c>
-      <c r="IV73" s="7">
+      <c r="IV73" s="6">
         <v>14</v>
       </c>
+      <c r="IW73" s="7">
+        <v>11</v>
+      </c>
     </row>
-    <row r="74" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>68</v>
       </c>
@@ -56336,11 +56555,14 @@
       <c r="IU74" s="6">
         <v>38</v>
       </c>
-      <c r="IV74" s="7">
+      <c r="IV74" s="6">
         <v>39</v>
       </c>
+      <c r="IW74" s="7">
+        <v>40</v>
+      </c>
     </row>
-    <row r="75" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>69</v>
       </c>
@@ -57106,11 +57328,14 @@
       <c r="IU75" s="6">
         <v>85</v>
       </c>
-      <c r="IV75" s="7">
+      <c r="IV75" s="6">
         <v>81</v>
       </c>
+      <c r="IW75" s="7">
+        <v>81</v>
+      </c>
     </row>
-    <row r="76" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>70</v>
       </c>
@@ -57876,11 +58101,14 @@
       <c r="IU76" s="6">
         <v>4002</v>
       </c>
-      <c r="IV76" s="7">
+      <c r="IV76" s="6">
         <v>3257</v>
       </c>
+      <c r="IW76" s="7">
+        <v>3497</v>
+      </c>
     </row>
-    <row r="77" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
@@ -58646,11 +58874,14 @@
       <c r="IU77" s="6">
         <v>662</v>
       </c>
-      <c r="IV77" s="7">
+      <c r="IV77" s="6">
         <v>686</v>
       </c>
+      <c r="IW77" s="7">
+        <v>683</v>
+      </c>
     </row>
-    <row r="78" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
@@ -59416,11 +59647,14 @@
       <c r="IU78" s="6">
         <v>14129</v>
       </c>
-      <c r="IV78" s="7">
+      <c r="IV78" s="6">
         <v>14212</v>
       </c>
+      <c r="IW78" s="7">
+        <v>14320</v>
+      </c>
     </row>
-    <row r="79" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
@@ -60186,11 +60420,14 @@
       <c r="IU79" s="6">
         <v>148</v>
       </c>
-      <c r="IV79" s="7">
+      <c r="IV79" s="6">
         <v>156</v>
       </c>
+      <c r="IW79" s="7">
+        <v>151</v>
+      </c>
     </row>
-    <row r="80" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>74</v>
       </c>
@@ -60956,11 +61193,14 @@
       <c r="IU80" s="6">
         <v>823</v>
       </c>
-      <c r="IV80" s="7">
+      <c r="IV80" s="6">
         <v>833</v>
       </c>
+      <c r="IW80" s="7">
+        <v>835</v>
+      </c>
     </row>
-    <row r="81" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
@@ -61726,11 +61966,14 @@
       <c r="IU81" s="6">
         <v>80</v>
       </c>
-      <c r="IV81" s="7">
+      <c r="IV81" s="6">
         <v>79</v>
       </c>
+      <c r="IW81" s="7">
+        <v>79</v>
+      </c>
     </row>
-    <row r="82" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>76</v>
       </c>
@@ -62496,11 +62739,14 @@
       <c r="IU82" s="6">
         <v>93</v>
       </c>
-      <c r="IV82" s="7">
+      <c r="IV82" s="6">
         <v>105</v>
       </c>
+      <c r="IW82" s="7">
+        <v>94</v>
+      </c>
     </row>
-    <row r="83" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>77</v>
       </c>
@@ -63266,11 +63512,14 @@
       <c r="IU83" s="6">
         <v>1024</v>
       </c>
-      <c r="IV83" s="7">
+      <c r="IV83" s="6">
         <v>1041</v>
       </c>
+      <c r="IW83" s="7">
+        <v>1036</v>
+      </c>
     </row>
-    <row r="84" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
@@ -64036,11 +64285,14 @@
       <c r="IU84" s="6">
         <v>3724</v>
       </c>
-      <c r="IV84" s="7">
+      <c r="IV84" s="6">
         <v>3723</v>
       </c>
+      <c r="IW84" s="7">
+        <v>3739</v>
+      </c>
     </row>
-    <row r="85" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
@@ -64806,11 +65058,14 @@
       <c r="IU85" s="6">
         <v>118</v>
       </c>
-      <c r="IV85" s="7">
+      <c r="IV85" s="6">
         <v>118</v>
       </c>
+      <c r="IW85" s="7">
+        <v>112</v>
+      </c>
     </row>
-    <row r="86" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>80</v>
       </c>
@@ -65576,11 +65831,14 @@
       <c r="IU86" s="6">
         <v>1</v>
       </c>
-      <c r="IV86" s="7">
+      <c r="IV86" s="6">
         <v>1</v>
       </c>
+      <c r="IW86" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>81</v>
       </c>
@@ -66346,11 +66604,14 @@
       <c r="IU87" s="6">
         <v>0</v>
       </c>
-      <c r="IV87" s="7">
+      <c r="IV87" s="6">
         <v>0</v>
       </c>
+      <c r="IW87" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
@@ -67116,11 +67377,14 @@
       <c r="IU88" s="6">
         <v>4374</v>
       </c>
-      <c r="IV88" s="7">
+      <c r="IV88" s="6">
         <v>4548</v>
       </c>
+      <c r="IW88" s="7">
+        <v>4541</v>
+      </c>
     </row>
-    <row r="89" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>83</v>
       </c>
@@ -67886,11 +68150,14 @@
       <c r="IU89" s="6">
         <v>16011</v>
       </c>
-      <c r="IV89" s="7">
+      <c r="IV89" s="6">
         <v>16318</v>
       </c>
+      <c r="IW89" s="7">
+        <v>15677</v>
+      </c>
     </row>
-    <row r="90" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
@@ -68656,11 +68923,14 @@
       <c r="IU90" s="6">
         <v>404</v>
       </c>
-      <c r="IV90" s="7">
+      <c r="IV90" s="6">
         <v>409</v>
       </c>
+      <c r="IW90" s="7">
+        <v>399</v>
+      </c>
     </row>
-    <row r="91" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
@@ -69426,11 +69696,14 @@
       <c r="IU91" s="6">
         <v>7494</v>
       </c>
-      <c r="IV91" s="7">
+      <c r="IV91" s="6">
         <v>7341</v>
       </c>
+      <c r="IW91" s="7">
+        <v>7314</v>
+      </c>
     </row>
-    <row r="92" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>86</v>
       </c>
@@ -70196,11 +70469,14 @@
       <c r="IU92" s="6">
         <v>2565</v>
       </c>
-      <c r="IV92" s="7">
+      <c r="IV92" s="6">
         <v>2494</v>
       </c>
+      <c r="IW92" s="7">
+        <v>2312</v>
+      </c>
     </row>
-    <row r="93" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -70966,11 +71242,14 @@
       <c r="IU93" s="6">
         <v>715</v>
       </c>
-      <c r="IV93" s="7">
+      <c r="IV93" s="6">
         <v>703</v>
       </c>
+      <c r="IW93" s="7">
+        <v>690</v>
+      </c>
     </row>
-    <row r="94" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
@@ -71736,11 +72015,14 @@
       <c r="IU94" s="6">
         <v>64</v>
       </c>
-      <c r="IV94" s="7">
+      <c r="IV94" s="6">
         <v>65</v>
       </c>
+      <c r="IW94" s="7">
+        <v>50</v>
+      </c>
     </row>
-    <row r="95" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
@@ -72506,11 +72788,14 @@
       <c r="IU95" s="6">
         <v>946</v>
       </c>
-      <c r="IV95" s="7">
+      <c r="IV95" s="6">
         <v>953</v>
       </c>
+      <c r="IW95" s="7">
+        <v>1002</v>
+      </c>
     </row>
-    <row r="96" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>90</v>
       </c>
@@ -73276,11 +73561,14 @@
       <c r="IU96" s="6">
         <v>114</v>
       </c>
-      <c r="IV96" s="7">
+      <c r="IV96" s="6">
         <v>116</v>
       </c>
+      <c r="IW96" s="7">
+        <v>109</v>
+      </c>
     </row>
-    <row r="97" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>91</v>
       </c>
@@ -74046,11 +74334,14 @@
       <c r="IU97" s="6">
         <v>1724</v>
       </c>
-      <c r="IV97" s="7">
+      <c r="IV97" s="6">
         <v>1696</v>
       </c>
+      <c r="IW97" s="7">
+        <v>1691</v>
+      </c>
     </row>
-    <row r="98" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>92</v>
       </c>
@@ -74816,11 +75107,14 @@
       <c r="IU98" s="6">
         <v>563</v>
       </c>
-      <c r="IV98" s="7">
+      <c r="IV98" s="6">
         <v>493</v>
       </c>
+      <c r="IW98" s="7">
+        <v>467</v>
+      </c>
     </row>
-    <row r="99" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
@@ -75586,11 +75880,14 @@
       <c r="IU99" s="6">
         <v>37142</v>
       </c>
-      <c r="IV99" s="7">
+      <c r="IV99" s="6">
         <v>37440</v>
       </c>
+      <c r="IW99" s="7">
+        <v>37517</v>
+      </c>
     </row>
-    <row r="100" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>94</v>
       </c>
@@ -76356,11 +76653,14 @@
       <c r="IU100" s="6">
         <v>6023</v>
       </c>
-      <c r="IV100" s="7">
+      <c r="IV100" s="6">
         <v>6112</v>
       </c>
+      <c r="IW100" s="7">
+        <v>6251</v>
+      </c>
     </row>
-    <row r="101" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>95</v>
       </c>
@@ -77126,11 +77426,14 @@
       <c r="IU101" s="6">
         <v>927</v>
       </c>
-      <c r="IV101" s="7">
+      <c r="IV101" s="6">
         <v>909</v>
       </c>
+      <c r="IW101" s="7">
+        <v>865</v>
+      </c>
     </row>
-    <row r="102" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>96</v>
       </c>
@@ -77896,11 +78199,14 @@
       <c r="IU102" s="6">
         <v>537</v>
       </c>
-      <c r="IV102" s="7">
+      <c r="IV102" s="6">
         <v>539</v>
       </c>
+      <c r="IW102" s="7">
+        <v>525</v>
+      </c>
     </row>
-    <row r="103" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>97</v>
       </c>
@@ -78666,11 +78972,14 @@
       <c r="IU103" s="6">
         <v>89437</v>
       </c>
-      <c r="IV103" s="7">
+      <c r="IV103" s="6">
         <v>89704</v>
       </c>
+      <c r="IW103" s="7">
+        <v>90060</v>
+      </c>
     </row>
-    <row r="104" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>98</v>
       </c>
@@ -79436,11 +79745,14 @@
       <c r="IU104" s="6">
         <v>115406</v>
       </c>
-      <c r="IV104" s="7">
+      <c r="IV104" s="6">
         <v>115900</v>
       </c>
+      <c r="IW104" s="7">
+        <v>116196</v>
+      </c>
     </row>
-    <row r="105" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>99</v>
       </c>
@@ -80206,11 +80518,14 @@
       <c r="IU105" s="6">
         <v>980</v>
       </c>
-      <c r="IV105" s="7">
+      <c r="IV105" s="6">
         <v>921</v>
       </c>
+      <c r="IW105" s="7">
+        <v>884</v>
+      </c>
     </row>
-    <row r="106" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>100</v>
       </c>
@@ -80976,11 +81291,14 @@
       <c r="IU106" s="6">
         <v>960</v>
       </c>
-      <c r="IV106" s="7">
+      <c r="IV106" s="6">
         <v>985</v>
       </c>
+      <c r="IW106" s="7">
+        <v>1098</v>
+      </c>
     </row>
-    <row r="107" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>101</v>
       </c>
@@ -81746,11 +82064,14 @@
       <c r="IU107" s="6">
         <v>30192</v>
       </c>
-      <c r="IV107" s="7">
+      <c r="IV107" s="6">
         <v>30354</v>
       </c>
+      <c r="IW107" s="7">
+        <v>30523</v>
+      </c>
     </row>
-    <row r="108" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>102</v>
       </c>
@@ -82516,11 +82837,14 @@
       <c r="IU108" s="6">
         <v>972</v>
       </c>
-      <c r="IV108" s="7">
+      <c r="IV108" s="6">
         <v>1011</v>
       </c>
+      <c r="IW108" s="7">
+        <v>992</v>
+      </c>
     </row>
-    <row r="109" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>103</v>
       </c>
@@ -83286,11 +83610,14 @@
       <c r="IU109" s="6">
         <v>440</v>
       </c>
-      <c r="IV109" s="7">
+      <c r="IV109" s="6">
         <v>448</v>
       </c>
+      <c r="IW109" s="7">
+        <v>428</v>
+      </c>
     </row>
-    <row r="110" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>104</v>
       </c>
@@ -84056,11 +84383,14 @@
       <c r="IU110" s="6">
         <v>48</v>
       </c>
-      <c r="IV110" s="7">
+      <c r="IV110" s="6">
         <v>49</v>
       </c>
+      <c r="IW110" s="7">
+        <v>48</v>
+      </c>
     </row>
-    <row r="111" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -84826,11 +85156,14 @@
       <c r="IU111" s="6">
         <v>1923</v>
       </c>
-      <c r="IV111" s="7">
+      <c r="IV111" s="6">
         <v>1949</v>
       </c>
+      <c r="IW111" s="7">
+        <v>1994</v>
+      </c>
     </row>
-    <row r="112" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>106</v>
       </c>
@@ -85596,11 +85929,14 @@
       <c r="IU112" s="6">
         <v>3012</v>
       </c>
-      <c r="IV112" s="7">
+      <c r="IV112" s="6">
         <v>3200</v>
       </c>
+      <c r="IW112" s="7">
+        <v>2885</v>
+      </c>
     </row>
-    <row r="113" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -86366,11 +86702,14 @@
       <c r="IU113" s="6">
         <v>338</v>
       </c>
-      <c r="IV113" s="7">
+      <c r="IV113" s="6">
         <v>342</v>
       </c>
+      <c r="IW113" s="7">
+        <v>343</v>
+      </c>
     </row>
-    <row r="114" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>108</v>
       </c>
@@ -87136,11 +87475,14 @@
       <c r="IU114" s="6">
         <v>3199</v>
       </c>
-      <c r="IV114" s="7">
+      <c r="IV114" s="6">
         <v>3161</v>
       </c>
+      <c r="IW114" s="7">
+        <v>3156</v>
+      </c>
     </row>
-    <row r="115" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>109</v>
       </c>
@@ -87906,11 +88248,14 @@
       <c r="IU115" s="6">
         <v>1355</v>
       </c>
-      <c r="IV115" s="7">
+      <c r="IV115" s="6">
         <v>1311</v>
       </c>
+      <c r="IW115" s="7">
+        <v>1355</v>
+      </c>
     </row>
-    <row r="116" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>110</v>
       </c>
@@ -88676,11 +89021,14 @@
       <c r="IU116" s="6">
         <v>608</v>
       </c>
-      <c r="IV116" s="7">
+      <c r="IV116" s="6">
         <v>585</v>
       </c>
+      <c r="IW116" s="7">
+        <v>582</v>
+      </c>
     </row>
-    <row r="117" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>111</v>
       </c>
@@ -89446,11 +89794,14 @@
       <c r="IU117" s="6">
         <v>1974</v>
       </c>
-      <c r="IV117" s="7">
+      <c r="IV117" s="6">
         <v>2002</v>
       </c>
+      <c r="IW117" s="7">
+        <v>2010</v>
+      </c>
     </row>
-    <row r="118" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>112</v>
       </c>
@@ -90216,11 +90567,14 @@
       <c r="IU118" s="6">
         <v>387</v>
       </c>
-      <c r="IV118" s="7">
+      <c r="IV118" s="6">
         <v>428</v>
       </c>
+      <c r="IW118" s="7">
+        <v>425</v>
+      </c>
     </row>
-    <row r="119" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>113</v>
       </c>
@@ -90986,11 +91340,14 @@
       <c r="IU119" s="6">
         <v>1068</v>
       </c>
-      <c r="IV119" s="7">
+      <c r="IV119" s="6">
         <v>1071</v>
       </c>
+      <c r="IW119" s="7">
+        <v>1042</v>
+      </c>
     </row>
-    <row r="120" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>114</v>
       </c>
@@ -91756,11 +92113,14 @@
       <c r="IU120" s="6">
         <v>41</v>
       </c>
-      <c r="IV120" s="7">
+      <c r="IV120" s="6">
         <v>42</v>
       </c>
+      <c r="IW120" s="7">
+        <v>41</v>
+      </c>
     </row>
-    <row r="121" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>115</v>
       </c>
@@ -92526,11 +92886,14 @@
       <c r="IU121" s="6">
         <v>639</v>
       </c>
-      <c r="IV121" s="7">
+      <c r="IV121" s="6">
         <v>647</v>
       </c>
+      <c r="IW121" s="7">
+        <v>641</v>
+      </c>
     </row>
-    <row r="122" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>116</v>
       </c>
@@ -93296,11 +93659,14 @@
       <c r="IU122" s="6">
         <v>136</v>
       </c>
-      <c r="IV122" s="7">
+      <c r="IV122" s="6">
         <v>139</v>
       </c>
+      <c r="IW122" s="7">
+        <v>142</v>
+      </c>
     </row>
-    <row r="123" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>117</v>
       </c>
@@ -94066,11 +94432,14 @@
       <c r="IU123" s="6">
         <v>671</v>
       </c>
-      <c r="IV123" s="7">
+      <c r="IV123" s="6">
         <v>649</v>
       </c>
+      <c r="IW123" s="7">
+        <v>617</v>
+      </c>
     </row>
-    <row r="124" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>118</v>
       </c>
@@ -94836,11 +95205,14 @@
       <c r="IU124" s="6">
         <v>2854</v>
       </c>
-      <c r="IV124" s="7">
+      <c r="IV124" s="6">
         <v>1707</v>
       </c>
+      <c r="IW124" s="7">
+        <v>3239</v>
+      </c>
     </row>
-    <row r="125" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>119</v>
       </c>
@@ -95606,11 +95978,14 @@
       <c r="IU125" s="6">
         <v>399380</v>
       </c>
-      <c r="IV125" s="7">
+      <c r="IV125" s="6">
         <v>399307</v>
       </c>
+      <c r="IW125" s="7">
+        <v>402503</v>
+      </c>
     </row>
-    <row r="126" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>120</v>
       </c>
@@ -96376,11 +96751,14 @@
       <c r="IU126" s="6">
         <v>7457</v>
       </c>
-      <c r="IV126" s="7">
+      <c r="IV126" s="6">
         <v>7384</v>
       </c>
+      <c r="IW126" s="7">
+        <v>7391</v>
+      </c>
     </row>
-    <row r="127" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>121</v>
       </c>
@@ -97146,11 +97524,14 @@
       <c r="IU127" s="6">
         <v>45</v>
       </c>
-      <c r="IV127" s="7">
+      <c r="IV127" s="6">
         <v>45</v>
       </c>
+      <c r="IW127" s="7">
+        <v>45</v>
+      </c>
     </row>
-    <row r="128" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>122</v>
       </c>
@@ -97916,11 +98297,14 @@
       <c r="IU128" s="6">
         <v>2454</v>
       </c>
-      <c r="IV128" s="7">
+      <c r="IV128" s="6">
         <v>2433</v>
       </c>
+      <c r="IW128" s="7">
+        <v>2509</v>
+      </c>
     </row>
-    <row r="129" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>123</v>
       </c>
@@ -98686,11 +99070,14 @@
       <c r="IU129" s="6">
         <v>34240</v>
       </c>
-      <c r="IV129" s="7">
+      <c r="IV129" s="6">
         <v>34287</v>
       </c>
+      <c r="IW129" s="7">
+        <v>34159</v>
+      </c>
     </row>
-    <row r="130" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>124</v>
       </c>
@@ -99456,11 +99843,14 @@
       <c r="IU130" s="6">
         <v>6028</v>
       </c>
-      <c r="IV130" s="7">
+      <c r="IV130" s="6">
         <v>6021</v>
       </c>
+      <c r="IW130" s="7">
+        <v>6070</v>
+      </c>
     </row>
-    <row r="131" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:257" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
         <v>127</v>
       </c>
@@ -100226,11 +100616,14 @@
       <c r="IU131" s="22">
         <v>1800733</v>
       </c>
-      <c r="IV131" s="24">
+      <c r="IV131" s="22">
         <v>1803619</v>
       </c>
+      <c r="IW131" s="24">
+        <v>1810884</v>
+      </c>
     </row>
-    <row r="132" spans="1:256" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:257" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="19"/>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
@@ -100478,7 +100871,7 @@
       <c r="IL132" s="19"/>
       <c r="IM132" s="19"/>
     </row>
-    <row r="133" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>126</v>
       </c>

--- a/Historicos/ta_municipios_jalisco.xlsx
+++ b/Historicos/ta_municipios_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="142">
   <si>
     <t>Acatic</t>
   </si>
@@ -818,7 +818,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1091,6 +1091,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1139,7 +1150,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1190,20 +1201,21 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1551,11 +1563,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW145"/>
+  <dimension ref="A1:IX145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A34" sqref="A34"/>
+      <selection pane="topRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,20 +1681,21 @@
     <col min="250" max="250" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="11" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:257" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="8">
@@ -2450,12 +2463,15 @@
       <c r="IV4" s="26">
         <v>2021</v>
       </c>
-      <c r="IW4" s="27">
+      <c r="IW4" s="26">
         <v>2021</v>
       </c>
+      <c r="IX4" s="27">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:257" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+    <row r="5" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
       <c r="B5" s="4" t="s">
         <v>129</v>
       </c>
@@ -3212,20 +3228,23 @@
       <c r="IS5" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="IT5" s="28" t="s">
+      <c r="IT5" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="IU5" s="29" t="s">
+      <c r="IU5" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="IV5" s="29" t="s">
+      <c r="IV5" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="IW5" s="30" t="s">
+      <c r="IW5" s="13" t="s">
         <v>132</v>
       </c>
+      <c r="IX5" s="35" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="6" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -3985,20 +4004,23 @@
       <c r="IS6" s="6">
         <v>4685</v>
       </c>
-      <c r="IT6" s="5">
+      <c r="IT6" s="15">
         <v>4658</v>
       </c>
-      <c r="IU6" s="6">
+      <c r="IU6" s="16">
         <v>4653</v>
       </c>
-      <c r="IV6" s="6">
+      <c r="IV6" s="16">
         <v>4638</v>
       </c>
-      <c r="IW6" s="7">
+      <c r="IW6" s="16">
         <v>4607</v>
       </c>
+      <c r="IX6" s="30">
+        <v>4661</v>
+      </c>
     </row>
-    <row r="7" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -4767,11 +4789,14 @@
       <c r="IV7" s="6">
         <v>6786</v>
       </c>
-      <c r="IW7" s="7">
+      <c r="IW7" s="6">
         <v>6308</v>
       </c>
+      <c r="IX7" s="7">
+        <v>6021</v>
+      </c>
     </row>
-    <row r="8" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -5540,11 +5565,14 @@
       <c r="IV8" s="6">
         <v>1474</v>
       </c>
-      <c r="IW8" s="7">
+      <c r="IW8" s="6">
         <v>1463</v>
       </c>
+      <c r="IX8" s="7">
+        <v>1489</v>
+      </c>
     </row>
-    <row r="9" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -6313,11 +6341,14 @@
       <c r="IV9" s="6">
         <v>82</v>
       </c>
-      <c r="IW9" s="7">
+      <c r="IW9" s="6">
         <v>83</v>
       </c>
+      <c r="IX9" s="7">
+        <v>81</v>
+      </c>
     </row>
-    <row r="10" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -7086,11 +7117,14 @@
       <c r="IV10" s="6">
         <v>1794</v>
       </c>
-      <c r="IW10" s="7">
+      <c r="IW10" s="6">
         <v>1817</v>
       </c>
+      <c r="IX10" s="7">
+        <v>1854</v>
+      </c>
     </row>
-    <row r="11" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -7859,11 +7893,14 @@
       <c r="IV11" s="6">
         <v>6857</v>
       </c>
-      <c r="IW11" s="7">
+      <c r="IW11" s="6">
         <v>6901</v>
       </c>
+      <c r="IX11" s="7">
+        <v>5921</v>
+      </c>
     </row>
-    <row r="12" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -8632,11 +8669,14 @@
       <c r="IV12" s="6">
         <v>11943</v>
       </c>
-      <c r="IW12" s="7">
+      <c r="IW12" s="6">
         <v>11847</v>
       </c>
+      <c r="IX12" s="7">
+        <v>11915</v>
+      </c>
     </row>
-    <row r="13" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -9405,11 +9445,14 @@
       <c r="IV13" s="6">
         <v>71</v>
       </c>
-      <c r="IW13" s="7">
+      <c r="IW13" s="6">
         <v>65</v>
       </c>
+      <c r="IX13" s="7">
+        <v>54</v>
+      </c>
     </row>
-    <row r="14" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -10178,11 +10221,14 @@
       <c r="IV14" s="6">
         <v>18</v>
       </c>
-      <c r="IW14" s="7">
+      <c r="IW14" s="6">
         <v>19</v>
       </c>
+      <c r="IX14" s="7">
+        <v>19</v>
+      </c>
     </row>
-    <row r="15" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -10951,11 +10997,14 @@
       <c r="IV15" s="6">
         <v>86</v>
       </c>
-      <c r="IW15" s="7">
+      <c r="IW15" s="6">
         <v>91</v>
       </c>
+      <c r="IX15" s="7">
+        <v>91</v>
+      </c>
     </row>
-    <row r="16" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -11724,11 +11773,14 @@
       <c r="IV16" s="6">
         <v>9974</v>
       </c>
-      <c r="IW16" s="7">
+      <c r="IW16" s="6">
         <v>9993</v>
       </c>
+      <c r="IX16" s="7">
+        <v>10145</v>
+      </c>
     </row>
-    <row r="17" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -12497,11 +12549,14 @@
       <c r="IV17" s="6">
         <v>589</v>
       </c>
-      <c r="IW17" s="7">
+      <c r="IW17" s="6">
         <v>615</v>
       </c>
+      <c r="IX17" s="7">
+        <v>598</v>
+      </c>
     </row>
-    <row r="18" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -13270,11 +13325,14 @@
       <c r="IV18" s="6">
         <v>11133</v>
       </c>
-      <c r="IW18" s="7">
+      <c r="IW18" s="6">
         <v>11248</v>
       </c>
+      <c r="IX18" s="7">
+        <v>10866</v>
+      </c>
     </row>
-    <row r="19" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -14043,11 +14101,14 @@
       <c r="IV19" s="6">
         <v>3362</v>
       </c>
-      <c r="IW19" s="7">
+      <c r="IW19" s="6">
         <v>3432</v>
       </c>
+      <c r="IX19" s="7">
+        <v>3605</v>
+      </c>
     </row>
-    <row r="20" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -14816,11 +14877,14 @@
       <c r="IV20" s="6">
         <v>337</v>
       </c>
-      <c r="IW20" s="7">
+      <c r="IW20" s="6">
         <v>341</v>
       </c>
+      <c r="IX20" s="7">
+        <v>341</v>
+      </c>
     </row>
-    <row r="21" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -15589,11 +15653,14 @@
       <c r="IV21" s="6">
         <v>685</v>
       </c>
-      <c r="IW21" s="7">
+      <c r="IW21" s="6">
         <v>662</v>
       </c>
+      <c r="IX21" s="7">
+        <v>660</v>
+      </c>
     </row>
-    <row r="22" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -16362,11 +16429,14 @@
       <c r="IV22" s="6">
         <v>305</v>
       </c>
-      <c r="IW22" s="7">
+      <c r="IW22" s="6">
         <v>333</v>
       </c>
+      <c r="IX22" s="7">
+        <v>359</v>
+      </c>
     </row>
-    <row r="23" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -17135,11 +17205,14 @@
       <c r="IV23" s="6">
         <v>45</v>
       </c>
-      <c r="IW23" s="7">
+      <c r="IW23" s="6">
         <v>47</v>
       </c>
+      <c r="IX23" s="7">
+        <v>47</v>
+      </c>
     </row>
-    <row r="24" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -17908,11 +17981,14 @@
       <c r="IV24" s="6">
         <v>3390</v>
       </c>
-      <c r="IW24" s="7">
+      <c r="IW24" s="6">
         <v>3420</v>
       </c>
+      <c r="IX24" s="7">
+        <v>3068</v>
+      </c>
     </row>
-    <row r="25" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -18681,11 +18757,14 @@
       <c r="IV25" s="6">
         <v>5422</v>
       </c>
-      <c r="IW25" s="7">
+      <c r="IW25" s="6">
         <v>5459</v>
       </c>
+      <c r="IX25" s="7">
+        <v>5418</v>
+      </c>
     </row>
-    <row r="26" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -19454,11 +19533,14 @@
       <c r="IV26" s="6">
         <v>3</v>
       </c>
-      <c r="IW26" s="7">
+      <c r="IW26" s="6">
         <v>4</v>
       </c>
+      <c r="IX26" s="7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="27" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -20227,11 +20309,14 @@
       <c r="IV27" s="6">
         <v>168</v>
       </c>
-      <c r="IW27" s="7">
+      <c r="IW27" s="6">
         <v>162</v>
       </c>
+      <c r="IX27" s="7">
+        <v>161</v>
+      </c>
     </row>
-    <row r="28" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -21000,11 +21085,14 @@
       <c r="IV28" s="6">
         <v>2225</v>
       </c>
-      <c r="IW28" s="7">
+      <c r="IW28" s="6">
         <v>2272</v>
       </c>
+      <c r="IX28" s="7">
+        <v>2220</v>
+      </c>
     </row>
-    <row r="29" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -21773,11 +21861,14 @@
       <c r="IV29" s="6">
         <v>2326</v>
       </c>
-      <c r="IW29" s="7">
+      <c r="IW29" s="6">
         <v>2319</v>
       </c>
+      <c r="IX29" s="7">
+        <v>2331</v>
+      </c>
     </row>
-    <row r="30" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -22546,11 +22637,14 @@
       <c r="IV30" s="6">
         <v>672</v>
       </c>
-      <c r="IW30" s="7">
+      <c r="IW30" s="6">
         <v>681</v>
       </c>
+      <c r="IX30" s="7">
+        <v>666</v>
+      </c>
     </row>
-    <row r="31" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
@@ -23319,11 +23413,14 @@
       <c r="IV31" s="6">
         <v>128</v>
       </c>
-      <c r="IW31" s="7">
+      <c r="IW31" s="6">
         <v>135</v>
       </c>
+      <c r="IX31" s="7">
+        <v>130</v>
+      </c>
     </row>
-    <row r="32" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
@@ -24092,11 +24189,14 @@
       <c r="IV32" s="6">
         <v>42</v>
       </c>
-      <c r="IW32" s="7">
+      <c r="IW32" s="6">
         <v>43</v>
       </c>
+      <c r="IX32" s="7">
+        <v>44</v>
+      </c>
     </row>
-    <row r="33" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -24865,11 +24965,14 @@
       <c r="IV33" s="6">
         <v>62</v>
       </c>
-      <c r="IW33" s="7">
+      <c r="IW33" s="6">
         <v>61</v>
       </c>
+      <c r="IX33" s="7">
+        <v>61</v>
+      </c>
     </row>
-    <row r="34" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -25638,11 +25741,14 @@
       <c r="IV34" s="6">
         <v>196</v>
       </c>
-      <c r="IW34" s="7">
+      <c r="IW34" s="6">
         <v>197</v>
       </c>
+      <c r="IX34" s="7">
+        <v>202</v>
+      </c>
     </row>
-    <row r="35" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -26411,11 +26517,14 @@
       <c r="IV35" s="6">
         <v>731</v>
       </c>
-      <c r="IW35" s="7">
+      <c r="IW35" s="6">
         <v>730</v>
       </c>
+      <c r="IX35" s="7">
+        <v>724</v>
+      </c>
     </row>
-    <row r="36" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -27184,11 +27293,14 @@
       <c r="IV36" s="6">
         <v>5</v>
       </c>
-      <c r="IW36" s="7">
+      <c r="IW36" s="6">
         <v>5</v>
       </c>
+      <c r="IX36" s="7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="37" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -27957,11 +28069,14 @@
       <c r="IV37" s="6">
         <v>2426</v>
       </c>
-      <c r="IW37" s="7">
+      <c r="IW37" s="6">
         <v>2539</v>
       </c>
+      <c r="IX37" s="7">
+        <v>2638</v>
+      </c>
     </row>
-    <row r="38" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -28730,11 +28845,14 @@
       <c r="IV38" s="6">
         <v>2477</v>
       </c>
-      <c r="IW38" s="7">
+      <c r="IW38" s="6">
         <v>2468</v>
       </c>
+      <c r="IX38" s="7">
+        <v>2472</v>
+      </c>
     </row>
-    <row r="39" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
@@ -29503,11 +29621,14 @@
       <c r="IV39" s="6">
         <v>157</v>
       </c>
-      <c r="IW39" s="7">
+      <c r="IW39" s="6">
         <v>159</v>
       </c>
+      <c r="IX39" s="7">
+        <v>161</v>
+      </c>
     </row>
-    <row r="40" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
@@ -30276,11 +30397,14 @@
       <c r="IV40" s="6">
         <v>52634</v>
       </c>
-      <c r="IW40" s="7">
+      <c r="IW40" s="6">
         <v>53471</v>
       </c>
+      <c r="IX40" s="7">
+        <v>54362</v>
+      </c>
     </row>
-    <row r="41" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -31049,11 +31173,14 @@
       <c r="IV41" s="6">
         <v>3233</v>
       </c>
-      <c r="IW41" s="7">
+      <c r="IW41" s="6">
         <v>3266</v>
       </c>
+      <c r="IX41" s="7">
+        <v>3259</v>
+      </c>
     </row>
-    <row r="42" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -31822,11 +31949,14 @@
       <c r="IV42" s="6">
         <v>694</v>
       </c>
-      <c r="IW42" s="7">
+      <c r="IW42" s="6">
         <v>684</v>
       </c>
+      <c r="IX42" s="7">
+        <v>668</v>
+      </c>
     </row>
-    <row r="43" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -32595,11 +32725,14 @@
       <c r="IV43" s="6">
         <v>1455</v>
       </c>
-      <c r="IW43" s="7">
+      <c r="IW43" s="6">
         <v>1511</v>
       </c>
+      <c r="IX43" s="7">
+        <v>1617</v>
+      </c>
     </row>
-    <row r="44" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -33368,11 +33501,14 @@
       <c r="IV44" s="6">
         <v>152</v>
       </c>
-      <c r="IW44" s="7">
+      <c r="IW44" s="6">
         <v>153</v>
       </c>
+      <c r="IX44" s="7">
+        <v>154</v>
+      </c>
     </row>
-    <row r="45" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -34141,11 +34277,14 @@
       <c r="IV45" s="6">
         <v>695004</v>
       </c>
-      <c r="IW45" s="7">
+      <c r="IW45" s="6">
         <v>695470</v>
       </c>
+      <c r="IX45" s="7">
+        <v>699577</v>
+      </c>
     </row>
-    <row r="46" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
@@ -34914,11 +35053,14 @@
       <c r="IV46" s="6">
         <v>195</v>
       </c>
-      <c r="IW46" s="7">
+      <c r="IW46" s="6">
         <v>191</v>
       </c>
+      <c r="IX46" s="7">
+        <v>185</v>
+      </c>
     </row>
-    <row r="47" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
@@ -35687,11 +35829,14 @@
       <c r="IV47" s="6">
         <v>97</v>
       </c>
-      <c r="IW47" s="7">
+      <c r="IW47" s="6">
         <v>94</v>
       </c>
+      <c r="IX47" s="7">
+        <v>101</v>
+      </c>
     </row>
-    <row r="48" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -36460,11 +36605,14 @@
       <c r="IV48" s="6">
         <v>734</v>
       </c>
-      <c r="IW48" s="7">
+      <c r="IW48" s="6">
         <v>799</v>
       </c>
+      <c r="IX48" s="7">
+        <v>795</v>
+      </c>
     </row>
-    <row r="49" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -37233,11 +37381,14 @@
       <c r="IV49" s="6">
         <v>3790</v>
       </c>
-      <c r="IW49" s="7">
+      <c r="IW49" s="6">
         <v>3864</v>
       </c>
+      <c r="IX49" s="7">
+        <v>3820</v>
+      </c>
     </row>
-    <row r="50" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -38006,11 +38157,14 @@
       <c r="IV50" s="6">
         <v>534</v>
       </c>
-      <c r="IW50" s="7">
+      <c r="IW50" s="6">
         <v>532</v>
       </c>
+      <c r="IX50" s="7">
+        <v>531</v>
+      </c>
     </row>
-    <row r="51" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -38779,11 +38933,14 @@
       <c r="IV51" s="6">
         <v>2556</v>
       </c>
-      <c r="IW51" s="7">
+      <c r="IW51" s="6">
         <v>2602</v>
       </c>
+      <c r="IX51" s="7">
+        <v>2606</v>
+      </c>
     </row>
-    <row r="52" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -39552,11 +39709,14 @@
       <c r="IV52" s="6">
         <v>1356</v>
       </c>
-      <c r="IW52" s="7">
+      <c r="IW52" s="6">
         <v>1369</v>
       </c>
+      <c r="IX52" s="7">
+        <v>1372</v>
+      </c>
     </row>
-    <row r="53" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -40325,11 +40485,14 @@
       <c r="IV53" s="6">
         <v>1720</v>
       </c>
-      <c r="IW53" s="7">
+      <c r="IW53" s="6">
         <v>1722</v>
       </c>
+      <c r="IX53" s="7">
+        <v>1728</v>
+      </c>
     </row>
-    <row r="54" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>48</v>
       </c>
@@ -41098,11 +41261,14 @@
       <c r="IV54" s="6">
         <v>57</v>
       </c>
-      <c r="IW54" s="7">
+      <c r="IW54" s="6">
         <v>58</v>
       </c>
+      <c r="IX54" s="7">
+        <v>57</v>
+      </c>
     </row>
-    <row r="55" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
@@ -41871,11 +42037,14 @@
       <c r="IV55" s="6">
         <v>8200</v>
       </c>
-      <c r="IW55" s="7">
+      <c r="IW55" s="6">
         <v>8212</v>
       </c>
+      <c r="IX55" s="7">
+        <v>7873</v>
+      </c>
     </row>
-    <row r="56" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -42644,11 +42813,14 @@
       <c r="IV56" s="6">
         <v>1322</v>
       </c>
-      <c r="IW56" s="7">
+      <c r="IW56" s="6">
         <v>1316</v>
       </c>
+      <c r="IX56" s="7">
+        <v>1339</v>
+      </c>
     </row>
-    <row r="57" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>51</v>
       </c>
@@ -43417,11 +43589,14 @@
       <c r="IV57" s="6">
         <v>82</v>
       </c>
-      <c r="IW57" s="7">
+      <c r="IW57" s="6">
         <v>84</v>
       </c>
+      <c r="IX57" s="7">
+        <v>82</v>
+      </c>
     </row>
-    <row r="58" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -44190,11 +44365,14 @@
       <c r="IV58" s="6">
         <v>5173</v>
       </c>
-      <c r="IW58" s="7">
+      <c r="IW58" s="6">
         <v>5226</v>
       </c>
+      <c r="IX58" s="7">
+        <v>5241</v>
+      </c>
     </row>
-    <row r="59" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>53</v>
       </c>
@@ -44963,11 +45141,14 @@
       <c r="IV59" s="6">
         <v>2402</v>
       </c>
-      <c r="IW59" s="7">
+      <c r="IW59" s="6">
         <v>2349</v>
       </c>
+      <c r="IX59" s="7">
+        <v>2379</v>
+      </c>
     </row>
-    <row r="60" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
@@ -45736,11 +45917,14 @@
       <c r="IV60" s="6">
         <v>98</v>
       </c>
-      <c r="IW60" s="7">
+      <c r="IW60" s="6">
         <v>104</v>
       </c>
+      <c r="IX60" s="7">
+        <v>110</v>
+      </c>
     </row>
-    <row r="61" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>55</v>
       </c>
@@ -46509,11 +46693,14 @@
       <c r="IV61" s="6">
         <v>33733</v>
       </c>
-      <c r="IW61" s="7">
+      <c r="IW61" s="6">
         <v>33523</v>
       </c>
+      <c r="IX61" s="7">
+        <v>33859</v>
+      </c>
     </row>
-    <row r="62" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -47282,11 +47469,14 @@
       <c r="IV62" s="6">
         <v>1038</v>
       </c>
-      <c r="IW62" s="7">
+      <c r="IW62" s="6">
         <v>1051</v>
       </c>
+      <c r="IX62" s="7">
+        <v>995</v>
+      </c>
     </row>
-    <row r="63" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
@@ -48055,11 +48245,14 @@
       <c r="IV63" s="6">
         <v>581</v>
       </c>
-      <c r="IW63" s="7">
+      <c r="IW63" s="6">
         <v>606</v>
       </c>
+      <c r="IX63" s="7">
+        <v>607</v>
+      </c>
     </row>
-    <row r="64" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
@@ -48828,11 +49021,14 @@
       <c r="IV64" s="6">
         <v>945</v>
       </c>
-      <c r="IW64" s="7">
+      <c r="IW64" s="6">
         <v>994</v>
       </c>
+      <c r="IX64" s="7">
+        <v>1010</v>
+      </c>
     </row>
-    <row r="65" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>59</v>
       </c>
@@ -49601,11 +49797,14 @@
       <c r="IV65" s="6">
         <v>12</v>
       </c>
-      <c r="IW65" s="7">
+      <c r="IW65" s="6">
         <v>12</v>
       </c>
+      <c r="IX65" s="7">
+        <v>12</v>
+      </c>
     </row>
-    <row r="66" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>60</v>
       </c>
@@ -50374,11 +50573,14 @@
       <c r="IV66" s="6">
         <v>161</v>
       </c>
-      <c r="IW66" s="7">
+      <c r="IW66" s="6">
         <v>167</v>
       </c>
+      <c r="IX66" s="7">
+        <v>169</v>
+      </c>
     </row>
-    <row r="67" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>61</v>
       </c>
@@ -51147,11 +51349,14 @@
       <c r="IV67" s="6">
         <v>20</v>
       </c>
-      <c r="IW67" s="7">
+      <c r="IW67" s="6">
         <v>27</v>
       </c>
+      <c r="IX67" s="7">
+        <v>23</v>
+      </c>
     </row>
-    <row r="68" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>62</v>
       </c>
@@ -51920,11 +52125,14 @@
       <c r="IV68" s="6">
         <v>21093</v>
       </c>
-      <c r="IW68" s="7">
+      <c r="IW68" s="6">
         <v>21391</v>
       </c>
+      <c r="IX68" s="7">
+        <v>21431</v>
+      </c>
     </row>
-    <row r="69" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>63</v>
       </c>
@@ -52693,11 +52901,14 @@
       <c r="IV69" s="6">
         <v>454</v>
       </c>
-      <c r="IW69" s="7">
+      <c r="IW69" s="6">
         <v>461</v>
       </c>
+      <c r="IX69" s="7">
+        <v>503</v>
+      </c>
     </row>
-    <row r="70" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>64</v>
       </c>
@@ -53466,11 +53677,14 @@
       <c r="IV70" s="6">
         <v>492</v>
       </c>
-      <c r="IW70" s="7">
+      <c r="IW70" s="6">
         <v>508</v>
       </c>
+      <c r="IX70" s="7">
+        <v>535</v>
+      </c>
     </row>
-    <row r="71" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>65</v>
       </c>
@@ -54239,11 +54453,14 @@
       <c r="IV71" s="6">
         <v>4018</v>
       </c>
-      <c r="IW71" s="7">
+      <c r="IW71" s="6">
         <v>4071</v>
       </c>
+      <c r="IX71" s="7">
+        <v>4235</v>
+      </c>
     </row>
-    <row r="72" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>66</v>
       </c>
@@ -55012,11 +55229,14 @@
       <c r="IV72" s="6">
         <v>68412</v>
       </c>
-      <c r="IW72" s="7">
+      <c r="IW72" s="6">
         <v>69003</v>
       </c>
+      <c r="IX72" s="7">
+        <v>69800</v>
+      </c>
     </row>
-    <row r="73" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
@@ -55785,11 +56005,14 @@
       <c r="IV73" s="6">
         <v>14</v>
       </c>
-      <c r="IW73" s="7">
+      <c r="IW73" s="6">
         <v>11</v>
       </c>
+      <c r="IX73" s="7">
+        <v>12</v>
+      </c>
     </row>
-    <row r="74" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>68</v>
       </c>
@@ -56558,11 +56781,14 @@
       <c r="IV74" s="6">
         <v>39</v>
       </c>
-      <c r="IW74" s="7">
+      <c r="IW74" s="6">
         <v>40</v>
       </c>
+      <c r="IX74" s="7">
+        <v>40</v>
+      </c>
     </row>
-    <row r="75" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>69</v>
       </c>
@@ -57331,11 +57557,14 @@
       <c r="IV75" s="6">
         <v>81</v>
       </c>
-      <c r="IW75" s="7">
+      <c r="IW75" s="6">
         <v>81</v>
       </c>
+      <c r="IX75" s="7">
+        <v>78</v>
+      </c>
     </row>
-    <row r="76" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>70</v>
       </c>
@@ -58104,11 +58333,14 @@
       <c r="IV76" s="6">
         <v>3257</v>
       </c>
-      <c r="IW76" s="7">
+      <c r="IW76" s="6">
         <v>3497</v>
       </c>
+      <c r="IX76" s="7">
+        <v>4308</v>
+      </c>
     </row>
-    <row r="77" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
@@ -58877,11 +59109,14 @@
       <c r="IV77" s="6">
         <v>686</v>
       </c>
-      <c r="IW77" s="7">
+      <c r="IW77" s="6">
         <v>683</v>
       </c>
+      <c r="IX77" s="7">
+        <v>691</v>
+      </c>
     </row>
-    <row r="78" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
@@ -59650,11 +59885,14 @@
       <c r="IV78" s="6">
         <v>14212</v>
       </c>
-      <c r="IW78" s="7">
+      <c r="IW78" s="6">
         <v>14320</v>
       </c>
+      <c r="IX78" s="7">
+        <v>14407</v>
+      </c>
     </row>
-    <row r="79" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
@@ -60423,11 +60661,14 @@
       <c r="IV79" s="6">
         <v>156</v>
       </c>
-      <c r="IW79" s="7">
+      <c r="IW79" s="6">
         <v>151</v>
       </c>
+      <c r="IX79" s="7">
+        <v>157</v>
+      </c>
     </row>
-    <row r="80" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>74</v>
       </c>
@@ -61196,11 +61437,14 @@
       <c r="IV80" s="6">
         <v>833</v>
       </c>
-      <c r="IW80" s="7">
+      <c r="IW80" s="6">
         <v>835</v>
       </c>
+      <c r="IX80" s="7">
+        <v>837</v>
+      </c>
     </row>
-    <row r="81" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
@@ -61969,11 +62213,14 @@
       <c r="IV81" s="6">
         <v>79</v>
       </c>
-      <c r="IW81" s="7">
+      <c r="IW81" s="6">
         <v>79</v>
       </c>
+      <c r="IX81" s="7">
+        <v>69</v>
+      </c>
     </row>
-    <row r="82" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>76</v>
       </c>
@@ -62742,11 +62989,14 @@
       <c r="IV82" s="6">
         <v>105</v>
       </c>
-      <c r="IW82" s="7">
+      <c r="IW82" s="6">
         <v>94</v>
       </c>
+      <c r="IX82" s="7">
+        <v>96</v>
+      </c>
     </row>
-    <row r="83" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>77</v>
       </c>
@@ -63515,11 +63765,14 @@
       <c r="IV83" s="6">
         <v>1041</v>
       </c>
-      <c r="IW83" s="7">
+      <c r="IW83" s="6">
         <v>1036</v>
       </c>
+      <c r="IX83" s="7">
+        <v>1009</v>
+      </c>
     </row>
-    <row r="84" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
@@ -64288,11 +64541,14 @@
       <c r="IV84" s="6">
         <v>3723</v>
       </c>
-      <c r="IW84" s="7">
+      <c r="IW84" s="6">
         <v>3739</v>
       </c>
+      <c r="IX84" s="7">
+        <v>3956</v>
+      </c>
     </row>
-    <row r="85" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
@@ -65061,11 +65317,14 @@
       <c r="IV85" s="6">
         <v>118</v>
       </c>
-      <c r="IW85" s="7">
+      <c r="IW85" s="6">
         <v>112</v>
       </c>
+      <c r="IX85" s="7">
+        <v>100</v>
+      </c>
     </row>
-    <row r="86" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>80</v>
       </c>
@@ -65834,11 +66093,14 @@
       <c r="IV86" s="6">
         <v>1</v>
       </c>
-      <c r="IW86" s="7">
+      <c r="IW86" s="6">
         <v>1</v>
       </c>
+      <c r="IX86" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>81</v>
       </c>
@@ -66607,11 +66869,14 @@
       <c r="IV87" s="6">
         <v>0</v>
       </c>
-      <c r="IW87" s="7">
+      <c r="IW87" s="6">
         <v>0</v>
       </c>
+      <c r="IX87" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
@@ -67380,11 +67645,14 @@
       <c r="IV88" s="6">
         <v>4548</v>
       </c>
-      <c r="IW88" s="7">
+      <c r="IW88" s="6">
         <v>4541</v>
       </c>
+      <c r="IX88" s="7">
+        <v>4717</v>
+      </c>
     </row>
-    <row r="89" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>83</v>
       </c>
@@ -68153,11 +68421,14 @@
       <c r="IV89" s="6">
         <v>16318</v>
       </c>
-      <c r="IW89" s="7">
+      <c r="IW89" s="6">
         <v>15677</v>
       </c>
+      <c r="IX89" s="7">
+        <v>13970</v>
+      </c>
     </row>
-    <row r="90" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
@@ -68926,11 +69197,14 @@
       <c r="IV90" s="6">
         <v>409</v>
       </c>
-      <c r="IW90" s="7">
+      <c r="IW90" s="6">
         <v>399</v>
       </c>
+      <c r="IX90" s="7">
+        <v>395</v>
+      </c>
     </row>
-    <row r="91" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
@@ -69699,11 +69973,14 @@
       <c r="IV91" s="6">
         <v>7341</v>
       </c>
-      <c r="IW91" s="7">
+      <c r="IW91" s="6">
         <v>7314</v>
       </c>
+      <c r="IX91" s="7">
+        <v>6801</v>
+      </c>
     </row>
-    <row r="92" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>86</v>
       </c>
@@ -70472,11 +70749,14 @@
       <c r="IV92" s="6">
         <v>2494</v>
       </c>
-      <c r="IW92" s="7">
+      <c r="IW92" s="6">
         <v>2312</v>
       </c>
+      <c r="IX92" s="7">
+        <v>2124</v>
+      </c>
     </row>
-    <row r="93" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -71245,11 +71525,14 @@
       <c r="IV93" s="6">
         <v>703</v>
       </c>
-      <c r="IW93" s="7">
+      <c r="IW93" s="6">
         <v>690</v>
       </c>
+      <c r="IX93" s="7">
+        <v>677</v>
+      </c>
     </row>
-    <row r="94" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
@@ -72018,11 +72301,14 @@
       <c r="IV94" s="6">
         <v>65</v>
       </c>
-      <c r="IW94" s="7">
+      <c r="IW94" s="6">
         <v>50</v>
       </c>
+      <c r="IX94" s="7">
+        <v>42</v>
+      </c>
     </row>
-    <row r="95" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
@@ -72791,11 +73077,14 @@
       <c r="IV95" s="6">
         <v>953</v>
       </c>
-      <c r="IW95" s="7">
+      <c r="IW95" s="6">
         <v>1002</v>
       </c>
+      <c r="IX95" s="7">
+        <v>990</v>
+      </c>
     </row>
-    <row r="96" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>90</v>
       </c>
@@ -73564,11 +73853,14 @@
       <c r="IV96" s="6">
         <v>116</v>
       </c>
-      <c r="IW96" s="7">
+      <c r="IW96" s="6">
         <v>109</v>
       </c>
+      <c r="IX96" s="7">
+        <v>109</v>
+      </c>
     </row>
-    <row r="97" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>91</v>
       </c>
@@ -74337,11 +74629,14 @@
       <c r="IV97" s="6">
         <v>1696</v>
       </c>
-      <c r="IW97" s="7">
+      <c r="IW97" s="6">
         <v>1691</v>
       </c>
+      <c r="IX97" s="7">
+        <v>1670</v>
+      </c>
     </row>
-    <row r="98" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>92</v>
       </c>
@@ -75110,11 +75405,14 @@
       <c r="IV98" s="6">
         <v>493</v>
       </c>
-      <c r="IW98" s="7">
+      <c r="IW98" s="6">
         <v>467</v>
       </c>
+      <c r="IX98" s="7">
+        <v>470</v>
+      </c>
     </row>
-    <row r="99" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
@@ -75883,11 +76181,14 @@
       <c r="IV99" s="6">
         <v>37440</v>
       </c>
-      <c r="IW99" s="7">
+      <c r="IW99" s="6">
         <v>37517</v>
       </c>
+      <c r="IX99" s="7">
+        <v>37730</v>
+      </c>
     </row>
-    <row r="100" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>94</v>
       </c>
@@ -76656,11 +76957,14 @@
       <c r="IV100" s="6">
         <v>6112</v>
       </c>
-      <c r="IW100" s="7">
+      <c r="IW100" s="6">
         <v>6251</v>
       </c>
+      <c r="IX100" s="7">
+        <v>6486</v>
+      </c>
     </row>
-    <row r="101" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>95</v>
       </c>
@@ -77429,11 +77733,14 @@
       <c r="IV101" s="6">
         <v>909</v>
       </c>
-      <c r="IW101" s="7">
+      <c r="IW101" s="6">
         <v>865</v>
       </c>
+      <c r="IX101" s="7">
+        <v>759</v>
+      </c>
     </row>
-    <row r="102" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>96</v>
       </c>
@@ -78202,11 +78509,14 @@
       <c r="IV102" s="6">
         <v>539</v>
       </c>
-      <c r="IW102" s="7">
+      <c r="IW102" s="6">
         <v>525</v>
       </c>
+      <c r="IX102" s="7">
+        <v>510</v>
+      </c>
     </row>
-    <row r="103" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>97</v>
       </c>
@@ -78975,11 +79285,14 @@
       <c r="IV103" s="6">
         <v>89704</v>
       </c>
-      <c r="IW103" s="7">
+      <c r="IW103" s="6">
         <v>90060</v>
       </c>
+      <c r="IX103" s="7">
+        <v>91043</v>
+      </c>
     </row>
-    <row r="104" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>98</v>
       </c>
@@ -79748,11 +80061,14 @@
       <c r="IV104" s="6">
         <v>115900</v>
       </c>
-      <c r="IW104" s="7">
+      <c r="IW104" s="6">
         <v>116196</v>
       </c>
+      <c r="IX104" s="7">
+        <v>116918</v>
+      </c>
     </row>
-    <row r="105" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>99</v>
       </c>
@@ -80521,11 +80837,14 @@
       <c r="IV105" s="6">
         <v>921</v>
       </c>
-      <c r="IW105" s="7">
+      <c r="IW105" s="6">
         <v>884</v>
       </c>
+      <c r="IX105" s="7">
+        <v>894</v>
+      </c>
     </row>
-    <row r="106" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>100</v>
       </c>
@@ -81294,11 +81613,14 @@
       <c r="IV106" s="6">
         <v>985</v>
       </c>
-      <c r="IW106" s="7">
+      <c r="IW106" s="6">
         <v>1098</v>
       </c>
+      <c r="IX106" s="7">
+        <v>1110</v>
+      </c>
     </row>
-    <row r="107" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>101</v>
       </c>
@@ -82067,11 +82389,14 @@
       <c r="IV107" s="6">
         <v>30354</v>
       </c>
-      <c r="IW107" s="7">
+      <c r="IW107" s="6">
         <v>30523</v>
       </c>
+      <c r="IX107" s="7">
+        <v>30822</v>
+      </c>
     </row>
-    <row r="108" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>102</v>
       </c>
@@ -82840,11 +83165,14 @@
       <c r="IV108" s="6">
         <v>1011</v>
       </c>
-      <c r="IW108" s="7">
+      <c r="IW108" s="6">
         <v>992</v>
       </c>
+      <c r="IX108" s="7">
+        <v>958</v>
+      </c>
     </row>
-    <row r="109" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>103</v>
       </c>
@@ -83613,11 +83941,14 @@
       <c r="IV109" s="6">
         <v>448</v>
       </c>
-      <c r="IW109" s="7">
+      <c r="IW109" s="6">
         <v>428</v>
       </c>
+      <c r="IX109" s="7">
+        <v>437</v>
+      </c>
     </row>
-    <row r="110" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>104</v>
       </c>
@@ -84386,11 +84717,14 @@
       <c r="IV110" s="6">
         <v>49</v>
       </c>
-      <c r="IW110" s="7">
+      <c r="IW110" s="6">
         <v>48</v>
       </c>
+      <c r="IX110" s="7">
+        <v>49</v>
+      </c>
     </row>
-    <row r="111" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -85159,11 +85493,14 @@
       <c r="IV111" s="6">
         <v>1949</v>
       </c>
-      <c r="IW111" s="7">
+      <c r="IW111" s="6">
         <v>1994</v>
       </c>
+      <c r="IX111" s="7">
+        <v>2002</v>
+      </c>
     </row>
-    <row r="112" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>106</v>
       </c>
@@ -85932,11 +86269,14 @@
       <c r="IV112" s="6">
         <v>3200</v>
       </c>
-      <c r="IW112" s="7">
+      <c r="IW112" s="6">
         <v>2885</v>
       </c>
+      <c r="IX112" s="7">
+        <v>2982</v>
+      </c>
     </row>
-    <row r="113" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -86705,11 +87045,14 @@
       <c r="IV113" s="6">
         <v>342</v>
       </c>
-      <c r="IW113" s="7">
+      <c r="IW113" s="6">
         <v>343</v>
       </c>
+      <c r="IX113" s="7">
+        <v>353</v>
+      </c>
     </row>
-    <row r="114" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>108</v>
       </c>
@@ -87478,11 +87821,14 @@
       <c r="IV114" s="6">
         <v>3161</v>
       </c>
-      <c r="IW114" s="7">
+      <c r="IW114" s="6">
         <v>3156</v>
       </c>
+      <c r="IX114" s="7">
+        <v>3067</v>
+      </c>
     </row>
-    <row r="115" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>109</v>
       </c>
@@ -88251,11 +88597,14 @@
       <c r="IV115" s="6">
         <v>1311</v>
       </c>
-      <c r="IW115" s="7">
+      <c r="IW115" s="6">
         <v>1355</v>
       </c>
+      <c r="IX115" s="7">
+        <v>1389</v>
+      </c>
     </row>
-    <row r="116" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>110</v>
       </c>
@@ -89024,11 +89373,14 @@
       <c r="IV116" s="6">
         <v>585</v>
       </c>
-      <c r="IW116" s="7">
+      <c r="IW116" s="6">
         <v>582</v>
       </c>
+      <c r="IX116" s="7">
+        <v>581</v>
+      </c>
     </row>
-    <row r="117" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>111</v>
       </c>
@@ -89797,11 +90149,14 @@
       <c r="IV117" s="6">
         <v>2002</v>
       </c>
-      <c r="IW117" s="7">
+      <c r="IW117" s="6">
         <v>2010</v>
       </c>
+      <c r="IX117" s="7">
+        <v>1997</v>
+      </c>
     </row>
-    <row r="118" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>112</v>
       </c>
@@ -90570,11 +90925,14 @@
       <c r="IV118" s="6">
         <v>428</v>
       </c>
-      <c r="IW118" s="7">
+      <c r="IW118" s="6">
         <v>425</v>
       </c>
+      <c r="IX118" s="7">
+        <v>435</v>
+      </c>
     </row>
-    <row r="119" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>113</v>
       </c>
@@ -91343,11 +91701,14 @@
       <c r="IV119" s="6">
         <v>1071</v>
       </c>
-      <c r="IW119" s="7">
+      <c r="IW119" s="6">
         <v>1042</v>
       </c>
+      <c r="IX119" s="7">
+        <v>1057</v>
+      </c>
     </row>
-    <row r="120" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>114</v>
       </c>
@@ -92116,11 +92477,14 @@
       <c r="IV120" s="6">
         <v>42</v>
       </c>
-      <c r="IW120" s="7">
+      <c r="IW120" s="6">
         <v>41</v>
       </c>
+      <c r="IX120" s="7">
+        <v>41</v>
+      </c>
     </row>
-    <row r="121" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>115</v>
       </c>
@@ -92889,11 +93253,14 @@
       <c r="IV121" s="6">
         <v>647</v>
       </c>
-      <c r="IW121" s="7">
+      <c r="IW121" s="6">
         <v>641</v>
       </c>
+      <c r="IX121" s="7">
+        <v>639</v>
+      </c>
     </row>
-    <row r="122" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>116</v>
       </c>
@@ -93662,11 +94029,14 @@
       <c r="IV122" s="6">
         <v>139</v>
       </c>
-      <c r="IW122" s="7">
+      <c r="IW122" s="6">
         <v>142</v>
       </c>
+      <c r="IX122" s="7">
+        <v>143</v>
+      </c>
     </row>
-    <row r="123" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>117</v>
       </c>
@@ -94435,11 +94805,14 @@
       <c r="IV123" s="6">
         <v>649</v>
       </c>
-      <c r="IW123" s="7">
+      <c r="IW123" s="6">
         <v>617</v>
       </c>
+      <c r="IX123" s="7">
+        <v>604</v>
+      </c>
     </row>
-    <row r="124" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>118</v>
       </c>
@@ -95208,11 +95581,14 @@
       <c r="IV124" s="6">
         <v>1707</v>
       </c>
-      <c r="IW124" s="7">
+      <c r="IW124" s="6">
         <v>3239</v>
       </c>
+      <c r="IX124" s="7">
+        <v>2080</v>
+      </c>
     </row>
-    <row r="125" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>119</v>
       </c>
@@ -95981,11 +96357,14 @@
       <c r="IV125" s="6">
         <v>399307</v>
       </c>
-      <c r="IW125" s="7">
+      <c r="IW125" s="6">
         <v>402503</v>
       </c>
+      <c r="IX125" s="7">
+        <v>403473</v>
+      </c>
     </row>
-    <row r="126" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>120</v>
       </c>
@@ -96754,11 +97133,14 @@
       <c r="IV126" s="6">
         <v>7384</v>
       </c>
-      <c r="IW126" s="7">
+      <c r="IW126" s="6">
         <v>7391</v>
       </c>
+      <c r="IX126" s="7">
+        <v>7237</v>
+      </c>
     </row>
-    <row r="127" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>121</v>
       </c>
@@ -97527,11 +97909,14 @@
       <c r="IV127" s="6">
         <v>45</v>
       </c>
-      <c r="IW127" s="7">
+      <c r="IW127" s="6">
         <v>45</v>
       </c>
+      <c r="IX127" s="7">
+        <v>45</v>
+      </c>
     </row>
-    <row r="128" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>122</v>
       </c>
@@ -98300,11 +98685,14 @@
       <c r="IV128" s="6">
         <v>2433</v>
       </c>
-      <c r="IW128" s="7">
+      <c r="IW128" s="6">
         <v>2509</v>
       </c>
+      <c r="IX128" s="7">
+        <v>2641</v>
+      </c>
     </row>
-    <row r="129" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>123</v>
       </c>
@@ -99073,11 +99461,14 @@
       <c r="IV129" s="6">
         <v>34287</v>
       </c>
-      <c r="IW129" s="7">
+      <c r="IW129" s="6">
         <v>34159</v>
       </c>
+      <c r="IX129" s="7">
+        <v>33246</v>
+      </c>
     </row>
-    <row r="130" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>124</v>
       </c>
@@ -99837,20 +100228,23 @@
       <c r="IS130" s="6">
         <v>6148</v>
       </c>
-      <c r="IT130" s="5">
+      <c r="IT130" s="31">
         <v>6051</v>
       </c>
-      <c r="IU130" s="6">
+      <c r="IU130" s="32">
         <v>6028</v>
       </c>
-      <c r="IV130" s="6">
+      <c r="IV130" s="32">
         <v>6021</v>
       </c>
-      <c r="IW130" s="7">
+      <c r="IW130" s="32">
         <v>6070</v>
       </c>
+      <c r="IX130" s="33">
+        <v>6085</v>
+      </c>
     </row>
-    <row r="131" spans="1:257" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:258" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
         <v>127</v>
       </c>
@@ -100619,11 +101013,14 @@
       <c r="IV131" s="22">
         <v>1803619</v>
       </c>
-      <c r="IW131" s="24">
+      <c r="IW131" s="22">
         <v>1810884</v>
       </c>
+      <c r="IX131" s="24">
+        <v>1815607</v>
+      </c>
     </row>
-    <row r="132" spans="1:257" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:258" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="19"/>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
@@ -100871,7 +101268,7 @@
       <c r="IL132" s="19"/>
       <c r="IM132" s="19"/>
     </row>
-    <row r="133" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>126</v>
       </c>

--- a/Historicos/ta_municipios_jalisco.xlsx
+++ b/Historicos/ta_municipios_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="142">
   <si>
     <t>Acatic</t>
   </si>
@@ -1098,10 +1098,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1152,7 +1152,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1198,8 +1198,11 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="18" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="35" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1207,20 +1210,29 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="18" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="35" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="35" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1568,11 +1580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IY145"/>
+  <dimension ref="A1:IZ145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A30" sqref="A30"/>
+      <selection pane="topRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,18 +1701,18 @@
     <col min="257" max="257" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="7">
@@ -2459,27 +2471,30 @@
       <c r="IS4" s="24">
         <v>2020</v>
       </c>
-      <c r="IT4" s="23">
+      <c r="IT4" s="31">
         <v>2021</v>
       </c>
-      <c r="IU4" s="24">
+      <c r="IU4" s="32">
         <v>2021</v>
       </c>
-      <c r="IV4" s="24">
+      <c r="IV4" s="32">
         <v>2021</v>
       </c>
-      <c r="IW4" s="24">
+      <c r="IW4" s="32">
         <v>2021</v>
       </c>
-      <c r="IX4" s="24">
+      <c r="IX4" s="32">
         <v>2021</v>
       </c>
-      <c r="IY4" s="25">
+      <c r="IY4" s="32">
         <v>2021</v>
       </c>
+      <c r="IZ4" s="33">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+    <row r="5" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
       <c r="B5" s="4" t="s">
         <v>129</v>
       </c>
@@ -3236,26 +3251,29 @@
       <c r="IS5" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="IT5" s="30" t="s">
+      <c r="IT5" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="IU5" s="31" t="s">
+      <c r="IU5" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="IV5" s="31" t="s">
+      <c r="IV5" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="IW5" s="31" t="s">
+      <c r="IW5" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="IX5" s="31" t="s">
+      <c r="IX5" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="IY5" s="32" t="s">
+      <c r="IY5" s="29" t="s">
         <v>134</v>
       </c>
+      <c r="IZ5" s="35" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="6" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -4030,11 +4048,14 @@
       <c r="IX6" s="6">
         <v>4661</v>
       </c>
-      <c r="IY6" s="28">
+      <c r="IY6" s="30">
         <v>4689</v>
       </c>
+      <c r="IZ6" s="25">
+        <v>4690</v>
+      </c>
     </row>
-    <row r="7" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -4809,11 +4830,14 @@
       <c r="IX7" s="6">
         <v>6021</v>
       </c>
-      <c r="IY7" s="28">
+      <c r="IY7" s="30">
         <v>6390</v>
       </c>
+      <c r="IZ7" s="25">
+        <v>6329</v>
+      </c>
     </row>
-    <row r="8" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -5588,11 +5612,14 @@
       <c r="IX8" s="6">
         <v>1489</v>
       </c>
-      <c r="IY8" s="28">
+      <c r="IY8" s="30">
         <v>1491</v>
       </c>
+      <c r="IZ8" s="25">
+        <v>1542</v>
+      </c>
     </row>
-    <row r="9" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -6367,11 +6394,14 @@
       <c r="IX9" s="6">
         <v>81</v>
       </c>
-      <c r="IY9" s="28">
+      <c r="IY9" s="30">
         <v>81</v>
       </c>
+      <c r="IZ9" s="25">
+        <v>83</v>
+      </c>
     </row>
-    <row r="10" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -7146,11 +7176,14 @@
       <c r="IX10" s="6">
         <v>1854</v>
       </c>
-      <c r="IY10" s="28">
+      <c r="IY10" s="30">
         <v>1847</v>
       </c>
+      <c r="IZ10" s="25">
+        <v>2011</v>
+      </c>
     </row>
-    <row r="11" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -7925,11 +7958,14 @@
       <c r="IX11" s="6">
         <v>5921</v>
       </c>
-      <c r="IY11" s="28">
+      <c r="IY11" s="30">
         <v>5944</v>
       </c>
+      <c r="IZ11" s="25">
+        <v>6336</v>
+      </c>
     </row>
-    <row r="12" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -8704,11 +8740,14 @@
       <c r="IX12" s="6">
         <v>11915</v>
       </c>
-      <c r="IY12" s="28">
+      <c r="IY12" s="30">
         <v>12094</v>
       </c>
+      <c r="IZ12" s="25">
+        <v>12778</v>
+      </c>
     </row>
-    <row r="13" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -9483,11 +9522,14 @@
       <c r="IX13" s="6">
         <v>54</v>
       </c>
-      <c r="IY13" s="28">
+      <c r="IY13" s="30">
         <v>55</v>
       </c>
+      <c r="IZ13" s="25">
+        <v>483</v>
+      </c>
     </row>
-    <row r="14" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -10262,11 +10304,14 @@
       <c r="IX14" s="6">
         <v>19</v>
       </c>
-      <c r="IY14" s="28">
+      <c r="IY14" s="30">
         <v>19</v>
       </c>
+      <c r="IZ14" s="25">
+        <v>23</v>
+      </c>
     </row>
-    <row r="15" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -11041,11 +11086,14 @@
       <c r="IX15" s="6">
         <v>91</v>
       </c>
-      <c r="IY15" s="28">
+      <c r="IY15" s="30">
         <v>84</v>
       </c>
+      <c r="IZ15" s="25">
+        <v>76</v>
+      </c>
     </row>
-    <row r="16" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -11820,11 +11868,14 @@
       <c r="IX16" s="6">
         <v>10145</v>
       </c>
-      <c r="IY16" s="28">
+      <c r="IY16" s="30">
         <v>10316</v>
       </c>
+      <c r="IZ16" s="25">
+        <v>10206</v>
+      </c>
     </row>
-    <row r="17" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -12599,11 +12650,14 @@
       <c r="IX17" s="6">
         <v>598</v>
       </c>
-      <c r="IY17" s="28">
+      <c r="IY17" s="30">
         <v>587</v>
       </c>
+      <c r="IZ17" s="25">
+        <v>609</v>
+      </c>
     </row>
-    <row r="18" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -13378,11 +13432,14 @@
       <c r="IX18" s="6">
         <v>10866</v>
       </c>
-      <c r="IY18" s="28">
+      <c r="IY18" s="30">
         <v>10960</v>
       </c>
+      <c r="IZ18" s="25">
+        <v>11216</v>
+      </c>
     </row>
-    <row r="19" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -14157,11 +14214,14 @@
       <c r="IX19" s="6">
         <v>3605</v>
       </c>
-      <c r="IY19" s="28">
+      <c r="IY19" s="30">
         <v>3533</v>
       </c>
+      <c r="IZ19" s="25">
+        <v>3580</v>
+      </c>
     </row>
-    <row r="20" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -14936,11 +14996,14 @@
       <c r="IX20" s="6">
         <v>341</v>
       </c>
-      <c r="IY20" s="28">
+      <c r="IY20" s="30">
         <v>342</v>
       </c>
+      <c r="IZ20" s="25">
+        <v>347</v>
+      </c>
     </row>
-    <row r="21" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -15715,11 +15778,14 @@
       <c r="IX21" s="6">
         <v>660</v>
       </c>
-      <c r="IY21" s="28">
+      <c r="IY21" s="30">
         <v>655</v>
       </c>
+      <c r="IZ21" s="25">
+        <v>668</v>
+      </c>
     </row>
-    <row r="22" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -16494,11 +16560,14 @@
       <c r="IX22" s="6">
         <v>359</v>
       </c>
-      <c r="IY22" s="28">
+      <c r="IY22" s="30">
         <v>357</v>
       </c>
+      <c r="IZ22" s="25">
+        <v>361</v>
+      </c>
     </row>
-    <row r="23" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -17273,11 +17342,14 @@
       <c r="IX23" s="6">
         <v>47</v>
       </c>
-      <c r="IY23" s="28">
+      <c r="IY23" s="30">
         <v>46</v>
       </c>
+      <c r="IZ23" s="25">
+        <v>47</v>
+      </c>
     </row>
-    <row r="24" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -18052,11 +18124,14 @@
       <c r="IX24" s="6">
         <v>3068</v>
       </c>
-      <c r="IY24" s="28">
+      <c r="IY24" s="30">
         <v>2997</v>
       </c>
+      <c r="IZ24" s="25">
+        <v>2854</v>
+      </c>
     </row>
-    <row r="25" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -18831,11 +18906,14 @@
       <c r="IX25" s="6">
         <v>5418</v>
       </c>
-      <c r="IY25" s="28">
+      <c r="IY25" s="30">
         <v>5418</v>
       </c>
+      <c r="IZ25" s="25">
+        <v>5872</v>
+      </c>
     </row>
-    <row r="26" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -19610,11 +19688,14 @@
       <c r="IX26" s="6">
         <v>5</v>
       </c>
-      <c r="IY26" s="28">
+      <c r="IY26" s="30">
         <v>5</v>
       </c>
+      <c r="IZ26" s="25">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -20389,11 +20470,14 @@
       <c r="IX27" s="6">
         <v>161</v>
       </c>
-      <c r="IY27" s="28">
+      <c r="IY27" s="30">
         <v>163</v>
       </c>
+      <c r="IZ27" s="25">
+        <v>162</v>
+      </c>
     </row>
-    <row r="28" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -21168,11 +21252,14 @@
       <c r="IX28" s="6">
         <v>2220</v>
       </c>
-      <c r="IY28" s="28">
+      <c r="IY28" s="30">
         <v>2283</v>
       </c>
+      <c r="IZ28" s="25">
+        <v>2382</v>
+      </c>
     </row>
-    <row r="29" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -21947,11 +22034,14 @@
       <c r="IX29" s="6">
         <v>2331</v>
       </c>
-      <c r="IY29" s="28">
+      <c r="IY29" s="30">
         <v>2309</v>
       </c>
+      <c r="IZ29" s="25">
+        <v>2336</v>
+      </c>
     </row>
-    <row r="30" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -22726,11 +22816,14 @@
       <c r="IX30" s="6">
         <v>666</v>
       </c>
-      <c r="IY30" s="28">
+      <c r="IY30" s="30">
         <v>665</v>
       </c>
+      <c r="IZ30" s="25">
+        <v>623</v>
+      </c>
     </row>
-    <row r="31" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
@@ -23505,11 +23598,14 @@
       <c r="IX31" s="6">
         <v>130</v>
       </c>
-      <c r="IY31" s="28">
+      <c r="IY31" s="30">
         <v>128</v>
       </c>
+      <c r="IZ31" s="25">
+        <v>128</v>
+      </c>
     </row>
-    <row r="32" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
@@ -24284,11 +24380,14 @@
       <c r="IX32" s="6">
         <v>44</v>
       </c>
-      <c r="IY32" s="28">
+      <c r="IY32" s="30">
         <v>43</v>
       </c>
+      <c r="IZ32" s="25">
+        <v>42</v>
+      </c>
     </row>
-    <row r="33" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -25063,11 +25162,14 @@
       <c r="IX33" s="6">
         <v>61</v>
       </c>
-      <c r="IY33" s="28">
+      <c r="IY33" s="30">
         <v>61</v>
       </c>
+      <c r="IZ33" s="25">
+        <v>58</v>
+      </c>
     </row>
-    <row r="34" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -25842,11 +25944,14 @@
       <c r="IX34" s="6">
         <v>202</v>
       </c>
-      <c r="IY34" s="28">
+      <c r="IY34" s="30">
         <v>215</v>
       </c>
+      <c r="IZ34" s="25">
+        <v>202</v>
+      </c>
     </row>
-    <row r="35" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -26621,11 +26726,14 @@
       <c r="IX35" s="6">
         <v>724</v>
       </c>
-      <c r="IY35" s="28">
+      <c r="IY35" s="30">
         <v>722</v>
       </c>
+      <c r="IZ35" s="25">
+        <v>983</v>
+      </c>
     </row>
-    <row r="36" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -27400,11 +27508,14 @@
       <c r="IX36" s="6">
         <v>5</v>
       </c>
-      <c r="IY36" s="28">
+      <c r="IY36" s="30">
         <v>6</v>
       </c>
+      <c r="IZ36" s="25">
+        <v>6</v>
+      </c>
     </row>
-    <row r="37" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -28179,11 +28290,14 @@
       <c r="IX37" s="6">
         <v>2638</v>
       </c>
-      <c r="IY37" s="28">
+      <c r="IY37" s="30">
         <v>2611</v>
       </c>
+      <c r="IZ37" s="25">
+        <v>3298</v>
+      </c>
     </row>
-    <row r="38" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -28958,11 +29072,14 @@
       <c r="IX38" s="6">
         <v>2472</v>
       </c>
-      <c r="IY38" s="28">
+      <c r="IY38" s="30">
         <v>2470</v>
       </c>
+      <c r="IZ38" s="25">
+        <v>2470</v>
+      </c>
     </row>
-    <row r="39" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
@@ -29737,11 +29854,14 @@
       <c r="IX39" s="6">
         <v>161</v>
       </c>
-      <c r="IY39" s="28">
+      <c r="IY39" s="30">
         <v>163</v>
       </c>
+      <c r="IZ39" s="25">
+        <v>162</v>
+      </c>
     </row>
-    <row r="40" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
@@ -30516,11 +30636,14 @@
       <c r="IX40" s="6">
         <v>54362</v>
       </c>
-      <c r="IY40" s="28">
+      <c r="IY40" s="30">
         <v>55284</v>
       </c>
+      <c r="IZ40" s="25">
+        <v>59635</v>
+      </c>
     </row>
-    <row r="41" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -31295,11 +31418,14 @@
       <c r="IX41" s="6">
         <v>3259</v>
       </c>
-      <c r="IY41" s="28">
+      <c r="IY41" s="30">
         <v>3253</v>
       </c>
+      <c r="IZ41" s="25">
+        <v>3171</v>
+      </c>
     </row>
-    <row r="42" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -32074,11 +32200,14 @@
       <c r="IX42" s="6">
         <v>668</v>
       </c>
-      <c r="IY42" s="28">
+      <c r="IY42" s="30">
         <v>687</v>
       </c>
+      <c r="IZ42" s="25">
+        <v>705</v>
+      </c>
     </row>
-    <row r="43" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -32853,11 +32982,14 @@
       <c r="IX43" s="6">
         <v>1617</v>
       </c>
-      <c r="IY43" s="28">
+      <c r="IY43" s="30">
         <v>1582</v>
       </c>
+      <c r="IZ43" s="25">
+        <v>2399</v>
+      </c>
     </row>
-    <row r="44" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -33632,11 +33764,14 @@
       <c r="IX44" s="6">
         <v>154</v>
       </c>
-      <c r="IY44" s="28">
+      <c r="IY44" s="30">
         <v>153</v>
       </c>
+      <c r="IZ44" s="25">
+        <v>153</v>
+      </c>
     </row>
-    <row r="45" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -34411,11 +34546,14 @@
       <c r="IX45" s="6">
         <v>699577</v>
       </c>
-      <c r="IY45" s="28">
+      <c r="IY45" s="30">
         <v>701178</v>
       </c>
+      <c r="IZ45" s="25">
+        <v>683131</v>
+      </c>
     </row>
-    <row r="46" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
@@ -35190,11 +35328,14 @@
       <c r="IX46" s="6">
         <v>185</v>
       </c>
-      <c r="IY46" s="28">
+      <c r="IY46" s="30">
         <v>211</v>
       </c>
+      <c r="IZ46" s="25">
+        <v>211</v>
+      </c>
     </row>
-    <row r="47" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
@@ -35969,11 +36110,14 @@
       <c r="IX47" s="6">
         <v>101</v>
       </c>
-      <c r="IY47" s="28">
+      <c r="IY47" s="30">
         <v>93</v>
       </c>
+      <c r="IZ47" s="25">
+        <v>92</v>
+      </c>
     </row>
-    <row r="48" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -36748,11 +36892,14 @@
       <c r="IX48" s="6">
         <v>795</v>
       </c>
-      <c r="IY48" s="28">
+      <c r="IY48" s="30">
         <v>857</v>
       </c>
+      <c r="IZ48" s="25">
+        <v>782</v>
+      </c>
     </row>
-    <row r="49" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -37527,11 +37674,14 @@
       <c r="IX49" s="6">
         <v>3820</v>
       </c>
-      <c r="IY49" s="28">
+      <c r="IY49" s="30">
         <v>4538</v>
       </c>
+      <c r="IZ49" s="25">
+        <v>4474</v>
+      </c>
     </row>
-    <row r="50" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -38306,11 +38456,14 @@
       <c r="IX50" s="6">
         <v>531</v>
       </c>
-      <c r="IY50" s="28">
+      <c r="IY50" s="30">
         <v>532</v>
       </c>
+      <c r="IZ50" s="25">
+        <v>546</v>
+      </c>
     </row>
-    <row r="51" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -39085,11 +39238,14 @@
       <c r="IX51" s="6">
         <v>2606</v>
       </c>
-      <c r="IY51" s="28">
+      <c r="IY51" s="30">
         <v>2599</v>
       </c>
+      <c r="IZ51" s="25">
+        <v>2679</v>
+      </c>
     </row>
-    <row r="52" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -39864,11 +40020,14 @@
       <c r="IX52" s="6">
         <v>1372</v>
       </c>
-      <c r="IY52" s="28">
+      <c r="IY52" s="30">
         <v>1407</v>
       </c>
+      <c r="IZ52" s="25">
+        <v>1375</v>
+      </c>
     </row>
-    <row r="53" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -40643,11 +40802,14 @@
       <c r="IX53" s="6">
         <v>1728</v>
       </c>
-      <c r="IY53" s="28">
+      <c r="IY53" s="30">
         <v>1771</v>
       </c>
+      <c r="IZ53" s="25">
+        <v>1738</v>
+      </c>
     </row>
-    <row r="54" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>48</v>
       </c>
@@ -41422,11 +41584,14 @@
       <c r="IX54" s="6">
         <v>57</v>
       </c>
-      <c r="IY54" s="28">
+      <c r="IY54" s="30">
         <v>56</v>
       </c>
+      <c r="IZ54" s="25">
+        <v>64</v>
+      </c>
     </row>
-    <row r="55" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
@@ -42201,11 +42366,14 @@
       <c r="IX55" s="6">
         <v>7873</v>
       </c>
-      <c r="IY55" s="28">
+      <c r="IY55" s="30">
         <v>6718</v>
       </c>
+      <c r="IZ55" s="25">
+        <v>6672</v>
+      </c>
     </row>
-    <row r="56" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -42980,11 +43148,14 @@
       <c r="IX56" s="6">
         <v>1339</v>
       </c>
-      <c r="IY56" s="28">
+      <c r="IY56" s="30">
         <v>1345</v>
       </c>
+      <c r="IZ56" s="25">
+        <v>1361</v>
+      </c>
     </row>
-    <row r="57" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>51</v>
       </c>
@@ -43759,11 +43930,14 @@
       <c r="IX57" s="6">
         <v>82</v>
       </c>
-      <c r="IY57" s="28">
+      <c r="IY57" s="30">
         <v>83</v>
       </c>
+      <c r="IZ57" s="25">
+        <v>82</v>
+      </c>
     </row>
-    <row r="58" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -44538,11 +44712,14 @@
       <c r="IX58" s="6">
         <v>5241</v>
       </c>
-      <c r="IY58" s="28">
+      <c r="IY58" s="30">
         <v>5079</v>
       </c>
+      <c r="IZ58" s="25">
+        <v>5113</v>
+      </c>
     </row>
-    <row r="59" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>53</v>
       </c>
@@ -45317,11 +45494,14 @@
       <c r="IX59" s="6">
         <v>2379</v>
       </c>
-      <c r="IY59" s="28">
+      <c r="IY59" s="30">
         <v>2558</v>
       </c>
+      <c r="IZ59" s="25">
+        <v>2495</v>
+      </c>
     </row>
-    <row r="60" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
@@ -46096,11 +46276,14 @@
       <c r="IX60" s="6">
         <v>110</v>
       </c>
-      <c r="IY60" s="28">
+      <c r="IY60" s="30">
         <v>119</v>
       </c>
+      <c r="IZ60" s="25">
+        <v>115</v>
+      </c>
     </row>
-    <row r="61" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>55</v>
       </c>
@@ -46875,11 +47058,14 @@
       <c r="IX61" s="6">
         <v>33859</v>
       </c>
-      <c r="IY61" s="28">
+      <c r="IY61" s="30">
         <v>34823</v>
       </c>
+      <c r="IZ61" s="25">
+        <v>36085</v>
+      </c>
     </row>
-    <row r="62" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -47654,11 +47840,14 @@
       <c r="IX62" s="6">
         <v>995</v>
       </c>
-      <c r="IY62" s="28">
+      <c r="IY62" s="30">
         <v>1030</v>
       </c>
+      <c r="IZ62" s="25">
+        <v>1027</v>
+      </c>
     </row>
-    <row r="63" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
@@ -48433,11 +48622,14 @@
       <c r="IX63" s="6">
         <v>607</v>
       </c>
-      <c r="IY63" s="28">
+      <c r="IY63" s="30">
         <v>606</v>
       </c>
+      <c r="IZ63" s="25">
+        <v>594</v>
+      </c>
     </row>
-    <row r="64" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
@@ -49212,11 +49404,14 @@
       <c r="IX64" s="6">
         <v>1010</v>
       </c>
-      <c r="IY64" s="28">
+      <c r="IY64" s="30">
         <v>1049</v>
       </c>
+      <c r="IZ64" s="25">
+        <v>1056</v>
+      </c>
     </row>
-    <row r="65" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>59</v>
       </c>
@@ -49991,11 +50186,14 @@
       <c r="IX65" s="6">
         <v>12</v>
       </c>
-      <c r="IY65" s="28">
+      <c r="IY65" s="30">
         <v>13</v>
       </c>
+      <c r="IZ65" s="25">
+        <v>13</v>
+      </c>
     </row>
-    <row r="66" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>60</v>
       </c>
@@ -50770,11 +50968,14 @@
       <c r="IX66" s="6">
         <v>169</v>
       </c>
-      <c r="IY66" s="28">
+      <c r="IY66" s="30">
         <v>170</v>
       </c>
+      <c r="IZ66" s="25">
+        <v>174</v>
+      </c>
     </row>
-    <row r="67" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>61</v>
       </c>
@@ -51549,11 +51750,14 @@
       <c r="IX67" s="6">
         <v>23</v>
       </c>
-      <c r="IY67" s="28">
+      <c r="IY67" s="30">
         <v>32</v>
       </c>
+      <c r="IZ67" s="25">
+        <v>33</v>
+      </c>
     </row>
-    <row r="68" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>62</v>
       </c>
@@ -52328,11 +52532,14 @@
       <c r="IX68" s="6">
         <v>21431</v>
       </c>
-      <c r="IY68" s="28">
+      <c r="IY68" s="30">
         <v>21334</v>
       </c>
+      <c r="IZ68" s="25">
+        <v>21223</v>
+      </c>
     </row>
-    <row r="69" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>63</v>
       </c>
@@ -53107,11 +53314,14 @@
       <c r="IX69" s="6">
         <v>503</v>
       </c>
-      <c r="IY69" s="28">
+      <c r="IY69" s="30">
         <v>489</v>
       </c>
+      <c r="IZ69" s="25">
+        <v>507</v>
+      </c>
     </row>
-    <row r="70" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>64</v>
       </c>
@@ -53886,11 +54096,14 @@
       <c r="IX70" s="6">
         <v>535</v>
       </c>
-      <c r="IY70" s="28">
+      <c r="IY70" s="30">
         <v>551</v>
       </c>
+      <c r="IZ70" s="25">
+        <v>558</v>
+      </c>
     </row>
-    <row r="71" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>65</v>
       </c>
@@ -54665,11 +54878,14 @@
       <c r="IX71" s="6">
         <v>4235</v>
       </c>
-      <c r="IY71" s="28">
+      <c r="IY71" s="30">
         <v>4369</v>
       </c>
+      <c r="IZ71" s="25">
+        <v>4599</v>
+      </c>
     </row>
-    <row r="72" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>66</v>
       </c>
@@ -55444,11 +55660,14 @@
       <c r="IX72" s="6">
         <v>69800</v>
       </c>
-      <c r="IY72" s="28">
+      <c r="IY72" s="30">
         <v>68951</v>
       </c>
+      <c r="IZ72" s="25">
+        <v>70776</v>
+      </c>
     </row>
-    <row r="73" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
@@ -56223,11 +56442,14 @@
       <c r="IX73" s="6">
         <v>12</v>
       </c>
-      <c r="IY73" s="28">
+      <c r="IY73" s="30">
         <v>11</v>
       </c>
+      <c r="IZ73" s="25">
+        <v>12</v>
+      </c>
     </row>
-    <row r="74" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>68</v>
       </c>
@@ -57002,11 +57224,14 @@
       <c r="IX74" s="6">
         <v>40</v>
       </c>
-      <c r="IY74" s="28">
+      <c r="IY74" s="30">
         <v>39</v>
       </c>
+      <c r="IZ74" s="25">
+        <v>40</v>
+      </c>
     </row>
-    <row r="75" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>69</v>
       </c>
@@ -57781,11 +58006,14 @@
       <c r="IX75" s="6">
         <v>78</v>
       </c>
-      <c r="IY75" s="28">
+      <c r="IY75" s="30">
         <v>77</v>
       </c>
+      <c r="IZ75" s="25">
+        <v>77</v>
+      </c>
     </row>
-    <row r="76" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>70</v>
       </c>
@@ -58560,11 +58788,14 @@
       <c r="IX76" s="6">
         <v>4308</v>
       </c>
-      <c r="IY76" s="28">
+      <c r="IY76" s="30">
         <v>4543</v>
       </c>
+      <c r="IZ76" s="25">
+        <v>4967</v>
+      </c>
     </row>
-    <row r="77" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
@@ -59339,11 +59570,14 @@
       <c r="IX77" s="6">
         <v>691</v>
       </c>
-      <c r="IY77" s="28">
+      <c r="IY77" s="30">
         <v>914</v>
       </c>
+      <c r="IZ77" s="25">
+        <v>923</v>
+      </c>
     </row>
-    <row r="78" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
@@ -60118,11 +60352,14 @@
       <c r="IX78" s="6">
         <v>14407</v>
       </c>
-      <c r="IY78" s="28">
+      <c r="IY78" s="30">
         <v>14475</v>
       </c>
+      <c r="IZ78" s="25">
+        <v>14912</v>
+      </c>
     </row>
-    <row r="79" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
@@ -60897,11 +61134,14 @@
       <c r="IX79" s="6">
         <v>157</v>
       </c>
-      <c r="IY79" s="28">
+      <c r="IY79" s="30">
         <v>168</v>
       </c>
+      <c r="IZ79" s="25">
+        <v>168</v>
+      </c>
     </row>
-    <row r="80" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>74</v>
       </c>
@@ -61676,11 +61916,14 @@
       <c r="IX80" s="6">
         <v>837</v>
       </c>
-      <c r="IY80" s="28">
+      <c r="IY80" s="30">
         <v>853</v>
       </c>
+      <c r="IZ80" s="25">
+        <v>854</v>
+      </c>
     </row>
-    <row r="81" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
@@ -62455,11 +62698,14 @@
       <c r="IX81" s="6">
         <v>69</v>
       </c>
-      <c r="IY81" s="28">
+      <c r="IY81" s="30">
         <v>70</v>
       </c>
+      <c r="IZ81" s="25">
+        <v>32</v>
+      </c>
     </row>
-    <row r="82" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>76</v>
       </c>
@@ -63234,11 +63480,14 @@
       <c r="IX82" s="6">
         <v>96</v>
       </c>
-      <c r="IY82" s="28">
+      <c r="IY82" s="30">
         <v>87</v>
       </c>
+      <c r="IZ82" s="25">
+        <v>82</v>
+      </c>
     </row>
-    <row r="83" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>77</v>
       </c>
@@ -64013,11 +64262,14 @@
       <c r="IX83" s="6">
         <v>1009</v>
       </c>
-      <c r="IY83" s="28">
+      <c r="IY83" s="30">
         <v>1049</v>
       </c>
+      <c r="IZ83" s="25">
+        <v>1053</v>
+      </c>
     </row>
-    <row r="84" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
@@ -64792,11 +65044,14 @@
       <c r="IX84" s="6">
         <v>3956</v>
       </c>
-      <c r="IY84" s="28">
+      <c r="IY84" s="30">
         <v>3964</v>
       </c>
+      <c r="IZ84" s="25">
+        <v>3997</v>
+      </c>
     </row>
-    <row r="85" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
@@ -65571,11 +65826,14 @@
       <c r="IX85" s="6">
         <v>100</v>
       </c>
-      <c r="IY85" s="28">
+      <c r="IY85" s="30">
         <v>93</v>
       </c>
+      <c r="IZ85" s="25">
+        <v>122</v>
+      </c>
     </row>
-    <row r="86" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>80</v>
       </c>
@@ -66350,11 +66608,14 @@
       <c r="IX86" s="6">
         <v>1</v>
       </c>
-      <c r="IY86" s="28">
+      <c r="IY86" s="30">
         <v>1</v>
       </c>
+      <c r="IZ86" s="25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>81</v>
       </c>
@@ -67129,11 +67390,14 @@
       <c r="IX87" s="6">
         <v>0</v>
       </c>
-      <c r="IY87" s="28">
+      <c r="IY87" s="30">
         <v>0</v>
       </c>
+      <c r="IZ87" s="25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
@@ -67908,11 +68172,14 @@
       <c r="IX88" s="6">
         <v>4717</v>
       </c>
-      <c r="IY88" s="28">
+      <c r="IY88" s="30">
         <v>4838</v>
       </c>
+      <c r="IZ88" s="25">
+        <v>4752</v>
+      </c>
     </row>
-    <row r="89" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>83</v>
       </c>
@@ -68687,11 +68954,14 @@
       <c r="IX89" s="6">
         <v>13970</v>
       </c>
-      <c r="IY89" s="28">
+      <c r="IY89" s="30">
         <v>14085</v>
       </c>
+      <c r="IZ89" s="25">
+        <v>13339</v>
+      </c>
     </row>
-    <row r="90" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
@@ -69466,11 +69736,14 @@
       <c r="IX90" s="6">
         <v>395</v>
       </c>
-      <c r="IY90" s="28">
+      <c r="IY90" s="30">
         <v>394</v>
       </c>
+      <c r="IZ90" s="25">
+        <v>396</v>
+      </c>
     </row>
-    <row r="91" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
@@ -70245,11 +70518,14 @@
       <c r="IX91" s="6">
         <v>6801</v>
       </c>
-      <c r="IY91" s="28">
+      <c r="IY91" s="30">
         <v>6738</v>
       </c>
+      <c r="IZ91" s="25">
+        <v>6365</v>
+      </c>
     </row>
-    <row r="92" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>86</v>
       </c>
@@ -71024,11 +71300,14 @@
       <c r="IX92" s="6">
         <v>2124</v>
       </c>
-      <c r="IY92" s="28">
+      <c r="IY92" s="30">
         <v>1930</v>
       </c>
+      <c r="IZ92" s="25">
+        <v>1754</v>
+      </c>
     </row>
-    <row r="93" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -71803,11 +72082,14 @@
       <c r="IX93" s="6">
         <v>677</v>
       </c>
-      <c r="IY93" s="28">
+      <c r="IY93" s="30">
         <v>692</v>
       </c>
+      <c r="IZ93" s="25">
+        <v>693</v>
+      </c>
     </row>
-    <row r="94" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
@@ -72582,11 +72864,14 @@
       <c r="IX94" s="6">
         <v>42</v>
       </c>
-      <c r="IY94" s="28">
+      <c r="IY94" s="30">
         <v>41</v>
       </c>
+      <c r="IZ94" s="25">
+        <v>43</v>
+      </c>
     </row>
-    <row r="95" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
@@ -73361,11 +73646,14 @@
       <c r="IX95" s="6">
         <v>990</v>
       </c>
-      <c r="IY95" s="28">
+      <c r="IY95" s="30">
         <v>983</v>
       </c>
+      <c r="IZ95" s="25">
+        <v>975</v>
+      </c>
     </row>
-    <row r="96" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>90</v>
       </c>
@@ -74140,11 +74428,14 @@
       <c r="IX96" s="6">
         <v>109</v>
       </c>
-      <c r="IY96" s="28">
+      <c r="IY96" s="30">
         <v>108</v>
       </c>
+      <c r="IZ96" s="25">
+        <v>102</v>
+      </c>
     </row>
-    <row r="97" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>91</v>
       </c>
@@ -74919,11 +75210,14 @@
       <c r="IX97" s="6">
         <v>1670</v>
       </c>
-      <c r="IY97" s="28">
+      <c r="IY97" s="30">
         <v>1663</v>
       </c>
+      <c r="IZ97" s="25">
+        <v>1434</v>
+      </c>
     </row>
-    <row r="98" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>92</v>
       </c>
@@ -75698,11 +75992,14 @@
       <c r="IX98" s="6">
         <v>470</v>
       </c>
-      <c r="IY98" s="28">
+      <c r="IY98" s="30">
         <v>480</v>
       </c>
+      <c r="IZ98" s="25">
+        <v>500</v>
+      </c>
     </row>
-    <row r="99" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
@@ -76477,11 +76774,14 @@
       <c r="IX99" s="6">
         <v>37730</v>
       </c>
-      <c r="IY99" s="28">
+      <c r="IY99" s="30">
         <v>37549</v>
       </c>
+      <c r="IZ99" s="25">
+        <v>37237</v>
+      </c>
     </row>
-    <row r="100" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>94</v>
       </c>
@@ -77256,11 +77556,14 @@
       <c r="IX100" s="6">
         <v>6486</v>
       </c>
-      <c r="IY100" s="28">
+      <c r="IY100" s="30">
         <v>6275</v>
       </c>
+      <c r="IZ100" s="25">
+        <v>7875</v>
+      </c>
     </row>
-    <row r="101" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>95</v>
       </c>
@@ -78035,11 +78338,14 @@
       <c r="IX101" s="6">
         <v>759</v>
       </c>
-      <c r="IY101" s="28">
+      <c r="IY101" s="30">
         <v>655</v>
       </c>
+      <c r="IZ101" s="25">
+        <v>516</v>
+      </c>
     </row>
-    <row r="102" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>96</v>
       </c>
@@ -78814,11 +79120,14 @@
       <c r="IX102" s="6">
         <v>510</v>
       </c>
-      <c r="IY102" s="28">
+      <c r="IY102" s="30">
         <v>516</v>
       </c>
+      <c r="IZ102" s="25">
+        <v>516</v>
+      </c>
     </row>
-    <row r="103" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>97</v>
       </c>
@@ -79593,11 +79902,14 @@
       <c r="IX103" s="6">
         <v>91043</v>
       </c>
-      <c r="IY103" s="28">
+      <c r="IY103" s="30">
         <v>91422</v>
       </c>
+      <c r="IZ103" s="25">
+        <v>99474</v>
+      </c>
     </row>
-    <row r="104" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>98</v>
       </c>
@@ -80372,11 +80684,14 @@
       <c r="IX104" s="6">
         <v>116918</v>
       </c>
-      <c r="IY104" s="28">
+      <c r="IY104" s="30">
         <v>117675</v>
       </c>
+      <c r="IZ104" s="25">
+        <v>117944</v>
+      </c>
     </row>
-    <row r="105" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>99</v>
       </c>
@@ -81151,11 +81466,14 @@
       <c r="IX105" s="6">
         <v>894</v>
       </c>
-      <c r="IY105" s="28">
+      <c r="IY105" s="30">
         <v>906</v>
       </c>
+      <c r="IZ105" s="25">
+        <v>964</v>
+      </c>
     </row>
-    <row r="106" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>100</v>
       </c>
@@ -81930,11 +82248,14 @@
       <c r="IX106" s="6">
         <v>1110</v>
       </c>
-      <c r="IY106" s="28">
+      <c r="IY106" s="30">
         <v>1170</v>
       </c>
+      <c r="IZ106" s="25">
+        <v>1123</v>
+      </c>
     </row>
-    <row r="107" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>101</v>
       </c>
@@ -82709,11 +83030,14 @@
       <c r="IX107" s="6">
         <v>30822</v>
       </c>
-      <c r="IY107" s="28">
+      <c r="IY107" s="30">
         <v>30990</v>
       </c>
+      <c r="IZ107" s="25">
+        <v>31332</v>
+      </c>
     </row>
-    <row r="108" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>102</v>
       </c>
@@ -83488,11 +83812,14 @@
       <c r="IX108" s="6">
         <v>958</v>
       </c>
-      <c r="IY108" s="28">
+      <c r="IY108" s="30">
         <v>942</v>
       </c>
+      <c r="IZ108" s="25">
+        <v>949</v>
+      </c>
     </row>
-    <row r="109" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>103</v>
       </c>
@@ -84267,11 +84594,14 @@
       <c r="IX109" s="6">
         <v>437</v>
       </c>
-      <c r="IY109" s="28">
+      <c r="IY109" s="30">
         <v>458</v>
       </c>
+      <c r="IZ109" s="25">
+        <v>499</v>
+      </c>
     </row>
-    <row r="110" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>104</v>
       </c>
@@ -85046,11 +85376,14 @@
       <c r="IX110" s="6">
         <v>49</v>
       </c>
-      <c r="IY110" s="28">
+      <c r="IY110" s="30">
         <v>50</v>
       </c>
+      <c r="IZ110" s="25">
+        <v>51</v>
+      </c>
     </row>
-    <row r="111" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -85825,11 +86158,14 @@
       <c r="IX111" s="6">
         <v>2002</v>
       </c>
-      <c r="IY111" s="28">
+      <c r="IY111" s="30">
         <v>1963</v>
       </c>
+      <c r="IZ111" s="25">
+        <v>1972</v>
+      </c>
     </row>
-    <row r="112" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>106</v>
       </c>
@@ -86604,11 +86940,14 @@
       <c r="IX112" s="6">
         <v>2982</v>
       </c>
-      <c r="IY112" s="28">
+      <c r="IY112" s="30">
         <v>3150</v>
       </c>
+      <c r="IZ112" s="25">
+        <v>3186</v>
+      </c>
     </row>
-    <row r="113" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -87383,11 +87722,14 @@
       <c r="IX113" s="6">
         <v>353</v>
       </c>
-      <c r="IY113" s="28">
+      <c r="IY113" s="30">
         <v>381</v>
       </c>
+      <c r="IZ113" s="25">
+        <v>369</v>
+      </c>
     </row>
-    <row r="114" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>108</v>
       </c>
@@ -88162,11 +88504,14 @@
       <c r="IX114" s="6">
         <v>3067</v>
       </c>
-      <c r="IY114" s="28">
+      <c r="IY114" s="30">
         <v>2949</v>
       </c>
+      <c r="IZ114" s="25">
+        <v>2869</v>
+      </c>
     </row>
-    <row r="115" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>109</v>
       </c>
@@ -88941,11 +89286,14 @@
       <c r="IX115" s="6">
         <v>1389</v>
       </c>
-      <c r="IY115" s="28">
+      <c r="IY115" s="30">
         <v>1417</v>
       </c>
+      <c r="IZ115" s="25">
+        <v>1505</v>
+      </c>
     </row>
-    <row r="116" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>110</v>
       </c>
@@ -89720,11 +90068,14 @@
       <c r="IX116" s="6">
         <v>581</v>
       </c>
-      <c r="IY116" s="28">
+      <c r="IY116" s="30">
         <v>581</v>
       </c>
+      <c r="IZ116" s="25">
+        <v>554</v>
+      </c>
     </row>
-    <row r="117" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>111</v>
       </c>
@@ -90499,11 +90850,14 @@
       <c r="IX117" s="6">
         <v>1997</v>
       </c>
-      <c r="IY117" s="28">
+      <c r="IY117" s="30">
         <v>2006</v>
       </c>
+      <c r="IZ117" s="25">
+        <v>2077</v>
+      </c>
     </row>
-    <row r="118" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>112</v>
       </c>
@@ -91278,11 +91632,14 @@
       <c r="IX118" s="6">
         <v>435</v>
       </c>
-      <c r="IY118" s="28">
+      <c r="IY118" s="30">
         <v>460</v>
       </c>
+      <c r="IZ118" s="25">
+        <v>451</v>
+      </c>
     </row>
-    <row r="119" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>113</v>
       </c>
@@ -92057,11 +92414,14 @@
       <c r="IX119" s="6">
         <v>1057</v>
       </c>
-      <c r="IY119" s="28">
+      <c r="IY119" s="30">
         <v>1055</v>
       </c>
+      <c r="IZ119" s="25">
+        <v>1056</v>
+      </c>
     </row>
-    <row r="120" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>114</v>
       </c>
@@ -92836,11 +93196,14 @@
       <c r="IX120" s="6">
         <v>41</v>
       </c>
-      <c r="IY120" s="28">
+      <c r="IY120" s="30">
         <v>40</v>
       </c>
+      <c r="IZ120" s="25">
+        <v>40</v>
+      </c>
     </row>
-    <row r="121" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>115</v>
       </c>
@@ -93615,11 +93978,14 @@
       <c r="IX121" s="6">
         <v>639</v>
       </c>
-      <c r="IY121" s="28">
+      <c r="IY121" s="30">
         <v>631</v>
       </c>
+      <c r="IZ121" s="25">
+        <v>644</v>
+      </c>
     </row>
-    <row r="122" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>116</v>
       </c>
@@ -94394,11 +94760,14 @@
       <c r="IX122" s="6">
         <v>143</v>
       </c>
-      <c r="IY122" s="28">
+      <c r="IY122" s="30">
         <v>132</v>
       </c>
+      <c r="IZ122" s="25">
+        <v>134</v>
+      </c>
     </row>
-    <row r="123" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>117</v>
       </c>
@@ -95173,11 +95542,14 @@
       <c r="IX123" s="6">
         <v>604</v>
       </c>
-      <c r="IY123" s="28">
+      <c r="IY123" s="30">
         <v>597</v>
       </c>
+      <c r="IZ123" s="25">
+        <v>572</v>
+      </c>
     </row>
-    <row r="124" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>118</v>
       </c>
@@ -95952,11 +96324,14 @@
       <c r="IX124" s="6">
         <v>2080</v>
       </c>
-      <c r="IY124" s="28">
+      <c r="IY124" s="30">
         <v>1672</v>
       </c>
+      <c r="IZ124" s="25">
+        <v>2398</v>
+      </c>
     </row>
-    <row r="125" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>119</v>
       </c>
@@ -96731,11 +97106,14 @@
       <c r="IX125" s="6">
         <v>403473</v>
       </c>
-      <c r="IY125" s="28">
+      <c r="IY125" s="30">
         <v>405301</v>
       </c>
+      <c r="IZ125" s="25">
+        <v>406365</v>
+      </c>
     </row>
-    <row r="126" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>120</v>
       </c>
@@ -97510,11 +97888,14 @@
       <c r="IX126" s="6">
         <v>7237</v>
       </c>
-      <c r="IY126" s="28">
+      <c r="IY126" s="30">
         <v>7410</v>
       </c>
+      <c r="IZ126" s="25">
+        <v>6017</v>
+      </c>
     </row>
-    <row r="127" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>121</v>
       </c>
@@ -98289,11 +98670,14 @@
       <c r="IX127" s="6">
         <v>45</v>
       </c>
-      <c r="IY127" s="28">
+      <c r="IY127" s="30">
         <v>46</v>
       </c>
+      <c r="IZ127" s="25">
+        <v>48</v>
+      </c>
     </row>
-    <row r="128" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>122</v>
       </c>
@@ -99068,11 +99452,14 @@
       <c r="IX128" s="6">
         <v>2641</v>
       </c>
-      <c r="IY128" s="28">
+      <c r="IY128" s="30">
         <v>2491</v>
       </c>
+      <c r="IZ128" s="25">
+        <v>2538</v>
+      </c>
     </row>
-    <row r="129" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>123</v>
       </c>
@@ -99847,11 +100234,14 @@
       <c r="IX129" s="6">
         <v>33246</v>
       </c>
-      <c r="IY129" s="28">
+      <c r="IY129" s="30">
         <v>32200</v>
       </c>
+      <c r="IZ129" s="25">
+        <v>34814</v>
+      </c>
     </row>
-    <row r="130" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>124</v>
       </c>
@@ -100626,11 +101016,14 @@
       <c r="IX130" s="6">
         <v>6085</v>
       </c>
-      <c r="IY130" s="28">
+      <c r="IY130" s="30">
         <v>6130</v>
       </c>
+      <c r="IZ130" s="25">
+        <v>6290</v>
+      </c>
     </row>
-    <row r="131" spans="1:259" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:260" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="20" t="s">
         <v>127</v>
       </c>
@@ -101405,11 +101798,15 @@
       <c r="IX131" s="21">
         <v>1815607</v>
       </c>
-      <c r="IY131" s="29">
+      <c r="IY131" s="36">
         <v>1820785</v>
       </c>
+      <c r="IZ131" s="26">
+        <f>SUM(IZ6:IZ130)</f>
+        <v>1826575</v>
+      </c>
     </row>
-    <row r="132" spans="1:259" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:260" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
@@ -101657,7 +102054,7 @@
       <c r="IL132" s="18"/>
       <c r="IM132" s="18"/>
     </row>
-    <row r="133" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>126</v>
       </c>

--- a/Historicos/ta_municipios_jalisco.xlsx
+++ b/Historicos/ta_municipios_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="142">
   <si>
     <t>Acatic</t>
   </si>
@@ -1204,12 +1204,6 @@
     <xf numFmtId="3" fontId="20" fillId="35" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1233,6 +1227,12 @@
     </xf>
     <xf numFmtId="3" fontId="20" fillId="35" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1580,11 +1580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IZ145"/>
+  <dimension ref="A1:JA145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A24" sqref="A24"/>
+      <selection pane="topRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,18 +1701,18 @@
     <col min="257" max="257" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:260" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:261" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="7">
@@ -2471,30 +2471,33 @@
       <c r="IS4" s="24">
         <v>2020</v>
       </c>
-      <c r="IT4" s="31">
+      <c r="IT4" s="29">
         <v>2021</v>
       </c>
-      <c r="IU4" s="32">
+      <c r="IU4" s="30">
         <v>2021</v>
       </c>
-      <c r="IV4" s="32">
+      <c r="IV4" s="30">
         <v>2021</v>
       </c>
-      <c r="IW4" s="32">
+      <c r="IW4" s="30">
         <v>2021</v>
       </c>
-      <c r="IX4" s="32">
+      <c r="IX4" s="30">
         <v>2021</v>
       </c>
-      <c r="IY4" s="32">
+      <c r="IY4" s="30">
         <v>2021</v>
       </c>
-      <c r="IZ4" s="33">
+      <c r="IZ4" s="30">
         <v>2021</v>
       </c>
+      <c r="JA4" s="31">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:260" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+    <row r="5" spans="1:261" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
       <c r="B5" s="4" t="s">
         <v>129</v>
       </c>
@@ -3251,29 +3254,32 @@
       <c r="IS5" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="IT5" s="34" t="s">
+      <c r="IT5" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="IU5" s="29" t="s">
+      <c r="IU5" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="IV5" s="29" t="s">
+      <c r="IV5" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="IW5" s="29" t="s">
+      <c r="IW5" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="IX5" s="29" t="s">
+      <c r="IX5" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="IY5" s="29" t="s">
+      <c r="IY5" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="IZ5" s="35" t="s">
+      <c r="IZ5" s="27" t="s">
         <v>135</v>
       </c>
+      <c r="JA5" s="33" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="6" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -4048,14 +4054,17 @@
       <c r="IX6" s="6">
         <v>4661</v>
       </c>
-      <c r="IY6" s="30">
+      <c r="IY6" s="28">
         <v>4689</v>
       </c>
-      <c r="IZ6" s="25">
+      <c r="IZ6" s="28">
         <v>4690</v>
       </c>
+      <c r="JA6" s="25">
+        <v>4934</v>
+      </c>
     </row>
-    <row r="7" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -4830,14 +4839,17 @@
       <c r="IX7" s="6">
         <v>6021</v>
       </c>
-      <c r="IY7" s="30">
+      <c r="IY7" s="28">
         <v>6390</v>
       </c>
-      <c r="IZ7" s="25">
+      <c r="IZ7" s="28">
         <v>6329</v>
       </c>
+      <c r="JA7" s="25">
+        <v>6308</v>
+      </c>
     </row>
-    <row r="8" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -5612,14 +5624,17 @@
       <c r="IX8" s="6">
         <v>1489</v>
       </c>
-      <c r="IY8" s="30">
+      <c r="IY8" s="28">
         <v>1491</v>
       </c>
-      <c r="IZ8" s="25">
+      <c r="IZ8" s="28">
         <v>1542</v>
       </c>
+      <c r="JA8" s="25">
+        <v>1510</v>
+      </c>
     </row>
-    <row r="9" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -6394,14 +6409,17 @@
       <c r="IX9" s="6">
         <v>81</v>
       </c>
-      <c r="IY9" s="30">
+      <c r="IY9" s="28">
         <v>81</v>
       </c>
-      <c r="IZ9" s="25">
+      <c r="IZ9" s="28">
         <v>83</v>
       </c>
+      <c r="JA9" s="25">
+        <v>84</v>
+      </c>
     </row>
-    <row r="10" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -7176,14 +7194,17 @@
       <c r="IX10" s="6">
         <v>1854</v>
       </c>
-      <c r="IY10" s="30">
+      <c r="IY10" s="28">
         <v>1847</v>
       </c>
-      <c r="IZ10" s="25">
+      <c r="IZ10" s="28">
         <v>2011</v>
       </c>
+      <c r="JA10" s="25">
+        <v>2690</v>
+      </c>
     </row>
-    <row r="11" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -7958,14 +7979,17 @@
       <c r="IX11" s="6">
         <v>5921</v>
       </c>
-      <c r="IY11" s="30">
+      <c r="IY11" s="28">
         <v>5944</v>
       </c>
-      <c r="IZ11" s="25">
+      <c r="IZ11" s="28">
         <v>6336</v>
       </c>
+      <c r="JA11" s="25">
+        <v>6421</v>
+      </c>
     </row>
-    <row r="12" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -8740,14 +8764,17 @@
       <c r="IX12" s="6">
         <v>11915</v>
       </c>
-      <c r="IY12" s="30">
+      <c r="IY12" s="28">
         <v>12094</v>
       </c>
-      <c r="IZ12" s="25">
+      <c r="IZ12" s="28">
         <v>12778</v>
       </c>
+      <c r="JA12" s="25">
+        <v>12987</v>
+      </c>
     </row>
-    <row r="13" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -9522,14 +9549,17 @@
       <c r="IX13" s="6">
         <v>54</v>
       </c>
-      <c r="IY13" s="30">
+      <c r="IY13" s="28">
         <v>55</v>
       </c>
-      <c r="IZ13" s="25">
+      <c r="IZ13" s="28">
         <v>483</v>
       </c>
+      <c r="JA13" s="25">
+        <v>468</v>
+      </c>
     </row>
-    <row r="14" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -10304,14 +10334,17 @@
       <c r="IX14" s="6">
         <v>19</v>
       </c>
-      <c r="IY14" s="30">
+      <c r="IY14" s="28">
         <v>19</v>
       </c>
-      <c r="IZ14" s="25">
+      <c r="IZ14" s="28">
         <v>23</v>
       </c>
+      <c r="JA14" s="25">
+        <v>23</v>
+      </c>
     </row>
-    <row r="15" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -11086,14 +11119,17 @@
       <c r="IX15" s="6">
         <v>91</v>
       </c>
-      <c r="IY15" s="30">
+      <c r="IY15" s="28">
         <v>84</v>
       </c>
-      <c r="IZ15" s="25">
+      <c r="IZ15" s="28">
         <v>76</v>
       </c>
+      <c r="JA15" s="25">
+        <v>110</v>
+      </c>
     </row>
-    <row r="16" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -11868,14 +11904,17 @@
       <c r="IX16" s="6">
         <v>10145</v>
       </c>
-      <c r="IY16" s="30">
+      <c r="IY16" s="28">
         <v>10316</v>
       </c>
-      <c r="IZ16" s="25">
+      <c r="IZ16" s="28">
         <v>10206</v>
       </c>
+      <c r="JA16" s="25">
+        <v>10514</v>
+      </c>
     </row>
-    <row r="17" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -12650,14 +12689,17 @@
       <c r="IX17" s="6">
         <v>598</v>
       </c>
-      <c r="IY17" s="30">
+      <c r="IY17" s="28">
         <v>587</v>
       </c>
-      <c r="IZ17" s="25">
+      <c r="IZ17" s="28">
         <v>609</v>
       </c>
+      <c r="JA17" s="25">
+        <v>631</v>
+      </c>
     </row>
-    <row r="18" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -13432,14 +13474,17 @@
       <c r="IX18" s="6">
         <v>10866</v>
       </c>
-      <c r="IY18" s="30">
+      <c r="IY18" s="28">
         <v>10960</v>
       </c>
-      <c r="IZ18" s="25">
+      <c r="IZ18" s="28">
         <v>11216</v>
       </c>
+      <c r="JA18" s="25">
+        <v>11448</v>
+      </c>
     </row>
-    <row r="19" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -14214,14 +14259,17 @@
       <c r="IX19" s="6">
         <v>3605</v>
       </c>
-      <c r="IY19" s="30">
+      <c r="IY19" s="28">
         <v>3533</v>
       </c>
-      <c r="IZ19" s="25">
+      <c r="IZ19" s="28">
         <v>3580</v>
       </c>
+      <c r="JA19" s="25">
+        <v>3682</v>
+      </c>
     </row>
-    <row r="20" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -14996,14 +15044,17 @@
       <c r="IX20" s="6">
         <v>341</v>
       </c>
-      <c r="IY20" s="30">
+      <c r="IY20" s="28">
         <v>342</v>
       </c>
-      <c r="IZ20" s="25">
+      <c r="IZ20" s="28">
         <v>347</v>
       </c>
+      <c r="JA20" s="25">
+        <v>356</v>
+      </c>
     </row>
-    <row r="21" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -15778,14 +15829,17 @@
       <c r="IX21" s="6">
         <v>660</v>
       </c>
-      <c r="IY21" s="30">
+      <c r="IY21" s="28">
         <v>655</v>
       </c>
-      <c r="IZ21" s="25">
+      <c r="IZ21" s="28">
         <v>668</v>
       </c>
+      <c r="JA21" s="25">
+        <v>692</v>
+      </c>
     </row>
-    <row r="22" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -16560,14 +16614,17 @@
       <c r="IX22" s="6">
         <v>359</v>
       </c>
-      <c r="IY22" s="30">
+      <c r="IY22" s="28">
         <v>357</v>
       </c>
-      <c r="IZ22" s="25">
+      <c r="IZ22" s="28">
         <v>361</v>
       </c>
+      <c r="JA22" s="25">
+        <v>344</v>
+      </c>
     </row>
-    <row r="23" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -17342,14 +17399,17 @@
       <c r="IX23" s="6">
         <v>47</v>
       </c>
-      <c r="IY23" s="30">
+      <c r="IY23" s="28">
         <v>46</v>
       </c>
-      <c r="IZ23" s="25">
+      <c r="IZ23" s="28">
         <v>47</v>
       </c>
+      <c r="JA23" s="25">
+        <v>115</v>
+      </c>
     </row>
-    <row r="24" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -18124,14 +18184,17 @@
       <c r="IX24" s="6">
         <v>3068</v>
       </c>
-      <c r="IY24" s="30">
+      <c r="IY24" s="28">
         <v>2997</v>
       </c>
-      <c r="IZ24" s="25">
+      <c r="IZ24" s="28">
         <v>2854</v>
       </c>
+      <c r="JA24" s="25">
+        <v>2962</v>
+      </c>
     </row>
-    <row r="25" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -18906,14 +18969,17 @@
       <c r="IX25" s="6">
         <v>5418</v>
       </c>
-      <c r="IY25" s="30">
+      <c r="IY25" s="28">
         <v>5418</v>
       </c>
-      <c r="IZ25" s="25">
+      <c r="IZ25" s="28">
         <v>5872</v>
       </c>
+      <c r="JA25" s="25">
+        <v>5941</v>
+      </c>
     </row>
-    <row r="26" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -19688,14 +19754,17 @@
       <c r="IX26" s="6">
         <v>5</v>
       </c>
-      <c r="IY26" s="30">
+      <c r="IY26" s="28">
         <v>5</v>
       </c>
-      <c r="IZ26" s="25">
+      <c r="IZ26" s="28">
         <v>2</v>
       </c>
+      <c r="JA26" s="25">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -20470,14 +20539,17 @@
       <c r="IX27" s="6">
         <v>161</v>
       </c>
-      <c r="IY27" s="30">
+      <c r="IY27" s="28">
         <v>163</v>
       </c>
-      <c r="IZ27" s="25">
+      <c r="IZ27" s="28">
         <v>162</v>
       </c>
+      <c r="JA27" s="25">
+        <v>161</v>
+      </c>
     </row>
-    <row r="28" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -21252,14 +21324,17 @@
       <c r="IX28" s="6">
         <v>2220</v>
       </c>
-      <c r="IY28" s="30">
+      <c r="IY28" s="28">
         <v>2283</v>
       </c>
-      <c r="IZ28" s="25">
+      <c r="IZ28" s="28">
         <v>2382</v>
       </c>
+      <c r="JA28" s="25">
+        <v>2397</v>
+      </c>
     </row>
-    <row r="29" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -22034,14 +22109,17 @@
       <c r="IX29" s="6">
         <v>2331</v>
       </c>
-      <c r="IY29" s="30">
+      <c r="IY29" s="28">
         <v>2309</v>
       </c>
-      <c r="IZ29" s="25">
+      <c r="IZ29" s="28">
         <v>2336</v>
       </c>
+      <c r="JA29" s="25">
+        <v>2400</v>
+      </c>
     </row>
-    <row r="30" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -22816,14 +22894,17 @@
       <c r="IX30" s="6">
         <v>666</v>
       </c>
-      <c r="IY30" s="30">
+      <c r="IY30" s="28">
         <v>665</v>
       </c>
-      <c r="IZ30" s="25">
+      <c r="IZ30" s="28">
         <v>623</v>
       </c>
+      <c r="JA30" s="25">
+        <v>613</v>
+      </c>
     </row>
-    <row r="31" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
@@ -23598,14 +23679,17 @@
       <c r="IX31" s="6">
         <v>130</v>
       </c>
-      <c r="IY31" s="30">
+      <c r="IY31" s="28">
         <v>128</v>
       </c>
-      <c r="IZ31" s="25">
+      <c r="IZ31" s="28">
         <v>128</v>
       </c>
+      <c r="JA31" s="25">
+        <v>125</v>
+      </c>
     </row>
-    <row r="32" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
@@ -24380,14 +24464,17 @@
       <c r="IX32" s="6">
         <v>44</v>
       </c>
-      <c r="IY32" s="30">
+      <c r="IY32" s="28">
         <v>43</v>
       </c>
-      <c r="IZ32" s="25">
+      <c r="IZ32" s="28">
         <v>42</v>
       </c>
+      <c r="JA32" s="25">
+        <v>42</v>
+      </c>
     </row>
-    <row r="33" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -25162,14 +25249,17 @@
       <c r="IX33" s="6">
         <v>61</v>
       </c>
-      <c r="IY33" s="30">
+      <c r="IY33" s="28">
         <v>61</v>
       </c>
-      <c r="IZ33" s="25">
+      <c r="IZ33" s="28">
         <v>58</v>
       </c>
+      <c r="JA33" s="25">
+        <v>59</v>
+      </c>
     </row>
-    <row r="34" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -25944,14 +26034,17 @@
       <c r="IX34" s="6">
         <v>202</v>
       </c>
-      <c r="IY34" s="30">
+      <c r="IY34" s="28">
         <v>215</v>
       </c>
-      <c r="IZ34" s="25">
+      <c r="IZ34" s="28">
         <v>202</v>
       </c>
+      <c r="JA34" s="25">
+        <v>234</v>
+      </c>
     </row>
-    <row r="35" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -26726,14 +26819,17 @@
       <c r="IX35" s="6">
         <v>724</v>
       </c>
-      <c r="IY35" s="30">
+      <c r="IY35" s="28">
         <v>722</v>
       </c>
-      <c r="IZ35" s="25">
+      <c r="IZ35" s="28">
         <v>983</v>
       </c>
+      <c r="JA35" s="25">
+        <v>997</v>
+      </c>
     </row>
-    <row r="36" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -27508,14 +27604,17 @@
       <c r="IX36" s="6">
         <v>5</v>
       </c>
-      <c r="IY36" s="30">
+      <c r="IY36" s="28">
         <v>6</v>
       </c>
-      <c r="IZ36" s="25">
+      <c r="IZ36" s="28">
         <v>6</v>
       </c>
+      <c r="JA36" s="25">
+        <v>8</v>
+      </c>
     </row>
-    <row r="37" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -28290,14 +28389,17 @@
       <c r="IX37" s="6">
         <v>2638</v>
       </c>
-      <c r="IY37" s="30">
+      <c r="IY37" s="28">
         <v>2611</v>
       </c>
-      <c r="IZ37" s="25">
+      <c r="IZ37" s="28">
         <v>3298</v>
       </c>
+      <c r="JA37" s="25">
+        <v>3307</v>
+      </c>
     </row>
-    <row r="38" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -29072,14 +29174,17 @@
       <c r="IX38" s="6">
         <v>2472</v>
       </c>
-      <c r="IY38" s="30">
+      <c r="IY38" s="28">
         <v>2470</v>
       </c>
-      <c r="IZ38" s="25">
+      <c r="IZ38" s="28">
         <v>2470</v>
       </c>
+      <c r="JA38" s="25">
+        <v>2504</v>
+      </c>
     </row>
-    <row r="39" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
@@ -29854,14 +29959,17 @@
       <c r="IX39" s="6">
         <v>161</v>
       </c>
-      <c r="IY39" s="30">
+      <c r="IY39" s="28">
         <v>163</v>
       </c>
-      <c r="IZ39" s="25">
+      <c r="IZ39" s="28">
         <v>162</v>
       </c>
+      <c r="JA39" s="25">
+        <v>165</v>
+      </c>
     </row>
-    <row r="40" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
@@ -30636,14 +30744,17 @@
       <c r="IX40" s="6">
         <v>54362</v>
       </c>
-      <c r="IY40" s="30">
+      <c r="IY40" s="28">
         <v>55284</v>
       </c>
-      <c r="IZ40" s="25">
+      <c r="IZ40" s="28">
         <v>59635</v>
       </c>
+      <c r="JA40" s="25">
+        <v>60682</v>
+      </c>
     </row>
-    <row r="41" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -31418,14 +31529,17 @@
       <c r="IX41" s="6">
         <v>3259</v>
       </c>
-      <c r="IY41" s="30">
+      <c r="IY41" s="28">
         <v>3253</v>
       </c>
-      <c r="IZ41" s="25">
+      <c r="IZ41" s="28">
         <v>3171</v>
       </c>
+      <c r="JA41" s="25">
+        <v>3382</v>
+      </c>
     </row>
-    <row r="42" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -32200,14 +32314,17 @@
       <c r="IX42" s="6">
         <v>668</v>
       </c>
-      <c r="IY42" s="30">
+      <c r="IY42" s="28">
         <v>687</v>
       </c>
-      <c r="IZ42" s="25">
+      <c r="IZ42" s="28">
         <v>705</v>
       </c>
+      <c r="JA42" s="25">
+        <v>718</v>
+      </c>
     </row>
-    <row r="43" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -32982,14 +33099,17 @@
       <c r="IX43" s="6">
         <v>1617</v>
       </c>
-      <c r="IY43" s="30">
+      <c r="IY43" s="28">
         <v>1582</v>
       </c>
-      <c r="IZ43" s="25">
+      <c r="IZ43" s="28">
         <v>2399</v>
       </c>
+      <c r="JA43" s="25">
+        <v>2604</v>
+      </c>
     </row>
-    <row r="44" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -33764,14 +33884,17 @@
       <c r="IX44" s="6">
         <v>154</v>
       </c>
-      <c r="IY44" s="30">
+      <c r="IY44" s="28">
         <v>153</v>
       </c>
-      <c r="IZ44" s="25">
+      <c r="IZ44" s="28">
         <v>153</v>
       </c>
+      <c r="JA44" s="25">
+        <v>165</v>
+      </c>
     </row>
-    <row r="45" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -34546,14 +34669,17 @@
       <c r="IX45" s="6">
         <v>699577</v>
       </c>
-      <c r="IY45" s="30">
+      <c r="IY45" s="28">
         <v>701178</v>
       </c>
-      <c r="IZ45" s="25">
+      <c r="IZ45" s="28">
         <v>683131</v>
       </c>
+      <c r="JA45" s="25">
+        <v>676680</v>
+      </c>
     </row>
-    <row r="46" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
@@ -35328,14 +35454,17 @@
       <c r="IX46" s="6">
         <v>185</v>
       </c>
-      <c r="IY46" s="30">
+      <c r="IY46" s="28">
         <v>211</v>
       </c>
-      <c r="IZ46" s="25">
+      <c r="IZ46" s="28">
         <v>211</v>
       </c>
+      <c r="JA46" s="25">
+        <v>214</v>
+      </c>
     </row>
-    <row r="47" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
@@ -36110,14 +36239,17 @@
       <c r="IX47" s="6">
         <v>101</v>
       </c>
-      <c r="IY47" s="30">
+      <c r="IY47" s="28">
         <v>93</v>
       </c>
-      <c r="IZ47" s="25">
+      <c r="IZ47" s="28">
         <v>92</v>
       </c>
+      <c r="JA47" s="25">
+        <v>101</v>
+      </c>
     </row>
-    <row r="48" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -36892,14 +37024,17 @@
       <c r="IX48" s="6">
         <v>795</v>
       </c>
-      <c r="IY48" s="30">
+      <c r="IY48" s="28">
         <v>857</v>
       </c>
-      <c r="IZ48" s="25">
+      <c r="IZ48" s="28">
         <v>782</v>
       </c>
+      <c r="JA48" s="25">
+        <v>882</v>
+      </c>
     </row>
-    <row r="49" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -37674,14 +37809,17 @@
       <c r="IX49" s="6">
         <v>3820</v>
       </c>
-      <c r="IY49" s="30">
+      <c r="IY49" s="28">
         <v>4538</v>
       </c>
-      <c r="IZ49" s="25">
+      <c r="IZ49" s="28">
         <v>4474</v>
       </c>
+      <c r="JA49" s="25">
+        <v>4460</v>
+      </c>
     </row>
-    <row r="50" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -38456,14 +38594,17 @@
       <c r="IX50" s="6">
         <v>531</v>
       </c>
-      <c r="IY50" s="30">
+      <c r="IY50" s="28">
         <v>532</v>
       </c>
-      <c r="IZ50" s="25">
+      <c r="IZ50" s="28">
         <v>546</v>
       </c>
+      <c r="JA50" s="25">
+        <v>594</v>
+      </c>
     </row>
-    <row r="51" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -39238,14 +39379,17 @@
       <c r="IX51" s="6">
         <v>2606</v>
       </c>
-      <c r="IY51" s="30">
+      <c r="IY51" s="28">
         <v>2599</v>
       </c>
-      <c r="IZ51" s="25">
+      <c r="IZ51" s="28">
         <v>2679</v>
       </c>
+      <c r="JA51" s="25">
+        <v>2699</v>
+      </c>
     </row>
-    <row r="52" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -40020,14 +40164,17 @@
       <c r="IX52" s="6">
         <v>1372</v>
       </c>
-      <c r="IY52" s="30">
+      <c r="IY52" s="28">
         <v>1407</v>
       </c>
-      <c r="IZ52" s="25">
+      <c r="IZ52" s="28">
         <v>1375</v>
       </c>
+      <c r="JA52" s="25">
+        <v>1358</v>
+      </c>
     </row>
-    <row r="53" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -40802,14 +40949,17 @@
       <c r="IX53" s="6">
         <v>1728</v>
       </c>
-      <c r="IY53" s="30">
+      <c r="IY53" s="28">
         <v>1771</v>
       </c>
-      <c r="IZ53" s="25">
+      <c r="IZ53" s="28">
         <v>1738</v>
       </c>
+      <c r="JA53" s="25">
+        <v>1739</v>
+      </c>
     </row>
-    <row r="54" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>48</v>
       </c>
@@ -41584,14 +41734,17 @@
       <c r="IX54" s="6">
         <v>57</v>
       </c>
-      <c r="IY54" s="30">
+      <c r="IY54" s="28">
         <v>56</v>
       </c>
-      <c r="IZ54" s="25">
+      <c r="IZ54" s="28">
         <v>64</v>
       </c>
+      <c r="JA54" s="25">
+        <v>63</v>
+      </c>
     </row>
-    <row r="55" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
@@ -42366,14 +42519,17 @@
       <c r="IX55" s="6">
         <v>7873</v>
       </c>
-      <c r="IY55" s="30">
+      <c r="IY55" s="28">
         <v>6718</v>
       </c>
-      <c r="IZ55" s="25">
+      <c r="IZ55" s="28">
         <v>6672</v>
       </c>
+      <c r="JA55" s="25">
+        <v>6885</v>
+      </c>
     </row>
-    <row r="56" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -43148,14 +43304,17 @@
       <c r="IX56" s="6">
         <v>1339</v>
       </c>
-      <c r="IY56" s="30">
+      <c r="IY56" s="28">
         <v>1345</v>
       </c>
-      <c r="IZ56" s="25">
+      <c r="IZ56" s="28">
         <v>1361</v>
       </c>
+      <c r="JA56" s="25">
+        <v>1338</v>
+      </c>
     </row>
-    <row r="57" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>51</v>
       </c>
@@ -43930,14 +44089,17 @@
       <c r="IX57" s="6">
         <v>82</v>
       </c>
-      <c r="IY57" s="30">
+      <c r="IY57" s="28">
         <v>83</v>
       </c>
-      <c r="IZ57" s="25">
+      <c r="IZ57" s="28">
         <v>82</v>
       </c>
+      <c r="JA57" s="25">
+        <v>83</v>
+      </c>
     </row>
-    <row r="58" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -44712,14 +44874,17 @@
       <c r="IX58" s="6">
         <v>5241</v>
       </c>
-      <c r="IY58" s="30">
+      <c r="IY58" s="28">
         <v>5079</v>
       </c>
-      <c r="IZ58" s="25">
+      <c r="IZ58" s="28">
         <v>5113</v>
       </c>
+      <c r="JA58" s="25">
+        <v>5163</v>
+      </c>
     </row>
-    <row r="59" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>53</v>
       </c>
@@ -45494,14 +45659,17 @@
       <c r="IX59" s="6">
         <v>2379</v>
       </c>
-      <c r="IY59" s="30">
+      <c r="IY59" s="28">
         <v>2558</v>
       </c>
-      <c r="IZ59" s="25">
+      <c r="IZ59" s="28">
         <v>2495</v>
       </c>
+      <c r="JA59" s="25">
+        <v>2450</v>
+      </c>
     </row>
-    <row r="60" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
@@ -46276,14 +46444,17 @@
       <c r="IX60" s="6">
         <v>110</v>
       </c>
-      <c r="IY60" s="30">
+      <c r="IY60" s="28">
         <v>119</v>
       </c>
-      <c r="IZ60" s="25">
+      <c r="IZ60" s="28">
         <v>115</v>
       </c>
+      <c r="JA60" s="25">
+        <v>120</v>
+      </c>
     </row>
-    <row r="61" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>55</v>
       </c>
@@ -47058,14 +47229,17 @@
       <c r="IX61" s="6">
         <v>33859</v>
       </c>
-      <c r="IY61" s="30">
+      <c r="IY61" s="28">
         <v>34823</v>
       </c>
-      <c r="IZ61" s="25">
+      <c r="IZ61" s="28">
         <v>36085</v>
       </c>
+      <c r="JA61" s="25">
+        <v>35170</v>
+      </c>
     </row>
-    <row r="62" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -47840,14 +48014,17 @@
       <c r="IX62" s="6">
         <v>995</v>
       </c>
-      <c r="IY62" s="30">
+      <c r="IY62" s="28">
         <v>1030</v>
       </c>
-      <c r="IZ62" s="25">
+      <c r="IZ62" s="28">
         <v>1027</v>
       </c>
+      <c r="JA62" s="25">
+        <v>1072</v>
+      </c>
     </row>
-    <row r="63" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
@@ -48622,14 +48799,17 @@
       <c r="IX63" s="6">
         <v>607</v>
       </c>
-      <c r="IY63" s="30">
+      <c r="IY63" s="28">
         <v>606</v>
       </c>
-      <c r="IZ63" s="25">
+      <c r="IZ63" s="28">
         <v>594</v>
       </c>
+      <c r="JA63" s="25">
+        <v>602</v>
+      </c>
     </row>
-    <row r="64" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
@@ -49404,14 +49584,17 @@
       <c r="IX64" s="6">
         <v>1010</v>
       </c>
-      <c r="IY64" s="30">
+      <c r="IY64" s="28">
         <v>1049</v>
       </c>
-      <c r="IZ64" s="25">
+      <c r="IZ64" s="28">
         <v>1056</v>
       </c>
+      <c r="JA64" s="25">
+        <v>1079</v>
+      </c>
     </row>
-    <row r="65" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>59</v>
       </c>
@@ -50186,14 +50369,17 @@
       <c r="IX65" s="6">
         <v>12</v>
       </c>
-      <c r="IY65" s="30">
+      <c r="IY65" s="28">
         <v>13</v>
       </c>
-      <c r="IZ65" s="25">
+      <c r="IZ65" s="28">
         <v>13</v>
       </c>
+      <c r="JA65" s="25">
+        <v>13</v>
+      </c>
     </row>
-    <row r="66" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>60</v>
       </c>
@@ -50968,14 +51154,17 @@
       <c r="IX66" s="6">
         <v>169</v>
       </c>
-      <c r="IY66" s="30">
+      <c r="IY66" s="28">
         <v>170</v>
       </c>
-      <c r="IZ66" s="25">
+      <c r="IZ66" s="28">
         <v>174</v>
       </c>
+      <c r="JA66" s="25">
+        <v>196</v>
+      </c>
     </row>
-    <row r="67" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>61</v>
       </c>
@@ -51750,14 +51939,17 @@
       <c r="IX67" s="6">
         <v>23</v>
       </c>
-      <c r="IY67" s="30">
+      <c r="IY67" s="28">
         <v>32</v>
       </c>
-      <c r="IZ67" s="25">
+      <c r="IZ67" s="28">
         <v>33</v>
       </c>
+      <c r="JA67" s="25">
+        <v>21</v>
+      </c>
     </row>
-    <row r="68" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>62</v>
       </c>
@@ -52532,14 +52724,17 @@
       <c r="IX68" s="6">
         <v>21431</v>
       </c>
-      <c r="IY68" s="30">
+      <c r="IY68" s="28">
         <v>21334</v>
       </c>
-      <c r="IZ68" s="25">
+      <c r="IZ68" s="28">
         <v>21223</v>
       </c>
+      <c r="JA68" s="25">
+        <v>21373</v>
+      </c>
     </row>
-    <row r="69" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>63</v>
       </c>
@@ -53314,14 +53509,17 @@
       <c r="IX69" s="6">
         <v>503</v>
       </c>
-      <c r="IY69" s="30">
+      <c r="IY69" s="28">
         <v>489</v>
       </c>
-      <c r="IZ69" s="25">
+      <c r="IZ69" s="28">
         <v>507</v>
       </c>
+      <c r="JA69" s="25">
+        <v>515</v>
+      </c>
     </row>
-    <row r="70" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>64</v>
       </c>
@@ -54096,14 +54294,17 @@
       <c r="IX70" s="6">
         <v>535</v>
       </c>
-      <c r="IY70" s="30">
+      <c r="IY70" s="28">
         <v>551</v>
       </c>
-      <c r="IZ70" s="25">
+      <c r="IZ70" s="28">
         <v>558</v>
       </c>
+      <c r="JA70" s="25">
+        <v>572</v>
+      </c>
     </row>
-    <row r="71" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>65</v>
       </c>
@@ -54878,14 +55079,17 @@
       <c r="IX71" s="6">
         <v>4235</v>
       </c>
-      <c r="IY71" s="30">
+      <c r="IY71" s="28">
         <v>4369</v>
       </c>
-      <c r="IZ71" s="25">
+      <c r="IZ71" s="28">
         <v>4599</v>
       </c>
+      <c r="JA71" s="25">
+        <v>4751</v>
+      </c>
     </row>
-    <row r="72" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>66</v>
       </c>
@@ -55660,14 +55864,17 @@
       <c r="IX72" s="6">
         <v>69800</v>
       </c>
-      <c r="IY72" s="30">
+      <c r="IY72" s="28">
         <v>68951</v>
       </c>
-      <c r="IZ72" s="25">
+      <c r="IZ72" s="28">
         <v>70776</v>
       </c>
+      <c r="JA72" s="25">
+        <v>71091</v>
+      </c>
     </row>
-    <row r="73" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
@@ -56442,14 +56649,17 @@
       <c r="IX73" s="6">
         <v>12</v>
       </c>
-      <c r="IY73" s="30">
+      <c r="IY73" s="28">
         <v>11</v>
       </c>
-      <c r="IZ73" s="25">
+      <c r="IZ73" s="28">
         <v>12</v>
       </c>
+      <c r="JA73" s="25">
+        <v>13</v>
+      </c>
     </row>
-    <row r="74" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>68</v>
       </c>
@@ -57224,14 +57434,17 @@
       <c r="IX74" s="6">
         <v>40</v>
       </c>
-      <c r="IY74" s="30">
+      <c r="IY74" s="28">
         <v>39</v>
       </c>
-      <c r="IZ74" s="25">
+      <c r="IZ74" s="28">
         <v>40</v>
       </c>
+      <c r="JA74" s="25">
+        <v>54</v>
+      </c>
     </row>
-    <row r="75" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>69</v>
       </c>
@@ -58006,14 +58219,17 @@
       <c r="IX75" s="6">
         <v>78</v>
       </c>
-      <c r="IY75" s="30">
+      <c r="IY75" s="28">
         <v>77</v>
       </c>
-      <c r="IZ75" s="25">
+      <c r="IZ75" s="28">
         <v>77</v>
       </c>
+      <c r="JA75" s="25">
+        <v>73</v>
+      </c>
     </row>
-    <row r="76" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>70</v>
       </c>
@@ -58788,14 +59004,17 @@
       <c r="IX76" s="6">
         <v>4308</v>
       </c>
-      <c r="IY76" s="30">
+      <c r="IY76" s="28">
         <v>4543</v>
       </c>
-      <c r="IZ76" s="25">
+      <c r="IZ76" s="28">
         <v>4967</v>
       </c>
+      <c r="JA76" s="25">
+        <v>4516</v>
+      </c>
     </row>
-    <row r="77" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
@@ -59570,14 +59789,17 @@
       <c r="IX77" s="6">
         <v>691</v>
       </c>
-      <c r="IY77" s="30">
+      <c r="IY77" s="28">
         <v>914</v>
       </c>
-      <c r="IZ77" s="25">
+      <c r="IZ77" s="28">
         <v>923</v>
       </c>
+      <c r="JA77" s="25">
+        <v>905</v>
+      </c>
     </row>
-    <row r="78" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
@@ -60352,14 +60574,17 @@
       <c r="IX78" s="6">
         <v>14407</v>
       </c>
-      <c r="IY78" s="30">
+      <c r="IY78" s="28">
         <v>14475</v>
       </c>
-      <c r="IZ78" s="25">
+      <c r="IZ78" s="28">
         <v>14912</v>
       </c>
+      <c r="JA78" s="25">
+        <v>14997</v>
+      </c>
     </row>
-    <row r="79" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
@@ -61134,14 +61359,17 @@
       <c r="IX79" s="6">
         <v>157</v>
       </c>
-      <c r="IY79" s="30">
+      <c r="IY79" s="28">
         <v>168</v>
       </c>
-      <c r="IZ79" s="25">
+      <c r="IZ79" s="28">
         <v>168</v>
       </c>
+      <c r="JA79" s="25">
+        <v>178</v>
+      </c>
     </row>
-    <row r="80" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>74</v>
       </c>
@@ -61916,14 +62144,17 @@
       <c r="IX80" s="6">
         <v>837</v>
       </c>
-      <c r="IY80" s="30">
+      <c r="IY80" s="28">
         <v>853</v>
       </c>
-      <c r="IZ80" s="25">
+      <c r="IZ80" s="28">
         <v>854</v>
       </c>
+      <c r="JA80" s="25">
+        <v>839</v>
+      </c>
     </row>
-    <row r="81" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
@@ -62698,14 +62929,17 @@
       <c r="IX81" s="6">
         <v>69</v>
       </c>
-      <c r="IY81" s="30">
+      <c r="IY81" s="28">
         <v>70</v>
       </c>
-      <c r="IZ81" s="25">
+      <c r="IZ81" s="28">
         <v>32</v>
       </c>
+      <c r="JA81" s="25">
+        <v>31</v>
+      </c>
     </row>
-    <row r="82" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>76</v>
       </c>
@@ -63480,14 +63714,17 @@
       <c r="IX82" s="6">
         <v>96</v>
       </c>
-      <c r="IY82" s="30">
+      <c r="IY82" s="28">
         <v>87</v>
       </c>
-      <c r="IZ82" s="25">
+      <c r="IZ82" s="28">
         <v>82</v>
       </c>
+      <c r="JA82" s="25">
+        <v>109</v>
+      </c>
     </row>
-    <row r="83" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>77</v>
       </c>
@@ -64262,14 +64499,17 @@
       <c r="IX83" s="6">
         <v>1009</v>
       </c>
-      <c r="IY83" s="30">
+      <c r="IY83" s="28">
         <v>1049</v>
       </c>
-      <c r="IZ83" s="25">
+      <c r="IZ83" s="28">
         <v>1053</v>
       </c>
+      <c r="JA83" s="25">
+        <v>1096</v>
+      </c>
     </row>
-    <row r="84" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
@@ -65044,14 +65284,17 @@
       <c r="IX84" s="6">
         <v>3956</v>
       </c>
-      <c r="IY84" s="30">
+      <c r="IY84" s="28">
         <v>3964</v>
       </c>
-      <c r="IZ84" s="25">
+      <c r="IZ84" s="28">
         <v>3997</v>
       </c>
+      <c r="JA84" s="25">
+        <v>4041</v>
+      </c>
     </row>
-    <row r="85" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
@@ -65826,14 +66069,17 @@
       <c r="IX85" s="6">
         <v>100</v>
       </c>
-      <c r="IY85" s="30">
+      <c r="IY85" s="28">
         <v>93</v>
       </c>
-      <c r="IZ85" s="25">
+      <c r="IZ85" s="28">
         <v>122</v>
       </c>
+      <c r="JA85" s="25">
+        <v>141</v>
+      </c>
     </row>
-    <row r="86" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>80</v>
       </c>
@@ -66608,14 +66854,17 @@
       <c r="IX86" s="6">
         <v>1</v>
       </c>
-      <c r="IY86" s="30">
+      <c r="IY86" s="28">
         <v>1</v>
       </c>
-      <c r="IZ86" s="25">
+      <c r="IZ86" s="28">
         <v>1</v>
       </c>
+      <c r="JA86" s="25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>81</v>
       </c>
@@ -67390,14 +67639,17 @@
       <c r="IX87" s="6">
         <v>0</v>
       </c>
-      <c r="IY87" s="30">
+      <c r="IY87" s="28">
         <v>0</v>
       </c>
-      <c r="IZ87" s="25">
+      <c r="IZ87" s="28">
         <v>0</v>
       </c>
+      <c r="JA87" s="25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
@@ -68172,14 +68424,17 @@
       <c r="IX88" s="6">
         <v>4717</v>
       </c>
-      <c r="IY88" s="30">
+      <c r="IY88" s="28">
         <v>4838</v>
       </c>
-      <c r="IZ88" s="25">
+      <c r="IZ88" s="28">
         <v>4752</v>
       </c>
+      <c r="JA88" s="25">
+        <v>4827</v>
+      </c>
     </row>
-    <row r="89" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>83</v>
       </c>
@@ -68954,14 +69209,17 @@
       <c r="IX89" s="6">
         <v>13970</v>
       </c>
-      <c r="IY89" s="30">
+      <c r="IY89" s="28">
         <v>14085</v>
       </c>
-      <c r="IZ89" s="25">
+      <c r="IZ89" s="28">
         <v>13339</v>
       </c>
+      <c r="JA89" s="25">
+        <v>14106</v>
+      </c>
     </row>
-    <row r="90" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
@@ -69736,14 +69994,17 @@
       <c r="IX90" s="6">
         <v>395</v>
       </c>
-      <c r="IY90" s="30">
+      <c r="IY90" s="28">
         <v>394</v>
       </c>
-      <c r="IZ90" s="25">
+      <c r="IZ90" s="28">
         <v>396</v>
       </c>
+      <c r="JA90" s="25">
+        <v>399</v>
+      </c>
     </row>
-    <row r="91" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
@@ -70518,14 +70779,17 @@
       <c r="IX91" s="6">
         <v>6801</v>
       </c>
-      <c r="IY91" s="30">
+      <c r="IY91" s="28">
         <v>6738</v>
       </c>
-      <c r="IZ91" s="25">
+      <c r="IZ91" s="28">
         <v>6365</v>
       </c>
+      <c r="JA91" s="25">
+        <v>7147</v>
+      </c>
     </row>
-    <row r="92" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>86</v>
       </c>
@@ -71300,14 +71564,17 @@
       <c r="IX92" s="6">
         <v>2124</v>
       </c>
-      <c r="IY92" s="30">
+      <c r="IY92" s="28">
         <v>1930</v>
       </c>
-      <c r="IZ92" s="25">
+      <c r="IZ92" s="28">
         <v>1754</v>
       </c>
+      <c r="JA92" s="25">
+        <v>2035</v>
+      </c>
     </row>
-    <row r="93" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -72082,14 +72349,17 @@
       <c r="IX93" s="6">
         <v>677</v>
       </c>
-      <c r="IY93" s="30">
+      <c r="IY93" s="28">
         <v>692</v>
       </c>
-      <c r="IZ93" s="25">
+      <c r="IZ93" s="28">
         <v>693</v>
       </c>
+      <c r="JA93" s="25">
+        <v>692</v>
+      </c>
     </row>
-    <row r="94" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
@@ -72864,14 +73134,17 @@
       <c r="IX94" s="6">
         <v>42</v>
       </c>
-      <c r="IY94" s="30">
+      <c r="IY94" s="28">
         <v>41</v>
       </c>
-      <c r="IZ94" s="25">
+      <c r="IZ94" s="28">
         <v>43</v>
       </c>
+      <c r="JA94" s="25">
+        <v>45</v>
+      </c>
     </row>
-    <row r="95" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
@@ -73646,14 +73919,17 @@
       <c r="IX95" s="6">
         <v>990</v>
       </c>
-      <c r="IY95" s="30">
+      <c r="IY95" s="28">
         <v>983</v>
       </c>
-      <c r="IZ95" s="25">
+      <c r="IZ95" s="28">
         <v>975</v>
       </c>
+      <c r="JA95" s="25">
+        <v>1122</v>
+      </c>
     </row>
-    <row r="96" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>90</v>
       </c>
@@ -74428,14 +74704,17 @@
       <c r="IX96" s="6">
         <v>109</v>
       </c>
-      <c r="IY96" s="30">
+      <c r="IY96" s="28">
         <v>108</v>
       </c>
-      <c r="IZ96" s="25">
+      <c r="IZ96" s="28">
         <v>102</v>
       </c>
+      <c r="JA96" s="25">
+        <v>101</v>
+      </c>
     </row>
-    <row r="97" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>91</v>
       </c>
@@ -75210,14 +75489,17 @@
       <c r="IX97" s="6">
         <v>1670</v>
       </c>
-      <c r="IY97" s="30">
+      <c r="IY97" s="28">
         <v>1663</v>
       </c>
-      <c r="IZ97" s="25">
+      <c r="IZ97" s="28">
         <v>1434</v>
       </c>
+      <c r="JA97" s="25">
+        <v>1441</v>
+      </c>
     </row>
-    <row r="98" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>92</v>
       </c>
@@ -75992,14 +76274,17 @@
       <c r="IX98" s="6">
         <v>470</v>
       </c>
-      <c r="IY98" s="30">
+      <c r="IY98" s="28">
         <v>480</v>
       </c>
-      <c r="IZ98" s="25">
+      <c r="IZ98" s="28">
         <v>500</v>
       </c>
+      <c r="JA98" s="25">
+        <v>569</v>
+      </c>
     </row>
-    <row r="99" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
@@ -76774,14 +77059,17 @@
       <c r="IX99" s="6">
         <v>37730</v>
       </c>
-      <c r="IY99" s="30">
+      <c r="IY99" s="28">
         <v>37549</v>
       </c>
-      <c r="IZ99" s="25">
+      <c r="IZ99" s="28">
         <v>37237</v>
       </c>
+      <c r="JA99" s="25">
+        <v>37239</v>
+      </c>
     </row>
-    <row r="100" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>94</v>
       </c>
@@ -77556,14 +77844,17 @@
       <c r="IX100" s="6">
         <v>6486</v>
       </c>
-      <c r="IY100" s="30">
+      <c r="IY100" s="28">
         <v>6275</v>
       </c>
-      <c r="IZ100" s="25">
+      <c r="IZ100" s="28">
         <v>7875</v>
       </c>
+      <c r="JA100" s="25">
+        <v>7980</v>
+      </c>
     </row>
-    <row r="101" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>95</v>
       </c>
@@ -78338,14 +78629,17 @@
       <c r="IX101" s="6">
         <v>759</v>
       </c>
-      <c r="IY101" s="30">
+      <c r="IY101" s="28">
         <v>655</v>
       </c>
-      <c r="IZ101" s="25">
+      <c r="IZ101" s="28">
         <v>516</v>
       </c>
+      <c r="JA101" s="25">
+        <v>542</v>
+      </c>
     </row>
-    <row r="102" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>96</v>
       </c>
@@ -79120,14 +79414,17 @@
       <c r="IX102" s="6">
         <v>510</v>
       </c>
-      <c r="IY102" s="30">
+      <c r="IY102" s="28">
         <v>516</v>
       </c>
-      <c r="IZ102" s="25">
+      <c r="IZ102" s="28">
         <v>516</v>
       </c>
+      <c r="JA102" s="25">
+        <v>506</v>
+      </c>
     </row>
-    <row r="103" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>97</v>
       </c>
@@ -79902,14 +80199,17 @@
       <c r="IX103" s="6">
         <v>91043</v>
       </c>
-      <c r="IY103" s="30">
+      <c r="IY103" s="28">
         <v>91422</v>
       </c>
-      <c r="IZ103" s="25">
+      <c r="IZ103" s="28">
         <v>99474</v>
       </c>
+      <c r="JA103" s="25">
+        <v>102011</v>
+      </c>
     </row>
-    <row r="104" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>98</v>
       </c>
@@ -80684,14 +80984,17 @@
       <c r="IX104" s="6">
         <v>116918</v>
       </c>
-      <c r="IY104" s="30">
+      <c r="IY104" s="28">
         <v>117675</v>
       </c>
-      <c r="IZ104" s="25">
+      <c r="IZ104" s="28">
         <v>117944</v>
       </c>
+      <c r="JA104" s="25">
+        <v>122551</v>
+      </c>
     </row>
-    <row r="105" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>99</v>
       </c>
@@ -81466,14 +81769,17 @@
       <c r="IX105" s="6">
         <v>894</v>
       </c>
-      <c r="IY105" s="30">
+      <c r="IY105" s="28">
         <v>906</v>
       </c>
-      <c r="IZ105" s="25">
+      <c r="IZ105" s="28">
         <v>964</v>
       </c>
+      <c r="JA105" s="25">
+        <v>964</v>
+      </c>
     </row>
-    <row r="106" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>100</v>
       </c>
@@ -82248,14 +82554,17 @@
       <c r="IX106" s="6">
         <v>1110</v>
       </c>
-      <c r="IY106" s="30">
+      <c r="IY106" s="28">
         <v>1170</v>
       </c>
-      <c r="IZ106" s="25">
+      <c r="IZ106" s="28">
         <v>1123</v>
       </c>
+      <c r="JA106" s="25">
+        <v>1146</v>
+      </c>
     </row>
-    <row r="107" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>101</v>
       </c>
@@ -83030,14 +83339,17 @@
       <c r="IX107" s="6">
         <v>30822</v>
       </c>
-      <c r="IY107" s="30">
+      <c r="IY107" s="28">
         <v>30990</v>
       </c>
-      <c r="IZ107" s="25">
+      <c r="IZ107" s="28">
         <v>31332</v>
       </c>
+      <c r="JA107" s="25">
+        <v>31241</v>
+      </c>
     </row>
-    <row r="108" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>102</v>
       </c>
@@ -83812,14 +84124,17 @@
       <c r="IX108" s="6">
         <v>958</v>
       </c>
-      <c r="IY108" s="30">
+      <c r="IY108" s="28">
         <v>942</v>
       </c>
-      <c r="IZ108" s="25">
+      <c r="IZ108" s="28">
         <v>949</v>
       </c>
+      <c r="JA108" s="25">
+        <v>933</v>
+      </c>
     </row>
-    <row r="109" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>103</v>
       </c>
@@ -84594,14 +84909,17 @@
       <c r="IX109" s="6">
         <v>437</v>
       </c>
-      <c r="IY109" s="30">
+      <c r="IY109" s="28">
         <v>458</v>
       </c>
-      <c r="IZ109" s="25">
+      <c r="IZ109" s="28">
         <v>499</v>
       </c>
+      <c r="JA109" s="25">
+        <v>492</v>
+      </c>
     </row>
-    <row r="110" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>104</v>
       </c>
@@ -85376,14 +85694,17 @@
       <c r="IX110" s="6">
         <v>49</v>
       </c>
-      <c r="IY110" s="30">
+      <c r="IY110" s="28">
         <v>50</v>
       </c>
-      <c r="IZ110" s="25">
+      <c r="IZ110" s="28">
         <v>51</v>
       </c>
+      <c r="JA110" s="25">
+        <v>51</v>
+      </c>
     </row>
-    <row r="111" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -86158,14 +86479,17 @@
       <c r="IX111" s="6">
         <v>2002</v>
       </c>
-      <c r="IY111" s="30">
+      <c r="IY111" s="28">
         <v>1963</v>
       </c>
-      <c r="IZ111" s="25">
+      <c r="IZ111" s="28">
         <v>1972</v>
       </c>
+      <c r="JA111" s="25">
+        <v>2019</v>
+      </c>
     </row>
-    <row r="112" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>106</v>
       </c>
@@ -86940,14 +87264,17 @@
       <c r="IX112" s="6">
         <v>2982</v>
       </c>
-      <c r="IY112" s="30">
+      <c r="IY112" s="28">
         <v>3150</v>
       </c>
-      <c r="IZ112" s="25">
+      <c r="IZ112" s="28">
         <v>3186</v>
       </c>
+      <c r="JA112" s="25">
+        <v>3963</v>
+      </c>
     </row>
-    <row r="113" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -87722,14 +88049,17 @@
       <c r="IX113" s="6">
         <v>353</v>
       </c>
-      <c r="IY113" s="30">
+      <c r="IY113" s="28">
         <v>381</v>
       </c>
-      <c r="IZ113" s="25">
+      <c r="IZ113" s="28">
         <v>369</v>
       </c>
+      <c r="JA113" s="25">
+        <v>382</v>
+      </c>
     </row>
-    <row r="114" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>108</v>
       </c>
@@ -88504,14 +88834,17 @@
       <c r="IX114" s="6">
         <v>3067</v>
       </c>
-      <c r="IY114" s="30">
+      <c r="IY114" s="28">
         <v>2949</v>
       </c>
-      <c r="IZ114" s="25">
+      <c r="IZ114" s="28">
         <v>2869</v>
       </c>
+      <c r="JA114" s="25">
+        <v>2890</v>
+      </c>
     </row>
-    <row r="115" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>109</v>
       </c>
@@ -89286,14 +89619,17 @@
       <c r="IX115" s="6">
         <v>1389</v>
       </c>
-      <c r="IY115" s="30">
+      <c r="IY115" s="28">
         <v>1417</v>
       </c>
-      <c r="IZ115" s="25">
+      <c r="IZ115" s="28">
         <v>1505</v>
       </c>
+      <c r="JA115" s="25">
+        <v>1504</v>
+      </c>
     </row>
-    <row r="116" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>110</v>
       </c>
@@ -90068,14 +90404,17 @@
       <c r="IX116" s="6">
         <v>581</v>
       </c>
-      <c r="IY116" s="30">
+      <c r="IY116" s="28">
         <v>581</v>
       </c>
-      <c r="IZ116" s="25">
+      <c r="IZ116" s="28">
         <v>554</v>
       </c>
+      <c r="JA116" s="25">
+        <v>564</v>
+      </c>
     </row>
-    <row r="117" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>111</v>
       </c>
@@ -90850,14 +91189,17 @@
       <c r="IX117" s="6">
         <v>1997</v>
       </c>
-      <c r="IY117" s="30">
+      <c r="IY117" s="28">
         <v>2006</v>
       </c>
-      <c r="IZ117" s="25">
+      <c r="IZ117" s="28">
         <v>2077</v>
       </c>
+      <c r="JA117" s="25">
+        <v>2111</v>
+      </c>
     </row>
-    <row r="118" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>112</v>
       </c>
@@ -91632,14 +91974,17 @@
       <c r="IX118" s="6">
         <v>435</v>
       </c>
-      <c r="IY118" s="30">
+      <c r="IY118" s="28">
         <v>460</v>
       </c>
-      <c r="IZ118" s="25">
+      <c r="IZ118" s="28">
         <v>451</v>
       </c>
+      <c r="JA118" s="25">
+        <v>464</v>
+      </c>
     </row>
-    <row r="119" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>113</v>
       </c>
@@ -92414,14 +92759,17 @@
       <c r="IX119" s="6">
         <v>1057</v>
       </c>
-      <c r="IY119" s="30">
+      <c r="IY119" s="28">
         <v>1055</v>
       </c>
-      <c r="IZ119" s="25">
+      <c r="IZ119" s="28">
         <v>1056</v>
       </c>
+      <c r="JA119" s="25">
+        <v>1057</v>
+      </c>
     </row>
-    <row r="120" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>114</v>
       </c>
@@ -93196,14 +93544,17 @@
       <c r="IX120" s="6">
         <v>41</v>
       </c>
-      <c r="IY120" s="30">
+      <c r="IY120" s="28">
         <v>40</v>
       </c>
-      <c r="IZ120" s="25">
+      <c r="IZ120" s="28">
         <v>40</v>
       </c>
+      <c r="JA120" s="25">
+        <v>39</v>
+      </c>
     </row>
-    <row r="121" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>115</v>
       </c>
@@ -93978,14 +94329,17 @@
       <c r="IX121" s="6">
         <v>639</v>
       </c>
-      <c r="IY121" s="30">
+      <c r="IY121" s="28">
         <v>631</v>
       </c>
-      <c r="IZ121" s="25">
+      <c r="IZ121" s="28">
         <v>644</v>
       </c>
+      <c r="JA121" s="25">
+        <v>638</v>
+      </c>
     </row>
-    <row r="122" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>116</v>
       </c>
@@ -94760,14 +95114,17 @@
       <c r="IX122" s="6">
         <v>143</v>
       </c>
-      <c r="IY122" s="30">
+      <c r="IY122" s="28">
         <v>132</v>
       </c>
-      <c r="IZ122" s="25">
+      <c r="IZ122" s="28">
         <v>134</v>
       </c>
+      <c r="JA122" s="25">
+        <v>136</v>
+      </c>
     </row>
-    <row r="123" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>117</v>
       </c>
@@ -95542,14 +95899,17 @@
       <c r="IX123" s="6">
         <v>604</v>
       </c>
-      <c r="IY123" s="30">
+      <c r="IY123" s="28">
         <v>597</v>
       </c>
-      <c r="IZ123" s="25">
+      <c r="IZ123" s="28">
         <v>572</v>
       </c>
+      <c r="JA123" s="25">
+        <v>507</v>
+      </c>
     </row>
-    <row r="124" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>118</v>
       </c>
@@ -96324,14 +96684,17 @@
       <c r="IX124" s="6">
         <v>2080</v>
       </c>
-      <c r="IY124" s="30">
+      <c r="IY124" s="28">
         <v>1672</v>
       </c>
-      <c r="IZ124" s="25">
+      <c r="IZ124" s="28">
         <v>2398</v>
       </c>
+      <c r="JA124" s="25">
+        <v>1661</v>
+      </c>
     </row>
-    <row r="125" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>119</v>
       </c>
@@ -97106,14 +97469,17 @@
       <c r="IX125" s="6">
         <v>403473</v>
       </c>
-      <c r="IY125" s="30">
+      <c r="IY125" s="28">
         <v>405301</v>
       </c>
-      <c r="IZ125" s="25">
+      <c r="IZ125" s="28">
         <v>406365</v>
       </c>
+      <c r="JA125" s="25">
+        <v>409989</v>
+      </c>
     </row>
-    <row r="126" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>120</v>
       </c>
@@ -97888,14 +98254,17 @@
       <c r="IX126" s="6">
         <v>7237</v>
       </c>
-      <c r="IY126" s="30">
+      <c r="IY126" s="28">
         <v>7410</v>
       </c>
-      <c r="IZ126" s="25">
+      <c r="IZ126" s="28">
         <v>6017</v>
       </c>
+      <c r="JA126" s="25">
+        <v>6515</v>
+      </c>
     </row>
-    <row r="127" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>121</v>
       </c>
@@ -98670,14 +99039,17 @@
       <c r="IX127" s="6">
         <v>45</v>
       </c>
-      <c r="IY127" s="30">
+      <c r="IY127" s="28">
         <v>46</v>
       </c>
-      <c r="IZ127" s="25">
+      <c r="IZ127" s="28">
         <v>48</v>
       </c>
+      <c r="JA127" s="25">
+        <v>49</v>
+      </c>
     </row>
-    <row r="128" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>122</v>
       </c>
@@ -99452,14 +99824,17 @@
       <c r="IX128" s="6">
         <v>2641</v>
       </c>
-      <c r="IY128" s="30">
+      <c r="IY128" s="28">
         <v>2491</v>
       </c>
-      <c r="IZ128" s="25">
+      <c r="IZ128" s="28">
         <v>2538</v>
       </c>
+      <c r="JA128" s="25">
+        <v>2423</v>
+      </c>
     </row>
-    <row r="129" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>123</v>
       </c>
@@ -100234,14 +100609,17 @@
       <c r="IX129" s="6">
         <v>33246</v>
       </c>
-      <c r="IY129" s="30">
+      <c r="IY129" s="28">
         <v>32200</v>
       </c>
-      <c r="IZ129" s="25">
+      <c r="IZ129" s="28">
         <v>34814</v>
       </c>
+      <c r="JA129" s="25">
+        <v>35551</v>
+      </c>
     </row>
-    <row r="130" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>124</v>
       </c>
@@ -101016,14 +101394,17 @@
       <c r="IX130" s="6">
         <v>6085</v>
       </c>
-      <c r="IY130" s="30">
+      <c r="IY130" s="28">
         <v>6130</v>
       </c>
-      <c r="IZ130" s="25">
+      <c r="IZ130" s="28">
         <v>6290</v>
       </c>
+      <c r="JA130" s="25">
+        <v>6310</v>
+      </c>
     </row>
-    <row r="131" spans="1:260" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:261" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="20" t="s">
         <v>127</v>
       </c>
@@ -101798,15 +102179,17 @@
       <c r="IX131" s="21">
         <v>1815607</v>
       </c>
-      <c r="IY131" s="36">
+      <c r="IY131" s="34">
         <v>1820785</v>
       </c>
-      <c r="IZ131" s="26">
-        <f>SUM(IZ6:IZ130)</f>
+      <c r="IZ131" s="34">
         <v>1826575</v>
       </c>
+      <c r="JA131" s="26">
+        <v>1837975</v>
+      </c>
     </row>
-    <row r="132" spans="1:260" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:261" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
@@ -102054,7 +102437,7 @@
       <c r="IL132" s="18"/>
       <c r="IM132" s="18"/>
     </row>
-    <row r="133" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>126</v>
       </c>

--- a/Historicos/ta_municipios_jalisco.xlsx
+++ b/Historicos/ta_municipios_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="142">
   <si>
     <t>Acatic</t>
   </si>
@@ -1580,11 +1580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JA145"/>
+  <dimension ref="A1:JB145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A19" sqref="A19"/>
+      <selection pane="topRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,17 +1701,17 @@
     <col min="257" max="257" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>125</v>
       </c>
@@ -2492,11 +2492,14 @@
       <c r="IZ4" s="30">
         <v>2021</v>
       </c>
-      <c r="JA4" s="31">
+      <c r="JA4" s="30">
         <v>2021</v>
       </c>
+      <c r="JB4" s="31">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="4" t="s">
         <v>129</v>
@@ -3275,11 +3278,14 @@
       <c r="IZ5" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="JA5" s="33" t="s">
+      <c r="JA5" s="27" t="s">
         <v>136</v>
       </c>
+      <c r="JB5" s="33" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="6" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -4060,11 +4066,14 @@
       <c r="IZ6" s="28">
         <v>4690</v>
       </c>
-      <c r="JA6" s="25">
+      <c r="JA6" s="28">
         <v>4934</v>
       </c>
+      <c r="JB6" s="25">
+        <v>4973</v>
+      </c>
     </row>
-    <row r="7" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -4845,11 +4854,14 @@
       <c r="IZ7" s="28">
         <v>6329</v>
       </c>
-      <c r="JA7" s="25">
+      <c r="JA7" s="28">
         <v>6308</v>
       </c>
+      <c r="JB7" s="25">
+        <v>6568</v>
+      </c>
     </row>
-    <row r="8" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -5630,11 +5642,14 @@
       <c r="IZ8" s="28">
         <v>1542</v>
       </c>
-      <c r="JA8" s="25">
+      <c r="JA8" s="28">
         <v>1510</v>
       </c>
+      <c r="JB8" s="25">
+        <v>1517</v>
+      </c>
     </row>
-    <row r="9" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -6415,11 +6430,14 @@
       <c r="IZ9" s="28">
         <v>83</v>
       </c>
-      <c r="JA9" s="25">
+      <c r="JA9" s="28">
         <v>84</v>
       </c>
+      <c r="JB9" s="25">
+        <v>85</v>
+      </c>
     </row>
-    <row r="10" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -7200,11 +7218,14 @@
       <c r="IZ10" s="28">
         <v>2011</v>
       </c>
-      <c r="JA10" s="25">
+      <c r="JA10" s="28">
         <v>2690</v>
       </c>
+      <c r="JB10" s="25">
+        <v>2809</v>
+      </c>
     </row>
-    <row r="11" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -7985,11 +8006,14 @@
       <c r="IZ11" s="28">
         <v>6336</v>
       </c>
-      <c r="JA11" s="25">
+      <c r="JA11" s="28">
         <v>6421</v>
       </c>
+      <c r="JB11" s="25">
+        <v>6518</v>
+      </c>
     </row>
-    <row r="12" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -8770,11 +8794,14 @@
       <c r="IZ12" s="28">
         <v>12778</v>
       </c>
-      <c r="JA12" s="25">
+      <c r="JA12" s="28">
         <v>12987</v>
       </c>
+      <c r="JB12" s="25">
+        <v>12767</v>
+      </c>
     </row>
-    <row r="13" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -9555,11 +9582,14 @@
       <c r="IZ13" s="28">
         <v>483</v>
       </c>
-      <c r="JA13" s="25">
+      <c r="JA13" s="28">
         <v>468</v>
       </c>
+      <c r="JB13" s="25">
+        <v>441</v>
+      </c>
     </row>
-    <row r="14" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -10340,11 +10370,14 @@
       <c r="IZ14" s="28">
         <v>23</v>
       </c>
-      <c r="JA14" s="25">
+      <c r="JA14" s="28">
         <v>23</v>
       </c>
+      <c r="JB14" s="25">
+        <v>28</v>
+      </c>
     </row>
-    <row r="15" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -11125,11 +11158,14 @@
       <c r="IZ15" s="28">
         <v>76</v>
       </c>
-      <c r="JA15" s="25">
+      <c r="JA15" s="28">
         <v>110</v>
       </c>
+      <c r="JB15" s="25">
+        <v>98</v>
+      </c>
     </row>
-    <row r="16" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -11910,11 +11946,14 @@
       <c r="IZ16" s="28">
         <v>10206</v>
       </c>
-      <c r="JA16" s="25">
+      <c r="JA16" s="28">
         <v>10514</v>
       </c>
+      <c r="JB16" s="25">
+        <v>10794</v>
+      </c>
     </row>
-    <row r="17" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -12695,11 +12734,14 @@
       <c r="IZ17" s="28">
         <v>609</v>
       </c>
-      <c r="JA17" s="25">
+      <c r="JA17" s="28">
         <v>631</v>
       </c>
+      <c r="JB17" s="25">
+        <v>643</v>
+      </c>
     </row>
-    <row r="18" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -13480,11 +13522,14 @@
       <c r="IZ18" s="28">
         <v>11216</v>
       </c>
-      <c r="JA18" s="25">
+      <c r="JA18" s="28">
         <v>11448</v>
       </c>
+      <c r="JB18" s="25">
+        <v>11406</v>
+      </c>
     </row>
-    <row r="19" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -14265,11 +14310,14 @@
       <c r="IZ19" s="28">
         <v>3580</v>
       </c>
-      <c r="JA19" s="25">
+      <c r="JA19" s="28">
         <v>3682</v>
       </c>
+      <c r="JB19" s="25">
+        <v>3783</v>
+      </c>
     </row>
-    <row r="20" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -15050,11 +15098,14 @@
       <c r="IZ20" s="28">
         <v>347</v>
       </c>
-      <c r="JA20" s="25">
+      <c r="JA20" s="28">
         <v>356</v>
       </c>
+      <c r="JB20" s="25">
+        <v>352</v>
+      </c>
     </row>
-    <row r="21" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -15835,11 +15886,14 @@
       <c r="IZ21" s="28">
         <v>668</v>
       </c>
-      <c r="JA21" s="25">
+      <c r="JA21" s="28">
         <v>692</v>
       </c>
+      <c r="JB21" s="25">
+        <v>683</v>
+      </c>
     </row>
-    <row r="22" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -16620,11 +16674,14 @@
       <c r="IZ22" s="28">
         <v>361</v>
       </c>
-      <c r="JA22" s="25">
+      <c r="JA22" s="28">
         <v>344</v>
       </c>
+      <c r="JB22" s="25">
+        <v>331</v>
+      </c>
     </row>
-    <row r="23" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -17405,11 +17462,14 @@
       <c r="IZ23" s="28">
         <v>47</v>
       </c>
-      <c r="JA23" s="25">
+      <c r="JA23" s="28">
         <v>115</v>
       </c>
+      <c r="JB23" s="25">
+        <v>114</v>
+      </c>
     </row>
-    <row r="24" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -18190,11 +18250,14 @@
       <c r="IZ24" s="28">
         <v>2854</v>
       </c>
-      <c r="JA24" s="25">
+      <c r="JA24" s="28">
         <v>2962</v>
       </c>
+      <c r="JB24" s="25">
+        <v>2936</v>
+      </c>
     </row>
-    <row r="25" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -18975,11 +19038,14 @@
       <c r="IZ25" s="28">
         <v>5872</v>
       </c>
-      <c r="JA25" s="25">
+      <c r="JA25" s="28">
         <v>5941</v>
       </c>
+      <c r="JB25" s="25">
+        <v>5980</v>
+      </c>
     </row>
-    <row r="26" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -19760,11 +19826,14 @@
       <c r="IZ26" s="28">
         <v>2</v>
       </c>
-      <c r="JA26" s="25">
+      <c r="JA26" s="28">
         <v>2</v>
       </c>
+      <c r="JB26" s="25">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -20545,11 +20614,14 @@
       <c r="IZ27" s="28">
         <v>162</v>
       </c>
-      <c r="JA27" s="25">
+      <c r="JA27" s="28">
         <v>161</v>
       </c>
+      <c r="JB27" s="25">
+        <v>155</v>
+      </c>
     </row>
-    <row r="28" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -21330,11 +21402,14 @@
       <c r="IZ28" s="28">
         <v>2382</v>
       </c>
-      <c r="JA28" s="25">
+      <c r="JA28" s="28">
         <v>2397</v>
       </c>
+      <c r="JB28" s="25">
+        <v>2382</v>
+      </c>
     </row>
-    <row r="29" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -22115,11 +22190,14 @@
       <c r="IZ29" s="28">
         <v>2336</v>
       </c>
-      <c r="JA29" s="25">
+      <c r="JA29" s="28">
         <v>2400</v>
       </c>
+      <c r="JB29" s="25">
+        <v>2427</v>
+      </c>
     </row>
-    <row r="30" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -22900,11 +22978,14 @@
       <c r="IZ30" s="28">
         <v>623</v>
       </c>
-      <c r="JA30" s="25">
+      <c r="JA30" s="28">
         <v>613</v>
       </c>
+      <c r="JB30" s="25">
+        <v>614</v>
+      </c>
     </row>
-    <row r="31" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
@@ -23685,11 +23766,14 @@
       <c r="IZ31" s="28">
         <v>128</v>
       </c>
-      <c r="JA31" s="25">
+      <c r="JA31" s="28">
         <v>125</v>
       </c>
+      <c r="JB31" s="25">
+        <v>124</v>
+      </c>
     </row>
-    <row r="32" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
@@ -24470,11 +24554,14 @@
       <c r="IZ32" s="28">
         <v>42</v>
       </c>
-      <c r="JA32" s="25">
+      <c r="JA32" s="28">
         <v>42</v>
       </c>
+      <c r="JB32" s="25">
+        <v>43</v>
+      </c>
     </row>
-    <row r="33" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -25255,11 +25342,14 @@
       <c r="IZ33" s="28">
         <v>58</v>
       </c>
-      <c r="JA33" s="25">
+      <c r="JA33" s="28">
         <v>59</v>
       </c>
+      <c r="JB33" s="25">
+        <v>61</v>
+      </c>
     </row>
-    <row r="34" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -26040,11 +26130,14 @@
       <c r="IZ34" s="28">
         <v>202</v>
       </c>
-      <c r="JA34" s="25">
+      <c r="JA34" s="28">
         <v>234</v>
       </c>
+      <c r="JB34" s="25">
+        <v>236</v>
+      </c>
     </row>
-    <row r="35" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -26825,11 +26918,14 @@
       <c r="IZ35" s="28">
         <v>983</v>
       </c>
-      <c r="JA35" s="25">
+      <c r="JA35" s="28">
         <v>997</v>
       </c>
+      <c r="JB35" s="25">
+        <v>994</v>
+      </c>
     </row>
-    <row r="36" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -27610,11 +27706,14 @@
       <c r="IZ36" s="28">
         <v>6</v>
       </c>
-      <c r="JA36" s="25">
+      <c r="JA36" s="28">
         <v>8</v>
       </c>
+      <c r="JB36" s="25">
+        <v>8</v>
+      </c>
     </row>
-    <row r="37" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -28395,11 +28494,14 @@
       <c r="IZ37" s="28">
         <v>3298</v>
       </c>
-      <c r="JA37" s="25">
+      <c r="JA37" s="28">
         <v>3307</v>
       </c>
+      <c r="JB37" s="25">
+        <v>3305</v>
+      </c>
     </row>
-    <row r="38" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -29180,11 +29282,14 @@
       <c r="IZ38" s="28">
         <v>2470</v>
       </c>
-      <c r="JA38" s="25">
+      <c r="JA38" s="28">
         <v>2504</v>
       </c>
+      <c r="JB38" s="25">
+        <v>2512</v>
+      </c>
     </row>
-    <row r="39" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
@@ -29965,11 +30070,14 @@
       <c r="IZ39" s="28">
         <v>162</v>
       </c>
-      <c r="JA39" s="25">
+      <c r="JA39" s="28">
         <v>165</v>
       </c>
+      <c r="JB39" s="25">
+        <v>160</v>
+      </c>
     </row>
-    <row r="40" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
@@ -30750,11 +30858,14 @@
       <c r="IZ40" s="28">
         <v>59635</v>
       </c>
-      <c r="JA40" s="25">
+      <c r="JA40" s="28">
         <v>60682</v>
       </c>
+      <c r="JB40" s="25">
+        <v>61029</v>
+      </c>
     </row>
-    <row r="41" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -31535,11 +31646,14 @@
       <c r="IZ41" s="28">
         <v>3171</v>
       </c>
-      <c r="JA41" s="25">
+      <c r="JA41" s="28">
         <v>3382</v>
       </c>
+      <c r="JB41" s="25">
+        <v>3436</v>
+      </c>
     </row>
-    <row r="42" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -32320,11 +32434,14 @@
       <c r="IZ42" s="28">
         <v>705</v>
       </c>
-      <c r="JA42" s="25">
+      <c r="JA42" s="28">
         <v>718</v>
       </c>
+      <c r="JB42" s="25">
+        <v>711</v>
+      </c>
     </row>
-    <row r="43" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -33105,11 +33222,14 @@
       <c r="IZ43" s="28">
         <v>2399</v>
       </c>
-      <c r="JA43" s="25">
+      <c r="JA43" s="28">
         <v>2604</v>
       </c>
+      <c r="JB43" s="25">
+        <v>2424</v>
+      </c>
     </row>
-    <row r="44" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -33890,11 +34010,14 @@
       <c r="IZ44" s="28">
         <v>153</v>
       </c>
-      <c r="JA44" s="25">
+      <c r="JA44" s="28">
         <v>165</v>
       </c>
+      <c r="JB44" s="25">
+        <v>161</v>
+      </c>
     </row>
-    <row r="45" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -34675,11 +34798,14 @@
       <c r="IZ45" s="28">
         <v>683131</v>
       </c>
-      <c r="JA45" s="25">
+      <c r="JA45" s="28">
         <v>676680</v>
       </c>
+      <c r="JB45" s="25">
+        <v>668635</v>
+      </c>
     </row>
-    <row r="46" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
@@ -35460,11 +35586,14 @@
       <c r="IZ46" s="28">
         <v>211</v>
       </c>
-      <c r="JA46" s="25">
+      <c r="JA46" s="28">
         <v>214</v>
       </c>
+      <c r="JB46" s="25">
+        <v>210</v>
+      </c>
     </row>
-    <row r="47" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
@@ -36245,11 +36374,14 @@
       <c r="IZ47" s="28">
         <v>92</v>
       </c>
-      <c r="JA47" s="25">
+      <c r="JA47" s="28">
         <v>101</v>
       </c>
+      <c r="JB47" s="25">
+        <v>108</v>
+      </c>
     </row>
-    <row r="48" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -37030,11 +37162,14 @@
       <c r="IZ48" s="28">
         <v>782</v>
       </c>
-      <c r="JA48" s="25">
+      <c r="JA48" s="28">
         <v>882</v>
       </c>
+      <c r="JB48" s="25">
+        <v>924</v>
+      </c>
     </row>
-    <row r="49" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -37815,11 +37950,14 @@
       <c r="IZ49" s="28">
         <v>4474</v>
       </c>
-      <c r="JA49" s="25">
+      <c r="JA49" s="28">
         <v>4460</v>
       </c>
+      <c r="JB49" s="25">
+        <v>4663</v>
+      </c>
     </row>
-    <row r="50" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -38600,11 +38738,14 @@
       <c r="IZ50" s="28">
         <v>546</v>
       </c>
-      <c r="JA50" s="25">
+      <c r="JA50" s="28">
         <v>594</v>
       </c>
+      <c r="JB50" s="25">
+        <v>596</v>
+      </c>
     </row>
-    <row r="51" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -39385,11 +39526,14 @@
       <c r="IZ51" s="28">
         <v>2679</v>
       </c>
-      <c r="JA51" s="25">
+      <c r="JA51" s="28">
         <v>2699</v>
       </c>
+      <c r="JB51" s="25">
+        <v>2709</v>
+      </c>
     </row>
-    <row r="52" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -40170,11 +40314,14 @@
       <c r="IZ52" s="28">
         <v>1375</v>
       </c>
-      <c r="JA52" s="25">
+      <c r="JA52" s="28">
         <v>1358</v>
       </c>
+      <c r="JB52" s="25">
+        <v>1368</v>
+      </c>
     </row>
-    <row r="53" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -40955,11 +41102,14 @@
       <c r="IZ53" s="28">
         <v>1738</v>
       </c>
-      <c r="JA53" s="25">
+      <c r="JA53" s="28">
         <v>1739</v>
       </c>
+      <c r="JB53" s="25">
+        <v>1951</v>
+      </c>
     </row>
-    <row r="54" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>48</v>
       </c>
@@ -41740,11 +41890,14 @@
       <c r="IZ54" s="28">
         <v>64</v>
       </c>
-      <c r="JA54" s="25">
+      <c r="JA54" s="28">
         <v>63</v>
       </c>
+      <c r="JB54" s="25">
+        <v>64</v>
+      </c>
     </row>
-    <row r="55" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
@@ -42525,11 +42678,14 @@
       <c r="IZ55" s="28">
         <v>6672</v>
       </c>
-      <c r="JA55" s="25">
+      <c r="JA55" s="28">
         <v>6885</v>
       </c>
+      <c r="JB55" s="25">
+        <v>7219</v>
+      </c>
     </row>
-    <row r="56" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -43310,11 +43466,14 @@
       <c r="IZ56" s="28">
         <v>1361</v>
       </c>
-      <c r="JA56" s="25">
+      <c r="JA56" s="28">
         <v>1338</v>
       </c>
+      <c r="JB56" s="25">
+        <v>1335</v>
+      </c>
     </row>
-    <row r="57" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>51</v>
       </c>
@@ -44095,11 +44254,14 @@
       <c r="IZ57" s="28">
         <v>82</v>
       </c>
-      <c r="JA57" s="25">
+      <c r="JA57" s="28">
         <v>83</v>
       </c>
+      <c r="JB57" s="25">
+        <v>91</v>
+      </c>
     </row>
-    <row r="58" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -44880,11 +45042,14 @@
       <c r="IZ58" s="28">
         <v>5113</v>
       </c>
-      <c r="JA58" s="25">
+      <c r="JA58" s="28">
         <v>5163</v>
       </c>
+      <c r="JB58" s="25">
+        <v>5165</v>
+      </c>
     </row>
-    <row r="59" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>53</v>
       </c>
@@ -45665,11 +45830,14 @@
       <c r="IZ59" s="28">
         <v>2495</v>
       </c>
-      <c r="JA59" s="25">
+      <c r="JA59" s="28">
         <v>2450</v>
       </c>
+      <c r="JB59" s="25">
+        <v>2384</v>
+      </c>
     </row>
-    <row r="60" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
@@ -46450,11 +46618,14 @@
       <c r="IZ60" s="28">
         <v>115</v>
       </c>
-      <c r="JA60" s="25">
+      <c r="JA60" s="28">
         <v>120</v>
       </c>
+      <c r="JB60" s="25">
+        <v>122</v>
+      </c>
     </row>
-    <row r="61" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>55</v>
       </c>
@@ -47235,11 +47406,14 @@
       <c r="IZ61" s="28">
         <v>36085</v>
       </c>
-      <c r="JA61" s="25">
+      <c r="JA61" s="28">
         <v>35170</v>
       </c>
+      <c r="JB61" s="25">
+        <v>35065</v>
+      </c>
     </row>
-    <row r="62" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -48020,11 +48194,14 @@
       <c r="IZ62" s="28">
         <v>1027</v>
       </c>
-      <c r="JA62" s="25">
+      <c r="JA62" s="28">
         <v>1072</v>
       </c>
+      <c r="JB62" s="25">
+        <v>1097</v>
+      </c>
     </row>
-    <row r="63" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
@@ -48805,11 +48982,14 @@
       <c r="IZ63" s="28">
         <v>594</v>
       </c>
-      <c r="JA63" s="25">
+      <c r="JA63" s="28">
         <v>602</v>
       </c>
+      <c r="JB63" s="25">
+        <v>608</v>
+      </c>
     </row>
-    <row r="64" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
@@ -49590,11 +49770,14 @@
       <c r="IZ64" s="28">
         <v>1056</v>
       </c>
-      <c r="JA64" s="25">
+      <c r="JA64" s="28">
         <v>1079</v>
       </c>
+      <c r="JB64" s="25">
+        <v>1086</v>
+      </c>
     </row>
-    <row r="65" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>59</v>
       </c>
@@ -50375,11 +50558,14 @@
       <c r="IZ65" s="28">
         <v>13</v>
       </c>
-      <c r="JA65" s="25">
+      <c r="JA65" s="28">
         <v>13</v>
       </c>
+      <c r="JB65" s="25">
+        <v>13</v>
+      </c>
     </row>
-    <row r="66" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>60</v>
       </c>
@@ -51160,11 +51346,14 @@
       <c r="IZ66" s="28">
         <v>174</v>
       </c>
-      <c r="JA66" s="25">
+      <c r="JA66" s="28">
         <v>196</v>
       </c>
+      <c r="JB66" s="25">
+        <v>199</v>
+      </c>
     </row>
-    <row r="67" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>61</v>
       </c>
@@ -51945,11 +52134,14 @@
       <c r="IZ67" s="28">
         <v>33</v>
       </c>
-      <c r="JA67" s="25">
+      <c r="JA67" s="28">
         <v>21</v>
       </c>
+      <c r="JB67" s="25">
+        <v>23</v>
+      </c>
     </row>
-    <row r="68" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>62</v>
       </c>
@@ -52730,11 +52922,14 @@
       <c r="IZ68" s="28">
         <v>21223</v>
       </c>
-      <c r="JA68" s="25">
+      <c r="JA68" s="28">
         <v>21373</v>
       </c>
+      <c r="JB68" s="25">
+        <v>21476</v>
+      </c>
     </row>
-    <row r="69" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>63</v>
       </c>
@@ -53515,11 +53710,14 @@
       <c r="IZ69" s="28">
         <v>507</v>
       </c>
-      <c r="JA69" s="25">
+      <c r="JA69" s="28">
         <v>515</v>
       </c>
+      <c r="JB69" s="25">
+        <v>538</v>
+      </c>
     </row>
-    <row r="70" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>64</v>
       </c>
@@ -54300,11 +54498,14 @@
       <c r="IZ70" s="28">
         <v>558</v>
       </c>
-      <c r="JA70" s="25">
+      <c r="JA70" s="28">
         <v>572</v>
       </c>
+      <c r="JB70" s="25">
+        <v>564</v>
+      </c>
     </row>
-    <row r="71" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>65</v>
       </c>
@@ -55085,11 +55286,14 @@
       <c r="IZ71" s="28">
         <v>4599</v>
       </c>
-      <c r="JA71" s="25">
+      <c r="JA71" s="28">
         <v>4751</v>
       </c>
+      <c r="JB71" s="25">
+        <v>4766</v>
+      </c>
     </row>
-    <row r="72" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>66</v>
       </c>
@@ -55870,11 +56074,14 @@
       <c r="IZ72" s="28">
         <v>70776</v>
       </c>
-      <c r="JA72" s="25">
+      <c r="JA72" s="28">
         <v>71091</v>
       </c>
+      <c r="JB72" s="25">
+        <v>70877</v>
+      </c>
     </row>
-    <row r="73" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
@@ -56655,11 +56862,14 @@
       <c r="IZ73" s="28">
         <v>12</v>
       </c>
-      <c r="JA73" s="25">
+      <c r="JA73" s="28">
         <v>13</v>
       </c>
+      <c r="JB73" s="25">
+        <v>12</v>
+      </c>
     </row>
-    <row r="74" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>68</v>
       </c>
@@ -57440,11 +57650,14 @@
       <c r="IZ74" s="28">
         <v>40</v>
       </c>
-      <c r="JA74" s="25">
+      <c r="JA74" s="28">
         <v>54</v>
       </c>
+      <c r="JB74" s="25">
+        <v>45</v>
+      </c>
     </row>
-    <row r="75" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>69</v>
       </c>
@@ -58225,11 +58438,14 @@
       <c r="IZ75" s="28">
         <v>77</v>
       </c>
-      <c r="JA75" s="25">
+      <c r="JA75" s="28">
         <v>73</v>
       </c>
+      <c r="JB75" s="25">
+        <v>73</v>
+      </c>
     </row>
-    <row r="76" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>70</v>
       </c>
@@ -59010,11 +59226,14 @@
       <c r="IZ76" s="28">
         <v>4967</v>
       </c>
-      <c r="JA76" s="25">
+      <c r="JA76" s="28">
         <v>4516</v>
       </c>
+      <c r="JB76" s="25">
+        <v>4355</v>
+      </c>
     </row>
-    <row r="77" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
@@ -59795,11 +60014,14 @@
       <c r="IZ77" s="28">
         <v>923</v>
       </c>
-      <c r="JA77" s="25">
+      <c r="JA77" s="28">
         <v>905</v>
       </c>
+      <c r="JB77" s="25">
+        <v>917</v>
+      </c>
     </row>
-    <row r="78" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
@@ -60580,11 +60802,14 @@
       <c r="IZ78" s="28">
         <v>14912</v>
       </c>
-      <c r="JA78" s="25">
+      <c r="JA78" s="28">
         <v>14997</v>
       </c>
+      <c r="JB78" s="25">
+        <v>15470</v>
+      </c>
     </row>
-    <row r="79" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
@@ -61365,11 +61590,14 @@
       <c r="IZ79" s="28">
         <v>168</v>
       </c>
-      <c r="JA79" s="25">
+      <c r="JA79" s="28">
         <v>178</v>
       </c>
+      <c r="JB79" s="25">
+        <v>195</v>
+      </c>
     </row>
-    <row r="80" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>74</v>
       </c>
@@ -62150,11 +62378,14 @@
       <c r="IZ80" s="28">
         <v>854</v>
       </c>
-      <c r="JA80" s="25">
+      <c r="JA80" s="28">
         <v>839</v>
       </c>
+      <c r="JB80" s="25">
+        <v>941</v>
+      </c>
     </row>
-    <row r="81" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
@@ -62935,11 +63166,14 @@
       <c r="IZ81" s="28">
         <v>32</v>
       </c>
-      <c r="JA81" s="25">
+      <c r="JA81" s="28">
         <v>31</v>
       </c>
+      <c r="JB81" s="25">
+        <v>30</v>
+      </c>
     </row>
-    <row r="82" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>76</v>
       </c>
@@ -63720,11 +63954,14 @@
       <c r="IZ82" s="28">
         <v>82</v>
       </c>
-      <c r="JA82" s="25">
+      <c r="JA82" s="28">
         <v>109</v>
       </c>
+      <c r="JB82" s="25">
+        <v>104</v>
+      </c>
     </row>
-    <row r="83" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>77</v>
       </c>
@@ -64505,11 +64742,14 @@
       <c r="IZ83" s="28">
         <v>1053</v>
       </c>
-      <c r="JA83" s="25">
+      <c r="JA83" s="28">
         <v>1096</v>
       </c>
+      <c r="JB83" s="25">
+        <v>1123</v>
+      </c>
     </row>
-    <row r="84" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
@@ -65290,11 +65530,14 @@
       <c r="IZ84" s="28">
         <v>3997</v>
       </c>
-      <c r="JA84" s="25">
+      <c r="JA84" s="28">
         <v>4041</v>
       </c>
+      <c r="JB84" s="25">
+        <v>4030</v>
+      </c>
     </row>
-    <row r="85" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
@@ -66075,11 +66318,14 @@
       <c r="IZ85" s="28">
         <v>122</v>
       </c>
-      <c r="JA85" s="25">
+      <c r="JA85" s="28">
         <v>141</v>
       </c>
+      <c r="JB85" s="25">
+        <v>148</v>
+      </c>
     </row>
-    <row r="86" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>80</v>
       </c>
@@ -66860,11 +67106,14 @@
       <c r="IZ86" s="28">
         <v>1</v>
       </c>
-      <c r="JA86" s="25">
+      <c r="JA86" s="28">
         <v>1</v>
       </c>
+      <c r="JB86" s="25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>81</v>
       </c>
@@ -67645,11 +67894,14 @@
       <c r="IZ87" s="28">
         <v>0</v>
       </c>
-      <c r="JA87" s="25">
+      <c r="JA87" s="28">
         <v>0</v>
       </c>
+      <c r="JB87" s="25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
@@ -68430,11 +68682,14 @@
       <c r="IZ88" s="28">
         <v>4752</v>
       </c>
-      <c r="JA88" s="25">
+      <c r="JA88" s="28">
         <v>4827</v>
       </c>
+      <c r="JB88" s="25">
+        <v>5044</v>
+      </c>
     </row>
-    <row r="89" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>83</v>
       </c>
@@ -69215,11 +69470,14 @@
       <c r="IZ89" s="28">
         <v>13339</v>
       </c>
-      <c r="JA89" s="25">
+      <c r="JA89" s="28">
         <v>14106</v>
       </c>
+      <c r="JB89" s="25">
+        <v>14202</v>
+      </c>
     </row>
-    <row r="90" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
@@ -70000,11 +70258,14 @@
       <c r="IZ90" s="28">
         <v>396</v>
       </c>
-      <c r="JA90" s="25">
+      <c r="JA90" s="28">
         <v>399</v>
       </c>
+      <c r="JB90" s="25">
+        <v>405</v>
+      </c>
     </row>
-    <row r="91" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
@@ -70785,11 +71046,14 @@
       <c r="IZ91" s="28">
         <v>6365</v>
       </c>
-      <c r="JA91" s="25">
+      <c r="JA91" s="28">
         <v>7147</v>
       </c>
+      <c r="JB91" s="25">
+        <v>7182</v>
+      </c>
     </row>
-    <row r="92" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>86</v>
       </c>
@@ -71570,11 +71834,14 @@
       <c r="IZ92" s="28">
         <v>1754</v>
       </c>
-      <c r="JA92" s="25">
+      <c r="JA92" s="28">
         <v>2035</v>
       </c>
+      <c r="JB92" s="25">
+        <v>2565</v>
+      </c>
     </row>
-    <row r="93" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -72355,11 +72622,14 @@
       <c r="IZ93" s="28">
         <v>693</v>
       </c>
-      <c r="JA93" s="25">
+      <c r="JA93" s="28">
         <v>692</v>
       </c>
+      <c r="JB93" s="25">
+        <v>679</v>
+      </c>
     </row>
-    <row r="94" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
@@ -73140,11 +73410,14 @@
       <c r="IZ94" s="28">
         <v>43</v>
       </c>
-      <c r="JA94" s="25">
+      <c r="JA94" s="28">
         <v>45</v>
       </c>
+      <c r="JB94" s="25">
+        <v>293</v>
+      </c>
     </row>
-    <row r="95" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
@@ -73925,11 +74198,14 @@
       <c r="IZ95" s="28">
         <v>975</v>
       </c>
-      <c r="JA95" s="25">
+      <c r="JA95" s="28">
         <v>1122</v>
       </c>
+      <c r="JB95" s="25">
+        <v>1151</v>
+      </c>
     </row>
-    <row r="96" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>90</v>
       </c>
@@ -74710,11 +74986,14 @@
       <c r="IZ96" s="28">
         <v>102</v>
       </c>
-      <c r="JA96" s="25">
+      <c r="JA96" s="28">
         <v>101</v>
       </c>
+      <c r="JB96" s="25">
+        <v>111</v>
+      </c>
     </row>
-    <row r="97" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>91</v>
       </c>
@@ -75495,11 +75774,14 @@
       <c r="IZ97" s="28">
         <v>1434</v>
       </c>
-      <c r="JA97" s="25">
+      <c r="JA97" s="28">
         <v>1441</v>
       </c>
+      <c r="JB97" s="25">
+        <v>1444</v>
+      </c>
     </row>
-    <row r="98" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>92</v>
       </c>
@@ -76280,11 +76562,14 @@
       <c r="IZ98" s="28">
         <v>500</v>
       </c>
-      <c r="JA98" s="25">
+      <c r="JA98" s="28">
         <v>569</v>
       </c>
+      <c r="JB98" s="25">
+        <v>591</v>
+      </c>
     </row>
-    <row r="99" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
@@ -77065,11 +77350,14 @@
       <c r="IZ99" s="28">
         <v>37237</v>
       </c>
-      <c r="JA99" s="25">
+      <c r="JA99" s="28">
         <v>37239</v>
       </c>
+      <c r="JB99" s="25">
+        <v>37524</v>
+      </c>
     </row>
-    <row r="100" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>94</v>
       </c>
@@ -77850,11 +78138,14 @@
       <c r="IZ100" s="28">
         <v>7875</v>
       </c>
-      <c r="JA100" s="25">
+      <c r="JA100" s="28">
         <v>7980</v>
       </c>
+      <c r="JB100" s="25">
+        <v>7884</v>
+      </c>
     </row>
-    <row r="101" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>95</v>
       </c>
@@ -78635,11 +78926,14 @@
       <c r="IZ101" s="28">
         <v>516</v>
       </c>
-      <c r="JA101" s="25">
+      <c r="JA101" s="28">
         <v>542</v>
       </c>
+      <c r="JB101" s="25">
+        <v>579</v>
+      </c>
     </row>
-    <row r="102" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>96</v>
       </c>
@@ -79420,11 +79714,14 @@
       <c r="IZ102" s="28">
         <v>516</v>
       </c>
-      <c r="JA102" s="25">
+      <c r="JA102" s="28">
         <v>506</v>
       </c>
+      <c r="JB102" s="25">
+        <v>481</v>
+      </c>
     </row>
-    <row r="103" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>97</v>
       </c>
@@ -80205,11 +80502,14 @@
       <c r="IZ103" s="28">
         <v>99474</v>
       </c>
-      <c r="JA103" s="25">
+      <c r="JA103" s="28">
         <v>102011</v>
       </c>
+      <c r="JB103" s="25">
+        <v>103798</v>
+      </c>
     </row>
-    <row r="104" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>98</v>
       </c>
@@ -80990,11 +81290,14 @@
       <c r="IZ104" s="28">
         <v>117944</v>
       </c>
-      <c r="JA104" s="25">
+      <c r="JA104" s="28">
         <v>122551</v>
       </c>
+      <c r="JB104" s="25">
+        <v>127272</v>
+      </c>
     </row>
-    <row r="105" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>99</v>
       </c>
@@ -81775,11 +82078,14 @@
       <c r="IZ105" s="28">
         <v>964</v>
       </c>
-      <c r="JA105" s="25">
+      <c r="JA105" s="28">
         <v>964</v>
       </c>
+      <c r="JB105" s="25">
+        <v>962</v>
+      </c>
     </row>
-    <row r="106" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>100</v>
       </c>
@@ -82560,11 +82866,14 @@
       <c r="IZ106" s="28">
         <v>1123</v>
       </c>
-      <c r="JA106" s="25">
+      <c r="JA106" s="28">
         <v>1146</v>
       </c>
+      <c r="JB106" s="25">
+        <v>1061</v>
+      </c>
     </row>
-    <row r="107" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>101</v>
       </c>
@@ -83345,11 +83654,14 @@
       <c r="IZ107" s="28">
         <v>31332</v>
       </c>
-      <c r="JA107" s="25">
+      <c r="JA107" s="28">
         <v>31241</v>
       </c>
+      <c r="JB107" s="25">
+        <v>30964</v>
+      </c>
     </row>
-    <row r="108" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>102</v>
       </c>
@@ -84130,11 +84442,14 @@
       <c r="IZ108" s="28">
         <v>949</v>
       </c>
-      <c r="JA108" s="25">
+      <c r="JA108" s="28">
         <v>933</v>
       </c>
+      <c r="JB108" s="25">
+        <v>926</v>
+      </c>
     </row>
-    <row r="109" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>103</v>
       </c>
@@ -84915,11 +85230,14 @@
       <c r="IZ109" s="28">
         <v>499</v>
       </c>
-      <c r="JA109" s="25">
+      <c r="JA109" s="28">
         <v>492</v>
       </c>
+      <c r="JB109" s="25">
+        <v>386</v>
+      </c>
     </row>
-    <row r="110" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>104</v>
       </c>
@@ -85700,11 +86018,14 @@
       <c r="IZ110" s="28">
         <v>51</v>
       </c>
-      <c r="JA110" s="25">
+      <c r="JA110" s="28">
         <v>51</v>
       </c>
+      <c r="JB110" s="25">
+        <v>50</v>
+      </c>
     </row>
-    <row r="111" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -86485,11 +86806,14 @@
       <c r="IZ111" s="28">
         <v>1972</v>
       </c>
-      <c r="JA111" s="25">
+      <c r="JA111" s="28">
         <v>2019</v>
       </c>
+      <c r="JB111" s="25">
+        <v>1951</v>
+      </c>
     </row>
-    <row r="112" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>106</v>
       </c>
@@ -87270,11 +87594,14 @@
       <c r="IZ112" s="28">
         <v>3186</v>
       </c>
-      <c r="JA112" s="25">
+      <c r="JA112" s="28">
         <v>3963</v>
       </c>
+      <c r="JB112" s="25">
+        <v>3640</v>
+      </c>
     </row>
-    <row r="113" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -88055,11 +88382,14 @@
       <c r="IZ113" s="28">
         <v>369</v>
       </c>
-      <c r="JA113" s="25">
+      <c r="JA113" s="28">
         <v>382</v>
       </c>
+      <c r="JB113" s="25">
+        <v>393</v>
+      </c>
     </row>
-    <row r="114" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>108</v>
       </c>
@@ -88840,11 +89170,14 @@
       <c r="IZ114" s="28">
         <v>2869</v>
       </c>
-      <c r="JA114" s="25">
+      <c r="JA114" s="28">
         <v>2890</v>
       </c>
+      <c r="JB114" s="25">
+        <v>2883</v>
+      </c>
     </row>
-    <row r="115" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>109</v>
       </c>
@@ -89625,11 +89958,14 @@
       <c r="IZ115" s="28">
         <v>1505</v>
       </c>
-      <c r="JA115" s="25">
+      <c r="JA115" s="28">
         <v>1504</v>
       </c>
+      <c r="JB115" s="25">
+        <v>1508</v>
+      </c>
     </row>
-    <row r="116" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>110</v>
       </c>
@@ -90410,11 +90746,14 @@
       <c r="IZ116" s="28">
         <v>554</v>
       </c>
-      <c r="JA116" s="25">
+      <c r="JA116" s="28">
         <v>564</v>
       </c>
+      <c r="JB116" s="25">
+        <v>560</v>
+      </c>
     </row>
-    <row r="117" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>111</v>
       </c>
@@ -91195,11 +91534,14 @@
       <c r="IZ117" s="28">
         <v>2077</v>
       </c>
-      <c r="JA117" s="25">
+      <c r="JA117" s="28">
         <v>2111</v>
       </c>
+      <c r="JB117" s="25">
+        <v>2144</v>
+      </c>
     </row>
-    <row r="118" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>112</v>
       </c>
@@ -91980,11 +92322,14 @@
       <c r="IZ118" s="28">
         <v>451</v>
       </c>
-      <c r="JA118" s="25">
+      <c r="JA118" s="28">
         <v>464</v>
       </c>
+      <c r="JB118" s="25">
+        <v>473</v>
+      </c>
     </row>
-    <row r="119" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>113</v>
       </c>
@@ -92765,11 +93110,14 @@
       <c r="IZ119" s="28">
         <v>1056</v>
       </c>
-      <c r="JA119" s="25">
+      <c r="JA119" s="28">
         <v>1057</v>
       </c>
+      <c r="JB119" s="25">
+        <v>1031</v>
+      </c>
     </row>
-    <row r="120" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>114</v>
       </c>
@@ -93550,11 +93898,14 @@
       <c r="IZ120" s="28">
         <v>40</v>
       </c>
-      <c r="JA120" s="25">
+      <c r="JA120" s="28">
         <v>39</v>
       </c>
+      <c r="JB120" s="25">
+        <v>40</v>
+      </c>
     </row>
-    <row r="121" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>115</v>
       </c>
@@ -94335,11 +94686,14 @@
       <c r="IZ121" s="28">
         <v>644</v>
       </c>
-      <c r="JA121" s="25">
+      <c r="JA121" s="28">
         <v>638</v>
       </c>
+      <c r="JB121" s="25">
+        <v>646</v>
+      </c>
     </row>
-    <row r="122" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>116</v>
       </c>
@@ -95120,11 +95474,14 @@
       <c r="IZ122" s="28">
         <v>134</v>
       </c>
-      <c r="JA122" s="25">
+      <c r="JA122" s="28">
         <v>136</v>
       </c>
+      <c r="JB122" s="25">
+        <v>128</v>
+      </c>
     </row>
-    <row r="123" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>117</v>
       </c>
@@ -95905,11 +96262,14 @@
       <c r="IZ123" s="28">
         <v>572</v>
       </c>
-      <c r="JA123" s="25">
+      <c r="JA123" s="28">
         <v>507</v>
       </c>
+      <c r="JB123" s="25">
+        <v>504</v>
+      </c>
     </row>
-    <row r="124" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>118</v>
       </c>
@@ -96690,11 +97050,14 @@
       <c r="IZ124" s="28">
         <v>2398</v>
       </c>
-      <c r="JA124" s="25">
+      <c r="JA124" s="28">
         <v>1661</v>
       </c>
+      <c r="JB124" s="25">
+        <v>2582</v>
+      </c>
     </row>
-    <row r="125" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>119</v>
       </c>
@@ -97475,11 +97838,14 @@
       <c r="IZ125" s="28">
         <v>406365</v>
       </c>
-      <c r="JA125" s="25">
+      <c r="JA125" s="28">
         <v>409989</v>
       </c>
+      <c r="JB125" s="25">
+        <v>417846</v>
+      </c>
     </row>
-    <row r="126" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>120</v>
       </c>
@@ -98260,11 +98626,14 @@
       <c r="IZ126" s="28">
         <v>6017</v>
       </c>
-      <c r="JA126" s="25">
+      <c r="JA126" s="28">
         <v>6515</v>
       </c>
+      <c r="JB126" s="25">
+        <v>6004</v>
+      </c>
     </row>
-    <row r="127" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>121</v>
       </c>
@@ -99045,11 +99414,14 @@
       <c r="IZ127" s="28">
         <v>48</v>
       </c>
-      <c r="JA127" s="25">
+      <c r="JA127" s="28">
         <v>49</v>
       </c>
+      <c r="JB127" s="25">
+        <v>49</v>
+      </c>
     </row>
-    <row r="128" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>122</v>
       </c>
@@ -99830,11 +100202,14 @@
       <c r="IZ128" s="28">
         <v>2538</v>
       </c>
-      <c r="JA128" s="25">
+      <c r="JA128" s="28">
         <v>2423</v>
       </c>
+      <c r="JB128" s="25">
+        <v>2391</v>
+      </c>
     </row>
-    <row r="129" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>123</v>
       </c>
@@ -100615,11 +100990,14 @@
       <c r="IZ129" s="28">
         <v>34814</v>
       </c>
-      <c r="JA129" s="25">
+      <c r="JA129" s="28">
         <v>35551</v>
       </c>
+      <c r="JB129" s="25">
+        <v>36265</v>
+      </c>
     </row>
-    <row r="130" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>124</v>
       </c>
@@ -101400,11 +101778,14 @@
       <c r="IZ130" s="28">
         <v>6290</v>
       </c>
-      <c r="JA130" s="25">
+      <c r="JA130" s="28">
         <v>6310</v>
       </c>
+      <c r="JB130" s="25">
+        <v>6390</v>
+      </c>
     </row>
-    <row r="131" spans="1:261" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:262" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="20" t="s">
         <v>127</v>
       </c>
@@ -102185,11 +102566,14 @@
       <c r="IZ131" s="34">
         <v>1826575</v>
       </c>
-      <c r="JA131" s="26">
+      <c r="JA131" s="34">
         <v>1837975</v>
       </c>
+      <c r="JB131" s="26">
+        <v>1847731</v>
+      </c>
     </row>
-    <row r="132" spans="1:261" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:262" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
@@ -102437,7 +102821,7 @@
       <c r="IL132" s="18"/>
       <c r="IM132" s="18"/>
     </row>
-    <row r="133" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>126</v>
       </c>

--- a/Historicos/ta_municipios_jalisco.xlsx
+++ b/Historicos/ta_municipios_jalisco.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="ta municipios" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ta municipios'!$A$4:$JB$133</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -1583,8 +1586,8 @@
   <dimension ref="A1:JB145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A16" sqref="A16"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34802,7 +34805,7 @@
         <v>676680</v>
       </c>
       <c r="JB45" s="25">
-        <v>668635</v>
+        <v>668474</v>
       </c>
     </row>
     <row r="46" spans="1:262" x14ac:dyDescent="0.25">
@@ -102825,11 +102828,15 @@
       <c r="A133" t="s">
         <v>126</v>
       </c>
+      <c r="JB133">
+        <v>1847731</v>
+      </c>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="17"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:JB133"/>
   <mergeCells count="1">
     <mergeCell ref="A4:A5"/>
   </mergeCells>

--- a/Historicos/ta_municipios_jalisco.xlsx
+++ b/Historicos/ta_municipios_jalisco.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1586,8 +1586,8 @@
   <dimension ref="A1:JB145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A74" sqref="A74"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -102828,9 +102828,6 @@
       <c r="A133" t="s">
         <v>126</v>
       </c>
-      <c r="JB133">
-        <v>1847731</v>
-      </c>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="17"/>

--- a/Historicos/ta_municipios_jalisco.xlsx
+++ b/Historicos/ta_municipios_jalisco.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Historicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="ta municipios" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ta municipios'!$A$4:$JB$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ta municipios'!$A$4:$JC$133</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="142">
   <si>
     <t>Acatic</t>
   </si>
@@ -474,6 +474,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1108,7 +1111,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1154,6 +1157,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1238,7 +1244,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="46">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1271,9 +1277,12 @@
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Millares 2 2" xfId="44"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42"/>
+    <cellStyle name="Normal 2 2" xfId="45"/>
+    <cellStyle name="Normal 8" xfId="43"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1583,11 +1592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JB145"/>
+  <dimension ref="A1:JC145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A126" sqref="A126"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,19 +1711,20 @@
     <col min="251" max="251" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="11" bestFit="1" customWidth="1"/>
     <col min="257" max="257" width="12.42578125" customWidth="1"/>
+    <col min="263" max="263" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>125</v>
       </c>
@@ -2498,11 +2508,14 @@
       <c r="JA4" s="30">
         <v>2021</v>
       </c>
-      <c r="JB4" s="31">
+      <c r="JB4" s="30">
         <v>2021</v>
       </c>
+      <c r="JC4" s="31">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="4" t="s">
         <v>129</v>
@@ -3284,11 +3297,14 @@
       <c r="JA5" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="JB5" s="33" t="s">
+      <c r="JB5" s="27" t="s">
         <v>137</v>
       </c>
+      <c r="JC5" s="33" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="6" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -4072,11 +4088,14 @@
       <c r="JA6" s="28">
         <v>4934</v>
       </c>
-      <c r="JB6" s="25">
+      <c r="JB6" s="28">
         <v>4973</v>
       </c>
+      <c r="JC6" s="25">
+        <v>4973</v>
+      </c>
     </row>
-    <row r="7" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -4860,11 +4879,14 @@
       <c r="JA7" s="28">
         <v>6308</v>
       </c>
-      <c r="JB7" s="25">
+      <c r="JB7" s="28">
         <v>6568</v>
       </c>
+      <c r="JC7" s="25">
+        <v>6657</v>
+      </c>
     </row>
-    <row r="8" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -5648,11 +5670,14 @@
       <c r="JA8" s="28">
         <v>1510</v>
       </c>
-      <c r="JB8" s="25">
+      <c r="JB8" s="28">
         <v>1517</v>
       </c>
+      <c r="JC8" s="25">
+        <v>1512</v>
+      </c>
     </row>
-    <row r="9" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -6436,11 +6461,14 @@
       <c r="JA9" s="28">
         <v>84</v>
       </c>
-      <c r="JB9" s="25">
+      <c r="JB9" s="28">
         <v>85</v>
       </c>
+      <c r="JC9" s="25">
+        <v>89</v>
+      </c>
     </row>
-    <row r="10" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -7224,11 +7252,14 @@
       <c r="JA10" s="28">
         <v>2690</v>
       </c>
-      <c r="JB10" s="25">
+      <c r="JB10" s="28">
         <v>2809</v>
       </c>
+      <c r="JC10" s="25">
+        <v>2778</v>
+      </c>
     </row>
-    <row r="11" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -8012,11 +8043,14 @@
       <c r="JA11" s="28">
         <v>6421</v>
       </c>
-      <c r="JB11" s="25">
+      <c r="JB11" s="28">
         <v>6518</v>
       </c>
+      <c r="JC11" s="25">
+        <v>6668</v>
+      </c>
     </row>
-    <row r="12" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -8800,11 +8834,14 @@
       <c r="JA12" s="28">
         <v>12987</v>
       </c>
-      <c r="JB12" s="25">
+      <c r="JB12" s="28">
         <v>12767</v>
       </c>
+      <c r="JC12" s="25">
+        <v>12692</v>
+      </c>
     </row>
-    <row r="13" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -9588,11 +9625,14 @@
       <c r="JA13" s="28">
         <v>468</v>
       </c>
-      <c r="JB13" s="25">
+      <c r="JB13" s="28">
         <v>441</v>
       </c>
+      <c r="JC13" s="25">
+        <v>517</v>
+      </c>
     </row>
-    <row r="14" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -10376,11 +10416,14 @@
       <c r="JA14" s="28">
         <v>23</v>
       </c>
-      <c r="JB14" s="25">
+      <c r="JB14" s="28">
         <v>28</v>
       </c>
+      <c r="JC14" s="25">
+        <v>27</v>
+      </c>
     </row>
-    <row r="15" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -11164,11 +11207,14 @@
       <c r="JA15" s="28">
         <v>110</v>
       </c>
-      <c r="JB15" s="25">
+      <c r="JB15" s="28">
         <v>98</v>
       </c>
+      <c r="JC15" s="25">
+        <v>100</v>
+      </c>
     </row>
-    <row r="16" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -11952,11 +11998,14 @@
       <c r="JA16" s="28">
         <v>10514</v>
       </c>
-      <c r="JB16" s="25">
+      <c r="JB16" s="28">
         <v>10794</v>
       </c>
+      <c r="JC16" s="25">
+        <v>11040</v>
+      </c>
     </row>
-    <row r="17" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -12740,11 +12789,14 @@
       <c r="JA17" s="28">
         <v>631</v>
       </c>
-      <c r="JB17" s="25">
+      <c r="JB17" s="28">
         <v>643</v>
       </c>
+      <c r="JC17" s="25">
+        <v>619</v>
+      </c>
     </row>
-    <row r="18" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -13528,11 +13580,14 @@
       <c r="JA18" s="28">
         <v>11448</v>
       </c>
-      <c r="JB18" s="25">
+      <c r="JB18" s="28">
         <v>11406</v>
       </c>
+      <c r="JC18" s="25">
+        <v>11720</v>
+      </c>
     </row>
-    <row r="19" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -14316,11 +14371,14 @@
       <c r="JA19" s="28">
         <v>3682</v>
       </c>
-      <c r="JB19" s="25">
+      <c r="JB19" s="28">
         <v>3783</v>
       </c>
+      <c r="JC19" s="25">
+        <v>3609</v>
+      </c>
     </row>
-    <row r="20" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -15104,11 +15162,14 @@
       <c r="JA20" s="28">
         <v>356</v>
       </c>
-      <c r="JB20" s="25">
+      <c r="JB20" s="28">
         <v>352</v>
       </c>
+      <c r="JC20" s="25">
+        <v>360</v>
+      </c>
     </row>
-    <row r="21" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -15892,11 +15953,14 @@
       <c r="JA21" s="28">
         <v>692</v>
       </c>
-      <c r="JB21" s="25">
+      <c r="JB21" s="28">
         <v>683</v>
       </c>
+      <c r="JC21" s="25">
+        <v>690</v>
+      </c>
     </row>
-    <row r="22" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -16680,11 +16744,14 @@
       <c r="JA22" s="28">
         <v>344</v>
       </c>
-      <c r="JB22" s="25">
+      <c r="JB22" s="28">
         <v>331</v>
       </c>
+      <c r="JC22" s="25">
+        <v>332</v>
+      </c>
     </row>
-    <row r="23" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -17468,11 +17535,14 @@
       <c r="JA23" s="28">
         <v>115</v>
       </c>
-      <c r="JB23" s="25">
+      <c r="JB23" s="28">
         <v>114</v>
       </c>
+      <c r="JC23" s="25">
+        <v>100</v>
+      </c>
     </row>
-    <row r="24" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -18256,11 +18326,14 @@
       <c r="JA24" s="28">
         <v>2962</v>
       </c>
-      <c r="JB24" s="25">
+      <c r="JB24" s="28">
         <v>2936</v>
       </c>
+      <c r="JC24" s="25">
+        <v>2896</v>
+      </c>
     </row>
-    <row r="25" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -19044,11 +19117,14 @@
       <c r="JA25" s="28">
         <v>5941</v>
       </c>
-      <c r="JB25" s="25">
+      <c r="JB25" s="28">
         <v>5980</v>
       </c>
+      <c r="JC25" s="25">
+        <v>6020</v>
+      </c>
     </row>
-    <row r="26" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -19832,11 +19908,14 @@
       <c r="JA26" s="28">
         <v>2</v>
       </c>
-      <c r="JB26" s="25">
+      <c r="JB26" s="28">
         <v>2</v>
       </c>
+      <c r="JC26" s="25">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -20620,11 +20699,14 @@
       <c r="JA27" s="28">
         <v>161</v>
       </c>
-      <c r="JB27" s="25">
+      <c r="JB27" s="28">
         <v>155</v>
       </c>
+      <c r="JC27" s="25">
+        <v>165</v>
+      </c>
     </row>
-    <row r="28" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -21408,11 +21490,14 @@
       <c r="JA28" s="28">
         <v>2397</v>
       </c>
-      <c r="JB28" s="25">
+      <c r="JB28" s="28">
         <v>2382</v>
       </c>
+      <c r="JC28" s="25">
+        <v>2337</v>
+      </c>
     </row>
-    <row r="29" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -22196,11 +22281,14 @@
       <c r="JA29" s="28">
         <v>2400</v>
       </c>
-      <c r="JB29" s="25">
+      <c r="JB29" s="28">
         <v>2427</v>
       </c>
+      <c r="JC29" s="25">
+        <v>2437</v>
+      </c>
     </row>
-    <row r="30" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -22984,11 +23072,14 @@
       <c r="JA30" s="28">
         <v>613</v>
       </c>
-      <c r="JB30" s="25">
+      <c r="JB30" s="28">
         <v>614</v>
       </c>
+      <c r="JC30" s="25">
+        <v>627</v>
+      </c>
     </row>
-    <row r="31" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
@@ -23772,11 +23863,14 @@
       <c r="JA31" s="28">
         <v>125</v>
       </c>
-      <c r="JB31" s="25">
+      <c r="JB31" s="28">
         <v>124</v>
       </c>
+      <c r="JC31" s="25">
+        <v>114</v>
+      </c>
     </row>
-    <row r="32" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
@@ -24560,11 +24654,14 @@
       <c r="JA32" s="28">
         <v>42</v>
       </c>
-      <c r="JB32" s="25">
+      <c r="JB32" s="28">
         <v>43</v>
       </c>
+      <c r="JC32" s="25">
+        <v>47</v>
+      </c>
     </row>
-    <row r="33" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -25348,11 +25445,14 @@
       <c r="JA33" s="28">
         <v>59</v>
       </c>
-      <c r="JB33" s="25">
+      <c r="JB33" s="28">
         <v>61</v>
       </c>
+      <c r="JC33" s="25">
+        <v>59</v>
+      </c>
     </row>
-    <row r="34" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -26136,11 +26236,14 @@
       <c r="JA34" s="28">
         <v>234</v>
       </c>
-      <c r="JB34" s="25">
+      <c r="JB34" s="28">
         <v>236</v>
       </c>
+      <c r="JC34" s="25">
+        <v>232</v>
+      </c>
     </row>
-    <row r="35" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -26924,11 +27027,14 @@
       <c r="JA35" s="28">
         <v>997</v>
       </c>
-      <c r="JB35" s="25">
+      <c r="JB35" s="28">
         <v>994</v>
       </c>
+      <c r="JC35" s="25">
+        <v>991</v>
+      </c>
     </row>
-    <row r="36" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -27712,11 +27818,14 @@
       <c r="JA36" s="28">
         <v>8</v>
       </c>
-      <c r="JB36" s="25">
+      <c r="JB36" s="28">
         <v>8</v>
       </c>
+      <c r="JC36" s="25">
+        <v>8</v>
+      </c>
     </row>
-    <row r="37" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -28500,11 +28609,14 @@
       <c r="JA37" s="28">
         <v>3307</v>
       </c>
-      <c r="JB37" s="25">
+      <c r="JB37" s="28">
         <v>3305</v>
       </c>
+      <c r="JC37" s="25">
+        <v>3390</v>
+      </c>
     </row>
-    <row r="38" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -29288,11 +29400,14 @@
       <c r="JA38" s="28">
         <v>2504</v>
       </c>
-      <c r="JB38" s="25">
+      <c r="JB38" s="28">
         <v>2512</v>
       </c>
+      <c r="JC38" s="25">
+        <v>2538</v>
+      </c>
     </row>
-    <row r="39" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
@@ -30076,11 +30191,14 @@
       <c r="JA39" s="28">
         <v>165</v>
       </c>
-      <c r="JB39" s="25">
+      <c r="JB39" s="28">
         <v>160</v>
       </c>
+      <c r="JC39" s="25">
+        <v>156</v>
+      </c>
     </row>
-    <row r="40" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
@@ -30864,11 +30982,14 @@
       <c r="JA40" s="28">
         <v>60682</v>
       </c>
-      <c r="JB40" s="25">
+      <c r="JB40" s="28">
         <v>61029</v>
       </c>
+      <c r="JC40" s="25">
+        <v>61509</v>
+      </c>
     </row>
-    <row r="41" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -31652,11 +31773,14 @@
       <c r="JA41" s="28">
         <v>3382</v>
       </c>
-      <c r="JB41" s="25">
+      <c r="JB41" s="28">
         <v>3436</v>
       </c>
+      <c r="JC41" s="25">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="42" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -32440,11 +32564,14 @@
       <c r="JA42" s="28">
         <v>718</v>
       </c>
-      <c r="JB42" s="25">
+      <c r="JB42" s="28">
         <v>711</v>
       </c>
+      <c r="JC42" s="25">
+        <v>716</v>
+      </c>
     </row>
-    <row r="43" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -33228,11 +33355,14 @@
       <c r="JA43" s="28">
         <v>2604</v>
       </c>
-      <c r="JB43" s="25">
+      <c r="JB43" s="28">
         <v>2424</v>
       </c>
+      <c r="JC43" s="25">
+        <v>2544</v>
+      </c>
     </row>
-    <row r="44" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -34016,11 +34146,14 @@
       <c r="JA44" s="28">
         <v>165</v>
       </c>
-      <c r="JB44" s="25">
+      <c r="JB44" s="28">
         <v>161</v>
       </c>
+      <c r="JC44" s="25">
+        <v>159</v>
+      </c>
     </row>
-    <row r="45" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -34804,11 +34937,14 @@
       <c r="JA45" s="28">
         <v>676680</v>
       </c>
-      <c r="JB45" s="25">
+      <c r="JB45" s="28">
         <v>668474</v>
       </c>
+      <c r="JC45" s="25">
+        <v>668952</v>
+      </c>
     </row>
-    <row r="46" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
@@ -35592,11 +35728,14 @@
       <c r="JA46" s="28">
         <v>214</v>
       </c>
-      <c r="JB46" s="25">
+      <c r="JB46" s="28">
         <v>210</v>
       </c>
+      <c r="JC46" s="25">
+        <v>205</v>
+      </c>
     </row>
-    <row r="47" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
@@ -36380,11 +36519,14 @@
       <c r="JA47" s="28">
         <v>101</v>
       </c>
-      <c r="JB47" s="25">
+      <c r="JB47" s="28">
         <v>108</v>
       </c>
+      <c r="JC47" s="25">
+        <v>109</v>
+      </c>
     </row>
-    <row r="48" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -37168,11 +37310,14 @@
       <c r="JA48" s="28">
         <v>882</v>
       </c>
-      <c r="JB48" s="25">
+      <c r="JB48" s="28">
         <v>924</v>
       </c>
+      <c r="JC48" s="25">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="49" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -37956,11 +38101,14 @@
       <c r="JA49" s="28">
         <v>4460</v>
       </c>
-      <c r="JB49" s="25">
+      <c r="JB49" s="28">
         <v>4663</v>
       </c>
+      <c r="JC49" s="25">
+        <v>4653</v>
+      </c>
     </row>
-    <row r="50" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -38744,11 +38892,14 @@
       <c r="JA50" s="28">
         <v>594</v>
       </c>
-      <c r="JB50" s="25">
+      <c r="JB50" s="28">
         <v>596</v>
       </c>
+      <c r="JC50" s="25">
+        <v>594</v>
+      </c>
     </row>
-    <row r="51" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -39532,11 +39683,14 @@
       <c r="JA51" s="28">
         <v>2699</v>
       </c>
-      <c r="JB51" s="25">
+      <c r="JB51" s="28">
         <v>2709</v>
       </c>
+      <c r="JC51" s="25">
+        <v>2759</v>
+      </c>
     </row>
-    <row r="52" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -40320,11 +40474,14 @@
       <c r="JA52" s="28">
         <v>1358</v>
       </c>
-      <c r="JB52" s="25">
+      <c r="JB52" s="28">
         <v>1368</v>
       </c>
+      <c r="JC52" s="25">
+        <v>1386</v>
+      </c>
     </row>
-    <row r="53" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -41108,11 +41265,14 @@
       <c r="JA53" s="28">
         <v>1739</v>
       </c>
-      <c r="JB53" s="25">
+      <c r="JB53" s="28">
         <v>1951</v>
       </c>
+      <c r="JC53" s="25">
+        <v>1971</v>
+      </c>
     </row>
-    <row r="54" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>48</v>
       </c>
@@ -41896,11 +42056,14 @@
       <c r="JA54" s="28">
         <v>63</v>
       </c>
-      <c r="JB54" s="25">
+      <c r="JB54" s="28">
         <v>64</v>
       </c>
+      <c r="JC54" s="25">
+        <v>64</v>
+      </c>
     </row>
-    <row r="55" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
@@ -42684,11 +42847,14 @@
       <c r="JA55" s="28">
         <v>6885</v>
       </c>
-      <c r="JB55" s="25">
+      <c r="JB55" s="28">
         <v>7219</v>
       </c>
+      <c r="JC55" s="25">
+        <v>7774</v>
+      </c>
     </row>
-    <row r="56" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -43472,11 +43638,14 @@
       <c r="JA56" s="28">
         <v>1338</v>
       </c>
-      <c r="JB56" s="25">
+      <c r="JB56" s="28">
         <v>1335</v>
       </c>
+      <c r="JC56" s="25">
+        <v>1343</v>
+      </c>
     </row>
-    <row r="57" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>51</v>
       </c>
@@ -44260,11 +44429,14 @@
       <c r="JA57" s="28">
         <v>83</v>
       </c>
-      <c r="JB57" s="25">
+      <c r="JB57" s="28">
         <v>91</v>
       </c>
+      <c r="JC57" s="25">
+        <v>92</v>
+      </c>
     </row>
-    <row r="58" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -45048,11 +45220,14 @@
       <c r="JA58" s="28">
         <v>5163</v>
       </c>
-      <c r="JB58" s="25">
+      <c r="JB58" s="28">
         <v>5165</v>
       </c>
+      <c r="JC58" s="25">
+        <v>5147</v>
+      </c>
     </row>
-    <row r="59" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>53</v>
       </c>
@@ -45836,11 +46011,14 @@
       <c r="JA59" s="28">
         <v>2450</v>
       </c>
-      <c r="JB59" s="25">
+      <c r="JB59" s="28">
         <v>2384</v>
       </c>
+      <c r="JC59" s="25">
+        <v>2424</v>
+      </c>
     </row>
-    <row r="60" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
@@ -46624,11 +46802,14 @@
       <c r="JA60" s="28">
         <v>120</v>
       </c>
-      <c r="JB60" s="25">
+      <c r="JB60" s="28">
         <v>122</v>
       </c>
+      <c r="JC60" s="25">
+        <v>126</v>
+      </c>
     </row>
-    <row r="61" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>55</v>
       </c>
@@ -47412,11 +47593,14 @@
       <c r="JA61" s="28">
         <v>35170</v>
       </c>
-      <c r="JB61" s="25">
+      <c r="JB61" s="28">
         <v>35065</v>
       </c>
+      <c r="JC61" s="25">
+        <v>35098</v>
+      </c>
     </row>
-    <row r="62" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -48200,11 +48384,14 @@
       <c r="JA62" s="28">
         <v>1072</v>
       </c>
-      <c r="JB62" s="25">
+      <c r="JB62" s="28">
         <v>1097</v>
       </c>
+      <c r="JC62" s="25">
+        <v>1129</v>
+      </c>
     </row>
-    <row r="63" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
@@ -48988,11 +49175,14 @@
       <c r="JA63" s="28">
         <v>602</v>
       </c>
-      <c r="JB63" s="25">
+      <c r="JB63" s="28">
         <v>608</v>
       </c>
+      <c r="JC63" s="25">
+        <v>619</v>
+      </c>
     </row>
-    <row r="64" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
@@ -49776,11 +49966,14 @@
       <c r="JA64" s="28">
         <v>1079</v>
       </c>
-      <c r="JB64" s="25">
+      <c r="JB64" s="28">
         <v>1086</v>
       </c>
+      <c r="JC64" s="25">
+        <v>1098</v>
+      </c>
     </row>
-    <row r="65" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>59</v>
       </c>
@@ -50564,11 +50757,14 @@
       <c r="JA65" s="28">
         <v>13</v>
       </c>
-      <c r="JB65" s="25">
+      <c r="JB65" s="28">
         <v>13</v>
       </c>
+      <c r="JC65" s="25">
+        <v>13</v>
+      </c>
     </row>
-    <row r="66" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>60</v>
       </c>
@@ -51352,11 +51548,14 @@
       <c r="JA66" s="28">
         <v>196</v>
       </c>
-      <c r="JB66" s="25">
+      <c r="JB66" s="28">
         <v>199</v>
       </c>
+      <c r="JC66" s="25">
+        <v>154</v>
+      </c>
     </row>
-    <row r="67" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>61</v>
       </c>
@@ -52140,11 +52339,14 @@
       <c r="JA67" s="28">
         <v>21</v>
       </c>
-      <c r="JB67" s="25">
+      <c r="JB67" s="28">
         <v>23</v>
       </c>
+      <c r="JC67" s="25">
+        <v>24</v>
+      </c>
     </row>
-    <row r="68" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>62</v>
       </c>
@@ -52928,11 +53130,14 @@
       <c r="JA68" s="28">
         <v>21373</v>
       </c>
-      <c r="JB68" s="25">
+      <c r="JB68" s="28">
         <v>21476</v>
       </c>
+      <c r="JC68" s="25">
+        <v>21530</v>
+      </c>
     </row>
-    <row r="69" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>63</v>
       </c>
@@ -53716,11 +53921,14 @@
       <c r="JA69" s="28">
         <v>515</v>
       </c>
-      <c r="JB69" s="25">
+      <c r="JB69" s="28">
         <v>538</v>
       </c>
+      <c r="JC69" s="25">
+        <v>550</v>
+      </c>
     </row>
-    <row r="70" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>64</v>
       </c>
@@ -54504,11 +54712,14 @@
       <c r="JA70" s="28">
         <v>572</v>
       </c>
-      <c r="JB70" s="25">
+      <c r="JB70" s="28">
         <v>564</v>
       </c>
+      <c r="JC70" s="25">
+        <v>545</v>
+      </c>
     </row>
-    <row r="71" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>65</v>
       </c>
@@ -55292,11 +55503,14 @@
       <c r="JA71" s="28">
         <v>4751</v>
       </c>
-      <c r="JB71" s="25">
+      <c r="JB71" s="28">
         <v>4766</v>
       </c>
+      <c r="JC71" s="25">
+        <v>4718</v>
+      </c>
     </row>
-    <row r="72" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>66</v>
       </c>
@@ -56080,11 +56294,14 @@
       <c r="JA72" s="28">
         <v>71091</v>
       </c>
-      <c r="JB72" s="25">
+      <c r="JB72" s="28">
         <v>70877</v>
       </c>
+      <c r="JC72" s="25">
+        <v>70791</v>
+      </c>
     </row>
-    <row r="73" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
@@ -56868,11 +57085,14 @@
       <c r="JA73" s="28">
         <v>13</v>
       </c>
-      <c r="JB73" s="25">
+      <c r="JB73" s="28">
         <v>12</v>
       </c>
+      <c r="JC73" s="25">
+        <v>12</v>
+      </c>
     </row>
-    <row r="74" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>68</v>
       </c>
@@ -57656,11 +57876,14 @@
       <c r="JA74" s="28">
         <v>54</v>
       </c>
-      <c r="JB74" s="25">
+      <c r="JB74" s="28">
         <v>45</v>
       </c>
+      <c r="JC74" s="25">
+        <v>49</v>
+      </c>
     </row>
-    <row r="75" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>69</v>
       </c>
@@ -58444,11 +58667,14 @@
       <c r="JA75" s="28">
         <v>73</v>
       </c>
-      <c r="JB75" s="25">
+      <c r="JB75" s="28">
         <v>73</v>
       </c>
+      <c r="JC75" s="25">
+        <v>73</v>
+      </c>
     </row>
-    <row r="76" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>70</v>
       </c>
@@ -59232,11 +59458,14 @@
       <c r="JA76" s="28">
         <v>4516</v>
       </c>
-      <c r="JB76" s="25">
+      <c r="JB76" s="28">
         <v>4355</v>
       </c>
+      <c r="JC76" s="25">
+        <v>4685</v>
+      </c>
     </row>
-    <row r="77" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
@@ -60020,11 +60249,14 @@
       <c r="JA77" s="28">
         <v>905</v>
       </c>
-      <c r="JB77" s="25">
+      <c r="JB77" s="28">
         <v>917</v>
       </c>
+      <c r="JC77" s="25">
+        <v>922</v>
+      </c>
     </row>
-    <row r="78" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
@@ -60808,11 +61040,14 @@
       <c r="JA78" s="28">
         <v>14997</v>
       </c>
-      <c r="JB78" s="25">
+      <c r="JB78" s="28">
         <v>15470</v>
       </c>
+      <c r="JC78" s="25">
+        <v>15813</v>
+      </c>
     </row>
-    <row r="79" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
@@ -61596,11 +61831,14 @@
       <c r="JA79" s="28">
         <v>178</v>
       </c>
-      <c r="JB79" s="25">
+      <c r="JB79" s="28">
         <v>195</v>
       </c>
+      <c r="JC79" s="25">
+        <v>202</v>
+      </c>
     </row>
-    <row r="80" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>74</v>
       </c>
@@ -62384,11 +62622,14 @@
       <c r="JA80" s="28">
         <v>839</v>
       </c>
-      <c r="JB80" s="25">
+      <c r="JB80" s="28">
         <v>941</v>
       </c>
+      <c r="JC80" s="25">
+        <v>953</v>
+      </c>
     </row>
-    <row r="81" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
@@ -63172,11 +63413,14 @@
       <c r="JA81" s="28">
         <v>31</v>
       </c>
-      <c r="JB81" s="25">
+      <c r="JB81" s="28">
         <v>30</v>
       </c>
+      <c r="JC81" s="25">
+        <v>29</v>
+      </c>
     </row>
-    <row r="82" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>76</v>
       </c>
@@ -63960,11 +64204,14 @@
       <c r="JA82" s="28">
         <v>109</v>
       </c>
-      <c r="JB82" s="25">
+      <c r="JB82" s="28">
         <v>104</v>
       </c>
+      <c r="JC82" s="25">
+        <v>102</v>
+      </c>
     </row>
-    <row r="83" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>77</v>
       </c>
@@ -64748,11 +64995,14 @@
       <c r="JA83" s="28">
         <v>1096</v>
       </c>
-      <c r="JB83" s="25">
+      <c r="JB83" s="28">
         <v>1123</v>
       </c>
+      <c r="JC83" s="25">
+        <v>1155</v>
+      </c>
     </row>
-    <row r="84" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
@@ -65536,11 +65786,14 @@
       <c r="JA84" s="28">
         <v>4041</v>
       </c>
-      <c r="JB84" s="25">
+      <c r="JB84" s="28">
         <v>4030</v>
       </c>
+      <c r="JC84" s="25">
+        <v>4028</v>
+      </c>
     </row>
-    <row r="85" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
@@ -66324,11 +66577,14 @@
       <c r="JA85" s="28">
         <v>141</v>
       </c>
-      <c r="JB85" s="25">
+      <c r="JB85" s="28">
         <v>148</v>
       </c>
+      <c r="JC85" s="25">
+        <v>151</v>
+      </c>
     </row>
-    <row r="86" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>80</v>
       </c>
@@ -67112,11 +67368,14 @@
       <c r="JA86" s="28">
         <v>1</v>
       </c>
-      <c r="JB86" s="25">
+      <c r="JB86" s="28">
         <v>1</v>
       </c>
+      <c r="JC86" s="25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>81</v>
       </c>
@@ -67900,11 +68159,14 @@
       <c r="JA87" s="28">
         <v>0</v>
       </c>
-      <c r="JB87" s="25">
+      <c r="JB87" s="28">
         <v>0</v>
       </c>
+      <c r="JC87" s="25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
@@ -68688,11 +68950,14 @@
       <c r="JA88" s="28">
         <v>4827</v>
       </c>
-      <c r="JB88" s="25">
+      <c r="JB88" s="28">
         <v>5044</v>
       </c>
+      <c r="JC88" s="25">
+        <v>5303</v>
+      </c>
     </row>
-    <row r="89" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>83</v>
       </c>
@@ -69476,11 +69741,14 @@
       <c r="JA89" s="28">
         <v>14106</v>
       </c>
-      <c r="JB89" s="25">
+      <c r="JB89" s="28">
         <v>14202</v>
       </c>
+      <c r="JC89" s="25">
+        <v>13893</v>
+      </c>
     </row>
-    <row r="90" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
@@ -70264,11 +70532,14 @@
       <c r="JA90" s="28">
         <v>399</v>
       </c>
-      <c r="JB90" s="25">
+      <c r="JB90" s="28">
         <v>405</v>
       </c>
+      <c r="JC90" s="25">
+        <v>408</v>
+      </c>
     </row>
-    <row r="91" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
@@ -71052,11 +71323,14 @@
       <c r="JA91" s="28">
         <v>7147</v>
       </c>
-      <c r="JB91" s="25">
+      <c r="JB91" s="28">
         <v>7182</v>
       </c>
+      <c r="JC91" s="25">
+        <v>7164</v>
+      </c>
     </row>
-    <row r="92" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>86</v>
       </c>
@@ -71840,11 +72114,14 @@
       <c r="JA92" s="28">
         <v>2035</v>
       </c>
-      <c r="JB92" s="25">
+      <c r="JB92" s="28">
         <v>2565</v>
       </c>
+      <c r="JC92" s="25">
+        <v>2750</v>
+      </c>
     </row>
-    <row r="93" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -72628,11 +72905,14 @@
       <c r="JA93" s="28">
         <v>692</v>
       </c>
-      <c r="JB93" s="25">
+      <c r="JB93" s="28">
         <v>679</v>
       </c>
+      <c r="JC93" s="25">
+        <v>677</v>
+      </c>
     </row>
-    <row r="94" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
@@ -73416,11 +73696,14 @@
       <c r="JA94" s="28">
         <v>45</v>
       </c>
-      <c r="JB94" s="25">
+      <c r="JB94" s="28">
         <v>293</v>
       </c>
+      <c r="JC94" s="25">
+        <v>339</v>
+      </c>
     </row>
-    <row r="95" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
@@ -74204,11 +74487,14 @@
       <c r="JA95" s="28">
         <v>1122</v>
       </c>
-      <c r="JB95" s="25">
+      <c r="JB95" s="28">
         <v>1151</v>
       </c>
+      <c r="JC95" s="25">
+        <v>1061</v>
+      </c>
     </row>
-    <row r="96" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>90</v>
       </c>
@@ -74992,11 +75278,14 @@
       <c r="JA96" s="28">
         <v>101</v>
       </c>
-      <c r="JB96" s="25">
+      <c r="JB96" s="28">
         <v>111</v>
       </c>
+      <c r="JC96" s="25">
+        <v>114</v>
+      </c>
     </row>
-    <row r="97" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>91</v>
       </c>
@@ -75780,11 +76069,14 @@
       <c r="JA97" s="28">
         <v>1441</v>
       </c>
-      <c r="JB97" s="25">
+      <c r="JB97" s="28">
         <v>1444</v>
       </c>
+      <c r="JC97" s="25">
+        <v>1450</v>
+      </c>
     </row>
-    <row r="98" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>92</v>
       </c>
@@ -76568,11 +76860,14 @@
       <c r="JA98" s="28">
         <v>569</v>
       </c>
-      <c r="JB98" s="25">
+      <c r="JB98" s="28">
         <v>591</v>
       </c>
+      <c r="JC98" s="25">
+        <v>590</v>
+      </c>
     </row>
-    <row r="99" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
@@ -77356,11 +77651,14 @@
       <c r="JA99" s="28">
         <v>37239</v>
       </c>
-      <c r="JB99" s="25">
+      <c r="JB99" s="28">
         <v>37524</v>
       </c>
+      <c r="JC99" s="25">
+        <v>37794</v>
+      </c>
     </row>
-    <row r="100" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>94</v>
       </c>
@@ -78144,11 +78442,14 @@
       <c r="JA100" s="28">
         <v>7980</v>
       </c>
-      <c r="JB100" s="25">
+      <c r="JB100" s="28">
         <v>7884</v>
       </c>
+      <c r="JC100" s="25">
+        <v>7785</v>
+      </c>
     </row>
-    <row r="101" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>95</v>
       </c>
@@ -78932,11 +79233,14 @@
       <c r="JA101" s="28">
         <v>542</v>
       </c>
-      <c r="JB101" s="25">
+      <c r="JB101" s="28">
         <v>579</v>
       </c>
+      <c r="JC101" s="25">
+        <v>586</v>
+      </c>
     </row>
-    <row r="102" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>96</v>
       </c>
@@ -79720,11 +80024,14 @@
       <c r="JA102" s="28">
         <v>506</v>
       </c>
-      <c r="JB102" s="25">
+      <c r="JB102" s="28">
         <v>481</v>
       </c>
+      <c r="JC102" s="25">
+        <v>455</v>
+      </c>
     </row>
-    <row r="103" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>97</v>
       </c>
@@ -80508,11 +80815,14 @@
       <c r="JA103" s="28">
         <v>102011</v>
       </c>
-      <c r="JB103" s="25">
+      <c r="JB103" s="28">
         <v>103798</v>
       </c>
+      <c r="JC103" s="25">
+        <v>104669</v>
+      </c>
     </row>
-    <row r="104" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>98</v>
       </c>
@@ -81296,11 +81606,14 @@
       <c r="JA104" s="28">
         <v>122551</v>
       </c>
-      <c r="JB104" s="25">
+      <c r="JB104" s="28">
         <v>127272</v>
       </c>
+      <c r="JC104" s="25">
+        <v>127941</v>
+      </c>
     </row>
-    <row r="105" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>99</v>
       </c>
@@ -82084,11 +82397,14 @@
       <c r="JA105" s="28">
         <v>964</v>
       </c>
-      <c r="JB105" s="25">
+      <c r="JB105" s="28">
         <v>962</v>
       </c>
+      <c r="JC105" s="25">
+        <v>997</v>
+      </c>
     </row>
-    <row r="106" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>100</v>
       </c>
@@ -82872,11 +83188,14 @@
       <c r="JA106" s="28">
         <v>1146</v>
       </c>
-      <c r="JB106" s="25">
+      <c r="JB106" s="28">
         <v>1061</v>
       </c>
+      <c r="JC106" s="25">
+        <v>1057</v>
+      </c>
     </row>
-    <row r="107" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>101</v>
       </c>
@@ -83660,11 +83979,14 @@
       <c r="JA107" s="28">
         <v>31241</v>
       </c>
-      <c r="JB107" s="25">
+      <c r="JB107" s="28">
         <v>30964</v>
       </c>
+      <c r="JC107" s="25">
+        <v>30771</v>
+      </c>
     </row>
-    <row r="108" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>102</v>
       </c>
@@ -84448,11 +84770,14 @@
       <c r="JA108" s="28">
         <v>933</v>
       </c>
-      <c r="JB108" s="25">
+      <c r="JB108" s="28">
         <v>926</v>
       </c>
+      <c r="JC108" s="25">
+        <v>930</v>
+      </c>
     </row>
-    <row r="109" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>103</v>
       </c>
@@ -85236,11 +85561,14 @@
       <c r="JA109" s="28">
         <v>492</v>
       </c>
-      <c r="JB109" s="25">
+      <c r="JB109" s="28">
         <v>386</v>
       </c>
+      <c r="JC109" s="25">
+        <v>399</v>
+      </c>
     </row>
-    <row r="110" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>104</v>
       </c>
@@ -86024,11 +86352,14 @@
       <c r="JA110" s="28">
         <v>51</v>
       </c>
-      <c r="JB110" s="25">
+      <c r="JB110" s="28">
         <v>50</v>
       </c>
+      <c r="JC110" s="25">
+        <v>51</v>
+      </c>
     </row>
-    <row r="111" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -86812,11 +87143,14 @@
       <c r="JA111" s="28">
         <v>2019</v>
       </c>
-      <c r="JB111" s="25">
+      <c r="JB111" s="28">
         <v>1951</v>
       </c>
+      <c r="JC111" s="25">
+        <v>1948</v>
+      </c>
     </row>
-    <row r="112" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>106</v>
       </c>
@@ -87600,11 +87934,14 @@
       <c r="JA112" s="28">
         <v>3963</v>
       </c>
-      <c r="JB112" s="25">
+      <c r="JB112" s="28">
         <v>3640</v>
       </c>
+      <c r="JC112" s="25">
+        <v>3663</v>
+      </c>
     </row>
-    <row r="113" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -88388,11 +88725,14 @@
       <c r="JA113" s="28">
         <v>382</v>
       </c>
-      <c r="JB113" s="25">
+      <c r="JB113" s="28">
         <v>393</v>
       </c>
+      <c r="JC113" s="25">
+        <v>387</v>
+      </c>
     </row>
-    <row r="114" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>108</v>
       </c>
@@ -89176,11 +89516,14 @@
       <c r="JA114" s="28">
         <v>2890</v>
       </c>
-      <c r="JB114" s="25">
+      <c r="JB114" s="28">
         <v>2883</v>
       </c>
+      <c r="JC114" s="25">
+        <v>2868</v>
+      </c>
     </row>
-    <row r="115" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>109</v>
       </c>
@@ -89964,11 +90307,14 @@
       <c r="JA115" s="28">
         <v>1504</v>
       </c>
-      <c r="JB115" s="25">
+      <c r="JB115" s="28">
         <v>1508</v>
       </c>
+      <c r="JC115" s="25">
+        <v>1524</v>
+      </c>
     </row>
-    <row r="116" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>110</v>
       </c>
@@ -90752,11 +91098,14 @@
       <c r="JA116" s="28">
         <v>564</v>
       </c>
-      <c r="JB116" s="25">
+      <c r="JB116" s="28">
         <v>560</v>
       </c>
+      <c r="JC116" s="25">
+        <v>587</v>
+      </c>
     </row>
-    <row r="117" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>111</v>
       </c>
@@ -91540,11 +91889,14 @@
       <c r="JA117" s="28">
         <v>2111</v>
       </c>
-      <c r="JB117" s="25">
+      <c r="JB117" s="28">
         <v>2144</v>
       </c>
+      <c r="JC117" s="25">
+        <v>2147</v>
+      </c>
     </row>
-    <row r="118" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>112</v>
       </c>
@@ -92328,11 +92680,14 @@
       <c r="JA118" s="28">
         <v>464</v>
       </c>
-      <c r="JB118" s="25">
+      <c r="JB118" s="28">
         <v>473</v>
       </c>
+      <c r="JC118" s="25">
+        <v>502</v>
+      </c>
     </row>
-    <row r="119" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>113</v>
       </c>
@@ -93116,11 +93471,14 @@
       <c r="JA119" s="28">
         <v>1057</v>
       </c>
-      <c r="JB119" s="25">
+      <c r="JB119" s="28">
         <v>1031</v>
       </c>
+      <c r="JC119" s="25">
+        <v>1044</v>
+      </c>
     </row>
-    <row r="120" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>114</v>
       </c>
@@ -93904,11 +94262,14 @@
       <c r="JA120" s="28">
         <v>39</v>
       </c>
-      <c r="JB120" s="25">
+      <c r="JB120" s="28">
         <v>40</v>
       </c>
+      <c r="JC120" s="25">
+        <v>42</v>
+      </c>
     </row>
-    <row r="121" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>115</v>
       </c>
@@ -94692,11 +95053,14 @@
       <c r="JA121" s="28">
         <v>638</v>
       </c>
-      <c r="JB121" s="25">
+      <c r="JB121" s="28">
         <v>646</v>
       </c>
+      <c r="JC121" s="25">
+        <v>663</v>
+      </c>
     </row>
-    <row r="122" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>116</v>
       </c>
@@ -95480,11 +95844,14 @@
       <c r="JA122" s="28">
         <v>136</v>
       </c>
-      <c r="JB122" s="25">
+      <c r="JB122" s="28">
         <v>128</v>
       </c>
+      <c r="JC122" s="25">
+        <v>130</v>
+      </c>
     </row>
-    <row r="123" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>117</v>
       </c>
@@ -96268,11 +96635,14 @@
       <c r="JA123" s="28">
         <v>507</v>
       </c>
-      <c r="JB123" s="25">
+      <c r="JB123" s="28">
         <v>504</v>
       </c>
+      <c r="JC123" s="25">
+        <v>524</v>
+      </c>
     </row>
-    <row r="124" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>118</v>
       </c>
@@ -97056,11 +97426,14 @@
       <c r="JA124" s="28">
         <v>1661</v>
       </c>
-      <c r="JB124" s="25">
+      <c r="JB124" s="28">
         <v>2582</v>
       </c>
+      <c r="JC124" s="25">
+        <v>2552</v>
+      </c>
     </row>
-    <row r="125" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>119</v>
       </c>
@@ -97844,11 +98217,14 @@
       <c r="JA125" s="28">
         <v>409989</v>
       </c>
-      <c r="JB125" s="25">
+      <c r="JB125" s="28">
         <v>417846</v>
       </c>
+      <c r="JC125" s="25">
+        <v>421992</v>
+      </c>
     </row>
-    <row r="126" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>120</v>
       </c>
@@ -98632,11 +99008,14 @@
       <c r="JA126" s="28">
         <v>6515</v>
       </c>
-      <c r="JB126" s="25">
+      <c r="JB126" s="28">
         <v>6004</v>
       </c>
+      <c r="JC126" s="25">
+        <v>6225</v>
+      </c>
     </row>
-    <row r="127" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>121</v>
       </c>
@@ -99420,11 +99799,14 @@
       <c r="JA127" s="28">
         <v>49</v>
       </c>
-      <c r="JB127" s="25">
+      <c r="JB127" s="28">
         <v>49</v>
       </c>
+      <c r="JC127" s="25">
+        <v>51</v>
+      </c>
     </row>
-    <row r="128" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>122</v>
       </c>
@@ -100208,11 +100590,14 @@
       <c r="JA128" s="28">
         <v>2423</v>
       </c>
-      <c r="JB128" s="25">
+      <c r="JB128" s="28">
         <v>2391</v>
       </c>
+      <c r="JC128" s="25">
+        <v>2363</v>
+      </c>
     </row>
-    <row r="129" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>123</v>
       </c>
@@ -100996,11 +101381,14 @@
       <c r="JA129" s="28">
         <v>35551</v>
       </c>
-      <c r="JB129" s="25">
+      <c r="JB129" s="28">
         <v>36265</v>
       </c>
+      <c r="JC129" s="25">
+        <v>36913</v>
+      </c>
     </row>
-    <row r="130" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>124</v>
       </c>
@@ -101784,11 +102172,14 @@
       <c r="JA130" s="28">
         <v>6310</v>
       </c>
-      <c r="JB130" s="25">
+      <c r="JB130" s="28">
         <v>6390</v>
       </c>
+      <c r="JC130" s="25">
+        <v>6998</v>
+      </c>
     </row>
-    <row r="131" spans="1:262" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:263" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="20" t="s">
         <v>127</v>
       </c>
@@ -102572,11 +102963,14 @@
       <c r="JA131" s="34">
         <v>1837975</v>
       </c>
-      <c r="JB131" s="26">
+      <c r="JB131" s="34">
         <v>1847731</v>
       </c>
+      <c r="JC131" s="26">
+        <v>1858235</v>
+      </c>
     </row>
-    <row r="132" spans="1:262" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:263" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
@@ -102824,7 +103218,7 @@
       <c r="IL132" s="18"/>
       <c r="IM132" s="18"/>
     </row>
-    <row r="133" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>126</v>
       </c>
@@ -102833,7 +103227,6 @@
       <c r="D145" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:JB133"/>
   <mergeCells count="1">
     <mergeCell ref="A4:A5"/>
   </mergeCells>

--- a/Historicos/ta_municipios_jalisco.xlsx
+++ b/Historicos/ta_municipios_jalisco.xlsx
@@ -15,14 +15,14 @@
     <sheet name="ta municipios" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ta municipios'!$A$4:$JC$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ta municipios'!$A$4:$JD$133</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="142">
   <si>
     <t>Acatic</t>
   </si>
@@ -1592,11 +1592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JC145"/>
+  <dimension ref="A1:JD145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A21" sqref="A21"/>
+      <selection pane="topRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,20 +1711,20 @@
     <col min="251" max="251" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="11" bestFit="1" customWidth="1"/>
     <col min="257" max="257" width="12.42578125" customWidth="1"/>
-    <col min="263" max="263" width="11.7109375" customWidth="1"/>
+    <col min="264" max="264" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>125</v>
       </c>
@@ -2511,11 +2511,14 @@
       <c r="JB4" s="30">
         <v>2021</v>
       </c>
-      <c r="JC4" s="31">
+      <c r="JC4" s="30">
         <v>2021</v>
       </c>
+      <c r="JD4" s="31">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="4" t="s">
         <v>129</v>
@@ -3300,11 +3303,14 @@
       <c r="JB5" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="JC5" s="33" t="s">
+      <c r="JC5" s="27" t="s">
         <v>138</v>
       </c>
+      <c r="JD5" s="33" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="6" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -4091,11 +4097,14 @@
       <c r="JB6" s="28">
         <v>4973</v>
       </c>
-      <c r="JC6" s="25">
+      <c r="JC6" s="28">
         <v>4973</v>
       </c>
+      <c r="JD6" s="25">
+        <v>5028</v>
+      </c>
     </row>
-    <row r="7" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -4882,11 +4891,14 @@
       <c r="JB7" s="28">
         <v>6568</v>
       </c>
-      <c r="JC7" s="25">
+      <c r="JC7" s="28">
         <v>6657</v>
       </c>
+      <c r="JD7" s="25">
+        <v>7033</v>
+      </c>
     </row>
-    <row r="8" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -5673,11 +5685,14 @@
       <c r="JB8" s="28">
         <v>1517</v>
       </c>
-      <c r="JC8" s="25">
+      <c r="JC8" s="28">
         <v>1512</v>
       </c>
+      <c r="JD8" s="25">
+        <v>1555</v>
+      </c>
     </row>
-    <row r="9" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -6464,11 +6479,14 @@
       <c r="JB9" s="28">
         <v>85</v>
       </c>
-      <c r="JC9" s="25">
+      <c r="JC9" s="28">
         <v>89</v>
       </c>
+      <c r="JD9" s="25">
+        <v>88</v>
+      </c>
     </row>
-    <row r="10" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -7255,11 +7273,14 @@
       <c r="JB10" s="28">
         <v>2809</v>
       </c>
-      <c r="JC10" s="25">
+      <c r="JC10" s="28">
         <v>2778</v>
       </c>
+      <c r="JD10" s="25">
+        <v>2831</v>
+      </c>
     </row>
-    <row r="11" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -8046,11 +8067,14 @@
       <c r="JB11" s="28">
         <v>6518</v>
       </c>
-      <c r="JC11" s="25">
+      <c r="JC11" s="28">
         <v>6668</v>
       </c>
+      <c r="JD11" s="25">
+        <v>6768</v>
+      </c>
     </row>
-    <row r="12" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -8837,11 +8861,14 @@
       <c r="JB12" s="28">
         <v>12767</v>
       </c>
-      <c r="JC12" s="25">
+      <c r="JC12" s="28">
         <v>12692</v>
       </c>
+      <c r="JD12" s="25">
+        <v>12824</v>
+      </c>
     </row>
-    <row r="13" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -9628,11 +9655,14 @@
       <c r="JB13" s="28">
         <v>441</v>
       </c>
-      <c r="JC13" s="25">
+      <c r="JC13" s="28">
         <v>517</v>
       </c>
+      <c r="JD13" s="25">
+        <v>760</v>
+      </c>
     </row>
-    <row r="14" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -10419,11 +10449,14 @@
       <c r="JB14" s="28">
         <v>28</v>
       </c>
-      <c r="JC14" s="25">
+      <c r="JC14" s="28">
         <v>27</v>
       </c>
+      <c r="JD14" s="25">
+        <v>29</v>
+      </c>
     </row>
-    <row r="15" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -11210,11 +11243,14 @@
       <c r="JB15" s="28">
         <v>98</v>
       </c>
-      <c r="JC15" s="25">
+      <c r="JC15" s="28">
         <v>100</v>
       </c>
+      <c r="JD15" s="25">
+        <v>99</v>
+      </c>
     </row>
-    <row r="16" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -12001,11 +12037,14 @@
       <c r="JB16" s="28">
         <v>10794</v>
       </c>
-      <c r="JC16" s="25">
+      <c r="JC16" s="28">
         <v>11040</v>
       </c>
+      <c r="JD16" s="25">
+        <v>11138</v>
+      </c>
     </row>
-    <row r="17" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -12792,11 +12831,14 @@
       <c r="JB17" s="28">
         <v>643</v>
       </c>
-      <c r="JC17" s="25">
+      <c r="JC17" s="28">
         <v>619</v>
       </c>
+      <c r="JD17" s="25">
+        <v>617</v>
+      </c>
     </row>
-    <row r="18" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -13583,11 +13625,14 @@
       <c r="JB18" s="28">
         <v>11406</v>
       </c>
-      <c r="JC18" s="25">
+      <c r="JC18" s="28">
         <v>11720</v>
       </c>
+      <c r="JD18" s="25">
+        <v>11825</v>
+      </c>
     </row>
-    <row r="19" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -14374,11 +14419,14 @@
       <c r="JB19" s="28">
         <v>3783</v>
       </c>
-      <c r="JC19" s="25">
+      <c r="JC19" s="28">
         <v>3609</v>
       </c>
+      <c r="JD19" s="25">
+        <v>3802</v>
+      </c>
     </row>
-    <row r="20" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -15165,11 +15213,14 @@
       <c r="JB20" s="28">
         <v>352</v>
       </c>
-      <c r="JC20" s="25">
+      <c r="JC20" s="28">
         <v>360</v>
       </c>
+      <c r="JD20" s="25">
+        <v>353</v>
+      </c>
     </row>
-    <row r="21" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -15956,11 +16007,14 @@
       <c r="JB21" s="28">
         <v>683</v>
       </c>
-      <c r="JC21" s="25">
+      <c r="JC21" s="28">
         <v>690</v>
       </c>
+      <c r="JD21" s="25">
+        <v>706</v>
+      </c>
     </row>
-    <row r="22" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -16747,11 +16801,14 @@
       <c r="JB22" s="28">
         <v>331</v>
       </c>
-      <c r="JC22" s="25">
+      <c r="JC22" s="28">
         <v>332</v>
       </c>
+      <c r="JD22" s="25">
+        <v>345</v>
+      </c>
     </row>
-    <row r="23" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -17538,11 +17595,14 @@
       <c r="JB23" s="28">
         <v>114</v>
       </c>
-      <c r="JC23" s="25">
+      <c r="JC23" s="28">
         <v>100</v>
       </c>
+      <c r="JD23" s="25">
+        <v>100</v>
+      </c>
     </row>
-    <row r="24" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -18329,11 +18389,14 @@
       <c r="JB24" s="28">
         <v>2936</v>
       </c>
-      <c r="JC24" s="25">
+      <c r="JC24" s="28">
         <v>2896</v>
       </c>
+      <c r="JD24" s="25">
+        <v>3005</v>
+      </c>
     </row>
-    <row r="25" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -19120,11 +19183,14 @@
       <c r="JB25" s="28">
         <v>5980</v>
       </c>
-      <c r="JC25" s="25">
+      <c r="JC25" s="28">
         <v>6020</v>
       </c>
+      <c r="JD25" s="25">
+        <v>5962</v>
+      </c>
     </row>
-    <row r="26" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -19911,11 +19977,14 @@
       <c r="JB26" s="28">
         <v>2</v>
       </c>
-      <c r="JC26" s="25">
+      <c r="JC26" s="28">
         <v>3</v>
       </c>
+      <c r="JD26" s="25">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -20702,11 +20771,14 @@
       <c r="JB27" s="28">
         <v>155</v>
       </c>
-      <c r="JC27" s="25">
+      <c r="JC27" s="28">
         <v>165</v>
       </c>
+      <c r="JD27" s="25">
+        <v>177</v>
+      </c>
     </row>
-    <row r="28" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -21493,11 +21565,14 @@
       <c r="JB28" s="28">
         <v>2382</v>
       </c>
-      <c r="JC28" s="25">
+      <c r="JC28" s="28">
         <v>2337</v>
       </c>
+      <c r="JD28" s="25">
+        <v>2329</v>
+      </c>
     </row>
-    <row r="29" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -22284,11 +22359,14 @@
       <c r="JB29" s="28">
         <v>2427</v>
       </c>
-      <c r="JC29" s="25">
+      <c r="JC29" s="28">
         <v>2437</v>
       </c>
+      <c r="JD29" s="25">
+        <v>2391</v>
+      </c>
     </row>
-    <row r="30" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -23075,11 +23153,14 @@
       <c r="JB30" s="28">
         <v>614</v>
       </c>
-      <c r="JC30" s="25">
+      <c r="JC30" s="28">
         <v>627</v>
       </c>
+      <c r="JD30" s="25">
+        <v>634</v>
+      </c>
     </row>
-    <row r="31" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
@@ -23866,11 +23947,14 @@
       <c r="JB31" s="28">
         <v>124</v>
       </c>
-      <c r="JC31" s="25">
+      <c r="JC31" s="28">
         <v>114</v>
       </c>
+      <c r="JD31" s="25">
+        <v>113</v>
+      </c>
     </row>
-    <row r="32" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
@@ -24657,11 +24741,14 @@
       <c r="JB32" s="28">
         <v>43</v>
       </c>
-      <c r="JC32" s="25">
+      <c r="JC32" s="28">
         <v>47</v>
       </c>
+      <c r="JD32" s="25">
+        <v>55</v>
+      </c>
     </row>
-    <row r="33" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -25448,11 +25535,14 @@
       <c r="JB33" s="28">
         <v>61</v>
       </c>
-      <c r="JC33" s="25">
+      <c r="JC33" s="28">
         <v>59</v>
       </c>
+      <c r="JD33" s="25">
+        <v>57</v>
+      </c>
     </row>
-    <row r="34" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -26239,11 +26329,14 @@
       <c r="JB34" s="28">
         <v>236</v>
       </c>
-      <c r="JC34" s="25">
+      <c r="JC34" s="28">
         <v>232</v>
       </c>
+      <c r="JD34" s="25">
+        <v>225</v>
+      </c>
     </row>
-    <row r="35" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -27030,11 +27123,14 @@
       <c r="JB35" s="28">
         <v>994</v>
       </c>
-      <c r="JC35" s="25">
+      <c r="JC35" s="28">
         <v>991</v>
       </c>
+      <c r="JD35" s="25">
+        <v>993</v>
+      </c>
     </row>
-    <row r="36" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -27821,11 +27917,14 @@
       <c r="JB36" s="28">
         <v>8</v>
       </c>
-      <c r="JC36" s="25">
+      <c r="JC36" s="28">
         <v>8</v>
       </c>
+      <c r="JD36" s="25">
+        <v>8</v>
+      </c>
     </row>
-    <row r="37" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -28612,11 +28711,14 @@
       <c r="JB37" s="28">
         <v>3305</v>
       </c>
-      <c r="JC37" s="25">
+      <c r="JC37" s="28">
         <v>3390</v>
       </c>
+      <c r="JD37" s="25">
+        <v>3416</v>
+      </c>
     </row>
-    <row r="38" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -29403,11 +29505,14 @@
       <c r="JB38" s="28">
         <v>2512</v>
       </c>
-      <c r="JC38" s="25">
+      <c r="JC38" s="28">
         <v>2538</v>
       </c>
+      <c r="JD38" s="25">
+        <v>2532</v>
+      </c>
     </row>
-    <row r="39" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
@@ -30194,11 +30299,14 @@
       <c r="JB39" s="28">
         <v>160</v>
       </c>
-      <c r="JC39" s="25">
+      <c r="JC39" s="28">
         <v>156</v>
       </c>
+      <c r="JD39" s="25">
+        <v>156</v>
+      </c>
     </row>
-    <row r="40" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
@@ -30985,11 +31093,14 @@
       <c r="JB40" s="28">
         <v>61029</v>
       </c>
-      <c r="JC40" s="25">
+      <c r="JC40" s="28">
         <v>61509</v>
       </c>
+      <c r="JD40" s="25">
+        <v>62096</v>
+      </c>
     </row>
-    <row r="41" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -31776,11 +31887,14 @@
       <c r="JB41" s="28">
         <v>3436</v>
       </c>
-      <c r="JC41" s="25">
+      <c r="JC41" s="28">
         <v>3450</v>
       </c>
+      <c r="JD41" s="25">
+        <v>3460</v>
+      </c>
     </row>
-    <row r="42" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -32567,11 +32681,14 @@
       <c r="JB42" s="28">
         <v>711</v>
       </c>
-      <c r="JC42" s="25">
+      <c r="JC42" s="28">
         <v>716</v>
       </c>
+      <c r="JD42" s="25">
+        <v>708</v>
+      </c>
     </row>
-    <row r="43" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -33358,11 +33475,14 @@
       <c r="JB43" s="28">
         <v>2424</v>
       </c>
-      <c r="JC43" s="25">
+      <c r="JC43" s="28">
         <v>2544</v>
       </c>
+      <c r="JD43" s="25">
+        <v>2730</v>
+      </c>
     </row>
-    <row r="44" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -34149,11 +34269,14 @@
       <c r="JB44" s="28">
         <v>161</v>
       </c>
-      <c r="JC44" s="25">
+      <c r="JC44" s="28">
         <v>159</v>
       </c>
+      <c r="JD44" s="25">
+        <v>159</v>
+      </c>
     </row>
-    <row r="45" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -34940,11 +35063,14 @@
       <c r="JB45" s="28">
         <v>668474</v>
       </c>
-      <c r="JC45" s="25">
+      <c r="JC45" s="28">
         <v>668952</v>
       </c>
+      <c r="JD45" s="25">
+        <v>670853</v>
+      </c>
     </row>
-    <row r="46" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
@@ -35731,11 +35857,14 @@
       <c r="JB46" s="28">
         <v>210</v>
       </c>
-      <c r="JC46" s="25">
+      <c r="JC46" s="28">
         <v>205</v>
       </c>
+      <c r="JD46" s="25">
+        <v>202</v>
+      </c>
     </row>
-    <row r="47" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
@@ -36522,11 +36651,14 @@
       <c r="JB47" s="28">
         <v>108</v>
       </c>
-      <c r="JC47" s="25">
+      <c r="JC47" s="28">
         <v>109</v>
       </c>
+      <c r="JD47" s="25">
+        <v>101</v>
+      </c>
     </row>
-    <row r="48" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -37313,11 +37445,14 @@
       <c r="JB48" s="28">
         <v>924</v>
       </c>
-      <c r="JC48" s="25">
+      <c r="JC48" s="28">
         <v>1004</v>
       </c>
+      <c r="JD48" s="25">
+        <v>965</v>
+      </c>
     </row>
-    <row r="49" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -38104,11 +38239,14 @@
       <c r="JB49" s="28">
         <v>4663</v>
       </c>
-      <c r="JC49" s="25">
+      <c r="JC49" s="28">
         <v>4653</v>
       </c>
+      <c r="JD49" s="25">
+        <v>4697</v>
+      </c>
     </row>
-    <row r="50" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -38895,11 +39033,14 @@
       <c r="JB50" s="28">
         <v>596</v>
       </c>
-      <c r="JC50" s="25">
+      <c r="JC50" s="28">
         <v>594</v>
       </c>
+      <c r="JD50" s="25">
+        <v>592</v>
+      </c>
     </row>
-    <row r="51" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -39686,11 +39827,14 @@
       <c r="JB51" s="28">
         <v>2709</v>
       </c>
-      <c r="JC51" s="25">
+      <c r="JC51" s="28">
         <v>2759</v>
       </c>
+      <c r="JD51" s="25">
+        <v>2741</v>
+      </c>
     </row>
-    <row r="52" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -40477,11 +40621,14 @@
       <c r="JB52" s="28">
         <v>1368</v>
       </c>
-      <c r="JC52" s="25">
+      <c r="JC52" s="28">
         <v>1386</v>
       </c>
+      <c r="JD52" s="25">
+        <v>1399</v>
+      </c>
     </row>
-    <row r="53" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -41268,11 +41415,14 @@
       <c r="JB53" s="28">
         <v>1951</v>
       </c>
-      <c r="JC53" s="25">
+      <c r="JC53" s="28">
         <v>1971</v>
       </c>
+      <c r="JD53" s="25">
+        <v>2026</v>
+      </c>
     </row>
-    <row r="54" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>48</v>
       </c>
@@ -42059,11 +42209,14 @@
       <c r="JB54" s="28">
         <v>64</v>
       </c>
-      <c r="JC54" s="25">
+      <c r="JC54" s="28">
         <v>64</v>
       </c>
+      <c r="JD54" s="25">
+        <v>59</v>
+      </c>
     </row>
-    <row r="55" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
@@ -42850,11 +43003,14 @@
       <c r="JB55" s="28">
         <v>7219</v>
       </c>
-      <c r="JC55" s="25">
+      <c r="JC55" s="28">
         <v>7774</v>
       </c>
+      <c r="JD55" s="25">
+        <v>8319</v>
+      </c>
     </row>
-    <row r="56" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -43641,11 +43797,14 @@
       <c r="JB56" s="28">
         <v>1335</v>
       </c>
-      <c r="JC56" s="25">
+      <c r="JC56" s="28">
         <v>1343</v>
       </c>
+      <c r="JD56" s="25">
+        <v>1327</v>
+      </c>
     </row>
-    <row r="57" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>51</v>
       </c>
@@ -44432,11 +44591,14 @@
       <c r="JB57" s="28">
         <v>91</v>
       </c>
-      <c r="JC57" s="25">
+      <c r="JC57" s="28">
         <v>92</v>
       </c>
+      <c r="JD57" s="25">
+        <v>97</v>
+      </c>
     </row>
-    <row r="58" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -45223,11 +45385,14 @@
       <c r="JB58" s="28">
         <v>5165</v>
       </c>
-      <c r="JC58" s="25">
+      <c r="JC58" s="28">
         <v>5147</v>
       </c>
+      <c r="JD58" s="25">
+        <v>5085</v>
+      </c>
     </row>
-    <row r="59" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>53</v>
       </c>
@@ -46014,11 +46179,14 @@
       <c r="JB59" s="28">
         <v>2384</v>
       </c>
-      <c r="JC59" s="25">
+      <c r="JC59" s="28">
         <v>2424</v>
       </c>
+      <c r="JD59" s="25">
+        <v>2443</v>
+      </c>
     </row>
-    <row r="60" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
@@ -46805,11 +46973,14 @@
       <c r="JB60" s="28">
         <v>122</v>
       </c>
-      <c r="JC60" s="25">
+      <c r="JC60" s="28">
         <v>126</v>
       </c>
+      <c r="JD60" s="25">
+        <v>127</v>
+      </c>
     </row>
-    <row r="61" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>55</v>
       </c>
@@ -47596,11 +47767,14 @@
       <c r="JB61" s="28">
         <v>35065</v>
       </c>
-      <c r="JC61" s="25">
+      <c r="JC61" s="28">
         <v>35098</v>
       </c>
+      <c r="JD61" s="25">
+        <v>34917</v>
+      </c>
     </row>
-    <row r="62" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -48387,11 +48561,14 @@
       <c r="JB62" s="28">
         <v>1097</v>
       </c>
-      <c r="JC62" s="25">
+      <c r="JC62" s="28">
         <v>1129</v>
       </c>
+      <c r="JD62" s="25">
+        <v>1135</v>
+      </c>
     </row>
-    <row r="63" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
@@ -49178,11 +49355,14 @@
       <c r="JB63" s="28">
         <v>608</v>
       </c>
-      <c r="JC63" s="25">
+      <c r="JC63" s="28">
         <v>619</v>
       </c>
+      <c r="JD63" s="25">
+        <v>629</v>
+      </c>
     </row>
-    <row r="64" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
@@ -49969,11 +50149,14 @@
       <c r="JB64" s="28">
         <v>1086</v>
       </c>
-      <c r="JC64" s="25">
+      <c r="JC64" s="28">
         <v>1098</v>
       </c>
+      <c r="JD64" s="25">
+        <v>1101</v>
+      </c>
     </row>
-    <row r="65" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>59</v>
       </c>
@@ -50760,11 +50943,14 @@
       <c r="JB65" s="28">
         <v>13</v>
       </c>
-      <c r="JC65" s="25">
+      <c r="JC65" s="28">
         <v>13</v>
       </c>
+      <c r="JD65" s="25">
+        <v>13</v>
+      </c>
     </row>
-    <row r="66" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>60</v>
       </c>
@@ -51551,11 +51737,14 @@
       <c r="JB66" s="28">
         <v>199</v>
       </c>
-      <c r="JC66" s="25">
+      <c r="JC66" s="28">
         <v>154</v>
       </c>
+      <c r="JD66" s="25">
+        <v>152</v>
+      </c>
     </row>
-    <row r="67" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>61</v>
       </c>
@@ -52342,11 +52531,14 @@
       <c r="JB67" s="28">
         <v>23</v>
       </c>
-      <c r="JC67" s="25">
+      <c r="JC67" s="28">
         <v>24</v>
       </c>
+      <c r="JD67" s="25">
+        <v>36</v>
+      </c>
     </row>
-    <row r="68" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>62</v>
       </c>
@@ -53133,11 +53325,14 @@
       <c r="JB68" s="28">
         <v>21476</v>
       </c>
-      <c r="JC68" s="25">
+      <c r="JC68" s="28">
         <v>21530</v>
       </c>
+      <c r="JD68" s="25">
+        <v>21807</v>
+      </c>
     </row>
-    <row r="69" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>63</v>
       </c>
@@ -53924,11 +54119,14 @@
       <c r="JB69" s="28">
         <v>538</v>
       </c>
-      <c r="JC69" s="25">
+      <c r="JC69" s="28">
         <v>550</v>
       </c>
+      <c r="JD69" s="25">
+        <v>556</v>
+      </c>
     </row>
-    <row r="70" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>64</v>
       </c>
@@ -54715,11 +54913,14 @@
       <c r="JB70" s="28">
         <v>564</v>
       </c>
-      <c r="JC70" s="25">
+      <c r="JC70" s="28">
         <v>545</v>
       </c>
+      <c r="JD70" s="25">
+        <v>569</v>
+      </c>
     </row>
-    <row r="71" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>65</v>
       </c>
@@ -55506,11 +55707,14 @@
       <c r="JB71" s="28">
         <v>4766</v>
       </c>
-      <c r="JC71" s="25">
+      <c r="JC71" s="28">
         <v>4718</v>
       </c>
+      <c r="JD71" s="25">
+        <v>4726</v>
+      </c>
     </row>
-    <row r="72" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>66</v>
       </c>
@@ -56297,11 +56501,14 @@
       <c r="JB72" s="28">
         <v>70877</v>
       </c>
-      <c r="JC72" s="25">
+      <c r="JC72" s="28">
         <v>70791</v>
       </c>
+      <c r="JD72" s="25">
+        <v>71695</v>
+      </c>
     </row>
-    <row r="73" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
@@ -57088,11 +57295,14 @@
       <c r="JB73" s="28">
         <v>12</v>
       </c>
-      <c r="JC73" s="25">
+      <c r="JC73" s="28">
         <v>12</v>
       </c>
+      <c r="JD73" s="25">
+        <v>12</v>
+      </c>
     </row>
-    <row r="74" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>68</v>
       </c>
@@ -57879,11 +58089,14 @@
       <c r="JB74" s="28">
         <v>45</v>
       </c>
-      <c r="JC74" s="25">
+      <c r="JC74" s="28">
         <v>49</v>
       </c>
+      <c r="JD74" s="25">
+        <v>48</v>
+      </c>
     </row>
-    <row r="75" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>69</v>
       </c>
@@ -58670,11 +58883,14 @@
       <c r="JB75" s="28">
         <v>73</v>
       </c>
-      <c r="JC75" s="25">
+      <c r="JC75" s="28">
         <v>73</v>
       </c>
+      <c r="JD75" s="25">
+        <v>71</v>
+      </c>
     </row>
-    <row r="76" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>70</v>
       </c>
@@ -59461,11 +59677,14 @@
       <c r="JB76" s="28">
         <v>4355</v>
       </c>
-      <c r="JC76" s="25">
+      <c r="JC76" s="28">
         <v>4685</v>
       </c>
+      <c r="JD76" s="25">
+        <v>4686</v>
+      </c>
     </row>
-    <row r="77" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
@@ -60252,11 +60471,14 @@
       <c r="JB77" s="28">
         <v>917</v>
       </c>
-      <c r="JC77" s="25">
+      <c r="JC77" s="28">
         <v>922</v>
       </c>
+      <c r="JD77" s="25">
+        <v>934</v>
+      </c>
     </row>
-    <row r="78" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
@@ -61043,11 +61265,14 @@
       <c r="JB78" s="28">
         <v>15470</v>
       </c>
-      <c r="JC78" s="25">
+      <c r="JC78" s="28">
         <v>15813</v>
       </c>
+      <c r="JD78" s="25">
+        <v>15846</v>
+      </c>
     </row>
-    <row r="79" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
@@ -61834,11 +62059,14 @@
       <c r="JB79" s="28">
         <v>195</v>
       </c>
-      <c r="JC79" s="25">
+      <c r="JC79" s="28">
         <v>202</v>
       </c>
+      <c r="JD79" s="25">
+        <v>214</v>
+      </c>
     </row>
-    <row r="80" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>74</v>
       </c>
@@ -62625,11 +62853,14 @@
       <c r="JB80" s="28">
         <v>941</v>
       </c>
-      <c r="JC80" s="25">
+      <c r="JC80" s="28">
         <v>953</v>
       </c>
+      <c r="JD80" s="25">
+        <v>919</v>
+      </c>
     </row>
-    <row r="81" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
@@ -63416,11 +63647,14 @@
       <c r="JB81" s="28">
         <v>30</v>
       </c>
-      <c r="JC81" s="25">
+      <c r="JC81" s="28">
         <v>29</v>
       </c>
+      <c r="JD81" s="25">
+        <v>29</v>
+      </c>
     </row>
-    <row r="82" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>76</v>
       </c>
@@ -64207,11 +64441,14 @@
       <c r="JB82" s="28">
         <v>104</v>
       </c>
-      <c r="JC82" s="25">
+      <c r="JC82" s="28">
         <v>102</v>
       </c>
+      <c r="JD82" s="25">
+        <v>105</v>
+      </c>
     </row>
-    <row r="83" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>77</v>
       </c>
@@ -64998,11 +65235,14 @@
       <c r="JB83" s="28">
         <v>1123</v>
       </c>
-      <c r="JC83" s="25">
+      <c r="JC83" s="28">
         <v>1155</v>
       </c>
+      <c r="JD83" s="25">
+        <v>1171</v>
+      </c>
     </row>
-    <row r="84" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
@@ -65789,11 +66029,14 @@
       <c r="JB84" s="28">
         <v>4030</v>
       </c>
-      <c r="JC84" s="25">
+      <c r="JC84" s="28">
         <v>4028</v>
       </c>
+      <c r="JD84" s="25">
+        <v>4037</v>
+      </c>
     </row>
-    <row r="85" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
@@ -66580,11 +66823,14 @@
       <c r="JB85" s="28">
         <v>148</v>
       </c>
-      <c r="JC85" s="25">
+      <c r="JC85" s="28">
         <v>151</v>
       </c>
+      <c r="JD85" s="25">
+        <v>171</v>
+      </c>
     </row>
-    <row r="86" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>80</v>
       </c>
@@ -67371,11 +67617,14 @@
       <c r="JB86" s="28">
         <v>1</v>
       </c>
-      <c r="JC86" s="25">
+      <c r="JC86" s="28">
         <v>1</v>
       </c>
+      <c r="JD86" s="25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>81</v>
       </c>
@@ -68162,11 +68411,14 @@
       <c r="JB87" s="28">
         <v>0</v>
       </c>
-      <c r="JC87" s="25">
+      <c r="JC87" s="28">
         <v>0</v>
       </c>
+      <c r="JD87" s="25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
@@ -68953,11 +69205,14 @@
       <c r="JB88" s="28">
         <v>5044</v>
       </c>
-      <c r="JC88" s="25">
+      <c r="JC88" s="28">
         <v>5303</v>
       </c>
+      <c r="JD88" s="25">
+        <v>5382</v>
+      </c>
     </row>
-    <row r="89" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>83</v>
       </c>
@@ -69744,11 +69999,14 @@
       <c r="JB89" s="28">
         <v>14202</v>
       </c>
-      <c r="JC89" s="25">
+      <c r="JC89" s="28">
         <v>13893</v>
       </c>
+      <c r="JD89" s="25">
+        <v>14085</v>
+      </c>
     </row>
-    <row r="90" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
@@ -70535,11 +70793,14 @@
       <c r="JB90" s="28">
         <v>405</v>
       </c>
-      <c r="JC90" s="25">
+      <c r="JC90" s="28">
         <v>408</v>
       </c>
+      <c r="JD90" s="25">
+        <v>413</v>
+      </c>
     </row>
-    <row r="91" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
@@ -71326,11 +71587,14 @@
       <c r="JB91" s="28">
         <v>7182</v>
       </c>
-      <c r="JC91" s="25">
+      <c r="JC91" s="28">
         <v>7164</v>
       </c>
+      <c r="JD91" s="25">
+        <v>7488</v>
+      </c>
     </row>
-    <row r="92" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>86</v>
       </c>
@@ -72117,11 +72381,14 @@
       <c r="JB92" s="28">
         <v>2565</v>
       </c>
-      <c r="JC92" s="25">
+      <c r="JC92" s="28">
         <v>2750</v>
       </c>
+      <c r="JD92" s="25">
+        <v>2798</v>
+      </c>
     </row>
-    <row r="93" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -72908,11 +73175,14 @@
       <c r="JB93" s="28">
         <v>679</v>
       </c>
-      <c r="JC93" s="25">
+      <c r="JC93" s="28">
         <v>677</v>
       </c>
+      <c r="JD93" s="25">
+        <v>681</v>
+      </c>
     </row>
-    <row r="94" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
@@ -73699,11 +73969,14 @@
       <c r="JB94" s="28">
         <v>293</v>
       </c>
-      <c r="JC94" s="25">
+      <c r="JC94" s="28">
         <v>339</v>
       </c>
+      <c r="JD94" s="25">
+        <v>356</v>
+      </c>
     </row>
-    <row r="95" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
@@ -74490,11 +74763,14 @@
       <c r="JB95" s="28">
         <v>1151</v>
       </c>
-      <c r="JC95" s="25">
+      <c r="JC95" s="28">
         <v>1061</v>
       </c>
+      <c r="JD95" s="25">
+        <v>1108</v>
+      </c>
     </row>
-    <row r="96" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>90</v>
       </c>
@@ -75281,11 +75557,14 @@
       <c r="JB96" s="28">
         <v>111</v>
       </c>
-      <c r="JC96" s="25">
+      <c r="JC96" s="28">
         <v>114</v>
       </c>
+      <c r="JD96" s="25">
+        <v>115</v>
+      </c>
     </row>
-    <row r="97" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>91</v>
       </c>
@@ -76072,11 +76351,14 @@
       <c r="JB97" s="28">
         <v>1444</v>
       </c>
-      <c r="JC97" s="25">
+      <c r="JC97" s="28">
         <v>1450</v>
       </c>
+      <c r="JD97" s="25">
+        <v>1494</v>
+      </c>
     </row>
-    <row r="98" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>92</v>
       </c>
@@ -76863,11 +77145,14 @@
       <c r="JB98" s="28">
         <v>591</v>
       </c>
-      <c r="JC98" s="25">
+      <c r="JC98" s="28">
         <v>590</v>
       </c>
+      <c r="JD98" s="25">
+        <v>599</v>
+      </c>
     </row>
-    <row r="99" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
@@ -77654,11 +77939,14 @@
       <c r="JB99" s="28">
         <v>37524</v>
       </c>
-      <c r="JC99" s="25">
+      <c r="JC99" s="28">
         <v>37794</v>
       </c>
+      <c r="JD99" s="25">
+        <v>38100</v>
+      </c>
     </row>
-    <row r="100" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>94</v>
       </c>
@@ -78445,11 +78733,14 @@
       <c r="JB100" s="28">
         <v>7884</v>
       </c>
-      <c r="JC100" s="25">
+      <c r="JC100" s="28">
         <v>7785</v>
       </c>
+      <c r="JD100" s="25">
+        <v>7789</v>
+      </c>
     </row>
-    <row r="101" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>95</v>
       </c>
@@ -79236,11 +79527,14 @@
       <c r="JB101" s="28">
         <v>579</v>
       </c>
-      <c r="JC101" s="25">
+      <c r="JC101" s="28">
         <v>586</v>
       </c>
+      <c r="JD101" s="25">
+        <v>554</v>
+      </c>
     </row>
-    <row r="102" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>96</v>
       </c>
@@ -80027,11 +80321,14 @@
       <c r="JB102" s="28">
         <v>481</v>
       </c>
-      <c r="JC102" s="25">
+      <c r="JC102" s="28">
         <v>455</v>
       </c>
+      <c r="JD102" s="25">
+        <v>459</v>
+      </c>
     </row>
-    <row r="103" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>97</v>
       </c>
@@ -80818,11 +81115,14 @@
       <c r="JB103" s="28">
         <v>103798</v>
       </c>
-      <c r="JC103" s="25">
+      <c r="JC103" s="28">
         <v>104669</v>
       </c>
+      <c r="JD103" s="25">
+        <v>105996</v>
+      </c>
     </row>
-    <row r="104" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>98</v>
       </c>
@@ -81609,11 +81909,14 @@
       <c r="JB104" s="28">
         <v>127272</v>
       </c>
-      <c r="JC104" s="25">
+      <c r="JC104" s="28">
         <v>127941</v>
       </c>
+      <c r="JD104" s="25">
+        <v>128731</v>
+      </c>
     </row>
-    <row r="105" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>99</v>
       </c>
@@ -82400,11 +82703,14 @@
       <c r="JB105" s="28">
         <v>962</v>
       </c>
-      <c r="JC105" s="25">
+      <c r="JC105" s="28">
         <v>997</v>
       </c>
+      <c r="JD105" s="25">
+        <v>994</v>
+      </c>
     </row>
-    <row r="106" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>100</v>
       </c>
@@ -83191,11 +83497,14 @@
       <c r="JB106" s="28">
         <v>1061</v>
       </c>
-      <c r="JC106" s="25">
+      <c r="JC106" s="28">
         <v>1057</v>
       </c>
+      <c r="JD106" s="25">
+        <v>1104</v>
+      </c>
     </row>
-    <row r="107" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>101</v>
       </c>
@@ -83982,11 +84291,14 @@
       <c r="JB107" s="28">
         <v>30964</v>
       </c>
-      <c r="JC107" s="25">
+      <c r="JC107" s="28">
         <v>30771</v>
       </c>
+      <c r="JD107" s="25">
+        <v>31120</v>
+      </c>
     </row>
-    <row r="108" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>102</v>
       </c>
@@ -84773,11 +85085,14 @@
       <c r="JB108" s="28">
         <v>926</v>
       </c>
-      <c r="JC108" s="25">
+      <c r="JC108" s="28">
         <v>930</v>
       </c>
+      <c r="JD108" s="25">
+        <v>932</v>
+      </c>
     </row>
-    <row r="109" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>103</v>
       </c>
@@ -85564,11 +85879,14 @@
       <c r="JB109" s="28">
         <v>386</v>
       </c>
-      <c r="JC109" s="25">
+      <c r="JC109" s="28">
         <v>399</v>
       </c>
+      <c r="JD109" s="25">
+        <v>409</v>
+      </c>
     </row>
-    <row r="110" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>104</v>
       </c>
@@ -86355,11 +86673,14 @@
       <c r="JB110" s="28">
         <v>50</v>
       </c>
-      <c r="JC110" s="25">
+      <c r="JC110" s="28">
         <v>51</v>
       </c>
+      <c r="JD110" s="25">
+        <v>49</v>
+      </c>
     </row>
-    <row r="111" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -87146,11 +87467,14 @@
       <c r="JB111" s="28">
         <v>1951</v>
       </c>
-      <c r="JC111" s="25">
+      <c r="JC111" s="28">
         <v>1948</v>
       </c>
+      <c r="JD111" s="25">
+        <v>2015</v>
+      </c>
     </row>
-    <row r="112" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>106</v>
       </c>
@@ -87937,11 +88261,14 @@
       <c r="JB112" s="28">
         <v>3640</v>
       </c>
-      <c r="JC112" s="25">
+      <c r="JC112" s="28">
         <v>3663</v>
       </c>
+      <c r="JD112" s="25">
+        <v>3495</v>
+      </c>
     </row>
-    <row r="113" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -88728,11 +89055,14 @@
       <c r="JB113" s="28">
         <v>393</v>
       </c>
-      <c r="JC113" s="25">
+      <c r="JC113" s="28">
         <v>387</v>
       </c>
+      <c r="JD113" s="25">
+        <v>353</v>
+      </c>
     </row>
-    <row r="114" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>108</v>
       </c>
@@ -89519,11 +89849,14 @@
       <c r="JB114" s="28">
         <v>2883</v>
       </c>
-      <c r="JC114" s="25">
+      <c r="JC114" s="28">
         <v>2868</v>
       </c>
+      <c r="JD114" s="25">
+        <v>2961</v>
+      </c>
     </row>
-    <row r="115" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>109</v>
       </c>
@@ -90310,11 +90643,14 @@
       <c r="JB115" s="28">
         <v>1508</v>
       </c>
-      <c r="JC115" s="25">
+      <c r="JC115" s="28">
         <v>1524</v>
       </c>
+      <c r="JD115" s="25">
+        <v>1517</v>
+      </c>
     </row>
-    <row r="116" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>110</v>
       </c>
@@ -91101,11 +91437,14 @@
       <c r="JB116" s="28">
         <v>560</v>
       </c>
-      <c r="JC116" s="25">
+      <c r="JC116" s="28">
         <v>587</v>
       </c>
+      <c r="JD116" s="25">
+        <v>548</v>
+      </c>
     </row>
-    <row r="117" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>111</v>
       </c>
@@ -91892,11 +92231,14 @@
       <c r="JB117" s="28">
         <v>2144</v>
       </c>
-      <c r="JC117" s="25">
+      <c r="JC117" s="28">
         <v>2147</v>
       </c>
+      <c r="JD117" s="25">
+        <v>2152</v>
+      </c>
     </row>
-    <row r="118" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>112</v>
       </c>
@@ -92683,11 +93025,14 @@
       <c r="JB118" s="28">
         <v>473</v>
       </c>
-      <c r="JC118" s="25">
+      <c r="JC118" s="28">
         <v>502</v>
       </c>
+      <c r="JD118" s="25">
+        <v>496</v>
+      </c>
     </row>
-    <row r="119" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>113</v>
       </c>
@@ -93474,11 +93819,14 @@
       <c r="JB119" s="28">
         <v>1031</v>
       </c>
-      <c r="JC119" s="25">
+      <c r="JC119" s="28">
         <v>1044</v>
       </c>
+      <c r="JD119" s="25">
+        <v>1010</v>
+      </c>
     </row>
-    <row r="120" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>114</v>
       </c>
@@ -94265,11 +94613,14 @@
       <c r="JB120" s="28">
         <v>40</v>
       </c>
-      <c r="JC120" s="25">
+      <c r="JC120" s="28">
         <v>42</v>
       </c>
+      <c r="JD120" s="25">
+        <v>43</v>
+      </c>
     </row>
-    <row r="121" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>115</v>
       </c>
@@ -95056,11 +95407,14 @@
       <c r="JB121" s="28">
         <v>646</v>
       </c>
-      <c r="JC121" s="25">
+      <c r="JC121" s="28">
         <v>663</v>
       </c>
+      <c r="JD121" s="25">
+        <v>666</v>
+      </c>
     </row>
-    <row r="122" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>116</v>
       </c>
@@ -95847,11 +96201,14 @@
       <c r="JB122" s="28">
         <v>128</v>
       </c>
-      <c r="JC122" s="25">
+      <c r="JC122" s="28">
         <v>130</v>
       </c>
+      <c r="JD122" s="25">
+        <v>129</v>
+      </c>
     </row>
-    <row r="123" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>117</v>
       </c>
@@ -96638,11 +96995,14 @@
       <c r="JB123" s="28">
         <v>504</v>
       </c>
-      <c r="JC123" s="25">
+      <c r="JC123" s="28">
         <v>524</v>
       </c>
+      <c r="JD123" s="25">
+        <v>521</v>
+      </c>
     </row>
-    <row r="124" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>118</v>
       </c>
@@ -97429,11 +97789,14 @@
       <c r="JB124" s="28">
         <v>2582</v>
       </c>
-      <c r="JC124" s="25">
+      <c r="JC124" s="28">
         <v>2552</v>
       </c>
+      <c r="JD124" s="25">
+        <v>2512</v>
+      </c>
     </row>
-    <row r="125" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>119</v>
       </c>
@@ -98220,11 +98583,14 @@
       <c r="JB125" s="28">
         <v>417846</v>
       </c>
-      <c r="JC125" s="25">
+      <c r="JC125" s="28">
         <v>421992</v>
       </c>
+      <c r="JD125" s="25">
+        <v>428096</v>
+      </c>
     </row>
-    <row r="126" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>120</v>
       </c>
@@ -99011,11 +99377,14 @@
       <c r="JB126" s="28">
         <v>6004</v>
       </c>
-      <c r="JC126" s="25">
+      <c r="JC126" s="28">
         <v>6225</v>
       </c>
+      <c r="JD126" s="25">
+        <v>6518</v>
+      </c>
     </row>
-    <row r="127" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>121</v>
       </c>
@@ -99802,11 +100171,14 @@
       <c r="JB127" s="28">
         <v>49</v>
       </c>
-      <c r="JC127" s="25">
+      <c r="JC127" s="28">
         <v>51</v>
       </c>
+      <c r="JD127" s="25">
+        <v>50</v>
+      </c>
     </row>
-    <row r="128" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>122</v>
       </c>
@@ -100593,11 +100965,14 @@
       <c r="JB128" s="28">
         <v>2391</v>
       </c>
-      <c r="JC128" s="25">
+      <c r="JC128" s="28">
         <v>2363</v>
       </c>
+      <c r="JD128" s="25">
+        <v>2329</v>
+      </c>
     </row>
-    <row r="129" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>123</v>
       </c>
@@ -101384,11 +101759,14 @@
       <c r="JB129" s="28">
         <v>36265</v>
       </c>
-      <c r="JC129" s="25">
+      <c r="JC129" s="28">
         <v>36913</v>
       </c>
+      <c r="JD129" s="25">
+        <v>37022</v>
+      </c>
     </row>
-    <row r="130" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>124</v>
       </c>
@@ -102175,11 +102553,14 @@
       <c r="JB130" s="28">
         <v>6390</v>
       </c>
-      <c r="JC130" s="25">
+      <c r="JC130" s="28">
         <v>6998</v>
       </c>
+      <c r="JD130" s="25">
+        <v>6564</v>
+      </c>
     </row>
-    <row r="131" spans="1:263" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:264" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="20" t="s">
         <v>127</v>
       </c>
@@ -102966,11 +103347,14 @@
       <c r="JB131" s="34">
         <v>1847731</v>
       </c>
-      <c r="JC131" s="26">
+      <c r="JC131" s="34">
         <v>1858235</v>
       </c>
+      <c r="JD131" s="26">
+        <v>1873476</v>
+      </c>
     </row>
-    <row r="132" spans="1:263" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:264" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
@@ -103218,7 +103602,7 @@
       <c r="IL132" s="18"/>
       <c r="IM132" s="18"/>
     </row>
-    <row r="133" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>126</v>
       </c>

--- a/Historicos/ta_municipios_jalisco.xlsx
+++ b/Historicos/ta_municipios_jalisco.xlsx
@@ -15,14 +15,14 @@
     <sheet name="ta municipios" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ta municipios'!$A$4:$JD$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ta municipios'!$A$4:$JE$133</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="142">
   <si>
     <t>Acatic</t>
   </si>
@@ -1592,11 +1592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JD145"/>
+  <dimension ref="A1:JE145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A15" sqref="A15"/>
+      <selection pane="topRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,20 +1711,20 @@
     <col min="251" max="251" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="11" bestFit="1" customWidth="1"/>
     <col min="257" max="257" width="12.42578125" customWidth="1"/>
-    <col min="264" max="264" width="11.7109375" customWidth="1"/>
+    <col min="265" max="265" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>125</v>
       </c>
@@ -2514,11 +2514,14 @@
       <c r="JC4" s="30">
         <v>2021</v>
       </c>
-      <c r="JD4" s="31">
+      <c r="JD4" s="30">
         <v>2021</v>
       </c>
+      <c r="JE4" s="31">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="4" t="s">
         <v>129</v>
@@ -3306,11 +3309,14 @@
       <c r="JC5" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="JD5" s="33" t="s">
+      <c r="JD5" s="27" t="s">
         <v>139</v>
       </c>
+      <c r="JE5" s="33" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="6" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -4100,11 +4106,14 @@
       <c r="JC6" s="28">
         <v>4973</v>
       </c>
-      <c r="JD6" s="25">
+      <c r="JD6" s="28">
         <v>5028</v>
       </c>
+      <c r="JE6" s="25">
+        <v>5022</v>
+      </c>
     </row>
-    <row r="7" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -4894,11 +4903,14 @@
       <c r="JC7" s="28">
         <v>6657</v>
       </c>
-      <c r="JD7" s="25">
+      <c r="JD7" s="28">
         <v>7033</v>
       </c>
+      <c r="JE7" s="25">
+        <v>7288</v>
+      </c>
     </row>
-    <row r="8" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -5688,11 +5700,14 @@
       <c r="JC8" s="28">
         <v>1512</v>
       </c>
-      <c r="JD8" s="25">
+      <c r="JD8" s="28">
         <v>1555</v>
       </c>
+      <c r="JE8" s="25">
+        <v>1463</v>
+      </c>
     </row>
-    <row r="9" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -6482,11 +6497,14 @@
       <c r="JC9" s="28">
         <v>89</v>
       </c>
-      <c r="JD9" s="25">
+      <c r="JD9" s="28">
         <v>88</v>
       </c>
+      <c r="JE9" s="25">
+        <v>92</v>
+      </c>
     </row>
-    <row r="10" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -7276,11 +7294,14 @@
       <c r="JC10" s="28">
         <v>2778</v>
       </c>
-      <c r="JD10" s="25">
+      <c r="JD10" s="28">
         <v>2831</v>
       </c>
+      <c r="JE10" s="25">
+        <v>2890</v>
+      </c>
     </row>
-    <row r="11" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -8070,11 +8091,14 @@
       <c r="JC11" s="28">
         <v>6668</v>
       </c>
-      <c r="JD11" s="25">
+      <c r="JD11" s="28">
         <v>6768</v>
       </c>
+      <c r="JE11" s="25">
+        <v>7390</v>
+      </c>
     </row>
-    <row r="12" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -8864,11 +8888,14 @@
       <c r="JC12" s="28">
         <v>12692</v>
       </c>
-      <c r="JD12" s="25">
+      <c r="JD12" s="28">
         <v>12824</v>
       </c>
+      <c r="JE12" s="25">
+        <v>12505</v>
+      </c>
     </row>
-    <row r="13" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -9658,11 +9685,14 @@
       <c r="JC13" s="28">
         <v>517</v>
       </c>
-      <c r="JD13" s="25">
+      <c r="JD13" s="28">
         <v>760</v>
       </c>
+      <c r="JE13" s="25">
+        <v>698</v>
+      </c>
     </row>
-    <row r="14" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -10452,11 +10482,14 @@
       <c r="JC14" s="28">
         <v>27</v>
       </c>
-      <c r="JD14" s="25">
+      <c r="JD14" s="28">
         <v>29</v>
       </c>
+      <c r="JE14" s="25">
+        <v>29</v>
+      </c>
     </row>
-    <row r="15" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -11246,11 +11279,14 @@
       <c r="JC15" s="28">
         <v>100</v>
       </c>
-      <c r="JD15" s="25">
+      <c r="JD15" s="28">
         <v>99</v>
       </c>
+      <c r="JE15" s="25">
+        <v>99</v>
+      </c>
     </row>
-    <row r="16" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -12040,11 +12076,14 @@
       <c r="JC16" s="28">
         <v>11040</v>
       </c>
-      <c r="JD16" s="25">
+      <c r="JD16" s="28">
         <v>11138</v>
       </c>
+      <c r="JE16" s="25">
+        <v>11099</v>
+      </c>
     </row>
-    <row r="17" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -12834,11 +12873,14 @@
       <c r="JC17" s="28">
         <v>619</v>
       </c>
-      <c r="JD17" s="25">
+      <c r="JD17" s="28">
         <v>617</v>
       </c>
+      <c r="JE17" s="25">
+        <v>581</v>
+      </c>
     </row>
-    <row r="18" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -13628,11 +13670,14 @@
       <c r="JC18" s="28">
         <v>11720</v>
       </c>
-      <c r="JD18" s="25">
+      <c r="JD18" s="28">
         <v>11825</v>
       </c>
+      <c r="JE18" s="25">
+        <v>11209</v>
+      </c>
     </row>
-    <row r="19" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -14422,11 +14467,14 @@
       <c r="JC19" s="28">
         <v>3609</v>
       </c>
-      <c r="JD19" s="25">
+      <c r="JD19" s="28">
         <v>3802</v>
       </c>
+      <c r="JE19" s="25">
+        <v>3755</v>
+      </c>
     </row>
-    <row r="20" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -15216,11 +15264,14 @@
       <c r="JC20" s="28">
         <v>360</v>
       </c>
-      <c r="JD20" s="25">
+      <c r="JD20" s="28">
         <v>353</v>
       </c>
+      <c r="JE20" s="25">
+        <v>359</v>
+      </c>
     </row>
-    <row r="21" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -16010,11 +16061,14 @@
       <c r="JC21" s="28">
         <v>690</v>
       </c>
-      <c r="JD21" s="25">
+      <c r="JD21" s="28">
         <v>706</v>
       </c>
+      <c r="JE21" s="25">
+        <v>691</v>
+      </c>
     </row>
-    <row r="22" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -16804,11 +16858,14 @@
       <c r="JC22" s="28">
         <v>332</v>
       </c>
-      <c r="JD22" s="25">
+      <c r="JD22" s="28">
         <v>345</v>
       </c>
+      <c r="JE22" s="25">
+        <v>325</v>
+      </c>
     </row>
-    <row r="23" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -17598,11 +17655,14 @@
       <c r="JC23" s="28">
         <v>100</v>
       </c>
-      <c r="JD23" s="25">
+      <c r="JD23" s="28">
         <v>100</v>
       </c>
+      <c r="JE23" s="25">
+        <v>98</v>
+      </c>
     </row>
-    <row r="24" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -18392,11 +18452,14 @@
       <c r="JC24" s="28">
         <v>2896</v>
       </c>
-      <c r="JD24" s="25">
+      <c r="JD24" s="28">
         <v>3005</v>
       </c>
+      <c r="JE24" s="25">
+        <v>3357</v>
+      </c>
     </row>
-    <row r="25" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -19186,11 +19249,14 @@
       <c r="JC25" s="28">
         <v>6020</v>
       </c>
-      <c r="JD25" s="25">
+      <c r="JD25" s="28">
         <v>5962</v>
       </c>
+      <c r="JE25" s="25">
+        <v>5950</v>
+      </c>
     </row>
-    <row r="26" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -19980,11 +20046,14 @@
       <c r="JC26" s="28">
         <v>3</v>
       </c>
-      <c r="JD26" s="25">
+      <c r="JD26" s="28">
         <v>3</v>
       </c>
+      <c r="JE26" s="25">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -20774,11 +20843,14 @@
       <c r="JC27" s="28">
         <v>165</v>
       </c>
-      <c r="JD27" s="25">
+      <c r="JD27" s="28">
         <v>177</v>
       </c>
+      <c r="JE27" s="25">
+        <v>184</v>
+      </c>
     </row>
-    <row r="28" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -21568,11 +21640,14 @@
       <c r="JC28" s="28">
         <v>2337</v>
       </c>
-      <c r="JD28" s="25">
+      <c r="JD28" s="28">
         <v>2329</v>
       </c>
+      <c r="JE28" s="25">
+        <v>2309</v>
+      </c>
     </row>
-    <row r="29" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -22362,11 +22437,14 @@
       <c r="JC29" s="28">
         <v>2437</v>
       </c>
-      <c r="JD29" s="25">
+      <c r="JD29" s="28">
         <v>2391</v>
       </c>
+      <c r="JE29" s="25">
+        <v>2825</v>
+      </c>
     </row>
-    <row r="30" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -23156,11 +23234,14 @@
       <c r="JC30" s="28">
         <v>627</v>
       </c>
-      <c r="JD30" s="25">
+      <c r="JD30" s="28">
         <v>634</v>
       </c>
+      <c r="JE30" s="25">
+        <v>622</v>
+      </c>
     </row>
-    <row r="31" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
@@ -23950,11 +24031,14 @@
       <c r="JC31" s="28">
         <v>114</v>
       </c>
-      <c r="JD31" s="25">
+      <c r="JD31" s="28">
         <v>113</v>
       </c>
+      <c r="JE31" s="25">
+        <v>120</v>
+      </c>
     </row>
-    <row r="32" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
@@ -24744,11 +24828,14 @@
       <c r="JC32" s="28">
         <v>47</v>
       </c>
-      <c r="JD32" s="25">
+      <c r="JD32" s="28">
         <v>55</v>
       </c>
+      <c r="JE32" s="25">
+        <v>55</v>
+      </c>
     </row>
-    <row r="33" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -25538,11 +25625,14 @@
       <c r="JC33" s="28">
         <v>59</v>
       </c>
-      <c r="JD33" s="25">
+      <c r="JD33" s="28">
         <v>57</v>
       </c>
+      <c r="JE33" s="25">
+        <v>56</v>
+      </c>
     </row>
-    <row r="34" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -26332,11 +26422,14 @@
       <c r="JC34" s="28">
         <v>232</v>
       </c>
-      <c r="JD34" s="25">
+      <c r="JD34" s="28">
         <v>225</v>
       </c>
+      <c r="JE34" s="25">
+        <v>227</v>
+      </c>
     </row>
-    <row r="35" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -27126,11 +27219,14 @@
       <c r="JC35" s="28">
         <v>991</v>
       </c>
-      <c r="JD35" s="25">
+      <c r="JD35" s="28">
         <v>993</v>
       </c>
+      <c r="JE35" s="25">
+        <v>977</v>
+      </c>
     </row>
-    <row r="36" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -27920,11 +28016,14 @@
       <c r="JC36" s="28">
         <v>8</v>
       </c>
-      <c r="JD36" s="25">
+      <c r="JD36" s="28">
         <v>8</v>
       </c>
+      <c r="JE36" s="25">
+        <v>8</v>
+      </c>
     </row>
-    <row r="37" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -28714,11 +28813,14 @@
       <c r="JC37" s="28">
         <v>3390</v>
       </c>
-      <c r="JD37" s="25">
+      <c r="JD37" s="28">
         <v>3416</v>
       </c>
+      <c r="JE37" s="25">
+        <v>3388</v>
+      </c>
     </row>
-    <row r="38" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -29508,11 +29610,14 @@
       <c r="JC38" s="28">
         <v>2538</v>
       </c>
-      <c r="JD38" s="25">
+      <c r="JD38" s="28">
         <v>2532</v>
       </c>
+      <c r="JE38" s="25">
+        <v>2508</v>
+      </c>
     </row>
-    <row r="39" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
@@ -30302,11 +30407,14 @@
       <c r="JC39" s="28">
         <v>156</v>
       </c>
-      <c r="JD39" s="25">
+      <c r="JD39" s="28">
         <v>156</v>
       </c>
+      <c r="JE39" s="25">
+        <v>159</v>
+      </c>
     </row>
-    <row r="40" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
@@ -31096,11 +31204,14 @@
       <c r="JC40" s="28">
         <v>61509</v>
       </c>
-      <c r="JD40" s="25">
+      <c r="JD40" s="28">
         <v>62096</v>
       </c>
+      <c r="JE40" s="25">
+        <v>61280</v>
+      </c>
     </row>
-    <row r="41" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -31890,11 +32001,14 @@
       <c r="JC41" s="28">
         <v>3450</v>
       </c>
-      <c r="JD41" s="25">
+      <c r="JD41" s="28">
         <v>3460</v>
       </c>
+      <c r="JE41" s="25">
+        <v>3444</v>
+      </c>
     </row>
-    <row r="42" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -32684,11 +32798,14 @@
       <c r="JC42" s="28">
         <v>716</v>
       </c>
-      <c r="JD42" s="25">
+      <c r="JD42" s="28">
         <v>708</v>
       </c>
+      <c r="JE42" s="25">
+        <v>706</v>
+      </c>
     </row>
-    <row r="43" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -33478,11 +33595,14 @@
       <c r="JC43" s="28">
         <v>2544</v>
       </c>
-      <c r="JD43" s="25">
+      <c r="JD43" s="28">
         <v>2730</v>
       </c>
+      <c r="JE43" s="25">
+        <v>2566</v>
+      </c>
     </row>
-    <row r="44" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -34272,11 +34392,14 @@
       <c r="JC44" s="28">
         <v>159</v>
       </c>
-      <c r="JD44" s="25">
+      <c r="JD44" s="28">
         <v>159</v>
       </c>
+      <c r="JE44" s="25">
+        <v>155</v>
+      </c>
     </row>
-    <row r="45" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -35066,11 +35189,14 @@
       <c r="JC45" s="28">
         <v>668952</v>
       </c>
-      <c r="JD45" s="25">
+      <c r="JD45" s="28">
         <v>670853</v>
       </c>
+      <c r="JE45" s="25">
+        <v>663693</v>
+      </c>
     </row>
-    <row r="46" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
@@ -35860,11 +35986,14 @@
       <c r="JC46" s="28">
         <v>205</v>
       </c>
-      <c r="JD46" s="25">
+      <c r="JD46" s="28">
         <v>202</v>
       </c>
+      <c r="JE46" s="25">
+        <v>204</v>
+      </c>
     </row>
-    <row r="47" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
@@ -36654,11 +36783,14 @@
       <c r="JC47" s="28">
         <v>109</v>
       </c>
-      <c r="JD47" s="25">
+      <c r="JD47" s="28">
         <v>101</v>
       </c>
+      <c r="JE47" s="25">
+        <v>102</v>
+      </c>
     </row>
-    <row r="48" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -37448,11 +37580,14 @@
       <c r="JC48" s="28">
         <v>1004</v>
       </c>
-      <c r="JD48" s="25">
+      <c r="JD48" s="28">
         <v>965</v>
       </c>
+      <c r="JE48" s="25">
+        <v>990</v>
+      </c>
     </row>
-    <row r="49" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -38242,11 +38377,14 @@
       <c r="JC49" s="28">
         <v>4653</v>
       </c>
-      <c r="JD49" s="25">
+      <c r="JD49" s="28">
         <v>4697</v>
       </c>
+      <c r="JE49" s="25">
+        <v>4488</v>
+      </c>
     </row>
-    <row r="50" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -39036,11 +39174,14 @@
       <c r="JC50" s="28">
         <v>594</v>
       </c>
-      <c r="JD50" s="25">
+      <c r="JD50" s="28">
         <v>592</v>
       </c>
+      <c r="JE50" s="25">
+        <v>597</v>
+      </c>
     </row>
-    <row r="51" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -39830,11 +39971,14 @@
       <c r="JC51" s="28">
         <v>2759</v>
       </c>
-      <c r="JD51" s="25">
+      <c r="JD51" s="28">
         <v>2741</v>
       </c>
+      <c r="JE51" s="25">
+        <v>2714</v>
+      </c>
     </row>
-    <row r="52" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -40624,11 +40768,14 @@
       <c r="JC52" s="28">
         <v>1386</v>
       </c>
-      <c r="JD52" s="25">
+      <c r="JD52" s="28">
         <v>1399</v>
       </c>
+      <c r="JE52" s="25">
+        <v>1393</v>
+      </c>
     </row>
-    <row r="53" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -41418,11 +41565,14 @@
       <c r="JC53" s="28">
         <v>1971</v>
       </c>
-      <c r="JD53" s="25">
+      <c r="JD53" s="28">
         <v>2026</v>
       </c>
+      <c r="JE53" s="25">
+        <v>2057</v>
+      </c>
     </row>
-    <row r="54" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>48</v>
       </c>
@@ -42212,11 +42362,14 @@
       <c r="JC54" s="28">
         <v>64</v>
       </c>
-      <c r="JD54" s="25">
+      <c r="JD54" s="28">
         <v>59</v>
       </c>
+      <c r="JE54" s="25">
+        <v>59</v>
+      </c>
     </row>
-    <row r="55" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
@@ -43006,11 +43159,14 @@
       <c r="JC55" s="28">
         <v>7774</v>
       </c>
-      <c r="JD55" s="25">
+      <c r="JD55" s="28">
         <v>8319</v>
       </c>
+      <c r="JE55" s="25">
+        <v>8037</v>
+      </c>
     </row>
-    <row r="56" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -43800,11 +43956,14 @@
       <c r="JC56" s="28">
         <v>1343</v>
       </c>
-      <c r="JD56" s="25">
+      <c r="JD56" s="28">
         <v>1327</v>
       </c>
+      <c r="JE56" s="25">
+        <v>1318</v>
+      </c>
     </row>
-    <row r="57" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>51</v>
       </c>
@@ -44594,11 +44753,14 @@
       <c r="JC57" s="28">
         <v>92</v>
       </c>
-      <c r="JD57" s="25">
+      <c r="JD57" s="28">
         <v>97</v>
       </c>
+      <c r="JE57" s="25">
+        <v>95</v>
+      </c>
     </row>
-    <row r="58" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -45388,11 +45550,14 @@
       <c r="JC58" s="28">
         <v>5147</v>
       </c>
-      <c r="JD58" s="25">
+      <c r="JD58" s="28">
         <v>5085</v>
       </c>
+      <c r="JE58" s="25">
+        <v>5069</v>
+      </c>
     </row>
-    <row r="59" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>53</v>
       </c>
@@ -46182,11 +46347,14 @@
       <c r="JC59" s="28">
         <v>2424</v>
       </c>
-      <c r="JD59" s="25">
+      <c r="JD59" s="28">
         <v>2443</v>
       </c>
+      <c r="JE59" s="25">
+        <v>2293</v>
+      </c>
     </row>
-    <row r="60" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
@@ -46976,11 +47144,14 @@
       <c r="JC60" s="28">
         <v>126</v>
       </c>
-      <c r="JD60" s="25">
+      <c r="JD60" s="28">
         <v>127</v>
       </c>
+      <c r="JE60" s="25">
+        <v>142</v>
+      </c>
     </row>
-    <row r="61" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>55</v>
       </c>
@@ -47770,11 +47941,14 @@
       <c r="JC61" s="28">
         <v>35098</v>
       </c>
-      <c r="JD61" s="25">
+      <c r="JD61" s="28">
         <v>34917</v>
       </c>
+      <c r="JE61" s="25">
+        <v>34246</v>
+      </c>
     </row>
-    <row r="62" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -48564,11 +48738,14 @@
       <c r="JC62" s="28">
         <v>1129</v>
       </c>
-      <c r="JD62" s="25">
+      <c r="JD62" s="28">
         <v>1135</v>
       </c>
+      <c r="JE62" s="25">
+        <v>1123</v>
+      </c>
     </row>
-    <row r="63" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
@@ -49358,11 +49535,14 @@
       <c r="JC63" s="28">
         <v>619</v>
       </c>
-      <c r="JD63" s="25">
+      <c r="JD63" s="28">
         <v>629</v>
       </c>
+      <c r="JE63" s="25">
+        <v>615</v>
+      </c>
     </row>
-    <row r="64" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
@@ -50152,11 +50332,14 @@
       <c r="JC64" s="28">
         <v>1098</v>
       </c>
-      <c r="JD64" s="25">
+      <c r="JD64" s="28">
         <v>1101</v>
       </c>
+      <c r="JE64" s="25">
+        <v>1093</v>
+      </c>
     </row>
-    <row r="65" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>59</v>
       </c>
@@ -50946,11 +51129,14 @@
       <c r="JC65" s="28">
         <v>13</v>
       </c>
-      <c r="JD65" s="25">
+      <c r="JD65" s="28">
         <v>13</v>
       </c>
+      <c r="JE65" s="25">
+        <v>13</v>
+      </c>
     </row>
-    <row r="66" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>60</v>
       </c>
@@ -51740,11 +51926,14 @@
       <c r="JC66" s="28">
         <v>154</v>
       </c>
-      <c r="JD66" s="25">
+      <c r="JD66" s="28">
         <v>152</v>
       </c>
+      <c r="JE66" s="25">
+        <v>178</v>
+      </c>
     </row>
-    <row r="67" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>61</v>
       </c>
@@ -52534,11 +52723,14 @@
       <c r="JC67" s="28">
         <v>24</v>
       </c>
-      <c r="JD67" s="25">
+      <c r="JD67" s="28">
         <v>36</v>
       </c>
+      <c r="JE67" s="25">
+        <v>34</v>
+      </c>
     </row>
-    <row r="68" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>62</v>
       </c>
@@ -53328,11 +53520,14 @@
       <c r="JC68" s="28">
         <v>21530</v>
       </c>
-      <c r="JD68" s="25">
+      <c r="JD68" s="28">
         <v>21807</v>
       </c>
+      <c r="JE68" s="25">
+        <v>21721</v>
+      </c>
     </row>
-    <row r="69" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>63</v>
       </c>
@@ -54122,11 +54317,14 @@
       <c r="JC69" s="28">
         <v>550</v>
       </c>
-      <c r="JD69" s="25">
+      <c r="JD69" s="28">
         <v>556</v>
       </c>
+      <c r="JE69" s="25">
+        <v>627</v>
+      </c>
     </row>
-    <row r="70" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>64</v>
       </c>
@@ -54916,11 +55114,14 @@
       <c r="JC70" s="28">
         <v>545</v>
       </c>
-      <c r="JD70" s="25">
+      <c r="JD70" s="28">
         <v>569</v>
       </c>
+      <c r="JE70" s="25">
+        <v>571</v>
+      </c>
     </row>
-    <row r="71" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>65</v>
       </c>
@@ -55710,11 +55911,14 @@
       <c r="JC71" s="28">
         <v>4718</v>
       </c>
-      <c r="JD71" s="25">
+      <c r="JD71" s="28">
         <v>4726</v>
       </c>
+      <c r="JE71" s="25">
+        <v>5019</v>
+      </c>
     </row>
-    <row r="72" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>66</v>
       </c>
@@ -56504,11 +56708,14 @@
       <c r="JC72" s="28">
         <v>70791</v>
       </c>
-      <c r="JD72" s="25">
+      <c r="JD72" s="28">
         <v>71695</v>
       </c>
+      <c r="JE72" s="25">
+        <v>70575</v>
+      </c>
     </row>
-    <row r="73" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
@@ -57298,11 +57505,14 @@
       <c r="JC73" s="28">
         <v>12</v>
       </c>
-      <c r="JD73" s="25">
+      <c r="JD73" s="28">
         <v>12</v>
       </c>
+      <c r="JE73" s="25">
+        <v>19</v>
+      </c>
     </row>
-    <row r="74" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>68</v>
       </c>
@@ -58092,11 +58302,14 @@
       <c r="JC74" s="28">
         <v>49</v>
       </c>
-      <c r="JD74" s="25">
+      <c r="JD74" s="28">
         <v>48</v>
       </c>
+      <c r="JE74" s="25">
+        <v>41</v>
+      </c>
     </row>
-    <row r="75" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>69</v>
       </c>
@@ -58886,11 +59099,14 @@
       <c r="JC75" s="28">
         <v>73</v>
       </c>
-      <c r="JD75" s="25">
+      <c r="JD75" s="28">
         <v>71</v>
       </c>
+      <c r="JE75" s="25">
+        <v>70</v>
+      </c>
     </row>
-    <row r="76" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>70</v>
       </c>
@@ -59680,11 +59896,14 @@
       <c r="JC76" s="28">
         <v>4685</v>
       </c>
-      <c r="JD76" s="25">
+      <c r="JD76" s="28">
         <v>4686</v>
       </c>
+      <c r="JE76" s="25">
+        <v>3758</v>
+      </c>
     </row>
-    <row r="77" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
@@ -60474,11 +60693,14 @@
       <c r="JC77" s="28">
         <v>922</v>
       </c>
-      <c r="JD77" s="25">
+      <c r="JD77" s="28">
         <v>934</v>
       </c>
+      <c r="JE77" s="25">
+        <v>898</v>
+      </c>
     </row>
-    <row r="78" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
@@ -61268,11 +61490,14 @@
       <c r="JC78" s="28">
         <v>15813</v>
       </c>
-      <c r="JD78" s="25">
+      <c r="JD78" s="28">
         <v>15846</v>
       </c>
+      <c r="JE78" s="25">
+        <v>15804</v>
+      </c>
     </row>
-    <row r="79" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
@@ -62062,11 +62287,14 @@
       <c r="JC79" s="28">
         <v>202</v>
       </c>
-      <c r="JD79" s="25">
+      <c r="JD79" s="28">
         <v>214</v>
       </c>
+      <c r="JE79" s="25">
+        <v>214</v>
+      </c>
     </row>
-    <row r="80" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>74</v>
       </c>
@@ -62856,11 +63084,14 @@
       <c r="JC80" s="28">
         <v>953</v>
       </c>
-      <c r="JD80" s="25">
+      <c r="JD80" s="28">
         <v>919</v>
       </c>
+      <c r="JE80" s="25">
+        <v>868</v>
+      </c>
     </row>
-    <row r="81" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
@@ -63650,11 +63881,14 @@
       <c r="JC81" s="28">
         <v>29</v>
       </c>
-      <c r="JD81" s="25">
+      <c r="JD81" s="28">
         <v>29</v>
       </c>
+      <c r="JE81" s="25">
+        <v>29</v>
+      </c>
     </row>
-    <row r="82" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>76</v>
       </c>
@@ -64444,11 +64678,14 @@
       <c r="JC82" s="28">
         <v>102</v>
       </c>
-      <c r="JD82" s="25">
+      <c r="JD82" s="28">
         <v>105</v>
       </c>
+      <c r="JE82" s="25">
+        <v>98</v>
+      </c>
     </row>
-    <row r="83" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>77</v>
       </c>
@@ -65238,11 +65475,14 @@
       <c r="JC83" s="28">
         <v>1155</v>
       </c>
-      <c r="JD83" s="25">
+      <c r="JD83" s="28">
         <v>1171</v>
       </c>
+      <c r="JE83" s="25">
+        <v>1160</v>
+      </c>
     </row>
-    <row r="84" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
@@ -66032,11 +66272,14 @@
       <c r="JC84" s="28">
         <v>4028</v>
       </c>
-      <c r="JD84" s="25">
+      <c r="JD84" s="28">
         <v>4037</v>
       </c>
+      <c r="JE84" s="25">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="85" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
@@ -66826,11 +67069,14 @@
       <c r="JC85" s="28">
         <v>151</v>
       </c>
-      <c r="JD85" s="25">
+      <c r="JD85" s="28">
         <v>171</v>
       </c>
+      <c r="JE85" s="25">
+        <v>169</v>
+      </c>
     </row>
-    <row r="86" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>80</v>
       </c>
@@ -67620,11 +67866,14 @@
       <c r="JC86" s="28">
         <v>1</v>
       </c>
-      <c r="JD86" s="25">
+      <c r="JD86" s="28">
         <v>1</v>
       </c>
+      <c r="JE86" s="25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>81</v>
       </c>
@@ -68414,11 +68663,14 @@
       <c r="JC87" s="28">
         <v>0</v>
       </c>
-      <c r="JD87" s="25">
+      <c r="JD87" s="28">
         <v>0</v>
       </c>
+      <c r="JE87" s="25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
@@ -69208,11 +69460,14 @@
       <c r="JC88" s="28">
         <v>5303</v>
       </c>
-      <c r="JD88" s="25">
+      <c r="JD88" s="28">
         <v>5382</v>
       </c>
+      <c r="JE88" s="25">
+        <v>5104</v>
+      </c>
     </row>
-    <row r="89" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>83</v>
       </c>
@@ -70002,11 +70257,14 @@
       <c r="JC89" s="28">
         <v>13893</v>
       </c>
-      <c r="JD89" s="25">
+      <c r="JD89" s="28">
         <v>14085</v>
       </c>
+      <c r="JE89" s="25">
+        <v>15078</v>
+      </c>
     </row>
-    <row r="90" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
@@ -70796,11 +71054,14 @@
       <c r="JC90" s="28">
         <v>408</v>
       </c>
-      <c r="JD90" s="25">
+      <c r="JD90" s="28">
         <v>413</v>
       </c>
+      <c r="JE90" s="25">
+        <v>411</v>
+      </c>
     </row>
-    <row r="91" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
@@ -71590,11 +71851,14 @@
       <c r="JC91" s="28">
         <v>7164</v>
       </c>
-      <c r="JD91" s="25">
+      <c r="JD91" s="28">
         <v>7488</v>
       </c>
+      <c r="JE91" s="25">
+        <v>7662</v>
+      </c>
     </row>
-    <row r="92" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>86</v>
       </c>
@@ -72384,11 +72648,14 @@
       <c r="JC92" s="28">
         <v>2750</v>
       </c>
-      <c r="JD92" s="25">
+      <c r="JD92" s="28">
         <v>2798</v>
       </c>
+      <c r="JE92" s="25">
+        <v>2846</v>
+      </c>
     </row>
-    <row r="93" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -73178,11 +73445,14 @@
       <c r="JC93" s="28">
         <v>677</v>
       </c>
-      <c r="JD93" s="25">
+      <c r="JD93" s="28">
         <v>681</v>
       </c>
+      <c r="JE93" s="25">
+        <v>681</v>
+      </c>
     </row>
-    <row r="94" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
@@ -73972,11 +74242,14 @@
       <c r="JC94" s="28">
         <v>339</v>
       </c>
-      <c r="JD94" s="25">
+      <c r="JD94" s="28">
         <v>356</v>
       </c>
+      <c r="JE94" s="25">
+        <v>318</v>
+      </c>
     </row>
-    <row r="95" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
@@ -74766,11 +75039,14 @@
       <c r="JC95" s="28">
         <v>1061</v>
       </c>
-      <c r="JD95" s="25">
+      <c r="JD95" s="28">
         <v>1108</v>
       </c>
+      <c r="JE95" s="25">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="96" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>90</v>
       </c>
@@ -75560,11 +75836,14 @@
       <c r="JC96" s="28">
         <v>114</v>
       </c>
-      <c r="JD96" s="25">
+      <c r="JD96" s="28">
         <v>115</v>
       </c>
+      <c r="JE96" s="25">
+        <v>118</v>
+      </c>
     </row>
-    <row r="97" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>91</v>
       </c>
@@ -76354,11 +76633,14 @@
       <c r="JC97" s="28">
         <v>1450</v>
       </c>
-      <c r="JD97" s="25">
+      <c r="JD97" s="28">
         <v>1494</v>
       </c>
+      <c r="JE97" s="25">
+        <v>1458</v>
+      </c>
     </row>
-    <row r="98" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>92</v>
       </c>
@@ -77148,11 +77430,14 @@
       <c r="JC98" s="28">
         <v>590</v>
       </c>
-      <c r="JD98" s="25">
+      <c r="JD98" s="28">
         <v>599</v>
       </c>
+      <c r="JE98" s="25">
+        <v>466</v>
+      </c>
     </row>
-    <row r="99" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
@@ -77942,11 +78227,14 @@
       <c r="JC99" s="28">
         <v>37794</v>
       </c>
-      <c r="JD99" s="25">
+      <c r="JD99" s="28">
         <v>38100</v>
       </c>
+      <c r="JE99" s="25">
+        <v>37859</v>
+      </c>
     </row>
-    <row r="100" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>94</v>
       </c>
@@ -78736,11 +79024,14 @@
       <c r="JC100" s="28">
         <v>7785</v>
       </c>
-      <c r="JD100" s="25">
+      <c r="JD100" s="28">
         <v>7789</v>
       </c>
+      <c r="JE100" s="25">
+        <v>7577</v>
+      </c>
     </row>
-    <row r="101" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>95</v>
       </c>
@@ -79530,11 +79821,14 @@
       <c r="JC101" s="28">
         <v>586</v>
       </c>
-      <c r="JD101" s="25">
+      <c r="JD101" s="28">
         <v>554</v>
       </c>
+      <c r="JE101" s="25">
+        <v>563</v>
+      </c>
     </row>
-    <row r="102" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>96</v>
       </c>
@@ -80324,11 +80618,14 @@
       <c r="JC102" s="28">
         <v>455</v>
       </c>
-      <c r="JD102" s="25">
+      <c r="JD102" s="28">
         <v>459</v>
       </c>
+      <c r="JE102" s="25">
+        <v>520</v>
+      </c>
     </row>
-    <row r="103" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>97</v>
       </c>
@@ -81118,11 +81415,14 @@
       <c r="JC103" s="28">
         <v>104669</v>
       </c>
-      <c r="JD103" s="25">
+      <c r="JD103" s="28">
         <v>105996</v>
       </c>
+      <c r="JE103" s="25">
+        <v>104209</v>
+      </c>
     </row>
-    <row r="104" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>98</v>
       </c>
@@ -81912,11 +82212,14 @@
       <c r="JC104" s="28">
         <v>127941</v>
       </c>
-      <c r="JD104" s="25">
+      <c r="JD104" s="28">
         <v>128731</v>
       </c>
+      <c r="JE104" s="25">
+        <v>126049</v>
+      </c>
     </row>
-    <row r="105" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>99</v>
       </c>
@@ -82706,11 +83009,14 @@
       <c r="JC105" s="28">
         <v>997</v>
       </c>
-      <c r="JD105" s="25">
+      <c r="JD105" s="28">
         <v>994</v>
       </c>
+      <c r="JE105" s="25">
+        <v>977</v>
+      </c>
     </row>
-    <row r="106" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>100</v>
       </c>
@@ -83500,11 +83806,14 @@
       <c r="JC106" s="28">
         <v>1057</v>
       </c>
-      <c r="JD106" s="25">
+      <c r="JD106" s="28">
         <v>1104</v>
       </c>
+      <c r="JE106" s="25">
+        <v>1098</v>
+      </c>
     </row>
-    <row r="107" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>101</v>
       </c>
@@ -84294,11 +84603,14 @@
       <c r="JC107" s="28">
         <v>30771</v>
       </c>
-      <c r="JD107" s="25">
+      <c r="JD107" s="28">
         <v>31120</v>
       </c>
+      <c r="JE107" s="25">
+        <v>30958</v>
+      </c>
     </row>
-    <row r="108" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>102</v>
       </c>
@@ -85088,11 +85400,14 @@
       <c r="JC108" s="28">
         <v>930</v>
       </c>
-      <c r="JD108" s="25">
+      <c r="JD108" s="28">
         <v>932</v>
       </c>
+      <c r="JE108" s="25">
+        <v>926</v>
+      </c>
     </row>
-    <row r="109" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>103</v>
       </c>
@@ -85882,11 +86197,14 @@
       <c r="JC109" s="28">
         <v>399</v>
       </c>
-      <c r="JD109" s="25">
+      <c r="JD109" s="28">
         <v>409</v>
       </c>
+      <c r="JE109" s="25">
+        <v>398</v>
+      </c>
     </row>
-    <row r="110" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>104</v>
       </c>
@@ -86676,11 +86994,14 @@
       <c r="JC110" s="28">
         <v>51</v>
       </c>
-      <c r="JD110" s="25">
+      <c r="JD110" s="28">
         <v>49</v>
       </c>
+      <c r="JE110" s="25">
+        <v>50</v>
+      </c>
     </row>
-    <row r="111" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -87470,11 +87791,14 @@
       <c r="JC111" s="28">
         <v>1948</v>
       </c>
-      <c r="JD111" s="25">
+      <c r="JD111" s="28">
         <v>2015</v>
       </c>
+      <c r="JE111" s="25">
+        <v>1952</v>
+      </c>
     </row>
-    <row r="112" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>106</v>
       </c>
@@ -88264,11 +88588,14 @@
       <c r="JC112" s="28">
         <v>3663</v>
       </c>
-      <c r="JD112" s="25">
+      <c r="JD112" s="28">
         <v>3495</v>
       </c>
+      <c r="JE112" s="25">
+        <v>2955</v>
+      </c>
     </row>
-    <row r="113" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -89058,11 +89385,14 @@
       <c r="JC113" s="28">
         <v>387</v>
       </c>
-      <c r="JD113" s="25">
+      <c r="JD113" s="28">
         <v>353</v>
       </c>
+      <c r="JE113" s="25">
+        <v>376</v>
+      </c>
     </row>
-    <row r="114" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>108</v>
       </c>
@@ -89852,11 +90182,14 @@
       <c r="JC114" s="28">
         <v>2868</v>
       </c>
-      <c r="JD114" s="25">
+      <c r="JD114" s="28">
         <v>2961</v>
       </c>
+      <c r="JE114" s="25">
+        <v>2954</v>
+      </c>
     </row>
-    <row r="115" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>109</v>
       </c>
@@ -90646,11 +90979,14 @@
       <c r="JC115" s="28">
         <v>1524</v>
       </c>
-      <c r="JD115" s="25">
+      <c r="JD115" s="28">
         <v>1517</v>
       </c>
+      <c r="JE115" s="25">
+        <v>1486</v>
+      </c>
     </row>
-    <row r="116" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>110</v>
       </c>
@@ -91440,11 +91776,14 @@
       <c r="JC116" s="28">
         <v>587</v>
       </c>
-      <c r="JD116" s="25">
+      <c r="JD116" s="28">
         <v>548</v>
       </c>
+      <c r="JE116" s="25">
+        <v>548</v>
+      </c>
     </row>
-    <row r="117" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>111</v>
       </c>
@@ -92234,11 +92573,14 @@
       <c r="JC117" s="28">
         <v>2147</v>
       </c>
-      <c r="JD117" s="25">
+      <c r="JD117" s="28">
         <v>2152</v>
       </c>
+      <c r="JE117" s="25">
+        <v>2137</v>
+      </c>
     </row>
-    <row r="118" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>112</v>
       </c>
@@ -93028,11 +93370,14 @@
       <c r="JC118" s="28">
         <v>502</v>
       </c>
-      <c r="JD118" s="25">
+      <c r="JD118" s="28">
         <v>496</v>
       </c>
+      <c r="JE118" s="25">
+        <v>511</v>
+      </c>
     </row>
-    <row r="119" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>113</v>
       </c>
@@ -93822,11 +94167,14 @@
       <c r="JC119" s="28">
         <v>1044</v>
       </c>
-      <c r="JD119" s="25">
+      <c r="JD119" s="28">
         <v>1010</v>
       </c>
+      <c r="JE119" s="25">
+        <v>992</v>
+      </c>
     </row>
-    <row r="120" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>114</v>
       </c>
@@ -94616,11 +94964,14 @@
       <c r="JC120" s="28">
         <v>42</v>
       </c>
-      <c r="JD120" s="25">
+      <c r="JD120" s="28">
         <v>43</v>
       </c>
+      <c r="JE120" s="25">
+        <v>44</v>
+      </c>
     </row>
-    <row r="121" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>115</v>
       </c>
@@ -95410,11 +95761,14 @@
       <c r="JC121" s="28">
         <v>663</v>
       </c>
-      <c r="JD121" s="25">
+      <c r="JD121" s="28">
         <v>666</v>
       </c>
+      <c r="JE121" s="25">
+        <v>667</v>
+      </c>
     </row>
-    <row r="122" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>116</v>
       </c>
@@ -96204,11 +96558,14 @@
       <c r="JC122" s="28">
         <v>130</v>
       </c>
-      <c r="JD122" s="25">
+      <c r="JD122" s="28">
         <v>129</v>
       </c>
+      <c r="JE122" s="25">
+        <v>126</v>
+      </c>
     </row>
-    <row r="123" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>117</v>
       </c>
@@ -96998,11 +97355,14 @@
       <c r="JC123" s="28">
         <v>524</v>
       </c>
-      <c r="JD123" s="25">
+      <c r="JD123" s="28">
         <v>521</v>
       </c>
+      <c r="JE123" s="25">
+        <v>520</v>
+      </c>
     </row>
-    <row r="124" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>118</v>
       </c>
@@ -97792,11 +98152,14 @@
       <c r="JC124" s="28">
         <v>2552</v>
       </c>
-      <c r="JD124" s="25">
+      <c r="JD124" s="28">
         <v>2512</v>
       </c>
+      <c r="JE124" s="25">
+        <v>2484</v>
+      </c>
     </row>
-    <row r="125" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>119</v>
       </c>
@@ -98586,11 +98949,14 @@
       <c r="JC125" s="28">
         <v>421992</v>
       </c>
-      <c r="JD125" s="25">
+      <c r="JD125" s="28">
         <v>428096</v>
       </c>
+      <c r="JE125" s="25">
+        <v>422451</v>
+      </c>
     </row>
-    <row r="126" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>120</v>
       </c>
@@ -99380,11 +99746,14 @@
       <c r="JC126" s="28">
         <v>6225</v>
       </c>
-      <c r="JD126" s="25">
+      <c r="JD126" s="28">
         <v>6518</v>
       </c>
+      <c r="JE126" s="25">
+        <v>5985</v>
+      </c>
     </row>
-    <row r="127" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>121</v>
       </c>
@@ -100174,11 +100543,14 @@
       <c r="JC127" s="28">
         <v>51</v>
       </c>
-      <c r="JD127" s="25">
+      <c r="JD127" s="28">
         <v>50</v>
       </c>
+      <c r="JE127" s="25">
+        <v>51</v>
+      </c>
     </row>
-    <row r="128" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>122</v>
       </c>
@@ -100968,11 +101340,14 @@
       <c r="JC128" s="28">
         <v>2363</v>
       </c>
-      <c r="JD128" s="25">
+      <c r="JD128" s="28">
         <v>2329</v>
       </c>
+      <c r="JE128" s="25">
+        <v>2333</v>
+      </c>
     </row>
-    <row r="129" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>123</v>
       </c>
@@ -101762,11 +102137,14 @@
       <c r="JC129" s="28">
         <v>36913</v>
       </c>
-      <c r="JD129" s="25">
+      <c r="JD129" s="28">
         <v>37022</v>
       </c>
+      <c r="JE129" s="25">
+        <v>35796</v>
+      </c>
     </row>
-    <row r="130" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>124</v>
       </c>
@@ -102556,11 +102934,14 @@
       <c r="JC130" s="28">
         <v>6998</v>
       </c>
-      <c r="JD130" s="25">
+      <c r="JD130" s="28">
         <v>6564</v>
       </c>
+      <c r="JE130" s="25">
+        <v>6518</v>
+      </c>
     </row>
-    <row r="131" spans="1:264" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:265" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="20" t="s">
         <v>127</v>
       </c>
@@ -103350,11 +103731,14 @@
       <c r="JC131" s="34">
         <v>1858235</v>
       </c>
-      <c r="JD131" s="26">
+      <c r="JD131" s="34">
         <v>1873476</v>
       </c>
+      <c r="JE131" s="26">
+        <v>1849999</v>
+      </c>
     </row>
-    <row r="132" spans="1:264" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:265" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
@@ -103602,7 +103986,7 @@
       <c r="IL132" s="18"/>
       <c r="IM132" s="18"/>
     </row>
-    <row r="133" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>126</v>
       </c>

--- a/Historicos/ta_municipios_jalisco.xlsx
+++ b/Historicos/ta_municipios_jalisco.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="142">
   <si>
     <t>Acatic</t>
   </si>
@@ -467,7 +467,7 @@
     <t>Diciembre</t>
   </si>
   <si>
-    <t>2000-2021</t>
+    <t>2000-2022</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1161,7 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1243,6 +1243,14 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1592,11 +1600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JE145"/>
+  <dimension ref="A1:JF145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A16" sqref="A16"/>
+      <selection pane="topRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,17 +1722,17 @@
     <col min="265" max="265" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>125</v>
       </c>
@@ -2520,8 +2528,11 @@
       <c r="JE4" s="31">
         <v>2021</v>
       </c>
+      <c r="JF4" s="37">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="4" t="s">
         <v>129</v>
@@ -3315,8 +3326,11 @@
       <c r="JE5" s="33" t="s">
         <v>140</v>
       </c>
+      <c r="JF5" s="38" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="6" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -4112,8 +4126,11 @@
       <c r="JE6" s="25">
         <v>5022</v>
       </c>
+      <c r="JF6" s="39">
+        <v>4970</v>
+      </c>
     </row>
-    <row r="7" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -4909,8 +4926,11 @@
       <c r="JE7" s="25">
         <v>7288</v>
       </c>
+      <c r="JF7" s="39">
+        <v>7670</v>
+      </c>
     </row>
-    <row r="8" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -5706,8 +5726,11 @@
       <c r="JE8" s="25">
         <v>1463</v>
       </c>
+      <c r="JF8" s="39">
+        <v>1471</v>
+      </c>
     </row>
-    <row r="9" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -6503,8 +6526,11 @@
       <c r="JE9" s="25">
         <v>92</v>
       </c>
+      <c r="JF9" s="39">
+        <v>89</v>
+      </c>
     </row>
-    <row r="10" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -7300,8 +7326,11 @@
       <c r="JE10" s="25">
         <v>2890</v>
       </c>
+      <c r="JF10" s="39">
+        <v>3469</v>
+      </c>
     </row>
-    <row r="11" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -8097,8 +8126,11 @@
       <c r="JE11" s="25">
         <v>7390</v>
       </c>
+      <c r="JF11" s="39">
+        <v>7507</v>
+      </c>
     </row>
-    <row r="12" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -8894,8 +8926,11 @@
       <c r="JE12" s="25">
         <v>12505</v>
       </c>
+      <c r="JF12" s="39">
+        <v>12644</v>
+      </c>
     </row>
-    <row r="13" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -9691,8 +9726,11 @@
       <c r="JE13" s="25">
         <v>698</v>
       </c>
+      <c r="JF13" s="39">
+        <v>783</v>
+      </c>
     </row>
-    <row r="14" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -10488,8 +10526,11 @@
       <c r="JE14" s="25">
         <v>29</v>
       </c>
+      <c r="JF14" s="39">
+        <v>21</v>
+      </c>
     </row>
-    <row r="15" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -11285,8 +11326,11 @@
       <c r="JE15" s="25">
         <v>99</v>
       </c>
+      <c r="JF15" s="39">
+        <v>99</v>
+      </c>
     </row>
-    <row r="16" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -12082,8 +12126,11 @@
       <c r="JE16" s="25">
         <v>11099</v>
       </c>
+      <c r="JF16" s="39">
+        <v>11318</v>
+      </c>
     </row>
-    <row r="17" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -12879,8 +12926,11 @@
       <c r="JE17" s="25">
         <v>581</v>
       </c>
+      <c r="JF17" s="39">
+        <v>587</v>
+      </c>
     </row>
-    <row r="18" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -13676,8 +13726,11 @@
       <c r="JE18" s="25">
         <v>11209</v>
       </c>
+      <c r="JF18" s="39">
+        <v>11310</v>
+      </c>
     </row>
-    <row r="19" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -14473,8 +14526,11 @@
       <c r="JE19" s="25">
         <v>3755</v>
       </c>
+      <c r="JF19" s="39">
+        <v>3658</v>
+      </c>
     </row>
-    <row r="20" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -15270,8 +15326,11 @@
       <c r="JE20" s="25">
         <v>359</v>
       </c>
+      <c r="JF20" s="39">
+        <v>354</v>
+      </c>
     </row>
-    <row r="21" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -16067,8 +16126,11 @@
       <c r="JE21" s="25">
         <v>691</v>
       </c>
+      <c r="JF21" s="39">
+        <v>703</v>
+      </c>
     </row>
-    <row r="22" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -16864,8 +16926,11 @@
       <c r="JE22" s="25">
         <v>325</v>
       </c>
+      <c r="JF22" s="39">
+        <v>308</v>
+      </c>
     </row>
-    <row r="23" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -17661,8 +17726,11 @@
       <c r="JE23" s="25">
         <v>98</v>
       </c>
+      <c r="JF23" s="39">
+        <v>117</v>
+      </c>
     </row>
-    <row r="24" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -18458,8 +18526,11 @@
       <c r="JE24" s="25">
         <v>3357</v>
       </c>
+      <c r="JF24" s="39">
+        <v>3406</v>
+      </c>
     </row>
-    <row r="25" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -19255,8 +19326,11 @@
       <c r="JE25" s="25">
         <v>5950</v>
       </c>
+      <c r="JF25" s="39">
+        <v>5957</v>
+      </c>
     </row>
-    <row r="26" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -20052,8 +20126,11 @@
       <c r="JE26" s="25">
         <v>3</v>
       </c>
+      <c r="JF26" s="39">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -20849,8 +20926,11 @@
       <c r="JE27" s="25">
         <v>184</v>
       </c>
+      <c r="JF27" s="39">
+        <v>195</v>
+      </c>
     </row>
-    <row r="28" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -21646,8 +21726,11 @@
       <c r="JE28" s="25">
         <v>2309</v>
       </c>
+      <c r="JF28" s="39">
+        <v>2227</v>
+      </c>
     </row>
-    <row r="29" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -22443,8 +22526,11 @@
       <c r="JE29" s="25">
         <v>2825</v>
       </c>
+      <c r="JF29" s="39">
+        <v>2811</v>
+      </c>
     </row>
-    <row r="30" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -23240,8 +23326,11 @@
       <c r="JE30" s="25">
         <v>622</v>
       </c>
+      <c r="JF30" s="39">
+        <v>604</v>
+      </c>
     </row>
-    <row r="31" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
@@ -24037,8 +24126,11 @@
       <c r="JE31" s="25">
         <v>120</v>
       </c>
+      <c r="JF31" s="39">
+        <v>120</v>
+      </c>
     </row>
-    <row r="32" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
@@ -24834,8 +24926,11 @@
       <c r="JE32" s="25">
         <v>55</v>
       </c>
+      <c r="JF32" s="39">
+        <v>54</v>
+      </c>
     </row>
-    <row r="33" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -25631,8 +25726,11 @@
       <c r="JE33" s="25">
         <v>56</v>
       </c>
+      <c r="JF33" s="39">
+        <v>57</v>
+      </c>
     </row>
-    <row r="34" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -26428,8 +26526,11 @@
       <c r="JE34" s="25">
         <v>227</v>
       </c>
+      <c r="JF34" s="39">
+        <v>213</v>
+      </c>
     </row>
-    <row r="35" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -27225,8 +27326,11 @@
       <c r="JE35" s="25">
         <v>977</v>
       </c>
+      <c r="JF35" s="39">
+        <v>973</v>
+      </c>
     </row>
-    <row r="36" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -28022,8 +28126,11 @@
       <c r="JE36" s="25">
         <v>8</v>
       </c>
+      <c r="JF36" s="39">
+        <v>8</v>
+      </c>
     </row>
-    <row r="37" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -28819,8 +28926,11 @@
       <c r="JE37" s="25">
         <v>3388</v>
       </c>
+      <c r="JF37" s="39">
+        <v>3439</v>
+      </c>
     </row>
-    <row r="38" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -29616,8 +29726,11 @@
       <c r="JE38" s="25">
         <v>2508</v>
       </c>
+      <c r="JF38" s="39">
+        <v>2468</v>
+      </c>
     </row>
-    <row r="39" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
@@ -30413,8 +30526,11 @@
       <c r="JE39" s="25">
         <v>159</v>
       </c>
+      <c r="JF39" s="39">
+        <v>155</v>
+      </c>
     </row>
-    <row r="40" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
@@ -31210,8 +31326,11 @@
       <c r="JE40" s="25">
         <v>61280</v>
       </c>
+      <c r="JF40" s="39">
+        <v>61811</v>
+      </c>
     </row>
-    <row r="41" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -32007,8 +32126,11 @@
       <c r="JE41" s="25">
         <v>3444</v>
       </c>
+      <c r="JF41" s="39">
+        <v>3496</v>
+      </c>
     </row>
-    <row r="42" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -32804,8 +32926,11 @@
       <c r="JE42" s="25">
         <v>706</v>
       </c>
+      <c r="JF42" s="39">
+        <v>704</v>
+      </c>
     </row>
-    <row r="43" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -33601,8 +33726,11 @@
       <c r="JE43" s="25">
         <v>2566</v>
       </c>
+      <c r="JF43" s="39">
+        <v>2704</v>
+      </c>
     </row>
-    <row r="44" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -34398,8 +34526,11 @@
       <c r="JE44" s="25">
         <v>155</v>
       </c>
+      <c r="JF44" s="39">
+        <v>155</v>
+      </c>
     </row>
-    <row r="45" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -35195,8 +35326,11 @@
       <c r="JE45" s="25">
         <v>663693</v>
       </c>
+      <c r="JF45" s="39">
+        <v>663644</v>
+      </c>
     </row>
-    <row r="46" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
@@ -35992,8 +36126,11 @@
       <c r="JE46" s="25">
         <v>204</v>
       </c>
+      <c r="JF46" s="39">
+        <v>198</v>
+      </c>
     </row>
-    <row r="47" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
@@ -36789,8 +36926,11 @@
       <c r="JE47" s="25">
         <v>102</v>
       </c>
+      <c r="JF47" s="39">
+        <v>102</v>
+      </c>
     </row>
-    <row r="48" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -37586,8 +37726,11 @@
       <c r="JE48" s="25">
         <v>990</v>
       </c>
+      <c r="JF48" s="39">
+        <v>981</v>
+      </c>
     </row>
-    <row r="49" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -38383,8 +38526,11 @@
       <c r="JE49" s="25">
         <v>4488</v>
       </c>
+      <c r="JF49" s="39">
+        <v>4576</v>
+      </c>
     </row>
-    <row r="50" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -39180,8 +39326,11 @@
       <c r="JE50" s="25">
         <v>597</v>
       </c>
+      <c r="JF50" s="39">
+        <v>598</v>
+      </c>
     </row>
-    <row r="51" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -39977,8 +40126,11 @@
       <c r="JE51" s="25">
         <v>2714</v>
       </c>
+      <c r="JF51" s="39">
+        <v>2709</v>
+      </c>
     </row>
-    <row r="52" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -40774,8 +40926,11 @@
       <c r="JE52" s="25">
         <v>1393</v>
       </c>
+      <c r="JF52" s="39">
+        <v>1383</v>
+      </c>
     </row>
-    <row r="53" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -41571,8 +41726,11 @@
       <c r="JE53" s="25">
         <v>2057</v>
       </c>
+      <c r="JF53" s="39">
+        <v>2025</v>
+      </c>
     </row>
-    <row r="54" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>48</v>
       </c>
@@ -42368,8 +42526,11 @@
       <c r="JE54" s="25">
         <v>59</v>
       </c>
+      <c r="JF54" s="39">
+        <v>59</v>
+      </c>
     </row>
-    <row r="55" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
@@ -43165,8 +43326,11 @@
       <c r="JE55" s="25">
         <v>8037</v>
       </c>
+      <c r="JF55" s="39">
+        <v>8222</v>
+      </c>
     </row>
-    <row r="56" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -43962,8 +44126,11 @@
       <c r="JE56" s="25">
         <v>1318</v>
       </c>
+      <c r="JF56" s="39">
+        <v>1349</v>
+      </c>
     </row>
-    <row r="57" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>51</v>
       </c>
@@ -44759,8 +44926,11 @@
       <c r="JE57" s="25">
         <v>95</v>
       </c>
+      <c r="JF57" s="39">
+        <v>90</v>
+      </c>
     </row>
-    <row r="58" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -45556,8 +45726,11 @@
       <c r="JE58" s="25">
         <v>5069</v>
       </c>
+      <c r="JF58" s="39">
+        <v>5041</v>
+      </c>
     </row>
-    <row r="59" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>53</v>
       </c>
@@ -46353,8 +46526,11 @@
       <c r="JE59" s="25">
         <v>2293</v>
       </c>
+      <c r="JF59" s="39">
+        <v>2210</v>
+      </c>
     </row>
-    <row r="60" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
@@ -47150,8 +47326,11 @@
       <c r="JE60" s="25">
         <v>142</v>
       </c>
+      <c r="JF60" s="39">
+        <v>144</v>
+      </c>
     </row>
-    <row r="61" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>55</v>
       </c>
@@ -47947,8 +48126,11 @@
       <c r="JE61" s="25">
         <v>34246</v>
       </c>
+      <c r="JF61" s="39">
+        <v>35170</v>
+      </c>
     </row>
-    <row r="62" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -48744,8 +48926,11 @@
       <c r="JE62" s="25">
         <v>1123</v>
       </c>
+      <c r="JF62" s="39">
+        <v>1109</v>
+      </c>
     </row>
-    <row r="63" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
@@ -49541,8 +49726,11 @@
       <c r="JE63" s="25">
         <v>615</v>
       </c>
+      <c r="JF63" s="39">
+        <v>591</v>
+      </c>
     </row>
-    <row r="64" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
@@ -50338,8 +50526,11 @@
       <c r="JE64" s="25">
         <v>1093</v>
       </c>
+      <c r="JF64" s="39">
+        <v>1093</v>
+      </c>
     </row>
-    <row r="65" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>59</v>
       </c>
@@ -51135,8 +51326,11 @@
       <c r="JE65" s="25">
         <v>13</v>
       </c>
+      <c r="JF65" s="39">
+        <v>15</v>
+      </c>
     </row>
-    <row r="66" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>60</v>
       </c>
@@ -51932,8 +52126,11 @@
       <c r="JE66" s="25">
         <v>178</v>
       </c>
+      <c r="JF66" s="39">
+        <v>185</v>
+      </c>
     </row>
-    <row r="67" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>61</v>
       </c>
@@ -52729,8 +52926,11 @@
       <c r="JE67" s="25">
         <v>34</v>
       </c>
+      <c r="JF67" s="39">
+        <v>32</v>
+      </c>
     </row>
-    <row r="68" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>62</v>
       </c>
@@ -53526,8 +53726,11 @@
       <c r="JE68" s="25">
         <v>21721</v>
       </c>
+      <c r="JF68" s="39">
+        <v>21847</v>
+      </c>
     </row>
-    <row r="69" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>63</v>
       </c>
@@ -54323,8 +54526,11 @@
       <c r="JE69" s="25">
         <v>627</v>
       </c>
+      <c r="JF69" s="39">
+        <v>627</v>
+      </c>
     </row>
-    <row r="70" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>64</v>
       </c>
@@ -55120,8 +55326,11 @@
       <c r="JE70" s="25">
         <v>571</v>
       </c>
+      <c r="JF70" s="39">
+        <v>535</v>
+      </c>
     </row>
-    <row r="71" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>65</v>
       </c>
@@ -55917,8 +56126,11 @@
       <c r="JE71" s="25">
         <v>5019</v>
       </c>
+      <c r="JF71" s="39">
+        <v>4979</v>
+      </c>
     </row>
-    <row r="72" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>66</v>
       </c>
@@ -56714,8 +56926,11 @@
       <c r="JE72" s="25">
         <v>70575</v>
       </c>
+      <c r="JF72" s="39">
+        <v>71038</v>
+      </c>
     </row>
-    <row r="73" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
@@ -57511,8 +57726,11 @@
       <c r="JE73" s="25">
         <v>19</v>
       </c>
+      <c r="JF73" s="39">
+        <v>18</v>
+      </c>
     </row>
-    <row r="74" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>68</v>
       </c>
@@ -58308,8 +58526,11 @@
       <c r="JE74" s="25">
         <v>41</v>
       </c>
+      <c r="JF74" s="39">
+        <v>32</v>
+      </c>
     </row>
-    <row r="75" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>69</v>
       </c>
@@ -59105,8 +59326,11 @@
       <c r="JE75" s="25">
         <v>70</v>
       </c>
+      <c r="JF75" s="39">
+        <v>74</v>
+      </c>
     </row>
-    <row r="76" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>70</v>
       </c>
@@ -59902,8 +60126,11 @@
       <c r="JE76" s="25">
         <v>3758</v>
       </c>
+      <c r="JF76" s="39">
+        <v>4088</v>
+      </c>
     </row>
-    <row r="77" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
@@ -60699,8 +60926,11 @@
       <c r="JE77" s="25">
         <v>898</v>
       </c>
+      <c r="JF77" s="39">
+        <v>903</v>
+      </c>
     </row>
-    <row r="78" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
@@ -61496,8 +61726,11 @@
       <c r="JE78" s="25">
         <v>15804</v>
       </c>
+      <c r="JF78" s="39">
+        <v>15816</v>
+      </c>
     </row>
-    <row r="79" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
@@ -62293,8 +62526,11 @@
       <c r="JE79" s="25">
         <v>214</v>
       </c>
+      <c r="JF79" s="39">
+        <v>214</v>
+      </c>
     </row>
-    <row r="80" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>74</v>
       </c>
@@ -63090,8 +63326,11 @@
       <c r="JE80" s="25">
         <v>868</v>
       </c>
+      <c r="JF80" s="39">
+        <v>857</v>
+      </c>
     </row>
-    <row r="81" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
@@ -63887,8 +64126,11 @@
       <c r="JE81" s="25">
         <v>29</v>
       </c>
+      <c r="JF81" s="39">
+        <v>29</v>
+      </c>
     </row>
-    <row r="82" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>76</v>
       </c>
@@ -64684,8 +64926,11 @@
       <c r="JE82" s="25">
         <v>98</v>
       </c>
+      <c r="JF82" s="39">
+        <v>110</v>
+      </c>
     </row>
-    <row r="83" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>77</v>
       </c>
@@ -65481,8 +65726,11 @@
       <c r="JE83" s="25">
         <v>1160</v>
       </c>
+      <c r="JF83" s="39">
+        <v>1195</v>
+      </c>
     </row>
-    <row r="84" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
@@ -66278,8 +66526,11 @@
       <c r="JE84" s="25">
         <v>4000</v>
       </c>
+      <c r="JF84" s="39">
+        <v>3982</v>
+      </c>
     </row>
-    <row r="85" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
@@ -67075,8 +67326,11 @@
       <c r="JE85" s="25">
         <v>169</v>
       </c>
+      <c r="JF85" s="39">
+        <v>156</v>
+      </c>
     </row>
-    <row r="86" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>80</v>
       </c>
@@ -67872,8 +68126,11 @@
       <c r="JE86" s="25">
         <v>1</v>
       </c>
+      <c r="JF86" s="39">
+        <v>5</v>
+      </c>
     </row>
-    <row r="87" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>81</v>
       </c>
@@ -68669,8 +68926,11 @@
       <c r="JE87" s="25">
         <v>0</v>
       </c>
+      <c r="JF87" s="39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
@@ -69466,8 +69726,11 @@
       <c r="JE88" s="25">
         <v>5104</v>
       </c>
+      <c r="JF88" s="39">
+        <v>5127</v>
+      </c>
     </row>
-    <row r="89" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>83</v>
       </c>
@@ -70263,8 +70526,11 @@
       <c r="JE89" s="25">
         <v>15078</v>
       </c>
+      <c r="JF89" s="39">
+        <v>15795</v>
+      </c>
     </row>
-    <row r="90" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
@@ -71060,8 +71326,11 @@
       <c r="JE90" s="25">
         <v>411</v>
       </c>
+      <c r="JF90" s="39">
+        <v>407</v>
+      </c>
     </row>
-    <row r="91" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
@@ -71857,8 +72126,11 @@
       <c r="JE91" s="25">
         <v>7662</v>
       </c>
+      <c r="JF91" s="39">
+        <v>7689</v>
+      </c>
     </row>
-    <row r="92" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>86</v>
       </c>
@@ -72654,8 +72926,11 @@
       <c r="JE92" s="25">
         <v>2846</v>
       </c>
+      <c r="JF92" s="39">
+        <v>2932</v>
+      </c>
     </row>
-    <row r="93" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -73451,8 +73726,11 @@
       <c r="JE93" s="25">
         <v>681</v>
       </c>
+      <c r="JF93" s="39">
+        <v>682</v>
+      </c>
     </row>
-    <row r="94" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
@@ -74248,8 +74526,11 @@
       <c r="JE94" s="25">
         <v>318</v>
       </c>
+      <c r="JF94" s="39">
+        <v>340</v>
+      </c>
     </row>
-    <row r="95" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
@@ -75045,8 +75326,11 @@
       <c r="JE95" s="25">
         <v>1100</v>
       </c>
+      <c r="JF95" s="39">
+        <v>1298</v>
+      </c>
     </row>
-    <row r="96" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>90</v>
       </c>
@@ -75842,8 +76126,11 @@
       <c r="JE96" s="25">
         <v>118</v>
       </c>
+      <c r="JF96" s="39">
+        <v>115</v>
+      </c>
     </row>
-    <row r="97" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>91</v>
       </c>
@@ -76639,8 +76926,11 @@
       <c r="JE97" s="25">
         <v>1458</v>
       </c>
+      <c r="JF97" s="39">
+        <v>1432</v>
+      </c>
     </row>
-    <row r="98" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>92</v>
       </c>
@@ -77436,8 +77726,11 @@
       <c r="JE98" s="25">
         <v>466</v>
       </c>
+      <c r="JF98" s="39">
+        <v>496</v>
+      </c>
     </row>
-    <row r="99" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
@@ -78233,8 +78526,11 @@
       <c r="JE99" s="25">
         <v>37859</v>
       </c>
+      <c r="JF99" s="39">
+        <v>37805</v>
+      </c>
     </row>
-    <row r="100" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>94</v>
       </c>
@@ -79030,8 +79326,11 @@
       <c r="JE100" s="25">
         <v>7577</v>
       </c>
+      <c r="JF100" s="39">
+        <v>7959</v>
+      </c>
     </row>
-    <row r="101" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>95</v>
       </c>
@@ -79827,8 +80126,11 @@
       <c r="JE101" s="25">
         <v>563</v>
       </c>
+      <c r="JF101" s="39">
+        <v>770</v>
+      </c>
     </row>
-    <row r="102" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>96</v>
       </c>
@@ -80624,8 +80926,11 @@
       <c r="JE102" s="25">
         <v>520</v>
       </c>
+      <c r="JF102" s="39">
+        <v>503</v>
+      </c>
     </row>
-    <row r="103" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>97</v>
       </c>
@@ -81421,8 +81726,11 @@
       <c r="JE103" s="25">
         <v>104209</v>
       </c>
+      <c r="JF103" s="39">
+        <v>104266</v>
+      </c>
     </row>
-    <row r="104" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>98</v>
       </c>
@@ -82218,8 +82526,11 @@
       <c r="JE104" s="25">
         <v>126049</v>
       </c>
+      <c r="JF104" s="39">
+        <v>127343</v>
+      </c>
     </row>
-    <row r="105" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>99</v>
       </c>
@@ -83015,8 +83326,11 @@
       <c r="JE105" s="25">
         <v>977</v>
       </c>
+      <c r="JF105" s="39">
+        <v>964</v>
+      </c>
     </row>
-    <row r="106" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>100</v>
       </c>
@@ -83812,8 +84126,11 @@
       <c r="JE106" s="25">
         <v>1098</v>
       </c>
+      <c r="JF106" s="39">
+        <v>1083</v>
+      </c>
     </row>
-    <row r="107" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>101</v>
       </c>
@@ -84609,8 +84926,11 @@
       <c r="JE107" s="25">
         <v>30958</v>
       </c>
+      <c r="JF107" s="39">
+        <v>31113</v>
+      </c>
     </row>
-    <row r="108" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>102</v>
       </c>
@@ -85406,8 +85726,11 @@
       <c r="JE108" s="25">
         <v>926</v>
       </c>
+      <c r="JF108" s="39">
+        <v>918</v>
+      </c>
     </row>
-    <row r="109" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>103</v>
       </c>
@@ -86203,8 +86526,11 @@
       <c r="JE109" s="25">
         <v>398</v>
       </c>
+      <c r="JF109" s="39">
+        <v>396</v>
+      </c>
     </row>
-    <row r="110" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>104</v>
       </c>
@@ -87000,8 +87326,11 @@
       <c r="JE110" s="25">
         <v>50</v>
       </c>
+      <c r="JF110" s="39">
+        <v>53</v>
+      </c>
     </row>
-    <row r="111" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -87797,8 +88126,11 @@
       <c r="JE111" s="25">
         <v>1952</v>
       </c>
+      <c r="JF111" s="39">
+        <v>1944</v>
+      </c>
     </row>
-    <row r="112" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>106</v>
       </c>
@@ -88594,8 +88926,11 @@
       <c r="JE112" s="25">
         <v>2955</v>
       </c>
+      <c r="JF112" s="39">
+        <v>2998</v>
+      </c>
     </row>
-    <row r="113" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -89391,8 +89726,11 @@
       <c r="JE113" s="25">
         <v>376</v>
       </c>
+      <c r="JF113" s="39">
+        <v>335</v>
+      </c>
     </row>
-    <row r="114" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>108</v>
       </c>
@@ -90188,8 +90526,11 @@
       <c r="JE114" s="25">
         <v>2954</v>
       </c>
+      <c r="JF114" s="39">
+        <v>3082</v>
+      </c>
     </row>
-    <row r="115" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>109</v>
       </c>
@@ -90985,8 +91326,11 @@
       <c r="JE115" s="25">
         <v>1486</v>
       </c>
+      <c r="JF115" s="39">
+        <v>1510</v>
+      </c>
     </row>
-    <row r="116" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>110</v>
       </c>
@@ -91782,8 +92126,11 @@
       <c r="JE116" s="25">
         <v>548</v>
       </c>
+      <c r="JF116" s="39">
+        <v>541</v>
+      </c>
     </row>
-    <row r="117" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>111</v>
       </c>
@@ -92579,8 +92926,11 @@
       <c r="JE117" s="25">
         <v>2137</v>
       </c>
+      <c r="JF117" s="39">
+        <v>2144</v>
+      </c>
     </row>
-    <row r="118" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>112</v>
       </c>
@@ -93376,8 +93726,11 @@
       <c r="JE118" s="25">
         <v>511</v>
       </c>
+      <c r="JF118" s="39">
+        <v>520</v>
+      </c>
     </row>
-    <row r="119" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>113</v>
       </c>
@@ -94173,8 +94526,11 @@
       <c r="JE119" s="25">
         <v>992</v>
       </c>
+      <c r="JF119" s="39">
+        <v>1061</v>
+      </c>
     </row>
-    <row r="120" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>114</v>
       </c>
@@ -94970,8 +95326,11 @@
       <c r="JE120" s="25">
         <v>44</v>
       </c>
+      <c r="JF120" s="39">
+        <v>42</v>
+      </c>
     </row>
-    <row r="121" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>115</v>
       </c>
@@ -95767,8 +96126,11 @@
       <c r="JE121" s="25">
         <v>667</v>
       </c>
+      <c r="JF121" s="39">
+        <v>655</v>
+      </c>
     </row>
-    <row r="122" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>116</v>
       </c>
@@ -96564,8 +96926,11 @@
       <c r="JE122" s="25">
         <v>126</v>
       </c>
+      <c r="JF122" s="39">
+        <v>124</v>
+      </c>
     </row>
-    <row r="123" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>117</v>
       </c>
@@ -97361,8 +97726,11 @@
       <c r="JE123" s="25">
         <v>520</v>
       </c>
+      <c r="JF123" s="39">
+        <v>514</v>
+      </c>
     </row>
-    <row r="124" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>118</v>
       </c>
@@ -98158,8 +98526,11 @@
       <c r="JE124" s="25">
         <v>2484</v>
       </c>
+      <c r="JF124" s="39">
+        <v>2597</v>
+      </c>
     </row>
-    <row r="125" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>119</v>
       </c>
@@ -98955,8 +99326,11 @@
       <c r="JE125" s="25">
         <v>422451</v>
       </c>
+      <c r="JF125" s="39">
+        <v>425400</v>
+      </c>
     </row>
-    <row r="126" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>120</v>
       </c>
@@ -99752,8 +100126,11 @@
       <c r="JE126" s="25">
         <v>5985</v>
       </c>
+      <c r="JF126" s="39">
+        <v>5945</v>
+      </c>
     </row>
-    <row r="127" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>121</v>
       </c>
@@ -100549,8 +100926,11 @@
       <c r="JE127" s="25">
         <v>51</v>
       </c>
+      <c r="JF127" s="39">
+        <v>49</v>
+      </c>
     </row>
-    <row r="128" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>122</v>
       </c>
@@ -101346,8 +101726,11 @@
       <c r="JE128" s="25">
         <v>2333</v>
       </c>
+      <c r="JF128" s="39">
+        <v>2371</v>
+      </c>
     </row>
-    <row r="129" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>123</v>
       </c>
@@ -102143,8 +102526,11 @@
       <c r="JE129" s="25">
         <v>35796</v>
       </c>
+      <c r="JF129" s="39">
+        <v>36578</v>
+      </c>
     </row>
-    <row r="130" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>124</v>
       </c>
@@ -102940,8 +103326,11 @@
       <c r="JE130" s="25">
         <v>6518</v>
       </c>
+      <c r="JF130" s="39">
+        <v>6594</v>
+      </c>
     </row>
-    <row r="131" spans="1:265" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:266" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="20" t="s">
         <v>127</v>
       </c>
@@ -103737,8 +104126,11 @@
       <c r="JE131" s="26">
         <v>1849999</v>
       </c>
+      <c r="JF131" s="40">
+        <v>1861159</v>
+      </c>
     </row>
-    <row r="132" spans="1:265" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:266" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
@@ -103986,7 +104378,7 @@
       <c r="IL132" s="18"/>
       <c r="IM132" s="18"/>
     </row>
-    <row r="133" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>126</v>
       </c>

--- a/Historicos/ta_municipios_jalisco.xlsx
+++ b/Historicos/ta_municipios_jalisco.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="142">
   <si>
     <t>Acatic</t>
   </si>
@@ -1172,7 +1172,7 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1239,18 +1239,21 @@
     <xf numFmtId="3" fontId="20" fillId="35" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1602,11 +1605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JG145"/>
+  <dimension ref="A1:JH145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A37" sqref="A37"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,18 +1727,18 @@
     <col min="265" max="265" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="7">
@@ -2533,12 +2536,15 @@
       <c r="JF4" s="27">
         <v>2022</v>
       </c>
-      <c r="JG4" s="29">
+      <c r="JG4" s="28">
         <v>2022</v>
       </c>
+      <c r="JH4" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+    <row r="5" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
       <c r="B5" s="4" t="s">
         <v>129</v>
       </c>
@@ -3331,14 +3337,17 @@
       <c r="JE5" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="JF5" s="36" t="s">
+      <c r="JF5" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="JG5" s="37" t="s">
+      <c r="JG5" s="38" t="s">
         <v>130</v>
       </c>
+      <c r="JH5" s="35" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="6" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -4137,11 +4146,14 @@
       <c r="JF6" s="5">
         <v>4970</v>
       </c>
-      <c r="JG6" s="34">
+      <c r="JG6" s="6">
         <v>4997</v>
       </c>
+      <c r="JH6" s="32">
+        <v>5113</v>
+      </c>
     </row>
-    <row r="7" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -4940,11 +4952,14 @@
       <c r="JF7" s="5">
         <v>7670</v>
       </c>
-      <c r="JG7" s="34">
+      <c r="JG7" s="6">
         <v>7978</v>
       </c>
+      <c r="JH7" s="32">
+        <v>7927</v>
+      </c>
     </row>
-    <row r="8" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -5743,11 +5758,14 @@
       <c r="JF8" s="5">
         <v>1471</v>
       </c>
-      <c r="JG8" s="34">
+      <c r="JG8" s="6">
         <v>1464</v>
       </c>
+      <c r="JH8" s="32">
+        <v>1423</v>
+      </c>
     </row>
-    <row r="9" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -6546,11 +6564,14 @@
       <c r="JF9" s="5">
         <v>89</v>
       </c>
-      <c r="JG9" s="34">
+      <c r="JG9" s="6">
         <v>93</v>
       </c>
+      <c r="JH9" s="32">
+        <v>120</v>
+      </c>
     </row>
-    <row r="10" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -7349,11 +7370,14 @@
       <c r="JF10" s="5">
         <v>3469</v>
       </c>
-      <c r="JG10" s="34">
+      <c r="JG10" s="6">
         <v>3766</v>
       </c>
+      <c r="JH10" s="32">
+        <v>4203</v>
+      </c>
     </row>
-    <row r="11" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -8152,11 +8176,14 @@
       <c r="JF11" s="5">
         <v>7507</v>
       </c>
-      <c r="JG11" s="34">
+      <c r="JG11" s="6">
         <v>7562</v>
       </c>
+      <c r="JH11" s="32">
+        <v>7536</v>
+      </c>
     </row>
-    <row r="12" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -8955,11 +8982,14 @@
       <c r="JF12" s="5">
         <v>12644</v>
       </c>
-      <c r="JG12" s="34">
+      <c r="JG12" s="6">
         <v>12843</v>
       </c>
+      <c r="JH12" s="32">
+        <v>12762</v>
+      </c>
     </row>
-    <row r="13" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -9758,11 +9788,14 @@
       <c r="JF13" s="5">
         <v>783</v>
       </c>
-      <c r="JG13" s="34">
+      <c r="JG13" s="6">
         <v>915</v>
       </c>
+      <c r="JH13" s="32">
+        <v>1047</v>
+      </c>
     </row>
-    <row r="14" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -10561,11 +10594,14 @@
       <c r="JF14" s="5">
         <v>21</v>
       </c>
-      <c r="JG14" s="34">
+      <c r="JG14" s="6">
         <v>22</v>
       </c>
+      <c r="JH14" s="32">
+        <v>26</v>
+      </c>
     </row>
-    <row r="15" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -11364,11 +11400,14 @@
       <c r="JF15" s="5">
         <v>99</v>
       </c>
-      <c r="JG15" s="34">
+      <c r="JG15" s="6">
         <v>91</v>
       </c>
+      <c r="JH15" s="32">
+        <v>88</v>
+      </c>
     </row>
-    <row r="16" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -12167,11 +12206,14 @@
       <c r="JF16" s="5">
         <v>11318</v>
       </c>
-      <c r="JG16" s="34">
+      <c r="JG16" s="6">
         <v>11450</v>
       </c>
+      <c r="JH16" s="32">
+        <v>11652</v>
+      </c>
     </row>
-    <row r="17" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -12970,11 +13012,14 @@
       <c r="JF17" s="5">
         <v>587</v>
       </c>
-      <c r="JG17" s="34">
+      <c r="JG17" s="6">
         <v>614</v>
       </c>
+      <c r="JH17" s="32">
+        <v>610</v>
+      </c>
     </row>
-    <row r="18" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -13773,11 +13818,14 @@
       <c r="JF18" s="5">
         <v>11310</v>
       </c>
-      <c r="JG18" s="34">
+      <c r="JG18" s="6">
         <v>11399</v>
       </c>
+      <c r="JH18" s="32">
+        <v>11291</v>
+      </c>
     </row>
-    <row r="19" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -14576,11 +14624,14 @@
       <c r="JF19" s="5">
         <v>3658</v>
       </c>
-      <c r="JG19" s="34">
+      <c r="JG19" s="6">
         <v>3638</v>
       </c>
+      <c r="JH19" s="32">
+        <v>3755</v>
+      </c>
     </row>
-    <row r="20" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -15379,11 +15430,14 @@
       <c r="JF20" s="5">
         <v>354</v>
       </c>
-      <c r="JG20" s="34">
+      <c r="JG20" s="6">
         <v>342</v>
       </c>
+      <c r="JH20" s="32">
+        <v>353</v>
+      </c>
     </row>
-    <row r="21" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -16182,11 +16236,14 @@
       <c r="JF21" s="5">
         <v>703</v>
       </c>
-      <c r="JG21" s="34">
+      <c r="JG21" s="6">
         <v>705</v>
       </c>
+      <c r="JH21" s="32">
+        <v>674</v>
+      </c>
     </row>
-    <row r="22" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -16985,11 +17042,14 @@
       <c r="JF22" s="5">
         <v>308</v>
       </c>
-      <c r="JG22" s="34">
+      <c r="JG22" s="6">
         <v>298</v>
       </c>
+      <c r="JH22" s="32">
+        <v>295</v>
+      </c>
     </row>
-    <row r="23" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -17788,11 +17848,14 @@
       <c r="JF23" s="5">
         <v>117</v>
       </c>
-      <c r="JG23" s="34">
+      <c r="JG23" s="6">
         <v>151</v>
       </c>
+      <c r="JH23" s="32">
+        <v>156</v>
+      </c>
     </row>
-    <row r="24" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -18591,11 +18654,14 @@
       <c r="JF24" s="5">
         <v>3406</v>
       </c>
-      <c r="JG24" s="34">
+      <c r="JG24" s="6">
         <v>3416</v>
       </c>
+      <c r="JH24" s="32">
+        <v>3412</v>
+      </c>
     </row>
-    <row r="25" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -19394,11 +19460,14 @@
       <c r="JF25" s="5">
         <v>5957</v>
       </c>
-      <c r="JG25" s="34">
+      <c r="JG25" s="6">
         <v>5998</v>
       </c>
+      <c r="JH25" s="32">
+        <v>5902</v>
+      </c>
     </row>
-    <row r="26" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -20197,11 +20266,14 @@
       <c r="JF26" s="5">
         <v>3</v>
       </c>
-      <c r="JG26" s="34">
+      <c r="JG26" s="6">
         <v>3</v>
       </c>
+      <c r="JH26" s="32">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -21000,11 +21072,14 @@
       <c r="JF27" s="5">
         <v>195</v>
       </c>
-      <c r="JG27" s="34">
+      <c r="JG27" s="6">
         <v>192</v>
       </c>
+      <c r="JH27" s="32">
+        <v>193</v>
+      </c>
     </row>
-    <row r="28" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -21803,11 +21878,14 @@
       <c r="JF28" s="5">
         <v>2227</v>
       </c>
-      <c r="JG28" s="34">
+      <c r="JG28" s="6">
         <v>2255</v>
       </c>
+      <c r="JH28" s="32">
+        <v>2263</v>
+      </c>
     </row>
-    <row r="29" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -22606,11 +22684,14 @@
       <c r="JF29" s="5">
         <v>2811</v>
       </c>
-      <c r="JG29" s="34">
+      <c r="JG29" s="6">
         <v>2866</v>
       </c>
+      <c r="JH29" s="32">
+        <v>2952</v>
+      </c>
     </row>
-    <row r="30" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -23409,11 +23490,14 @@
       <c r="JF30" s="5">
         <v>604</v>
       </c>
-      <c r="JG30" s="34">
+      <c r="JG30" s="6">
         <v>603</v>
       </c>
+      <c r="JH30" s="32">
+        <v>657</v>
+      </c>
     </row>
-    <row r="31" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
@@ -24212,11 +24296,14 @@
       <c r="JF31" s="5">
         <v>120</v>
       </c>
-      <c r="JG31" s="34">
+      <c r="JG31" s="6">
         <v>128</v>
       </c>
+      <c r="JH31" s="32">
+        <v>128</v>
+      </c>
     </row>
-    <row r="32" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
@@ -25015,11 +25102,14 @@
       <c r="JF32" s="5">
         <v>54</v>
       </c>
-      <c r="JG32" s="34">
+      <c r="JG32" s="6">
         <v>49</v>
       </c>
+      <c r="JH32" s="32">
+        <v>48</v>
+      </c>
     </row>
-    <row r="33" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -25818,11 +25908,14 @@
       <c r="JF33" s="5">
         <v>57</v>
       </c>
-      <c r="JG33" s="34">
+      <c r="JG33" s="6">
         <v>59</v>
       </c>
+      <c r="JH33" s="32">
+        <v>59</v>
+      </c>
     </row>
-    <row r="34" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -26621,11 +26714,14 @@
       <c r="JF34" s="5">
         <v>213</v>
       </c>
-      <c r="JG34" s="34">
+      <c r="JG34" s="6">
         <v>212</v>
       </c>
+      <c r="JH34" s="32">
+        <v>212</v>
+      </c>
     </row>
-    <row r="35" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -27424,11 +27520,14 @@
       <c r="JF35" s="5">
         <v>973</v>
       </c>
-      <c r="JG35" s="34">
+      <c r="JG35" s="6">
         <v>988</v>
       </c>
+      <c r="JH35" s="32">
+        <v>1019</v>
+      </c>
     </row>
-    <row r="36" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -28227,11 +28326,14 @@
       <c r="JF36" s="5">
         <v>8</v>
       </c>
-      <c r="JG36" s="34">
+      <c r="JG36" s="6">
         <v>9</v>
       </c>
+      <c r="JH36" s="32">
+        <v>8</v>
+      </c>
     </row>
-    <row r="37" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -29030,11 +29132,14 @@
       <c r="JF37" s="5">
         <v>3439</v>
       </c>
-      <c r="JG37" s="34">
+      <c r="JG37" s="6">
         <v>3453</v>
       </c>
+      <c r="JH37" s="32">
+        <v>3619</v>
+      </c>
     </row>
-    <row r="38" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -29833,11 +29938,14 @@
       <c r="JF38" s="5">
         <v>2468</v>
       </c>
-      <c r="JG38" s="34">
+      <c r="JG38" s="6">
         <v>2470</v>
       </c>
+      <c r="JH38" s="32">
+        <v>2462</v>
+      </c>
     </row>
-    <row r="39" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
@@ -30636,11 +30744,14 @@
       <c r="JF39" s="5">
         <v>155</v>
       </c>
-      <c r="JG39" s="34">
+      <c r="JG39" s="6">
         <v>156</v>
       </c>
+      <c r="JH39" s="32">
+        <v>155</v>
+      </c>
     </row>
-    <row r="40" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
@@ -31439,11 +31550,14 @@
       <c r="JF40" s="5">
         <v>61811</v>
       </c>
-      <c r="JG40" s="34">
+      <c r="JG40" s="6">
         <v>62608</v>
       </c>
+      <c r="JH40" s="32">
+        <v>63458</v>
+      </c>
     </row>
-    <row r="41" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -32242,11 +32356,14 @@
       <c r="JF41" s="5">
         <v>3496</v>
       </c>
-      <c r="JG41" s="34">
+      <c r="JG41" s="6">
         <v>3523</v>
       </c>
+      <c r="JH41" s="32">
+        <v>3522</v>
+      </c>
     </row>
-    <row r="42" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -33045,11 +33162,14 @@
       <c r="JF42" s="5">
         <v>704</v>
       </c>
-      <c r="JG42" s="34">
+      <c r="JG42" s="6">
         <v>708</v>
       </c>
+      <c r="JH42" s="32">
+        <v>727</v>
+      </c>
     </row>
-    <row r="43" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -33848,11 +33968,14 @@
       <c r="JF43" s="5">
         <v>2704</v>
       </c>
-      <c r="JG43" s="34">
+      <c r="JG43" s="6">
         <v>2760</v>
       </c>
+      <c r="JH43" s="32">
+        <v>2655</v>
+      </c>
     </row>
-    <row r="44" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -34651,11 +34774,14 @@
       <c r="JF44" s="5">
         <v>155</v>
       </c>
-      <c r="JG44" s="34">
+      <c r="JG44" s="6">
         <v>157</v>
       </c>
+      <c r="JH44" s="32">
+        <v>153</v>
+      </c>
     </row>
-    <row r="45" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -35454,11 +35580,14 @@
       <c r="JF45" s="5">
         <v>663644</v>
       </c>
-      <c r="JG45" s="34">
+      <c r="JG45" s="6">
         <v>664750</v>
       </c>
+      <c r="JH45" s="32">
+        <v>666729</v>
+      </c>
     </row>
-    <row r="46" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
@@ -36257,11 +36386,14 @@
       <c r="JF46" s="5">
         <v>198</v>
       </c>
-      <c r="JG46" s="34">
+      <c r="JG46" s="6">
         <v>193</v>
       </c>
+      <c r="JH46" s="32">
+        <v>189</v>
+      </c>
     </row>
-    <row r="47" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
@@ -37060,11 +37192,14 @@
       <c r="JF47" s="5">
         <v>102</v>
       </c>
-      <c r="JG47" s="34">
+      <c r="JG47" s="6">
         <v>98</v>
       </c>
+      <c r="JH47" s="32">
+        <v>98</v>
+      </c>
     </row>
-    <row r="48" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -37863,11 +37998,14 @@
       <c r="JF48" s="5">
         <v>981</v>
       </c>
-      <c r="JG48" s="34">
+      <c r="JG48" s="6">
         <v>1056</v>
       </c>
+      <c r="JH48" s="32">
+        <v>1045</v>
+      </c>
     </row>
-    <row r="49" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -38666,11 +38804,14 @@
       <c r="JF49" s="5">
         <v>4576</v>
       </c>
-      <c r="JG49" s="34">
+      <c r="JG49" s="6">
         <v>4650</v>
       </c>
+      <c r="JH49" s="32">
+        <v>4684</v>
+      </c>
     </row>
-    <row r="50" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -39469,11 +39610,14 @@
       <c r="JF50" s="5">
         <v>598</v>
       </c>
-      <c r="JG50" s="34">
+      <c r="JG50" s="6">
         <v>582</v>
       </c>
+      <c r="JH50" s="32">
+        <v>578</v>
+      </c>
     </row>
-    <row r="51" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -40272,11 +40416,14 @@
       <c r="JF51" s="5">
         <v>2709</v>
       </c>
-      <c r="JG51" s="34">
+      <c r="JG51" s="6">
         <v>2697</v>
       </c>
+      <c r="JH51" s="32">
+        <v>2693</v>
+      </c>
     </row>
-    <row r="52" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -41075,11 +41222,14 @@
       <c r="JF52" s="5">
         <v>1383</v>
       </c>
-      <c r="JG52" s="34">
+      <c r="JG52" s="6">
         <v>1386</v>
       </c>
+      <c r="JH52" s="32">
+        <v>1386</v>
+      </c>
     </row>
-    <row r="53" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -41878,11 +42028,14 @@
       <c r="JF53" s="5">
         <v>2025</v>
       </c>
-      <c r="JG53" s="34">
+      <c r="JG53" s="6">
         <v>1917</v>
       </c>
+      <c r="JH53" s="32">
+        <v>1961</v>
+      </c>
     </row>
-    <row r="54" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>48</v>
       </c>
@@ -42681,11 +42834,14 @@
       <c r="JF54" s="5">
         <v>59</v>
       </c>
-      <c r="JG54" s="34">
+      <c r="JG54" s="6">
         <v>58</v>
       </c>
+      <c r="JH54" s="32">
+        <v>57</v>
+      </c>
     </row>
-    <row r="55" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
@@ -43484,11 +43640,14 @@
       <c r="JF55" s="5">
         <v>8222</v>
       </c>
-      <c r="JG55" s="34">
+      <c r="JG55" s="6">
         <v>8103</v>
       </c>
+      <c r="JH55" s="32">
+        <v>8075</v>
+      </c>
     </row>
-    <row r="56" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -44287,11 +44446,14 @@
       <c r="JF56" s="5">
         <v>1349</v>
       </c>
-      <c r="JG56" s="34">
+      <c r="JG56" s="6">
         <v>1402</v>
       </c>
+      <c r="JH56" s="32">
+        <v>1423</v>
+      </c>
     </row>
-    <row r="57" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>51</v>
       </c>
@@ -45090,11 +45252,14 @@
       <c r="JF57" s="5">
         <v>90</v>
       </c>
-      <c r="JG57" s="34">
+      <c r="JG57" s="6">
         <v>85</v>
       </c>
+      <c r="JH57" s="32">
+        <v>84</v>
+      </c>
     </row>
-    <row r="58" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -45893,11 +46058,14 @@
       <c r="JF58" s="5">
         <v>5041</v>
       </c>
-      <c r="JG58" s="34">
+      <c r="JG58" s="6">
         <v>5039</v>
       </c>
+      <c r="JH58" s="32">
+        <v>4853</v>
+      </c>
     </row>
-    <row r="59" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>53</v>
       </c>
@@ -46696,11 +46864,14 @@
       <c r="JF59" s="5">
         <v>2210</v>
       </c>
-      <c r="JG59" s="34">
+      <c r="JG59" s="6">
         <v>2167</v>
       </c>
+      <c r="JH59" s="32">
+        <v>2121</v>
+      </c>
     </row>
-    <row r="60" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
@@ -47499,11 +47670,14 @@
       <c r="JF60" s="5">
         <v>144</v>
       </c>
-      <c r="JG60" s="34">
+      <c r="JG60" s="6">
         <v>145</v>
       </c>
+      <c r="JH60" s="32">
+        <v>145</v>
+      </c>
     </row>
-    <row r="61" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>55</v>
       </c>
@@ -48302,11 +48476,14 @@
       <c r="JF61" s="5">
         <v>35170</v>
       </c>
-      <c r="JG61" s="34">
+      <c r="JG61" s="6">
         <v>35145</v>
       </c>
+      <c r="JH61" s="32">
+        <v>35730</v>
+      </c>
     </row>
-    <row r="62" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -49105,11 +49282,14 @@
       <c r="JF62" s="5">
         <v>1109</v>
       </c>
-      <c r="JG62" s="34">
+      <c r="JG62" s="6">
         <v>1138</v>
       </c>
+      <c r="JH62" s="32">
+        <v>1121</v>
+      </c>
     </row>
-    <row r="63" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
@@ -49908,11 +50088,14 @@
       <c r="JF63" s="5">
         <v>591</v>
       </c>
-      <c r="JG63" s="34">
+      <c r="JG63" s="6">
         <v>563</v>
       </c>
+      <c r="JH63" s="32">
+        <v>564</v>
+      </c>
     </row>
-    <row r="64" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
@@ -50711,11 +50894,14 @@
       <c r="JF64" s="5">
         <v>1093</v>
       </c>
-      <c r="JG64" s="34">
+      <c r="JG64" s="6">
         <v>1115</v>
       </c>
+      <c r="JH64" s="32">
+        <v>1068</v>
+      </c>
     </row>
-    <row r="65" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>59</v>
       </c>
@@ -51514,11 +51700,14 @@
       <c r="JF65" s="5">
         <v>15</v>
       </c>
-      <c r="JG65" s="34">
+      <c r="JG65" s="6">
         <v>15</v>
       </c>
+      <c r="JH65" s="32">
+        <v>14</v>
+      </c>
     </row>
-    <row r="66" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>60</v>
       </c>
@@ -52317,11 +52506,14 @@
       <c r="JF66" s="5">
         <v>185</v>
       </c>
-      <c r="JG66" s="34">
+      <c r="JG66" s="6">
         <v>186</v>
       </c>
+      <c r="JH66" s="32">
+        <v>189</v>
+      </c>
     </row>
-    <row r="67" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>61</v>
       </c>
@@ -53120,11 +53312,14 @@
       <c r="JF67" s="5">
         <v>32</v>
       </c>
-      <c r="JG67" s="34">
+      <c r="JG67" s="6">
         <v>34</v>
       </c>
+      <c r="JH67" s="32">
+        <v>34</v>
+      </c>
     </row>
-    <row r="68" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>62</v>
       </c>
@@ -53923,11 +54118,14 @@
       <c r="JF68" s="5">
         <v>21847</v>
       </c>
-      <c r="JG68" s="34">
+      <c r="JG68" s="6">
         <v>21978</v>
       </c>
+      <c r="JH68" s="32">
+        <v>22096</v>
+      </c>
     </row>
-    <row r="69" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>63</v>
       </c>
@@ -54726,11 +54924,14 @@
       <c r="JF69" s="5">
         <v>627</v>
       </c>
-      <c r="JG69" s="34">
+      <c r="JG69" s="6">
         <v>584</v>
       </c>
+      <c r="JH69" s="32">
+        <v>560</v>
+      </c>
     </row>
-    <row r="70" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>64</v>
       </c>
@@ -55529,11 +55730,14 @@
       <c r="JF70" s="5">
         <v>535</v>
       </c>
-      <c r="JG70" s="34">
+      <c r="JG70" s="6">
         <v>537</v>
       </c>
+      <c r="JH70" s="32">
+        <v>541</v>
+      </c>
     </row>
-    <row r="71" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>65</v>
       </c>
@@ -56332,11 +56536,14 @@
       <c r="JF71" s="5">
         <v>4979</v>
       </c>
-      <c r="JG71" s="34">
+      <c r="JG71" s="6">
         <v>4994</v>
       </c>
+      <c r="JH71" s="32">
+        <v>4865</v>
+      </c>
     </row>
-    <row r="72" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>66</v>
       </c>
@@ -57135,11 +57342,14 @@
       <c r="JF72" s="5">
         <v>71038</v>
       </c>
-      <c r="JG72" s="34">
+      <c r="JG72" s="6">
         <v>71935</v>
       </c>
+      <c r="JH72" s="32">
+        <v>73125</v>
+      </c>
     </row>
-    <row r="73" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
@@ -57938,11 +58148,14 @@
       <c r="JF73" s="5">
         <v>18</v>
       </c>
-      <c r="JG73" s="34">
+      <c r="JG73" s="6">
         <v>18</v>
       </c>
+      <c r="JH73" s="32">
+        <v>13</v>
+      </c>
     </row>
-    <row r="74" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>68</v>
       </c>
@@ -58741,11 +58954,14 @@
       <c r="JF74" s="5">
         <v>32</v>
       </c>
-      <c r="JG74" s="34">
+      <c r="JG74" s="6">
         <v>31</v>
       </c>
+      <c r="JH74" s="32">
+        <v>31</v>
+      </c>
     </row>
-    <row r="75" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>69</v>
       </c>
@@ -59544,11 +59760,14 @@
       <c r="JF75" s="5">
         <v>74</v>
       </c>
-      <c r="JG75" s="34">
+      <c r="JG75" s="6">
         <v>77</v>
       </c>
+      <c r="JH75" s="32">
+        <v>75</v>
+      </c>
     </row>
-    <row r="76" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>70</v>
       </c>
@@ -60347,11 +60566,14 @@
       <c r="JF76" s="5">
         <v>4088</v>
       </c>
-      <c r="JG76" s="34">
+      <c r="JG76" s="6">
         <v>3538</v>
       </c>
+      <c r="JH76" s="32">
+        <v>3346</v>
+      </c>
     </row>
-    <row r="77" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
@@ -61150,11 +61372,14 @@
       <c r="JF77" s="5">
         <v>903</v>
       </c>
-      <c r="JG77" s="34">
+      <c r="JG77" s="6">
         <v>905</v>
       </c>
+      <c r="JH77" s="32">
+        <v>887</v>
+      </c>
     </row>
-    <row r="78" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
@@ -61953,11 +62178,14 @@
       <c r="JF78" s="5">
         <v>15816</v>
       </c>
-      <c r="JG78" s="34">
+      <c r="JG78" s="6">
         <v>15929</v>
       </c>
+      <c r="JH78" s="32">
+        <v>15840</v>
+      </c>
     </row>
-    <row r="79" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
@@ -62756,11 +62984,14 @@
       <c r="JF79" s="5">
         <v>214</v>
       </c>
-      <c r="JG79" s="34">
+      <c r="JG79" s="6">
         <v>215</v>
       </c>
+      <c r="JH79" s="32">
+        <v>222</v>
+      </c>
     </row>
-    <row r="80" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>74</v>
       </c>
@@ -63559,11 +63790,14 @@
       <c r="JF80" s="5">
         <v>857</v>
       </c>
-      <c r="JG80" s="34">
+      <c r="JG80" s="6">
         <v>873</v>
       </c>
+      <c r="JH80" s="32">
+        <v>882</v>
+      </c>
     </row>
-    <row r="81" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
@@ -64362,11 +64596,14 @@
       <c r="JF81" s="5">
         <v>29</v>
       </c>
-      <c r="JG81" s="34">
+      <c r="JG81" s="6">
         <v>29</v>
       </c>
+      <c r="JH81" s="32">
+        <v>29</v>
+      </c>
     </row>
-    <row r="82" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>76</v>
       </c>
@@ -65165,11 +65402,14 @@
       <c r="JF82" s="5">
         <v>110</v>
       </c>
-      <c r="JG82" s="34">
+      <c r="JG82" s="6">
         <v>112</v>
       </c>
+      <c r="JH82" s="32">
+        <v>106</v>
+      </c>
     </row>
-    <row r="83" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>77</v>
       </c>
@@ -65968,11 +66208,14 @@
       <c r="JF83" s="5">
         <v>1195</v>
       </c>
-      <c r="JG83" s="34">
+      <c r="JG83" s="6">
         <v>1191</v>
       </c>
+      <c r="JH83" s="32">
+        <v>1216</v>
+      </c>
     </row>
-    <row r="84" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
@@ -66771,11 +67014,14 @@
       <c r="JF84" s="5">
         <v>3982</v>
       </c>
-      <c r="JG84" s="34">
+      <c r="JG84" s="6">
         <v>3973</v>
       </c>
+      <c r="JH84" s="32">
+        <v>3959</v>
+      </c>
     </row>
-    <row r="85" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
@@ -67574,11 +67820,14 @@
       <c r="JF85" s="5">
         <v>156</v>
       </c>
-      <c r="JG85" s="34">
+      <c r="JG85" s="6">
         <v>155</v>
       </c>
+      <c r="JH85" s="32">
+        <v>155</v>
+      </c>
     </row>
-    <row r="86" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>80</v>
       </c>
@@ -68377,11 +68626,14 @@
       <c r="JF86" s="5">
         <v>5</v>
       </c>
-      <c r="JG86" s="34">
+      <c r="JG86" s="6">
         <v>9</v>
       </c>
+      <c r="JH86" s="32">
+        <v>8</v>
+      </c>
     </row>
-    <row r="87" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>81</v>
       </c>
@@ -69180,11 +69432,14 @@
       <c r="JF87" s="5">
         <v>0</v>
       </c>
-      <c r="JG87" s="34">
+      <c r="JG87" s="6">
         <v>0</v>
       </c>
+      <c r="JH87" s="32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
@@ -69983,11 +70238,14 @@
       <c r="JF88" s="5">
         <v>5127</v>
       </c>
-      <c r="JG88" s="34">
+      <c r="JG88" s="6">
         <v>5305</v>
       </c>
+      <c r="JH88" s="32">
+        <v>5436</v>
+      </c>
     </row>
-    <row r="89" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>83</v>
       </c>
@@ -70786,11 +71044,14 @@
       <c r="JF89" s="5">
         <v>15795</v>
       </c>
-      <c r="JG89" s="34">
+      <c r="JG89" s="6">
         <v>16447</v>
       </c>
+      <c r="JH89" s="32">
+        <v>16534</v>
+      </c>
     </row>
-    <row r="90" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
@@ -71589,11 +71850,14 @@
       <c r="JF90" s="5">
         <v>407</v>
       </c>
-      <c r="JG90" s="34">
+      <c r="JG90" s="6">
         <v>417</v>
       </c>
+      <c r="JH90" s="32">
+        <v>413</v>
+      </c>
     </row>
-    <row r="91" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
@@ -72392,11 +72656,14 @@
       <c r="JF91" s="5">
         <v>7689</v>
       </c>
-      <c r="JG91" s="34">
+      <c r="JG91" s="6">
         <v>7736</v>
       </c>
+      <c r="JH91" s="32">
+        <v>7628</v>
+      </c>
     </row>
-    <row r="92" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>86</v>
       </c>
@@ -73195,11 +73462,14 @@
       <c r="JF92" s="5">
         <v>2932</v>
       </c>
-      <c r="JG92" s="34">
+      <c r="JG92" s="6">
         <v>2899</v>
       </c>
+      <c r="JH92" s="32">
+        <v>2689</v>
+      </c>
     </row>
-    <row r="93" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -73998,11 +74268,14 @@
       <c r="JF93" s="5">
         <v>682</v>
       </c>
-      <c r="JG93" s="34">
+      <c r="JG93" s="6">
         <v>684</v>
       </c>
+      <c r="JH93" s="32">
+        <v>690</v>
+      </c>
     </row>
-    <row r="94" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
@@ -74801,11 +75074,14 @@
       <c r="JF94" s="5">
         <v>340</v>
       </c>
-      <c r="JG94" s="34">
+      <c r="JG94" s="6">
         <v>387</v>
       </c>
+      <c r="JH94" s="32">
+        <v>420</v>
+      </c>
     </row>
-    <row r="95" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
@@ -75604,11 +75880,14 @@
       <c r="JF95" s="5">
         <v>1298</v>
       </c>
-      <c r="JG95" s="34">
+      <c r="JG95" s="6">
         <v>1384</v>
       </c>
+      <c r="JH95" s="32">
+        <v>1467</v>
+      </c>
     </row>
-    <row r="96" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>90</v>
       </c>
@@ -76407,11 +76686,14 @@
       <c r="JF96" s="5">
         <v>115</v>
       </c>
-      <c r="JG96" s="34">
+      <c r="JG96" s="6">
         <v>116</v>
       </c>
+      <c r="JH96" s="32">
+        <v>115</v>
+      </c>
     </row>
-    <row r="97" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>91</v>
       </c>
@@ -77210,11 +77492,14 @@
       <c r="JF97" s="5">
         <v>1432</v>
       </c>
-      <c r="JG97" s="34">
+      <c r="JG97" s="6">
         <v>1444</v>
       </c>
+      <c r="JH97" s="32">
+        <v>1468</v>
+      </c>
     </row>
-    <row r="98" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>92</v>
       </c>
@@ -78013,11 +78298,14 @@
       <c r="JF98" s="5">
         <v>496</v>
       </c>
-      <c r="JG98" s="34">
+      <c r="JG98" s="6">
         <v>452</v>
       </c>
+      <c r="JH98" s="32">
+        <v>473</v>
+      </c>
     </row>
-    <row r="99" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
@@ -78816,11 +79104,14 @@
       <c r="JF99" s="5">
         <v>37805</v>
       </c>
-      <c r="JG99" s="34">
+      <c r="JG99" s="6">
         <v>38190</v>
       </c>
+      <c r="JH99" s="32">
+        <v>38154</v>
+      </c>
     </row>
-    <row r="100" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>94</v>
       </c>
@@ -79619,11 +79910,14 @@
       <c r="JF100" s="5">
         <v>7959</v>
       </c>
-      <c r="JG100" s="34">
+      <c r="JG100" s="6">
         <v>7954</v>
       </c>
+      <c r="JH100" s="32">
+        <v>8098</v>
+      </c>
     </row>
-    <row r="101" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>95</v>
       </c>
@@ -80422,11 +80716,14 @@
       <c r="JF101" s="5">
         <v>770</v>
       </c>
-      <c r="JG101" s="34">
+      <c r="JG101" s="6">
         <v>1009</v>
       </c>
+      <c r="JH101" s="32">
+        <v>942</v>
+      </c>
     </row>
-    <row r="102" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>96</v>
       </c>
@@ -81225,11 +81522,14 @@
       <c r="JF102" s="5">
         <v>503</v>
       </c>
-      <c r="JG102" s="34">
+      <c r="JG102" s="6">
         <v>514</v>
       </c>
+      <c r="JH102" s="32">
+        <v>546</v>
+      </c>
     </row>
-    <row r="103" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>97</v>
       </c>
@@ -82028,11 +82328,14 @@
       <c r="JF103" s="5">
         <v>104266</v>
       </c>
-      <c r="JG103" s="34">
+      <c r="JG103" s="6">
         <v>105884</v>
       </c>
+      <c r="JH103" s="32">
+        <v>107074</v>
+      </c>
     </row>
-    <row r="104" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>98</v>
       </c>
@@ -82831,11 +83134,14 @@
       <c r="JF104" s="5">
         <v>127343</v>
       </c>
-      <c r="JG104" s="34">
+      <c r="JG104" s="6">
         <v>128445</v>
       </c>
+      <c r="JH104" s="32">
+        <v>128207</v>
+      </c>
     </row>
-    <row r="105" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>99</v>
       </c>
@@ -83634,11 +83940,14 @@
       <c r="JF105" s="5">
         <v>964</v>
       </c>
-      <c r="JG105" s="34">
+      <c r="JG105" s="6">
         <v>946</v>
       </c>
+      <c r="JH105" s="32">
+        <v>860</v>
+      </c>
     </row>
-    <row r="106" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>100</v>
       </c>
@@ -84437,11 +84746,14 @@
       <c r="JF106" s="5">
         <v>1083</v>
       </c>
-      <c r="JG106" s="34">
+      <c r="JG106" s="6">
         <v>1103</v>
       </c>
+      <c r="JH106" s="32">
+        <v>1121</v>
+      </c>
     </row>
-    <row r="107" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>101</v>
       </c>
@@ -85240,11 +85552,14 @@
       <c r="JF107" s="5">
         <v>31113</v>
       </c>
-      <c r="JG107" s="34">
+      <c r="JG107" s="6">
         <v>31140</v>
       </c>
+      <c r="JH107" s="32">
+        <v>31050</v>
+      </c>
     </row>
-    <row r="108" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>102</v>
       </c>
@@ -86043,11 +86358,14 @@
       <c r="JF108" s="5">
         <v>918</v>
       </c>
-      <c r="JG108" s="34">
+      <c r="JG108" s="6">
         <v>909</v>
       </c>
+      <c r="JH108" s="32">
+        <v>907</v>
+      </c>
     </row>
-    <row r="109" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>103</v>
       </c>
@@ -86846,11 +87164,14 @@
       <c r="JF109" s="5">
         <v>396</v>
       </c>
-      <c r="JG109" s="34">
+      <c r="JG109" s="6">
         <v>410</v>
       </c>
+      <c r="JH109" s="32">
+        <v>422</v>
+      </c>
     </row>
-    <row r="110" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>104</v>
       </c>
@@ -87649,11 +87970,14 @@
       <c r="JF110" s="5">
         <v>53</v>
       </c>
-      <c r="JG110" s="34">
+      <c r="JG110" s="6">
         <v>56</v>
       </c>
+      <c r="JH110" s="32">
+        <v>55</v>
+      </c>
     </row>
-    <row r="111" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -88452,11 +88776,14 @@
       <c r="JF111" s="5">
         <v>1944</v>
       </c>
-      <c r="JG111" s="34">
+      <c r="JG111" s="6">
         <v>1925</v>
       </c>
+      <c r="JH111" s="32">
+        <v>1950</v>
+      </c>
     </row>
-    <row r="112" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>106</v>
       </c>
@@ -89255,11 +89582,14 @@
       <c r="JF112" s="5">
         <v>2998</v>
       </c>
-      <c r="JG112" s="34">
+      <c r="JG112" s="6">
         <v>3242</v>
       </c>
+      <c r="JH112" s="32">
+        <v>3228</v>
+      </c>
     </row>
-    <row r="113" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -90058,11 +90388,14 @@
       <c r="JF113" s="5">
         <v>335</v>
       </c>
-      <c r="JG113" s="34">
+      <c r="JG113" s="6">
         <v>338</v>
       </c>
+      <c r="JH113" s="32">
+        <v>333</v>
+      </c>
     </row>
-    <row r="114" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>108</v>
       </c>
@@ -90861,11 +91194,14 @@
       <c r="JF114" s="5">
         <v>3082</v>
       </c>
-      <c r="JG114" s="34">
+      <c r="JG114" s="6">
         <v>3071</v>
       </c>
+      <c r="JH114" s="32">
+        <v>3051</v>
+      </c>
     </row>
-    <row r="115" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>109</v>
       </c>
@@ -91664,11 +92000,14 @@
       <c r="JF115" s="5">
         <v>1510</v>
       </c>
-      <c r="JG115" s="34">
+      <c r="JG115" s="6">
         <v>1514</v>
       </c>
+      <c r="JH115" s="32">
+        <v>1517</v>
+      </c>
     </row>
-    <row r="116" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>110</v>
       </c>
@@ -92467,11 +92806,14 @@
       <c r="JF116" s="5">
         <v>541</v>
       </c>
-      <c r="JG116" s="34">
+      <c r="JG116" s="6">
         <v>536</v>
       </c>
+      <c r="JH116" s="32">
+        <v>547</v>
+      </c>
     </row>
-    <row r="117" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>111</v>
       </c>
@@ -93270,11 +93612,14 @@
       <c r="JF117" s="5">
         <v>2144</v>
       </c>
-      <c r="JG117" s="34">
+      <c r="JG117" s="6">
         <v>2169</v>
       </c>
+      <c r="JH117" s="32">
+        <v>2170</v>
+      </c>
     </row>
-    <row r="118" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>112</v>
       </c>
@@ -94073,11 +94418,14 @@
       <c r="JF118" s="5">
         <v>520</v>
       </c>
-      <c r="JG118" s="34">
+      <c r="JG118" s="6">
         <v>526</v>
       </c>
+      <c r="JH118" s="32">
+        <v>540</v>
+      </c>
     </row>
-    <row r="119" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>113</v>
       </c>
@@ -94876,11 +95224,14 @@
       <c r="JF119" s="5">
         <v>1061</v>
       </c>
-      <c r="JG119" s="34">
+      <c r="JG119" s="6">
         <v>1077</v>
       </c>
+      <c r="JH119" s="32">
+        <v>1092</v>
+      </c>
     </row>
-    <row r="120" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>114</v>
       </c>
@@ -95679,11 +96030,14 @@
       <c r="JF120" s="5">
         <v>42</v>
       </c>
-      <c r="JG120" s="34">
+      <c r="JG120" s="6">
         <v>42</v>
       </c>
+      <c r="JH120" s="32">
+        <v>42</v>
+      </c>
     </row>
-    <row r="121" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>115</v>
       </c>
@@ -96482,11 +96836,14 @@
       <c r="JF121" s="5">
         <v>655</v>
       </c>
-      <c r="JG121" s="34">
+      <c r="JG121" s="6">
         <v>656</v>
       </c>
+      <c r="JH121" s="32">
+        <v>651</v>
+      </c>
     </row>
-    <row r="122" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>116</v>
       </c>
@@ -97285,11 +97642,14 @@
       <c r="JF122" s="5">
         <v>124</v>
       </c>
-      <c r="JG122" s="34">
+      <c r="JG122" s="6">
         <v>146</v>
       </c>
+      <c r="JH122" s="32">
+        <v>158</v>
+      </c>
     </row>
-    <row r="123" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>117</v>
       </c>
@@ -98088,11 +98448,14 @@
       <c r="JF123" s="5">
         <v>514</v>
       </c>
-      <c r="JG123" s="34">
+      <c r="JG123" s="6">
         <v>499</v>
       </c>
+      <c r="JH123" s="32">
+        <v>522</v>
+      </c>
     </row>
-    <row r="124" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>118</v>
       </c>
@@ -98891,11 +99254,14 @@
       <c r="JF124" s="5">
         <v>2597</v>
       </c>
-      <c r="JG124" s="34">
+      <c r="JG124" s="6">
         <v>1694</v>
       </c>
+      <c r="JH124" s="32">
+        <v>2752</v>
+      </c>
     </row>
-    <row r="125" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>119</v>
       </c>
@@ -99694,11 +100060,14 @@
       <c r="JF125" s="5">
         <v>425400</v>
       </c>
-      <c r="JG125" s="34">
+      <c r="JG125" s="6">
         <v>429888</v>
       </c>
+      <c r="JH125" s="32">
+        <v>434729</v>
+      </c>
     </row>
-    <row r="126" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>120</v>
       </c>
@@ -100497,11 +100866,14 @@
       <c r="JF126" s="5">
         <v>5945</v>
       </c>
-      <c r="JG126" s="34">
+      <c r="JG126" s="6">
         <v>6222</v>
       </c>
+      <c r="JH126" s="32">
+        <v>6096</v>
+      </c>
     </row>
-    <row r="127" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>121</v>
       </c>
@@ -101300,11 +101672,14 @@
       <c r="JF127" s="5">
         <v>49</v>
       </c>
-      <c r="JG127" s="34">
+      <c r="JG127" s="6">
         <v>49</v>
       </c>
+      <c r="JH127" s="32">
+        <v>52</v>
+      </c>
     </row>
-    <row r="128" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>122</v>
       </c>
@@ -102103,11 +102478,14 @@
       <c r="JF128" s="5">
         <v>2371</v>
       </c>
-      <c r="JG128" s="34">
+      <c r="JG128" s="6">
         <v>2412</v>
       </c>
+      <c r="JH128" s="32">
+        <v>2451</v>
+      </c>
     </row>
-    <row r="129" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>123</v>
       </c>
@@ -102906,11 +103284,14 @@
       <c r="JF129" s="5">
         <v>36578</v>
       </c>
-      <c r="JG129" s="34">
+      <c r="JG129" s="6">
         <v>37553</v>
       </c>
+      <c r="JH129" s="32">
+        <v>38164</v>
+      </c>
     </row>
-    <row r="130" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>124</v>
       </c>
@@ -103709,11 +104090,14 @@
       <c r="JF130" s="5">
         <v>6594</v>
       </c>
-      <c r="JG130" s="34">
+      <c r="JG130" s="6">
         <v>6684</v>
       </c>
+      <c r="JH130" s="32">
+        <v>6527</v>
+      </c>
     </row>
-    <row r="131" spans="1:267" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:268" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="20" t="s">
         <v>127</v>
       </c>
@@ -104512,11 +104896,14 @@
       <c r="JF131" s="22">
         <v>1861159</v>
       </c>
-      <c r="JG131" s="35">
+      <c r="JG131" s="21">
         <v>1874622</v>
       </c>
+      <c r="JH131" s="33">
+        <v>1886776</v>
+      </c>
     </row>
-    <row r="132" spans="1:267" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:268" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
@@ -104764,7 +105151,7 @@
       <c r="IL132" s="18"/>
       <c r="IM132" s="18"/>
     </row>
-    <row r="133" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>126</v>
       </c>

--- a/Historicos/ta_municipios_jalisco.xlsx
+++ b/Historicos/ta_municipios_jalisco.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="19195" windowHeight="6344"/>
   </bookViews>
   <sheets>
     <sheet name="ta municipios" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="142">
   <si>
     <t>Acatic</t>
   </si>
@@ -1247,14 +1247,14 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -1605,140 +1605,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH145"/>
+  <dimension ref="A1:JJ145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12"/>
+      <selection pane="topRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="33" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="33" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="45" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="38" max="45" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="11" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="57" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="50" max="57" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.125" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="11" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="69" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="62" max="69" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.125" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="11" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="74" max="81" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="74" max="81" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="9.125" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="11" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="93" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="86" max="93" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="9.125" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="11" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="98" max="105" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="98" max="105" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="9.125" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="11" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="110" max="117" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="110" max="117" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="9.125" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="11" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="122" max="129" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="122" max="129" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="9.125" bestFit="1" customWidth="1"/>
     <col min="132" max="132" width="11" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="134" max="141" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="134" max="141" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="9.125" bestFit="1" customWidth="1"/>
     <col min="144" max="144" width="11" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="146" max="153" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="146" max="153" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="9.125" bestFit="1" customWidth="1"/>
     <col min="156" max="156" width="11" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="158" max="165" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="158" max="165" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="9.125" bestFit="1" customWidth="1"/>
     <col min="168" max="168" width="11" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="170" max="177" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="170" max="177" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="9.125" bestFit="1" customWidth="1"/>
     <col min="180" max="180" width="11" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="182" max="189" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="182" max="189" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="9.125" bestFit="1" customWidth="1"/>
     <col min="192" max="192" width="11" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="194" max="201" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="194" max="201" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="9.125" bestFit="1" customWidth="1"/>
     <col min="204" max="204" width="11" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="206" max="213" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="206" max="213" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="9.125" bestFit="1" customWidth="1"/>
     <col min="216" max="216" width="11" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="218" max="225" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="218" max="225" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="9.125" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="11" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="230" max="237" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="230" max="237" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="9.125" bestFit="1" customWidth="1"/>
     <col min="240" max="240" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="10.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="242" max="249" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="10.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="242" max="249" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="9.125" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="11" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="12.42578125" customWidth="1"/>
-    <col min="265" max="265" width="11.7109375" customWidth="1"/>
+    <col min="257" max="257" width="12.375" customWidth="1"/>
+    <col min="265" max="265" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="7">
@@ -2539,12 +2539,15 @@
       <c r="JG4" s="28">
         <v>2022</v>
       </c>
-      <c r="JH4" s="29">
+      <c r="JH4" s="28">
         <v>2022</v>
       </c>
+      <c r="JI4" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+    <row r="5" spans="1:269" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
       <c r="B5" s="4" t="s">
         <v>129</v>
       </c>
@@ -3340,14 +3343,17 @@
       <c r="JF5" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="JG5" s="38" t="s">
+      <c r="JG5" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="JH5" s="35" t="s">
+      <c r="JH5" s="36" t="s">
         <v>131</v>
       </c>
+      <c r="JI5" s="35" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="6" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -4149,11 +4155,14 @@
       <c r="JG6" s="6">
         <v>4997</v>
       </c>
-      <c r="JH6" s="32">
+      <c r="JH6" s="6">
         <v>5113</v>
       </c>
+      <c r="JI6" s="32">
+        <v>5118</v>
+      </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -4955,11 +4964,14 @@
       <c r="JG7" s="6">
         <v>7978</v>
       </c>
-      <c r="JH7" s="32">
+      <c r="JH7" s="6">
         <v>7927</v>
       </c>
+      <c r="JI7" s="32">
+        <v>7996</v>
+      </c>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -5761,11 +5773,14 @@
       <c r="JG8" s="6">
         <v>1464</v>
       </c>
-      <c r="JH8" s="32">
+      <c r="JH8" s="6">
         <v>1423</v>
       </c>
+      <c r="JI8" s="32">
+        <v>1430</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -6567,11 +6582,14 @@
       <c r="JG9" s="6">
         <v>93</v>
       </c>
-      <c r="JH9" s="32">
+      <c r="JH9" s="6">
         <v>120</v>
       </c>
+      <c r="JI9" s="32">
+        <v>116</v>
+      </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -7373,11 +7391,14 @@
       <c r="JG10" s="6">
         <v>3766</v>
       </c>
-      <c r="JH10" s="32">
+      <c r="JH10" s="6">
         <v>4203</v>
       </c>
+      <c r="JI10" s="32">
+        <v>4174</v>
+      </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -8179,11 +8200,14 @@
       <c r="JG11" s="6">
         <v>7562</v>
       </c>
-      <c r="JH11" s="32">
+      <c r="JH11" s="6">
         <v>7536</v>
       </c>
+      <c r="JI11" s="32">
+        <v>7544</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -8985,11 +9009,14 @@
       <c r="JG12" s="6">
         <v>12843</v>
       </c>
-      <c r="JH12" s="32">
+      <c r="JH12" s="6">
         <v>12762</v>
       </c>
+      <c r="JI12" s="32">
+        <v>12826</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -9791,11 +9818,14 @@
       <c r="JG13" s="6">
         <v>915</v>
       </c>
-      <c r="JH13" s="32">
+      <c r="JH13" s="6">
         <v>1047</v>
       </c>
+      <c r="JI13" s="32">
+        <v>804</v>
+      </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -10597,11 +10627,14 @@
       <c r="JG14" s="6">
         <v>22</v>
       </c>
-      <c r="JH14" s="32">
+      <c r="JH14" s="6">
         <v>26</v>
       </c>
+      <c r="JI14" s="32">
+        <v>24</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -11403,11 +11436,14 @@
       <c r="JG15" s="6">
         <v>91</v>
       </c>
-      <c r="JH15" s="32">
+      <c r="JH15" s="6">
         <v>88</v>
       </c>
+      <c r="JI15" s="32">
+        <v>81</v>
+      </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -12209,11 +12245,14 @@
       <c r="JG16" s="6">
         <v>11450</v>
       </c>
-      <c r="JH16" s="32">
+      <c r="JH16" s="6">
         <v>11652</v>
       </c>
+      <c r="JI16" s="32">
+        <v>11809</v>
+      </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -13015,11 +13054,14 @@
       <c r="JG17" s="6">
         <v>614</v>
       </c>
-      <c r="JH17" s="32">
+      <c r="JH17" s="6">
         <v>610</v>
       </c>
+      <c r="JI17" s="32">
+        <v>598</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -13821,11 +13863,14 @@
       <c r="JG18" s="6">
         <v>11399</v>
       </c>
-      <c r="JH18" s="32">
+      <c r="JH18" s="6">
         <v>11291</v>
       </c>
+      <c r="JI18" s="32">
+        <v>11805</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -14627,11 +14672,14 @@
       <c r="JG19" s="6">
         <v>3638</v>
       </c>
-      <c r="JH19" s="32">
+      <c r="JH19" s="6">
         <v>3755</v>
       </c>
+      <c r="JI19" s="32">
+        <v>3770</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -15433,11 +15481,14 @@
       <c r="JG20" s="6">
         <v>342</v>
       </c>
-      <c r="JH20" s="32">
+      <c r="JH20" s="6">
         <v>353</v>
       </c>
+      <c r="JI20" s="32">
+        <v>361</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -16239,11 +16290,14 @@
       <c r="JG21" s="6">
         <v>705</v>
       </c>
-      <c r="JH21" s="32">
+      <c r="JH21" s="6">
         <v>674</v>
       </c>
+      <c r="JI21" s="32">
+        <v>675</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -17045,11 +17099,14 @@
       <c r="JG22" s="6">
         <v>298</v>
       </c>
-      <c r="JH22" s="32">
+      <c r="JH22" s="6">
         <v>295</v>
       </c>
+      <c r="JI22" s="32">
+        <v>296</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -17851,11 +17908,14 @@
       <c r="JG23" s="6">
         <v>151</v>
       </c>
-      <c r="JH23" s="32">
+      <c r="JH23" s="6">
         <v>156</v>
       </c>
+      <c r="JI23" s="32">
+        <v>152</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -18657,11 +18717,14 @@
       <c r="JG24" s="6">
         <v>3416</v>
       </c>
-      <c r="JH24" s="32">
+      <c r="JH24" s="6">
         <v>3412</v>
       </c>
+      <c r="JI24" s="32">
+        <v>3254</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -19463,11 +19526,14 @@
       <c r="JG25" s="6">
         <v>5998</v>
       </c>
-      <c r="JH25" s="32">
+      <c r="JH25" s="6">
         <v>5902</v>
       </c>
+      <c r="JI25" s="32">
+        <v>5978</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -20269,11 +20335,14 @@
       <c r="JG26" s="6">
         <v>3</v>
       </c>
-      <c r="JH26" s="32">
+      <c r="JH26" s="6">
         <v>3</v>
       </c>
+      <c r="JI26" s="32">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -21075,11 +21144,14 @@
       <c r="JG27" s="6">
         <v>192</v>
       </c>
-      <c r="JH27" s="32">
+      <c r="JH27" s="6">
         <v>193</v>
       </c>
+      <c r="JI27" s="32">
+        <v>194</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -21881,11 +21953,14 @@
       <c r="JG28" s="6">
         <v>2255</v>
       </c>
-      <c r="JH28" s="32">
+      <c r="JH28" s="6">
         <v>2263</v>
       </c>
+      <c r="JI28" s="32">
+        <v>2250</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -22687,11 +22762,14 @@
       <c r="JG29" s="6">
         <v>2866</v>
       </c>
-      <c r="JH29" s="32">
+      <c r="JH29" s="6">
         <v>2952</v>
       </c>
+      <c r="JI29" s="32">
+        <v>2957</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -23493,11 +23571,14 @@
       <c r="JG30" s="6">
         <v>603</v>
       </c>
-      <c r="JH30" s="32">
+      <c r="JH30" s="6">
         <v>657</v>
       </c>
+      <c r="JI30" s="32">
+        <v>681</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
@@ -24299,11 +24380,14 @@
       <c r="JG31" s="6">
         <v>128</v>
       </c>
-      <c r="JH31" s="32">
+      <c r="JH31" s="6">
         <v>128</v>
       </c>
+      <c r="JI31" s="32">
+        <v>134</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
@@ -25105,11 +25189,14 @@
       <c r="JG32" s="6">
         <v>49</v>
       </c>
-      <c r="JH32" s="32">
+      <c r="JH32" s="6">
         <v>48</v>
       </c>
+      <c r="JI32" s="32">
+        <v>47</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -25911,11 +25998,14 @@
       <c r="JG33" s="6">
         <v>59</v>
       </c>
-      <c r="JH33" s="32">
+      <c r="JH33" s="6">
         <v>59</v>
       </c>
+      <c r="JI33" s="32">
+        <v>58</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -26717,11 +26807,14 @@
       <c r="JG34" s="6">
         <v>212</v>
       </c>
-      <c r="JH34" s="32">
+      <c r="JH34" s="6">
         <v>212</v>
       </c>
+      <c r="JI34" s="32">
+        <v>214</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -27523,11 +27616,14 @@
       <c r="JG35" s="6">
         <v>988</v>
       </c>
-      <c r="JH35" s="32">
+      <c r="JH35" s="6">
         <v>1019</v>
       </c>
+      <c r="JI35" s="32">
+        <v>1011</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -28329,11 +28425,14 @@
       <c r="JG36" s="6">
         <v>9</v>
       </c>
-      <c r="JH36" s="32">
+      <c r="JH36" s="6">
         <v>8</v>
       </c>
+      <c r="JI36" s="32">
+        <v>8</v>
+      </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -29135,11 +29234,14 @@
       <c r="JG37" s="6">
         <v>3453</v>
       </c>
-      <c r="JH37" s="32">
+      <c r="JH37" s="6">
         <v>3619</v>
       </c>
+      <c r="JI37" s="32">
+        <v>3679</v>
+      </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -29941,11 +30043,14 @@
       <c r="JG38" s="6">
         <v>2470</v>
       </c>
-      <c r="JH38" s="32">
+      <c r="JH38" s="6">
         <v>2462</v>
       </c>
+      <c r="JI38" s="32">
+        <v>2456</v>
+      </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
@@ -30747,11 +30852,14 @@
       <c r="JG39" s="6">
         <v>156</v>
       </c>
-      <c r="JH39" s="32">
+      <c r="JH39" s="6">
         <v>155</v>
       </c>
+      <c r="JI39" s="32">
+        <v>153</v>
+      </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
@@ -31553,11 +31661,14 @@
       <c r="JG40" s="6">
         <v>62608</v>
       </c>
-      <c r="JH40" s="32">
+      <c r="JH40" s="6">
         <v>63458</v>
       </c>
+      <c r="JI40" s="32">
+        <v>63578</v>
+      </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -32359,11 +32470,14 @@
       <c r="JG41" s="6">
         <v>3523</v>
       </c>
-      <c r="JH41" s="32">
+      <c r="JH41" s="6">
         <v>3522</v>
       </c>
+      <c r="JI41" s="32">
+        <v>3493</v>
+      </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -33165,11 +33279,14 @@
       <c r="JG42" s="6">
         <v>708</v>
       </c>
-      <c r="JH42" s="32">
+      <c r="JH42" s="6">
         <v>727</v>
       </c>
+      <c r="JI42" s="32">
+        <v>734</v>
+      </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -33971,11 +34088,14 @@
       <c r="JG43" s="6">
         <v>2760</v>
       </c>
-      <c r="JH43" s="32">
+      <c r="JH43" s="6">
         <v>2655</v>
       </c>
+      <c r="JI43" s="32">
+        <v>2626</v>
+      </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -34777,11 +34897,14 @@
       <c r="JG44" s="6">
         <v>157</v>
       </c>
-      <c r="JH44" s="32">
+      <c r="JH44" s="6">
         <v>153</v>
       </c>
+      <c r="JI44" s="32">
+        <v>151</v>
+      </c>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -35583,11 +35706,14 @@
       <c r="JG45" s="6">
         <v>664750</v>
       </c>
-      <c r="JH45" s="32">
+      <c r="JH45" s="6">
         <v>666729</v>
       </c>
+      <c r="JI45" s="32">
+        <v>667130</v>
+      </c>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
@@ -36389,11 +36515,14 @@
       <c r="JG46" s="6">
         <v>193</v>
       </c>
-      <c r="JH46" s="32">
+      <c r="JH46" s="6">
         <v>189</v>
       </c>
+      <c r="JI46" s="32">
+        <v>190</v>
+      </c>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
@@ -37195,11 +37324,14 @@
       <c r="JG47" s="6">
         <v>98</v>
       </c>
-      <c r="JH47" s="32">
+      <c r="JH47" s="6">
         <v>98</v>
       </c>
+      <c r="JI47" s="32">
+        <v>96</v>
+      </c>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -38001,11 +38133,14 @@
       <c r="JG48" s="6">
         <v>1056</v>
       </c>
-      <c r="JH48" s="32">
+      <c r="JH48" s="6">
         <v>1045</v>
       </c>
+      <c r="JI48" s="32">
+        <v>1257</v>
+      </c>
     </row>
-    <row r="49" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -38807,11 +38942,14 @@
       <c r="JG49" s="6">
         <v>4650</v>
       </c>
-      <c r="JH49" s="32">
+      <c r="JH49" s="6">
         <v>4684</v>
       </c>
+      <c r="JI49" s="32">
+        <v>4688</v>
+      </c>
     </row>
-    <row r="50" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -39613,11 +39751,14 @@
       <c r="JG50" s="6">
         <v>582</v>
       </c>
-      <c r="JH50" s="32">
+      <c r="JH50" s="6">
         <v>578</v>
       </c>
+      <c r="JI50" s="32">
+        <v>595</v>
+      </c>
     </row>
-    <row r="51" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -40419,11 +40560,14 @@
       <c r="JG51" s="6">
         <v>2697</v>
       </c>
-      <c r="JH51" s="32">
+      <c r="JH51" s="6">
         <v>2693</v>
       </c>
+      <c r="JI51" s="32">
+        <v>2727</v>
+      </c>
     </row>
-    <row r="52" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -41225,11 +41369,14 @@
       <c r="JG52" s="6">
         <v>1386</v>
       </c>
-      <c r="JH52" s="32">
+      <c r="JH52" s="6">
         <v>1386</v>
       </c>
+      <c r="JI52" s="32">
+        <v>1410</v>
+      </c>
     </row>
-    <row r="53" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -42031,11 +42178,14 @@
       <c r="JG53" s="6">
         <v>1917</v>
       </c>
-      <c r="JH53" s="32">
+      <c r="JH53" s="6">
         <v>1961</v>
       </c>
+      <c r="JI53" s="32">
+        <v>1920</v>
+      </c>
     </row>
-    <row r="54" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>48</v>
       </c>
@@ -42837,11 +42987,14 @@
       <c r="JG54" s="6">
         <v>58</v>
       </c>
-      <c r="JH54" s="32">
+      <c r="JH54" s="6">
         <v>57</v>
       </c>
+      <c r="JI54" s="32">
+        <v>57</v>
+      </c>
     </row>
-    <row r="55" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
@@ -43643,11 +43796,14 @@
       <c r="JG55" s="6">
         <v>8103</v>
       </c>
-      <c r="JH55" s="32">
+      <c r="JH55" s="6">
         <v>8075</v>
       </c>
+      <c r="JI55" s="32">
+        <v>7804</v>
+      </c>
     </row>
-    <row r="56" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -44449,11 +44605,14 @@
       <c r="JG56" s="6">
         <v>1402</v>
       </c>
-      <c r="JH56" s="32">
+      <c r="JH56" s="6">
         <v>1423</v>
       </c>
+      <c r="JI56" s="32">
+        <v>1428</v>
+      </c>
     </row>
-    <row r="57" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>51</v>
       </c>
@@ -45255,11 +45414,14 @@
       <c r="JG57" s="6">
         <v>85</v>
       </c>
-      <c r="JH57" s="32">
+      <c r="JH57" s="6">
         <v>84</v>
       </c>
+      <c r="JI57" s="32">
+        <v>85</v>
+      </c>
     </row>
-    <row r="58" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -46061,11 +46223,14 @@
       <c r="JG58" s="6">
         <v>5039</v>
       </c>
-      <c r="JH58" s="32">
+      <c r="JH58" s="6">
         <v>4853</v>
       </c>
+      <c r="JI58" s="32">
+        <v>4918</v>
+      </c>
     </row>
-    <row r="59" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>53</v>
       </c>
@@ -46867,11 +47032,14 @@
       <c r="JG59" s="6">
         <v>2167</v>
       </c>
-      <c r="JH59" s="32">
+      <c r="JH59" s="6">
         <v>2121</v>
       </c>
+      <c r="JI59" s="32">
+        <v>2115</v>
+      </c>
     </row>
-    <row r="60" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
@@ -47673,11 +47841,14 @@
       <c r="JG60" s="6">
         <v>145</v>
       </c>
-      <c r="JH60" s="32">
+      <c r="JH60" s="6">
         <v>145</v>
       </c>
+      <c r="JI60" s="32">
+        <v>148</v>
+      </c>
     </row>
-    <row r="61" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>55</v>
       </c>
@@ -48479,11 +48650,14 @@
       <c r="JG61" s="6">
         <v>35145</v>
       </c>
-      <c r="JH61" s="32">
+      <c r="JH61" s="6">
         <v>35730</v>
       </c>
+      <c r="JI61" s="32">
+        <v>35554</v>
+      </c>
     </row>
-    <row r="62" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -49285,11 +49459,14 @@
       <c r="JG62" s="6">
         <v>1138</v>
       </c>
-      <c r="JH62" s="32">
+      <c r="JH62" s="6">
         <v>1121</v>
       </c>
+      <c r="JI62" s="32">
+        <v>1184</v>
+      </c>
     </row>
-    <row r="63" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
@@ -50091,11 +50268,14 @@
       <c r="JG63" s="6">
         <v>563</v>
       </c>
-      <c r="JH63" s="32">
+      <c r="JH63" s="6">
         <v>564</v>
       </c>
+      <c r="JI63" s="32">
+        <v>553</v>
+      </c>
     </row>
-    <row r="64" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
@@ -50897,11 +51077,14 @@
       <c r="JG64" s="6">
         <v>1115</v>
       </c>
-      <c r="JH64" s="32">
+      <c r="JH64" s="6">
         <v>1068</v>
       </c>
+      <c r="JI64" s="32">
+        <v>1062</v>
+      </c>
     </row>
-    <row r="65" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>59</v>
       </c>
@@ -51703,11 +51886,14 @@
       <c r="JG65" s="6">
         <v>15</v>
       </c>
-      <c r="JH65" s="32">
+      <c r="JH65" s="6">
         <v>14</v>
       </c>
+      <c r="JI65" s="32">
+        <v>14</v>
+      </c>
     </row>
-    <row r="66" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>60</v>
       </c>
@@ -52509,11 +52695,14 @@
       <c r="JG66" s="6">
         <v>186</v>
       </c>
-      <c r="JH66" s="32">
+      <c r="JH66" s="6">
         <v>189</v>
       </c>
+      <c r="JI66" s="32">
+        <v>206</v>
+      </c>
     </row>
-    <row r="67" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>61</v>
       </c>
@@ -53315,11 +53504,14 @@
       <c r="JG67" s="6">
         <v>34</v>
       </c>
-      <c r="JH67" s="32">
+      <c r="JH67" s="6">
         <v>34</v>
       </c>
+      <c r="JI67" s="32">
+        <v>37</v>
+      </c>
     </row>
-    <row r="68" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>62</v>
       </c>
@@ -54121,11 +54313,14 @@
       <c r="JG68" s="6">
         <v>21978</v>
       </c>
-      <c r="JH68" s="32">
+      <c r="JH68" s="6">
         <v>22096</v>
       </c>
+      <c r="JI68" s="32">
+        <v>22030</v>
+      </c>
     </row>
-    <row r="69" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>63</v>
       </c>
@@ -54927,11 +55122,14 @@
       <c r="JG69" s="6">
         <v>584</v>
       </c>
-      <c r="JH69" s="32">
+      <c r="JH69" s="6">
         <v>560</v>
       </c>
+      <c r="JI69" s="32">
+        <v>548</v>
+      </c>
     </row>
-    <row r="70" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>64</v>
       </c>
@@ -55733,11 +55931,14 @@
       <c r="JG70" s="6">
         <v>537</v>
       </c>
-      <c r="JH70" s="32">
+      <c r="JH70" s="6">
         <v>541</v>
       </c>
+      <c r="JI70" s="32">
+        <v>529</v>
+      </c>
     </row>
-    <row r="71" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>65</v>
       </c>
@@ -56539,11 +56740,14 @@
       <c r="JG71" s="6">
         <v>4994</v>
       </c>
-      <c r="JH71" s="32">
+      <c r="JH71" s="6">
         <v>4865</v>
       </c>
+      <c r="JI71" s="32">
+        <v>4722</v>
+      </c>
     </row>
-    <row r="72" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>66</v>
       </c>
@@ -57345,11 +57549,14 @@
       <c r="JG72" s="6">
         <v>71935</v>
       </c>
-      <c r="JH72" s="32">
+      <c r="JH72" s="6">
         <v>73125</v>
       </c>
+      <c r="JI72" s="32">
+        <v>73222</v>
+      </c>
     </row>
-    <row r="73" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
@@ -58151,11 +58358,14 @@
       <c r="JG73" s="6">
         <v>18</v>
       </c>
-      <c r="JH73" s="32">
+      <c r="JH73" s="6">
         <v>13</v>
       </c>
+      <c r="JI73" s="32">
+        <v>13</v>
+      </c>
     </row>
-    <row r="74" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>68</v>
       </c>
@@ -58957,11 +59167,14 @@
       <c r="JG74" s="6">
         <v>31</v>
       </c>
-      <c r="JH74" s="32">
+      <c r="JH74" s="6">
         <v>31</v>
       </c>
+      <c r="JI74" s="32">
+        <v>31</v>
+      </c>
     </row>
-    <row r="75" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>69</v>
       </c>
@@ -59763,11 +59976,14 @@
       <c r="JG75" s="6">
         <v>77</v>
       </c>
-      <c r="JH75" s="32">
+      <c r="JH75" s="6">
         <v>75</v>
       </c>
+      <c r="JI75" s="32">
+        <v>74</v>
+      </c>
     </row>
-    <row r="76" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>70</v>
       </c>
@@ -60569,11 +60785,14 @@
       <c r="JG76" s="6">
         <v>3538</v>
       </c>
-      <c r="JH76" s="32">
+      <c r="JH76" s="6">
         <v>3346</v>
       </c>
+      <c r="JI76" s="32">
+        <v>3564</v>
+      </c>
     </row>
-    <row r="77" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
@@ -61375,11 +61594,14 @@
       <c r="JG77" s="6">
         <v>905</v>
       </c>
-      <c r="JH77" s="32">
+      <c r="JH77" s="6">
         <v>887</v>
       </c>
+      <c r="JI77" s="32">
+        <v>985</v>
+      </c>
     </row>
-    <row r="78" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
@@ -62181,11 +62403,14 @@
       <c r="JG78" s="6">
         <v>15929</v>
       </c>
-      <c r="JH78" s="32">
+      <c r="JH78" s="6">
         <v>15840</v>
       </c>
+      <c r="JI78" s="32">
+        <v>15950</v>
+      </c>
     </row>
-    <row r="79" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
@@ -62987,11 +63212,14 @@
       <c r="JG79" s="6">
         <v>215</v>
       </c>
-      <c r="JH79" s="32">
+      <c r="JH79" s="6">
         <v>222</v>
       </c>
+      <c r="JI79" s="32">
+        <v>235</v>
+      </c>
     </row>
-    <row r="80" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>74</v>
       </c>
@@ -63793,11 +64021,14 @@
       <c r="JG80" s="6">
         <v>873</v>
       </c>
-      <c r="JH80" s="32">
+      <c r="JH80" s="6">
         <v>882</v>
       </c>
+      <c r="JI80" s="32">
+        <v>880</v>
+      </c>
     </row>
-    <row r="81" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
@@ -64599,11 +64830,14 @@
       <c r="JG81" s="6">
         <v>29</v>
       </c>
-      <c r="JH81" s="32">
+      <c r="JH81" s="6">
         <v>29</v>
       </c>
+      <c r="JI81" s="32">
+        <v>29</v>
+      </c>
     </row>
-    <row r="82" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>76</v>
       </c>
@@ -65405,11 +65639,14 @@
       <c r="JG82" s="6">
         <v>112</v>
       </c>
-      <c r="JH82" s="32">
+      <c r="JH82" s="6">
         <v>106</v>
       </c>
+      <c r="JI82" s="32">
+        <v>103</v>
+      </c>
     </row>
-    <row r="83" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>77</v>
       </c>
@@ -66211,11 +66448,14 @@
       <c r="JG83" s="6">
         <v>1191</v>
       </c>
-      <c r="JH83" s="32">
+      <c r="JH83" s="6">
         <v>1216</v>
       </c>
+      <c r="JI83" s="32">
+        <v>1228</v>
+      </c>
     </row>
-    <row r="84" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
@@ -67017,11 +67257,14 @@
       <c r="JG84" s="6">
         <v>3973</v>
       </c>
-      <c r="JH84" s="32">
+      <c r="JH84" s="6">
         <v>3959</v>
       </c>
+      <c r="JI84" s="32">
+        <v>3978</v>
+      </c>
     </row>
-    <row r="85" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
@@ -67823,11 +68066,14 @@
       <c r="JG85" s="6">
         <v>155</v>
       </c>
-      <c r="JH85" s="32">
+      <c r="JH85" s="6">
         <v>155</v>
       </c>
+      <c r="JI85" s="32">
+        <v>170</v>
+      </c>
     </row>
-    <row r="86" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>80</v>
       </c>
@@ -68629,11 +68875,14 @@
       <c r="JG86" s="6">
         <v>9</v>
       </c>
-      <c r="JH86" s="32">
+      <c r="JH86" s="6">
         <v>8</v>
       </c>
+      <c r="JI86" s="32">
+        <v>8</v>
+      </c>
     </row>
-    <row r="87" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>81</v>
       </c>
@@ -69435,11 +69684,14 @@
       <c r="JG87" s="6">
         <v>0</v>
       </c>
-      <c r="JH87" s="32">
+      <c r="JH87" s="6">
         <v>0</v>
       </c>
+      <c r="JI87" s="32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
@@ -70241,11 +70493,14 @@
       <c r="JG88" s="6">
         <v>5305</v>
       </c>
-      <c r="JH88" s="32">
+      <c r="JH88" s="6">
         <v>5436</v>
       </c>
+      <c r="JI88" s="32">
+        <v>5461</v>
+      </c>
     </row>
-    <row r="89" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>83</v>
       </c>
@@ -71047,11 +71302,14 @@
       <c r="JG89" s="6">
         <v>16447</v>
       </c>
-      <c r="JH89" s="32">
+      <c r="JH89" s="6">
         <v>16534</v>
       </c>
+      <c r="JI89" s="32">
+        <v>16203</v>
+      </c>
     </row>
-    <row r="90" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
@@ -71853,11 +72111,14 @@
       <c r="JG90" s="6">
         <v>417</v>
       </c>
-      <c r="JH90" s="32">
+      <c r="JH90" s="6">
         <v>413</v>
       </c>
+      <c r="JI90" s="32">
+        <v>405</v>
+      </c>
     </row>
-    <row r="91" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
@@ -72659,11 +72920,14 @@
       <c r="JG91" s="6">
         <v>7736</v>
       </c>
-      <c r="JH91" s="32">
+      <c r="JH91" s="6">
         <v>7628</v>
       </c>
+      <c r="JI91" s="32">
+        <v>7512</v>
+      </c>
     </row>
-    <row r="92" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>86</v>
       </c>
@@ -73465,11 +73729,14 @@
       <c r="JG92" s="6">
         <v>2899</v>
       </c>
-      <c r="JH92" s="32">
+      <c r="JH92" s="6">
         <v>2689</v>
       </c>
+      <c r="JI92" s="32">
+        <v>2541</v>
+      </c>
     </row>
-    <row r="93" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -74271,11 +74538,14 @@
       <c r="JG93" s="6">
         <v>684</v>
       </c>
-      <c r="JH93" s="32">
+      <c r="JH93" s="6">
         <v>690</v>
       </c>
+      <c r="JI93" s="32">
+        <v>697</v>
+      </c>
     </row>
-    <row r="94" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
@@ -75077,11 +75347,14 @@
       <c r="JG94" s="6">
         <v>387</v>
       </c>
-      <c r="JH94" s="32">
+      <c r="JH94" s="6">
         <v>420</v>
       </c>
+      <c r="JI94" s="32">
+        <v>347</v>
+      </c>
     </row>
-    <row r="95" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
@@ -75883,11 +76156,14 @@
       <c r="JG95" s="6">
         <v>1384</v>
       </c>
-      <c r="JH95" s="32">
+      <c r="JH95" s="6">
         <v>1467</v>
       </c>
+      <c r="JI95" s="32">
+        <v>1469</v>
+      </c>
     </row>
-    <row r="96" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>90</v>
       </c>
@@ -76689,11 +76965,14 @@
       <c r="JG96" s="6">
         <v>116</v>
       </c>
-      <c r="JH96" s="32">
+      <c r="JH96" s="6">
         <v>115</v>
       </c>
+      <c r="JI96" s="32">
+        <v>117</v>
+      </c>
     </row>
-    <row r="97" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>91</v>
       </c>
@@ -77495,11 +77774,14 @@
       <c r="JG97" s="6">
         <v>1444</v>
       </c>
-      <c r="JH97" s="32">
+      <c r="JH97" s="6">
         <v>1468</v>
       </c>
+      <c r="JI97" s="32">
+        <v>1454</v>
+      </c>
     </row>
-    <row r="98" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>92</v>
       </c>
@@ -78301,11 +78583,14 @@
       <c r="JG98" s="6">
         <v>452</v>
       </c>
-      <c r="JH98" s="32">
+      <c r="JH98" s="6">
         <v>473</v>
       </c>
+      <c r="JI98" s="32">
+        <v>476</v>
+      </c>
     </row>
-    <row r="99" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
@@ -79107,11 +79392,14 @@
       <c r="JG99" s="6">
         <v>38190</v>
       </c>
-      <c r="JH99" s="32">
+      <c r="JH99" s="6">
         <v>38154</v>
       </c>
+      <c r="JI99" s="32">
+        <v>38003</v>
+      </c>
     </row>
-    <row r="100" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>94</v>
       </c>
@@ -79913,11 +80201,14 @@
       <c r="JG100" s="6">
         <v>7954</v>
       </c>
-      <c r="JH100" s="32">
+      <c r="JH100" s="6">
         <v>8098</v>
       </c>
+      <c r="JI100" s="32">
+        <v>8056</v>
+      </c>
     </row>
-    <row r="101" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>95</v>
       </c>
@@ -80719,11 +81010,14 @@
       <c r="JG101" s="6">
         <v>1009</v>
       </c>
-      <c r="JH101" s="32">
+      <c r="JH101" s="6">
         <v>942</v>
       </c>
+      <c r="JI101" s="32">
+        <v>878</v>
+      </c>
     </row>
-    <row r="102" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>96</v>
       </c>
@@ -81525,11 +81819,14 @@
       <c r="JG102" s="6">
         <v>514</v>
       </c>
-      <c r="JH102" s="32">
+      <c r="JH102" s="6">
         <v>546</v>
       </c>
+      <c r="JI102" s="32">
+        <v>597</v>
+      </c>
     </row>
-    <row r="103" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>97</v>
       </c>
@@ -82331,11 +82628,14 @@
       <c r="JG103" s="6">
         <v>105884</v>
       </c>
-      <c r="JH103" s="32">
+      <c r="JH103" s="6">
         <v>107074</v>
       </c>
+      <c r="JI103" s="32">
+        <v>107043</v>
+      </c>
     </row>
-    <row r="104" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>98</v>
       </c>
@@ -83137,11 +83437,14 @@
       <c r="JG104" s="6">
         <v>128445</v>
       </c>
-      <c r="JH104" s="32">
+      <c r="JH104" s="6">
         <v>128207</v>
       </c>
+      <c r="JI104" s="32">
+        <v>127372</v>
+      </c>
     </row>
-    <row r="105" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>99</v>
       </c>
@@ -83943,11 +84246,14 @@
       <c r="JG105" s="6">
         <v>946</v>
       </c>
-      <c r="JH105" s="32">
+      <c r="JH105" s="6">
         <v>860</v>
       </c>
+      <c r="JI105" s="32">
+        <v>834</v>
+      </c>
     </row>
-    <row r="106" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>100</v>
       </c>
@@ -84749,11 +85055,14 @@
       <c r="JG106" s="6">
         <v>1103</v>
       </c>
-      <c r="JH106" s="32">
+      <c r="JH106" s="6">
         <v>1121</v>
       </c>
+      <c r="JI106" s="32">
+        <v>1180</v>
+      </c>
     </row>
-    <row r="107" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>101</v>
       </c>
@@ -85555,11 +85864,14 @@
       <c r="JG107" s="6">
         <v>31140</v>
       </c>
-      <c r="JH107" s="32">
+      <c r="JH107" s="6">
         <v>31050</v>
       </c>
+      <c r="JI107" s="32">
+        <v>31504</v>
+      </c>
     </row>
-    <row r="108" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>102</v>
       </c>
@@ -86361,11 +86673,14 @@
       <c r="JG108" s="6">
         <v>909</v>
       </c>
-      <c r="JH108" s="32">
+      <c r="JH108" s="6">
         <v>907</v>
       </c>
+      <c r="JI108" s="32">
+        <v>905</v>
+      </c>
     </row>
-    <row r="109" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>103</v>
       </c>
@@ -87167,11 +87482,14 @@
       <c r="JG109" s="6">
         <v>410</v>
       </c>
-      <c r="JH109" s="32">
+      <c r="JH109" s="6">
         <v>422</v>
       </c>
+      <c r="JI109" s="32">
+        <v>411</v>
+      </c>
     </row>
-    <row r="110" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>104</v>
       </c>
@@ -87973,11 +88291,14 @@
       <c r="JG110" s="6">
         <v>56</v>
       </c>
-      <c r="JH110" s="32">
+      <c r="JH110" s="6">
         <v>55</v>
       </c>
+      <c r="JI110" s="32">
+        <v>50</v>
+      </c>
     </row>
-    <row r="111" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -88779,11 +89100,14 @@
       <c r="JG111" s="6">
         <v>1925</v>
       </c>
-      <c r="JH111" s="32">
+      <c r="JH111" s="6">
         <v>1950</v>
       </c>
+      <c r="JI111" s="32">
+        <v>1945</v>
+      </c>
     </row>
-    <row r="112" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>106</v>
       </c>
@@ -89585,11 +89909,14 @@
       <c r="JG112" s="6">
         <v>3242</v>
       </c>
-      <c r="JH112" s="32">
+      <c r="JH112" s="6">
         <v>3228</v>
       </c>
+      <c r="JI112" s="32">
+        <v>3096</v>
+      </c>
     </row>
-    <row r="113" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -90391,11 +90718,14 @@
       <c r="JG113" s="6">
         <v>338</v>
       </c>
-      <c r="JH113" s="32">
+      <c r="JH113" s="6">
         <v>333</v>
       </c>
+      <c r="JI113" s="32">
+        <v>302</v>
+      </c>
     </row>
-    <row r="114" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>108</v>
       </c>
@@ -91197,11 +91527,14 @@
       <c r="JG114" s="6">
         <v>3071</v>
       </c>
-      <c r="JH114" s="32">
+      <c r="JH114" s="6">
         <v>3051</v>
       </c>
+      <c r="JI114" s="32">
+        <v>3129</v>
+      </c>
     </row>
-    <row r="115" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>109</v>
       </c>
@@ -92003,11 +92336,14 @@
       <c r="JG115" s="6">
         <v>1514</v>
       </c>
-      <c r="JH115" s="32">
+      <c r="JH115" s="6">
         <v>1517</v>
       </c>
+      <c r="JI115" s="32">
+        <v>1504</v>
+      </c>
     </row>
-    <row r="116" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>110</v>
       </c>
@@ -92809,11 +93145,14 @@
       <c r="JG116" s="6">
         <v>536</v>
       </c>
-      <c r="JH116" s="32">
+      <c r="JH116" s="6">
         <v>547</v>
       </c>
+      <c r="JI116" s="32">
+        <v>553</v>
+      </c>
     </row>
-    <row r="117" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>111</v>
       </c>
@@ -93615,11 +93954,14 @@
       <c r="JG117" s="6">
         <v>2169</v>
       </c>
-      <c r="JH117" s="32">
+      <c r="JH117" s="6">
         <v>2170</v>
       </c>
+      <c r="JI117" s="32">
+        <v>2199</v>
+      </c>
     </row>
-    <row r="118" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>112</v>
       </c>
@@ -94421,11 +94763,14 @@
       <c r="JG118" s="6">
         <v>526</v>
       </c>
-      <c r="JH118" s="32">
+      <c r="JH118" s="6">
         <v>540</v>
       </c>
+      <c r="JI118" s="32">
+        <v>542</v>
+      </c>
     </row>
-    <row r="119" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>113</v>
       </c>
@@ -95227,11 +95572,14 @@
       <c r="JG119" s="6">
         <v>1077</v>
       </c>
-      <c r="JH119" s="32">
+      <c r="JH119" s="6">
         <v>1092</v>
       </c>
+      <c r="JI119" s="32">
+        <v>1129</v>
+      </c>
     </row>
-    <row r="120" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>114</v>
       </c>
@@ -96033,11 +96381,14 @@
       <c r="JG120" s="6">
         <v>42</v>
       </c>
-      <c r="JH120" s="32">
+      <c r="JH120" s="6">
         <v>42</v>
       </c>
+      <c r="JI120" s="32">
+        <v>41</v>
+      </c>
     </row>
-    <row r="121" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>115</v>
       </c>
@@ -96839,11 +97190,14 @@
       <c r="JG121" s="6">
         <v>656</v>
       </c>
-      <c r="JH121" s="32">
+      <c r="JH121" s="6">
         <v>651</v>
       </c>
+      <c r="JI121" s="32">
+        <v>645</v>
+      </c>
     </row>
-    <row r="122" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>116</v>
       </c>
@@ -97645,11 +97999,14 @@
       <c r="JG122" s="6">
         <v>146</v>
       </c>
-      <c r="JH122" s="32">
+      <c r="JH122" s="6">
         <v>158</v>
       </c>
+      <c r="JI122" s="32">
+        <v>147</v>
+      </c>
     </row>
-    <row r="123" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>117</v>
       </c>
@@ -98451,11 +98808,14 @@
       <c r="JG123" s="6">
         <v>499</v>
       </c>
-      <c r="JH123" s="32">
+      <c r="JH123" s="6">
         <v>522</v>
       </c>
+      <c r="JI123" s="32">
+        <v>563</v>
+      </c>
     </row>
-    <row r="124" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>118</v>
       </c>
@@ -99257,11 +99617,14 @@
       <c r="JG124" s="6">
         <v>1694</v>
       </c>
-      <c r="JH124" s="32">
+      <c r="JH124" s="6">
         <v>2752</v>
       </c>
+      <c r="JI124" s="32">
+        <v>1827</v>
+      </c>
     </row>
-    <row r="125" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>119</v>
       </c>
@@ -100063,11 +100426,14 @@
       <c r="JG125" s="6">
         <v>429888</v>
       </c>
-      <c r="JH125" s="32">
+      <c r="JH125" s="6">
         <v>434729</v>
       </c>
+      <c r="JI125" s="32">
+        <v>434818</v>
+      </c>
     </row>
-    <row r="126" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>120</v>
       </c>
@@ -100869,11 +101235,14 @@
       <c r="JG126" s="6">
         <v>6222</v>
       </c>
-      <c r="JH126" s="32">
+      <c r="JH126" s="6">
         <v>6096</v>
       </c>
+      <c r="JI126" s="32">
+        <v>5860</v>
+      </c>
     </row>
-    <row r="127" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>121</v>
       </c>
@@ -101675,11 +102044,14 @@
       <c r="JG127" s="6">
         <v>49</v>
       </c>
-      <c r="JH127" s="32">
+      <c r="JH127" s="6">
         <v>52</v>
       </c>
+      <c r="JI127" s="32">
+        <v>53</v>
+      </c>
     </row>
-    <row r="128" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>122</v>
       </c>
@@ -102481,11 +102853,14 @@
       <c r="JG128" s="6">
         <v>2412</v>
       </c>
-      <c r="JH128" s="32">
+      <c r="JH128" s="6">
         <v>2451</v>
       </c>
+      <c r="JI128" s="32">
+        <v>2522</v>
+      </c>
     </row>
-    <row r="129" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>123</v>
       </c>
@@ -103287,11 +103662,14 @@
       <c r="JG129" s="6">
         <v>37553</v>
       </c>
-      <c r="JH129" s="32">
+      <c r="JH129" s="6">
         <v>38164</v>
       </c>
+      <c r="JI129" s="32">
+        <v>37423</v>
+      </c>
     </row>
-    <row r="130" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>124</v>
       </c>
@@ -104093,11 +104471,14 @@
       <c r="JG130" s="6">
         <v>6684</v>
       </c>
-      <c r="JH130" s="32">
+      <c r="JH130" s="6">
         <v>6527</v>
       </c>
+      <c r="JI130" s="32">
+        <v>6187</v>
+      </c>
     </row>
-    <row r="131" spans="1:268" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:270" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="20" t="s">
         <v>127</v>
       </c>
@@ -104899,11 +105280,15 @@
       <c r="JG131" s="21">
         <v>1874622</v>
       </c>
-      <c r="JH131" s="33">
+      <c r="JH131" s="21">
         <v>1886776</v>
       </c>
+      <c r="JI131" s="33">
+        <v>1884715</v>
+      </c>
+      <c r="JJ131" s="6"/>
     </row>
-    <row r="132" spans="1:268" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:270" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
@@ -105151,7 +105536,7 @@
       <c r="IL132" s="18"/>
       <c r="IM132" s="18"/>
     </row>
-    <row r="133" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>126</v>
       </c>

--- a/Historicos/ta_municipios_jalisco.xlsx
+++ b/Historicos/ta_municipios_jalisco.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="142">
   <si>
     <t>Acatic</t>
   </si>
@@ -1605,11 +1605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ145"/>
+  <dimension ref="A1:JK145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A19" sqref="A19"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1727,17 +1727,17 @@
     <col min="265" max="265" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>125</v>
       </c>
@@ -2542,11 +2542,14 @@
       <c r="JH4" s="28">
         <v>2022</v>
       </c>
-      <c r="JI4" s="29">
+      <c r="JI4" s="28">
         <v>2022</v>
       </c>
+      <c r="JJ4" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="4" t="s">
         <v>129</v>
@@ -3349,11 +3352,14 @@
       <c r="JH5" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="JI5" s="35" t="s">
+      <c r="JI5" s="36" t="s">
         <v>132</v>
       </c>
+      <c r="JJ5" s="35" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="6" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -4158,11 +4164,14 @@
       <c r="JH6" s="6">
         <v>5113</v>
       </c>
-      <c r="JI6" s="32">
+      <c r="JI6" s="6">
         <v>5118</v>
       </c>
+      <c r="JJ6" s="32">
+        <v>5108</v>
+      </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -4967,11 +4976,14 @@
       <c r="JH7" s="6">
         <v>7927</v>
       </c>
-      <c r="JI7" s="32">
+      <c r="JI7" s="6">
         <v>7996</v>
       </c>
+      <c r="JJ7" s="32">
+        <v>7375</v>
+      </c>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -5776,11 +5788,14 @@
       <c r="JH8" s="6">
         <v>1423</v>
       </c>
-      <c r="JI8" s="32">
+      <c r="JI8" s="6">
         <v>1430</v>
       </c>
+      <c r="JJ8" s="32">
+        <v>1371</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -6585,11 +6600,14 @@
       <c r="JH9" s="6">
         <v>120</v>
       </c>
-      <c r="JI9" s="32">
+      <c r="JI9" s="6">
         <v>116</v>
       </c>
+      <c r="JJ9" s="32">
+        <v>113</v>
+      </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -7394,11 +7412,14 @@
       <c r="JH10" s="6">
         <v>4203</v>
       </c>
-      <c r="JI10" s="32">
+      <c r="JI10" s="6">
         <v>4174</v>
       </c>
+      <c r="JJ10" s="32">
+        <v>3740</v>
+      </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -8203,11 +8224,14 @@
       <c r="JH11" s="6">
         <v>7536</v>
       </c>
-      <c r="JI11" s="32">
+      <c r="JI11" s="6">
         <v>7544</v>
       </c>
+      <c r="JJ11" s="32">
+        <v>6550</v>
+      </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -9012,11 +9036,14 @@
       <c r="JH12" s="6">
         <v>12762</v>
       </c>
-      <c r="JI12" s="32">
+      <c r="JI12" s="6">
         <v>12826</v>
       </c>
+      <c r="JJ12" s="32">
+        <v>12712</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -9821,11 +9848,14 @@
       <c r="JH13" s="6">
         <v>1047</v>
       </c>
-      <c r="JI13" s="32">
+      <c r="JI13" s="6">
         <v>804</v>
       </c>
+      <c r="JJ13" s="32">
+        <v>714</v>
+      </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -10630,11 +10660,14 @@
       <c r="JH14" s="6">
         <v>26</v>
       </c>
-      <c r="JI14" s="32">
+      <c r="JI14" s="6">
         <v>24</v>
       </c>
+      <c r="JJ14" s="32">
+        <v>25</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -11439,11 +11472,14 @@
       <c r="JH15" s="6">
         <v>88</v>
       </c>
-      <c r="JI15" s="32">
+      <c r="JI15" s="6">
         <v>81</v>
       </c>
+      <c r="JJ15" s="32">
+        <v>79</v>
+      </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -12248,11 +12284,14 @@
       <c r="JH16" s="6">
         <v>11652</v>
       </c>
-      <c r="JI16" s="32">
+      <c r="JI16" s="6">
         <v>11809</v>
       </c>
+      <c r="JJ16" s="32">
+        <v>11900</v>
+      </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -13057,11 +13096,14 @@
       <c r="JH17" s="6">
         <v>610</v>
       </c>
-      <c r="JI17" s="32">
+      <c r="JI17" s="6">
         <v>598</v>
       </c>
+      <c r="JJ17" s="32">
+        <v>563</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -13866,11 +13908,14 @@
       <c r="JH18" s="6">
         <v>11291</v>
       </c>
-      <c r="JI18" s="32">
+      <c r="JI18" s="6">
         <v>11805</v>
       </c>
+      <c r="JJ18" s="32">
+        <v>11388</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -14675,11 +14720,14 @@
       <c r="JH19" s="6">
         <v>3755</v>
       </c>
-      <c r="JI19" s="32">
+      <c r="JI19" s="6">
         <v>3770</v>
       </c>
+      <c r="JJ19" s="32">
+        <v>3690</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -15484,11 +15532,14 @@
       <c r="JH20" s="6">
         <v>353</v>
       </c>
-      <c r="JI20" s="32">
+      <c r="JI20" s="6">
         <v>361</v>
       </c>
+      <c r="JJ20" s="32">
+        <v>357</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -16293,11 +16344,14 @@
       <c r="JH21" s="6">
         <v>674</v>
       </c>
-      <c r="JI21" s="32">
+      <c r="JI21" s="6">
         <v>675</v>
       </c>
+      <c r="JJ21" s="32">
+        <v>678</v>
+      </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -17102,11 +17156,14 @@
       <c r="JH22" s="6">
         <v>295</v>
       </c>
-      <c r="JI22" s="32">
+      <c r="JI22" s="6">
         <v>296</v>
       </c>
+      <c r="JJ22" s="32">
+        <v>298</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -17911,11 +17968,14 @@
       <c r="JH23" s="6">
         <v>156</v>
       </c>
-      <c r="JI23" s="32">
+      <c r="JI23" s="6">
         <v>152</v>
       </c>
+      <c r="JJ23" s="32">
+        <v>157</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -18720,11 +18780,14 @@
       <c r="JH24" s="6">
         <v>3412</v>
       </c>
-      <c r="JI24" s="32">
+      <c r="JI24" s="6">
         <v>3254</v>
       </c>
+      <c r="JJ24" s="32">
+        <v>2903</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -19529,11 +19592,14 @@
       <c r="JH25" s="6">
         <v>5902</v>
       </c>
-      <c r="JI25" s="32">
+      <c r="JI25" s="6">
         <v>5978</v>
       </c>
+      <c r="JJ25" s="32">
+        <v>5757</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -20338,11 +20404,14 @@
       <c r="JH26" s="6">
         <v>3</v>
       </c>
-      <c r="JI26" s="32">
+      <c r="JI26" s="6">
         <v>3</v>
       </c>
+      <c r="JJ26" s="32">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -21147,11 +21216,14 @@
       <c r="JH27" s="6">
         <v>193</v>
       </c>
-      <c r="JI27" s="32">
+      <c r="JI27" s="6">
         <v>194</v>
       </c>
+      <c r="JJ27" s="32">
+        <v>198</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -21956,11 +22028,14 @@
       <c r="JH28" s="6">
         <v>2263</v>
       </c>
-      <c r="JI28" s="32">
+      <c r="JI28" s="6">
         <v>2250</v>
       </c>
+      <c r="JJ28" s="32">
+        <v>2237</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -22765,11 +22840,14 @@
       <c r="JH29" s="6">
         <v>2952</v>
       </c>
-      <c r="JI29" s="32">
+      <c r="JI29" s="6">
         <v>2957</v>
       </c>
+      <c r="JJ29" s="32">
+        <v>2909</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -23574,11 +23652,14 @@
       <c r="JH30" s="6">
         <v>657</v>
       </c>
-      <c r="JI30" s="32">
+      <c r="JI30" s="6">
         <v>681</v>
       </c>
+      <c r="JJ30" s="32">
+        <v>665</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
@@ -24383,11 +24464,14 @@
       <c r="JH31" s="6">
         <v>128</v>
       </c>
-      <c r="JI31" s="32">
+      <c r="JI31" s="6">
         <v>134</v>
       </c>
+      <c r="JJ31" s="32">
+        <v>143</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
@@ -25192,11 +25276,14 @@
       <c r="JH32" s="6">
         <v>48</v>
       </c>
-      <c r="JI32" s="32">
+      <c r="JI32" s="6">
         <v>47</v>
       </c>
+      <c r="JJ32" s="32">
+        <v>46</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -26001,11 +26088,14 @@
       <c r="JH33" s="6">
         <v>59</v>
       </c>
-      <c r="JI33" s="32">
+      <c r="JI33" s="6">
         <v>58</v>
       </c>
+      <c r="JJ33" s="32">
+        <v>58</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -26810,11 +26900,14 @@
       <c r="JH34" s="6">
         <v>212</v>
       </c>
-      <c r="JI34" s="32">
+      <c r="JI34" s="6">
         <v>214</v>
       </c>
+      <c r="JJ34" s="32">
+        <v>214</v>
+      </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -27619,11 +27712,14 @@
       <c r="JH35" s="6">
         <v>1019</v>
       </c>
-      <c r="JI35" s="32">
+      <c r="JI35" s="6">
         <v>1011</v>
       </c>
+      <c r="JJ35" s="32">
+        <v>1008</v>
+      </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -28428,11 +28524,14 @@
       <c r="JH36" s="6">
         <v>8</v>
       </c>
-      <c r="JI36" s="32">
+      <c r="JI36" s="6">
         <v>8</v>
       </c>
+      <c r="JJ36" s="32">
+        <v>8</v>
+      </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -29237,11 +29336,14 @@
       <c r="JH37" s="6">
         <v>3619</v>
       </c>
-      <c r="JI37" s="32">
+      <c r="JI37" s="6">
         <v>3679</v>
       </c>
+      <c r="JJ37" s="32">
+        <v>3459</v>
+      </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -30046,11 +30148,14 @@
       <c r="JH38" s="6">
         <v>2462</v>
       </c>
-      <c r="JI38" s="32">
+      <c r="JI38" s="6">
         <v>2456</v>
       </c>
+      <c r="JJ38" s="32">
+        <v>2378</v>
+      </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
@@ -30855,11 +30960,14 @@
       <c r="JH39" s="6">
         <v>155</v>
       </c>
-      <c r="JI39" s="32">
+      <c r="JI39" s="6">
         <v>153</v>
       </c>
+      <c r="JJ39" s="32">
+        <v>153</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
@@ -31664,11 +31772,14 @@
       <c r="JH40" s="6">
         <v>63458</v>
       </c>
-      <c r="JI40" s="32">
+      <c r="JI40" s="6">
         <v>63578</v>
       </c>
+      <c r="JJ40" s="32">
+        <v>64244</v>
+      </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -32473,11 +32584,14 @@
       <c r="JH41" s="6">
         <v>3522</v>
       </c>
-      <c r="JI41" s="32">
+      <c r="JI41" s="6">
         <v>3493</v>
       </c>
+      <c r="JJ41" s="32">
+        <v>3440</v>
+      </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -33282,11 +33396,14 @@
       <c r="JH42" s="6">
         <v>727</v>
       </c>
-      <c r="JI42" s="32">
+      <c r="JI42" s="6">
         <v>734</v>
       </c>
+      <c r="JJ42" s="32">
+        <v>737</v>
+      </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -34091,11 +34208,14 @@
       <c r="JH43" s="6">
         <v>2655</v>
       </c>
-      <c r="JI43" s="32">
+      <c r="JI43" s="6">
         <v>2626</v>
       </c>
+      <c r="JJ43" s="32">
+        <v>2604</v>
+      </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -34900,11 +35020,14 @@
       <c r="JH44" s="6">
         <v>153</v>
       </c>
-      <c r="JI44" s="32">
+      <c r="JI44" s="6">
         <v>151</v>
       </c>
+      <c r="JJ44" s="32">
+        <v>150</v>
+      </c>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -35709,11 +35832,14 @@
       <c r="JH45" s="6">
         <v>666729</v>
       </c>
-      <c r="JI45" s="32">
+      <c r="JI45" s="6">
         <v>667130</v>
       </c>
+      <c r="JJ45" s="32">
+        <v>670452</v>
+      </c>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
@@ -36518,11 +36644,14 @@
       <c r="JH46" s="6">
         <v>189</v>
       </c>
-      <c r="JI46" s="32">
+      <c r="JI46" s="6">
         <v>190</v>
       </c>
+      <c r="JJ46" s="32">
+        <v>184</v>
+      </c>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
@@ -37327,11 +37456,14 @@
       <c r="JH47" s="6">
         <v>98</v>
       </c>
-      <c r="JI47" s="32">
+      <c r="JI47" s="6">
         <v>96</v>
       </c>
+      <c r="JJ47" s="32">
+        <v>96</v>
+      </c>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -38136,11 +38268,14 @@
       <c r="JH48" s="6">
         <v>1045</v>
       </c>
-      <c r="JI48" s="32">
+      <c r="JI48" s="6">
         <v>1257</v>
       </c>
+      <c r="JJ48" s="32">
+        <v>1162</v>
+      </c>
     </row>
-    <row r="49" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -38945,11 +39080,14 @@
       <c r="JH49" s="6">
         <v>4684</v>
       </c>
-      <c r="JI49" s="32">
+      <c r="JI49" s="6">
         <v>4688</v>
       </c>
+      <c r="JJ49" s="32">
+        <v>4945</v>
+      </c>
     </row>
-    <row r="50" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -39754,11 +39892,14 @@
       <c r="JH50" s="6">
         <v>578</v>
       </c>
-      <c r="JI50" s="32">
+      <c r="JI50" s="6">
         <v>595</v>
       </c>
+      <c r="JJ50" s="32">
+        <v>616</v>
+      </c>
     </row>
-    <row r="51" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -40563,11 +40704,14 @@
       <c r="JH51" s="6">
         <v>2693</v>
       </c>
-      <c r="JI51" s="32">
+      <c r="JI51" s="6">
         <v>2727</v>
       </c>
+      <c r="JJ51" s="32">
+        <v>2685</v>
+      </c>
     </row>
-    <row r="52" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -41372,11 +41516,14 @@
       <c r="JH52" s="6">
         <v>1386</v>
       </c>
-      <c r="JI52" s="32">
+      <c r="JI52" s="6">
         <v>1410</v>
       </c>
+      <c r="JJ52" s="32">
+        <v>1358</v>
+      </c>
     </row>
-    <row r="53" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -42181,11 +42328,14 @@
       <c r="JH53" s="6">
         <v>1961</v>
       </c>
-      <c r="JI53" s="32">
+      <c r="JI53" s="6">
         <v>1920</v>
       </c>
+      <c r="JJ53" s="32">
+        <v>1761</v>
+      </c>
     </row>
-    <row r="54" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>48</v>
       </c>
@@ -42990,11 +43140,14 @@
       <c r="JH54" s="6">
         <v>57</v>
       </c>
-      <c r="JI54" s="32">
+      <c r="JI54" s="6">
         <v>57</v>
       </c>
+      <c r="JJ54" s="32">
+        <v>56</v>
+      </c>
     </row>
-    <row r="55" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
@@ -43799,11 +43952,14 @@
       <c r="JH55" s="6">
         <v>8075</v>
       </c>
-      <c r="JI55" s="32">
+      <c r="JI55" s="6">
         <v>7804</v>
       </c>
+      <c r="JJ55" s="32">
+        <v>7245</v>
+      </c>
     </row>
-    <row r="56" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -44608,11 +44764,14 @@
       <c r="JH56" s="6">
         <v>1423</v>
       </c>
-      <c r="JI56" s="32">
+      <c r="JI56" s="6">
         <v>1428</v>
       </c>
+      <c r="JJ56" s="32">
+        <v>1445</v>
+      </c>
     </row>
-    <row r="57" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>51</v>
       </c>
@@ -45417,11 +45576,14 @@
       <c r="JH57" s="6">
         <v>84</v>
       </c>
-      <c r="JI57" s="32">
+      <c r="JI57" s="6">
         <v>85</v>
       </c>
+      <c r="JJ57" s="32">
+        <v>84</v>
+      </c>
     </row>
-    <row r="58" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -46226,11 +46388,14 @@
       <c r="JH58" s="6">
         <v>4853</v>
       </c>
-      <c r="JI58" s="32">
+      <c r="JI58" s="6">
         <v>4918</v>
       </c>
+      <c r="JJ58" s="32">
+        <v>4930</v>
+      </c>
     </row>
-    <row r="59" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>53</v>
       </c>
@@ -47035,11 +47200,14 @@
       <c r="JH59" s="6">
         <v>2121</v>
       </c>
-      <c r="JI59" s="32">
+      <c r="JI59" s="6">
         <v>2115</v>
       </c>
+      <c r="JJ59" s="32">
+        <v>2039</v>
+      </c>
     </row>
-    <row r="60" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
@@ -47844,11 +48012,14 @@
       <c r="JH60" s="6">
         <v>145</v>
       </c>
-      <c r="JI60" s="32">
+      <c r="JI60" s="6">
         <v>148</v>
       </c>
+      <c r="JJ60" s="32">
+        <v>149</v>
+      </c>
     </row>
-    <row r="61" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>55</v>
       </c>
@@ -48653,11 +48824,14 @@
       <c r="JH61" s="6">
         <v>35730</v>
       </c>
-      <c r="JI61" s="32">
+      <c r="JI61" s="6">
         <v>35554</v>
       </c>
+      <c r="JJ61" s="32">
+        <v>35613</v>
+      </c>
     </row>
-    <row r="62" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -49462,11 +49636,14 @@
       <c r="JH62" s="6">
         <v>1121</v>
       </c>
-      <c r="JI62" s="32">
+      <c r="JI62" s="6">
         <v>1184</v>
       </c>
+      <c r="JJ62" s="32">
+        <v>1199</v>
+      </c>
     </row>
-    <row r="63" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
@@ -50271,11 +50448,14 @@
       <c r="JH63" s="6">
         <v>564</v>
       </c>
-      <c r="JI63" s="32">
+      <c r="JI63" s="6">
         <v>553</v>
       </c>
+      <c r="JJ63" s="32">
+        <v>481</v>
+      </c>
     </row>
-    <row r="64" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
@@ -51080,11 +51260,14 @@
       <c r="JH64" s="6">
         <v>1068</v>
       </c>
-      <c r="JI64" s="32">
+      <c r="JI64" s="6">
         <v>1062</v>
       </c>
+      <c r="JJ64" s="32">
+        <v>1009</v>
+      </c>
     </row>
-    <row r="65" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>59</v>
       </c>
@@ -51889,11 +52072,14 @@
       <c r="JH65" s="6">
         <v>14</v>
       </c>
-      <c r="JI65" s="32">
+      <c r="JI65" s="6">
         <v>14</v>
       </c>
+      <c r="JJ65" s="32">
+        <v>13</v>
+      </c>
     </row>
-    <row r="66" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>60</v>
       </c>
@@ -52698,11 +52884,14 @@
       <c r="JH66" s="6">
         <v>189</v>
       </c>
-      <c r="JI66" s="32">
+      <c r="JI66" s="6">
         <v>206</v>
       </c>
+      <c r="JJ66" s="32">
+        <v>204</v>
+      </c>
     </row>
-    <row r="67" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>61</v>
       </c>
@@ -53507,11 +53696,14 @@
       <c r="JH67" s="6">
         <v>34</v>
       </c>
-      <c r="JI67" s="32">
+      <c r="JI67" s="6">
         <v>37</v>
       </c>
+      <c r="JJ67" s="32">
+        <v>35</v>
+      </c>
     </row>
-    <row r="68" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>62</v>
       </c>
@@ -54316,11 +54508,14 @@
       <c r="JH68" s="6">
         <v>22096</v>
       </c>
-      <c r="JI68" s="32">
+      <c r="JI68" s="6">
         <v>22030</v>
       </c>
+      <c r="JJ68" s="32">
+        <v>22170</v>
+      </c>
     </row>
-    <row r="69" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>63</v>
       </c>
@@ -55125,11 +55320,14 @@
       <c r="JH69" s="6">
         <v>560</v>
       </c>
-      <c r="JI69" s="32">
+      <c r="JI69" s="6">
         <v>548</v>
       </c>
+      <c r="JJ69" s="32">
+        <v>536</v>
+      </c>
     </row>
-    <row r="70" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>64</v>
       </c>
@@ -55934,11 +56132,14 @@
       <c r="JH70" s="6">
         <v>541</v>
       </c>
-      <c r="JI70" s="32">
+      <c r="JI70" s="6">
         <v>529</v>
       </c>
+      <c r="JJ70" s="32">
+        <v>535</v>
+      </c>
     </row>
-    <row r="71" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>65</v>
       </c>
@@ -56743,11 +56944,14 @@
       <c r="JH71" s="6">
         <v>4865</v>
       </c>
-      <c r="JI71" s="32">
+      <c r="JI71" s="6">
         <v>4722</v>
       </c>
+      <c r="JJ71" s="32">
+        <v>4728</v>
+      </c>
     </row>
-    <row r="72" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>66</v>
       </c>
@@ -57552,11 +57756,14 @@
       <c r="JH72" s="6">
         <v>73125</v>
       </c>
-      <c r="JI72" s="32">
+      <c r="JI72" s="6">
         <v>73222</v>
       </c>
+      <c r="JJ72" s="32">
+        <v>73954</v>
+      </c>
     </row>
-    <row r="73" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
@@ -58361,11 +58568,14 @@
       <c r="JH73" s="6">
         <v>13</v>
       </c>
-      <c r="JI73" s="32">
+      <c r="JI73" s="6">
         <v>13</v>
       </c>
+      <c r="JJ73" s="32">
+        <v>14</v>
+      </c>
     </row>
-    <row r="74" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>68</v>
       </c>
@@ -59170,11 +59380,14 @@
       <c r="JH74" s="6">
         <v>31</v>
       </c>
-      <c r="JI74" s="32">
+      <c r="JI74" s="6">
         <v>31</v>
       </c>
+      <c r="JJ74" s="32">
+        <v>32</v>
+      </c>
     </row>
-    <row r="75" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>69</v>
       </c>
@@ -59979,11 +60192,14 @@
       <c r="JH75" s="6">
         <v>75</v>
       </c>
-      <c r="JI75" s="32">
+      <c r="JI75" s="6">
         <v>74</v>
       </c>
+      <c r="JJ75" s="32">
+        <v>76</v>
+      </c>
     </row>
-    <row r="76" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>70</v>
       </c>
@@ -60788,11 +61004,14 @@
       <c r="JH76" s="6">
         <v>3346</v>
       </c>
-      <c r="JI76" s="32">
+      <c r="JI76" s="6">
         <v>3564</v>
       </c>
+      <c r="JJ76" s="32">
+        <v>4366</v>
+      </c>
     </row>
-    <row r="77" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
@@ -61597,11 +61816,14 @@
       <c r="JH77" s="6">
         <v>887</v>
       </c>
-      <c r="JI77" s="32">
+      <c r="JI77" s="6">
         <v>985</v>
       </c>
+      <c r="JJ77" s="32">
+        <v>979</v>
+      </c>
     </row>
-    <row r="78" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
@@ -62406,11 +62628,14 @@
       <c r="JH78" s="6">
         <v>15840</v>
       </c>
-      <c r="JI78" s="32">
+      <c r="JI78" s="6">
         <v>15950</v>
       </c>
+      <c r="JJ78" s="32">
+        <v>15902</v>
+      </c>
     </row>
-    <row r="79" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
@@ -63215,11 +63440,14 @@
       <c r="JH79" s="6">
         <v>222</v>
       </c>
-      <c r="JI79" s="32">
+      <c r="JI79" s="6">
         <v>235</v>
       </c>
+      <c r="JJ79" s="32">
+        <v>236</v>
+      </c>
     </row>
-    <row r="80" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>74</v>
       </c>
@@ -64024,11 +64252,14 @@
       <c r="JH80" s="6">
         <v>882</v>
       </c>
-      <c r="JI80" s="32">
+      <c r="JI80" s="6">
         <v>880</v>
       </c>
+      <c r="JJ80" s="32">
+        <v>894</v>
+      </c>
     </row>
-    <row r="81" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
@@ -64833,11 +65064,14 @@
       <c r="JH81" s="6">
         <v>29</v>
       </c>
-      <c r="JI81" s="32">
+      <c r="JI81" s="6">
         <v>29</v>
       </c>
+      <c r="JJ81" s="32">
+        <v>29</v>
+      </c>
     </row>
-    <row r="82" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>76</v>
       </c>
@@ -65642,11 +65876,14 @@
       <c r="JH82" s="6">
         <v>106</v>
       </c>
-      <c r="JI82" s="32">
+      <c r="JI82" s="6">
         <v>103</v>
       </c>
+      <c r="JJ82" s="32">
+        <v>95</v>
+      </c>
     </row>
-    <row r="83" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>77</v>
       </c>
@@ -66451,11 +66688,14 @@
       <c r="JH83" s="6">
         <v>1216</v>
       </c>
-      <c r="JI83" s="32">
+      <c r="JI83" s="6">
         <v>1228</v>
       </c>
+      <c r="JJ83" s="32">
+        <v>1245</v>
+      </c>
     </row>
-    <row r="84" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
@@ -67260,11 +67500,14 @@
       <c r="JH84" s="6">
         <v>3959</v>
       </c>
-      <c r="JI84" s="32">
+      <c r="JI84" s="6">
         <v>3978</v>
       </c>
+      <c r="JJ84" s="32">
+        <v>3907</v>
+      </c>
     </row>
-    <row r="85" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
@@ -68069,11 +68312,14 @@
       <c r="JH85" s="6">
         <v>155</v>
       </c>
-      <c r="JI85" s="32">
+      <c r="JI85" s="6">
         <v>170</v>
       </c>
+      <c r="JJ85" s="32">
+        <v>185</v>
+      </c>
     </row>
-    <row r="86" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>80</v>
       </c>
@@ -68878,11 +69124,14 @@
       <c r="JH86" s="6">
         <v>8</v>
       </c>
-      <c r="JI86" s="32">
+      <c r="JI86" s="6">
         <v>8</v>
       </c>
+      <c r="JJ86" s="32">
+        <v>7</v>
+      </c>
     </row>
-    <row r="87" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>81</v>
       </c>
@@ -69687,11 +69936,14 @@
       <c r="JH87" s="6">
         <v>0</v>
       </c>
-      <c r="JI87" s="32">
+      <c r="JI87" s="6">
         <v>0</v>
       </c>
+      <c r="JJ87" s="32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
@@ -70496,11 +70748,14 @@
       <c r="JH88" s="6">
         <v>5436</v>
       </c>
-      <c r="JI88" s="32">
+      <c r="JI88" s="6">
         <v>5461</v>
       </c>
+      <c r="JJ88" s="32">
+        <v>5361</v>
+      </c>
     </row>
-    <row r="89" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>83</v>
       </c>
@@ -71305,11 +71560,14 @@
       <c r="JH89" s="6">
         <v>16534</v>
       </c>
-      <c r="JI89" s="32">
+      <c r="JI89" s="6">
         <v>16203</v>
       </c>
+      <c r="JJ89" s="32">
+        <v>14537</v>
+      </c>
     </row>
-    <row r="90" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
@@ -72114,11 +72372,14 @@
       <c r="JH90" s="6">
         <v>413</v>
       </c>
-      <c r="JI90" s="32">
+      <c r="JI90" s="6">
         <v>405</v>
       </c>
+      <c r="JJ90" s="32">
+        <v>407</v>
+      </c>
     </row>
-    <row r="91" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
@@ -72923,11 +73184,14 @@
       <c r="JH91" s="6">
         <v>7628</v>
       </c>
-      <c r="JI91" s="32">
+      <c r="JI91" s="6">
         <v>7512</v>
       </c>
+      <c r="JJ91" s="32">
+        <v>6760</v>
+      </c>
     </row>
-    <row r="92" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>86</v>
       </c>
@@ -73732,11 +73996,14 @@
       <c r="JH92" s="6">
         <v>2689</v>
       </c>
-      <c r="JI92" s="32">
+      <c r="JI92" s="6">
         <v>2541</v>
       </c>
+      <c r="JJ92" s="32">
+        <v>2384</v>
+      </c>
     </row>
-    <row r="93" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -74541,11 +74808,14 @@
       <c r="JH93" s="6">
         <v>690</v>
       </c>
-      <c r="JI93" s="32">
+      <c r="JI93" s="6">
         <v>697</v>
       </c>
+      <c r="JJ93" s="32">
+        <v>690</v>
+      </c>
     </row>
-    <row r="94" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
@@ -75350,11 +75620,14 @@
       <c r="JH94" s="6">
         <v>420</v>
       </c>
-      <c r="JI94" s="32">
+      <c r="JI94" s="6">
         <v>347</v>
       </c>
+      <c r="JJ94" s="32">
+        <v>351</v>
+      </c>
     </row>
-    <row r="95" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
@@ -76159,11 +76432,14 @@
       <c r="JH95" s="6">
         <v>1467</v>
       </c>
-      <c r="JI95" s="32">
+      <c r="JI95" s="6">
         <v>1469</v>
       </c>
+      <c r="JJ95" s="32">
+        <v>1295</v>
+      </c>
     </row>
-    <row r="96" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>90</v>
       </c>
@@ -76968,11 +77244,14 @@
       <c r="JH96" s="6">
         <v>115</v>
       </c>
-      <c r="JI96" s="32">
+      <c r="JI96" s="6">
         <v>117</v>
       </c>
+      <c r="JJ96" s="32">
+        <v>119</v>
+      </c>
     </row>
-    <row r="97" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>91</v>
       </c>
@@ -77777,11 +78056,14 @@
       <c r="JH97" s="6">
         <v>1468</v>
       </c>
-      <c r="JI97" s="32">
+      <c r="JI97" s="6">
         <v>1454</v>
       </c>
+      <c r="JJ97" s="32">
+        <v>1477</v>
+      </c>
     </row>
-    <row r="98" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>92</v>
       </c>
@@ -78586,11 +78868,14 @@
       <c r="JH98" s="6">
         <v>473</v>
       </c>
-      <c r="JI98" s="32">
+      <c r="JI98" s="6">
         <v>476</v>
       </c>
+      <c r="JJ98" s="32">
+        <v>541</v>
+      </c>
     </row>
-    <row r="99" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
@@ -79395,11 +79680,14 @@
       <c r="JH99" s="6">
         <v>38154</v>
       </c>
-      <c r="JI99" s="32">
+      <c r="JI99" s="6">
         <v>38003</v>
       </c>
+      <c r="JJ99" s="32">
+        <v>37938</v>
+      </c>
     </row>
-    <row r="100" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>94</v>
       </c>
@@ -80204,11 +80492,14 @@
       <c r="JH100" s="6">
         <v>8098</v>
       </c>
-      <c r="JI100" s="32">
+      <c r="JI100" s="6">
         <v>8056</v>
       </c>
+      <c r="JJ100" s="32">
+        <v>8348</v>
+      </c>
     </row>
-    <row r="101" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>95</v>
       </c>
@@ -81013,11 +81304,14 @@
       <c r="JH101" s="6">
         <v>942</v>
       </c>
-      <c r="JI101" s="32">
+      <c r="JI101" s="6">
         <v>878</v>
       </c>
+      <c r="JJ101" s="32">
+        <v>856</v>
+      </c>
     </row>
-    <row r="102" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>96</v>
       </c>
@@ -81822,11 +82116,14 @@
       <c r="JH102" s="6">
         <v>546</v>
       </c>
-      <c r="JI102" s="32">
+      <c r="JI102" s="6">
         <v>597</v>
       </c>
+      <c r="JJ102" s="32">
+        <v>583</v>
+      </c>
     </row>
-    <row r="103" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>97</v>
       </c>
@@ -82631,11 +82928,14 @@
       <c r="JH103" s="6">
         <v>107074</v>
       </c>
-      <c r="JI103" s="32">
+      <c r="JI103" s="6">
         <v>107043</v>
       </c>
+      <c r="JJ103" s="32">
+        <v>107235</v>
+      </c>
     </row>
-    <row r="104" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>98</v>
       </c>
@@ -83440,11 +83740,14 @@
       <c r="JH104" s="6">
         <v>128207</v>
       </c>
-      <c r="JI104" s="32">
+      <c r="JI104" s="6">
         <v>127372</v>
       </c>
+      <c r="JJ104" s="32">
+        <v>127297</v>
+      </c>
     </row>
-    <row r="105" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>99</v>
       </c>
@@ -84249,11 +84552,14 @@
       <c r="JH105" s="6">
         <v>860</v>
       </c>
-      <c r="JI105" s="32">
+      <c r="JI105" s="6">
         <v>834</v>
       </c>
+      <c r="JJ105" s="32">
+        <v>808</v>
+      </c>
     </row>
-    <row r="106" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>100</v>
       </c>
@@ -85058,11 +85364,14 @@
       <c r="JH106" s="6">
         <v>1121</v>
       </c>
-      <c r="JI106" s="32">
+      <c r="JI106" s="6">
         <v>1180</v>
       </c>
+      <c r="JJ106" s="32">
+        <v>1186</v>
+      </c>
     </row>
-    <row r="107" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>101</v>
       </c>
@@ -85867,11 +86176,14 @@
       <c r="JH107" s="6">
         <v>31050</v>
       </c>
-      <c r="JI107" s="32">
+      <c r="JI107" s="6">
         <v>31504</v>
       </c>
+      <c r="JJ107" s="32">
+        <v>31860</v>
+      </c>
     </row>
-    <row r="108" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>102</v>
       </c>
@@ -86676,11 +86988,14 @@
       <c r="JH108" s="6">
         <v>907</v>
       </c>
-      <c r="JI108" s="32">
+      <c r="JI108" s="6">
         <v>905</v>
       </c>
+      <c r="JJ108" s="32">
+        <v>899</v>
+      </c>
     </row>
-    <row r="109" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>103</v>
       </c>
@@ -87485,11 +87800,14 @@
       <c r="JH109" s="6">
         <v>422</v>
       </c>
-      <c r="JI109" s="32">
+      <c r="JI109" s="6">
         <v>411</v>
       </c>
+      <c r="JJ109" s="32">
+        <v>412</v>
+      </c>
     </row>
-    <row r="110" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>104</v>
       </c>
@@ -88294,11 +88612,14 @@
       <c r="JH110" s="6">
         <v>55</v>
       </c>
-      <c r="JI110" s="32">
+      <c r="JI110" s="6">
         <v>50</v>
       </c>
+      <c r="JJ110" s="32">
+        <v>50</v>
+      </c>
     </row>
-    <row r="111" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -89103,11 +89424,14 @@
       <c r="JH111" s="6">
         <v>1950</v>
       </c>
-      <c r="JI111" s="32">
+      <c r="JI111" s="6">
         <v>1945</v>
       </c>
+      <c r="JJ111" s="32">
+        <v>1933</v>
+      </c>
     </row>
-    <row r="112" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>106</v>
       </c>
@@ -89912,11 +90236,14 @@
       <c r="JH112" s="6">
         <v>3228</v>
       </c>
-      <c r="JI112" s="32">
+      <c r="JI112" s="6">
         <v>3096</v>
       </c>
+      <c r="JJ112" s="32">
+        <v>2990</v>
+      </c>
     </row>
-    <row r="113" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -90721,11 +91048,14 @@
       <c r="JH113" s="6">
         <v>333</v>
       </c>
-      <c r="JI113" s="32">
+      <c r="JI113" s="6">
         <v>302</v>
       </c>
+      <c r="JJ113" s="32">
+        <v>297</v>
+      </c>
     </row>
-    <row r="114" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>108</v>
       </c>
@@ -91530,11 +91860,14 @@
       <c r="JH114" s="6">
         <v>3051</v>
       </c>
-      <c r="JI114" s="32">
+      <c r="JI114" s="6">
         <v>3129</v>
       </c>
+      <c r="JJ114" s="32">
+        <v>3082</v>
+      </c>
     </row>
-    <row r="115" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>109</v>
       </c>
@@ -92339,11 +92672,14 @@
       <c r="JH115" s="6">
         <v>1517</v>
       </c>
-      <c r="JI115" s="32">
+      <c r="JI115" s="6">
         <v>1504</v>
       </c>
+      <c r="JJ115" s="32">
+        <v>1520</v>
+      </c>
     </row>
-    <row r="116" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>110</v>
       </c>
@@ -93148,11 +93484,14 @@
       <c r="JH116" s="6">
         <v>547</v>
       </c>
-      <c r="JI116" s="32">
+      <c r="JI116" s="6">
         <v>553</v>
       </c>
+      <c r="JJ116" s="32">
+        <v>536</v>
+      </c>
     </row>
-    <row r="117" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>111</v>
       </c>
@@ -93957,11 +94296,14 @@
       <c r="JH117" s="6">
         <v>2170</v>
       </c>
-      <c r="JI117" s="32">
+      <c r="JI117" s="6">
         <v>2199</v>
       </c>
+      <c r="JJ117" s="32">
+        <v>2223</v>
+      </c>
     </row>
-    <row r="118" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>112</v>
       </c>
@@ -94766,11 +95108,14 @@
       <c r="JH118" s="6">
         <v>540</v>
       </c>
-      <c r="JI118" s="32">
+      <c r="JI118" s="6">
         <v>542</v>
       </c>
+      <c r="JJ118" s="32">
+        <v>546</v>
+      </c>
     </row>
-    <row r="119" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>113</v>
       </c>
@@ -95575,11 +95920,14 @@
       <c r="JH119" s="6">
         <v>1092</v>
       </c>
-      <c r="JI119" s="32">
+      <c r="JI119" s="6">
         <v>1129</v>
       </c>
+      <c r="JJ119" s="32">
+        <v>1101</v>
+      </c>
     </row>
-    <row r="120" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>114</v>
       </c>
@@ -96384,11 +96732,14 @@
       <c r="JH120" s="6">
         <v>42</v>
       </c>
-      <c r="JI120" s="32">
+      <c r="JI120" s="6">
         <v>41</v>
       </c>
+      <c r="JJ120" s="32">
+        <v>41</v>
+      </c>
     </row>
-    <row r="121" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>115</v>
       </c>
@@ -97193,11 +97544,14 @@
       <c r="JH121" s="6">
         <v>651</v>
       </c>
-      <c r="JI121" s="32">
+      <c r="JI121" s="6">
         <v>645</v>
       </c>
+      <c r="JJ121" s="32">
+        <v>646</v>
+      </c>
     </row>
-    <row r="122" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>116</v>
       </c>
@@ -98002,11 +98356,14 @@
       <c r="JH122" s="6">
         <v>158</v>
       </c>
-      <c r="JI122" s="32">
+      <c r="JI122" s="6">
         <v>147</v>
       </c>
+      <c r="JJ122" s="32">
+        <v>139</v>
+      </c>
     </row>
-    <row r="123" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>117</v>
       </c>
@@ -98811,11 +99168,14 @@
       <c r="JH123" s="6">
         <v>522</v>
       </c>
-      <c r="JI123" s="32">
+      <c r="JI123" s="6">
         <v>563</v>
       </c>
+      <c r="JJ123" s="32">
+        <v>556</v>
+      </c>
     </row>
-    <row r="124" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>118</v>
       </c>
@@ -99620,11 +99980,14 @@
       <c r="JH124" s="6">
         <v>2752</v>
       </c>
-      <c r="JI124" s="32">
+      <c r="JI124" s="6">
         <v>1827</v>
       </c>
+      <c r="JJ124" s="32">
+        <v>3045</v>
+      </c>
     </row>
-    <row r="125" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>119</v>
       </c>
@@ -100429,11 +100792,14 @@
       <c r="JH125" s="6">
         <v>434729</v>
       </c>
-      <c r="JI125" s="32">
+      <c r="JI125" s="6">
         <v>434818</v>
       </c>
+      <c r="JJ125" s="32">
+        <v>438935</v>
+      </c>
     </row>
-    <row r="126" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>120</v>
       </c>
@@ -101238,11 +101604,14 @@
       <c r="JH126" s="6">
         <v>6096</v>
       </c>
-      <c r="JI126" s="32">
+      <c r="JI126" s="6">
         <v>5860</v>
       </c>
+      <c r="JJ126" s="32">
+        <v>5876</v>
+      </c>
     </row>
-    <row r="127" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>121</v>
       </c>
@@ -102047,11 +102416,14 @@
       <c r="JH127" s="6">
         <v>52</v>
       </c>
-      <c r="JI127" s="32">
+      <c r="JI127" s="6">
         <v>53</v>
       </c>
+      <c r="JJ127" s="32">
+        <v>52</v>
+      </c>
     </row>
-    <row r="128" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>122</v>
       </c>
@@ -102856,11 +103228,14 @@
       <c r="JH128" s="6">
         <v>2451</v>
       </c>
-      <c r="JI128" s="32">
+      <c r="JI128" s="6">
         <v>2522</v>
       </c>
+      <c r="JJ128" s="32">
+        <v>2576</v>
+      </c>
     </row>
-    <row r="129" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>123</v>
       </c>
@@ -103665,11 +104040,14 @@
       <c r="JH129" s="6">
         <v>38164</v>
       </c>
-      <c r="JI129" s="32">
+      <c r="JI129" s="6">
         <v>37423</v>
       </c>
+      <c r="JJ129" s="32">
+        <v>36888</v>
+      </c>
     </row>
-    <row r="130" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>124</v>
       </c>
@@ -104474,11 +104852,14 @@
       <c r="JH130" s="6">
         <v>6527</v>
       </c>
-      <c r="JI130" s="32">
+      <c r="JI130" s="6">
         <v>6187</v>
       </c>
+      <c r="JJ130" s="32">
+        <v>6073</v>
+      </c>
     </row>
-    <row r="131" spans="1:270" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:271" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="20" t="s">
         <v>127</v>
       </c>
@@ -105283,12 +105664,15 @@
       <c r="JH131" s="21">
         <v>1886776</v>
       </c>
-      <c r="JI131" s="33">
+      <c r="JI131" s="21">
         <v>1884715</v>
       </c>
-      <c r="JJ131" s="6"/>
+      <c r="JJ131" s="33">
+        <v>1888232</v>
+      </c>
+      <c r="JK131" s="6"/>
     </row>
-    <row r="132" spans="1:270" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:271" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
@@ -105536,7 +105920,7 @@
       <c r="IL132" s="18"/>
       <c r="IM132" s="18"/>
     </row>
-    <row r="133" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>126</v>
       </c>

--- a/Historicos/ta_municipios_jalisco.xlsx
+++ b/Historicos/ta_municipios_jalisco.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="19195" windowHeight="6344"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19195" windowHeight="6344"/>
   </bookViews>
   <sheets>
     <sheet name="ta municipios" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="142">
   <si>
     <t>Acatic</t>
   </si>
@@ -1605,11 +1605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JK145"/>
+  <dimension ref="A1:JL145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <selection activeCell="JM37" sqref="JM37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1727,17 +1726,17 @@
     <col min="265" max="265" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>125</v>
       </c>
@@ -2545,11 +2544,14 @@
       <c r="JI4" s="28">
         <v>2022</v>
       </c>
-      <c r="JJ4" s="29">
+      <c r="JJ4" s="28">
         <v>2022</v>
       </c>
+      <c r="JK4" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="4" t="s">
         <v>129</v>
@@ -3355,11 +3357,14 @@
       <c r="JI5" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="JJ5" s="35" t="s">
+      <c r="JJ5" s="36" t="s">
         <v>133</v>
       </c>
+      <c r="JK5" s="35" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="6" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -4167,11 +4172,14 @@
       <c r="JI6" s="6">
         <v>5118</v>
       </c>
-      <c r="JJ6" s="32">
+      <c r="JJ6" s="6">
         <v>5108</v>
       </c>
+      <c r="JK6" s="32">
+        <v>5050</v>
+      </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -4979,11 +4987,14 @@
       <c r="JI7" s="6">
         <v>7996</v>
       </c>
-      <c r="JJ7" s="32">
+      <c r="JJ7" s="6">
         <v>7375</v>
       </c>
+      <c r="JK7" s="32">
+        <v>7136</v>
+      </c>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -5791,11 +5802,14 @@
       <c r="JI8" s="6">
         <v>1430</v>
       </c>
-      <c r="JJ8" s="32">
+      <c r="JJ8" s="6">
         <v>1371</v>
       </c>
+      <c r="JK8" s="32">
+        <v>1393</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -6603,11 +6617,14 @@
       <c r="JI9" s="6">
         <v>116</v>
       </c>
-      <c r="JJ9" s="32">
+      <c r="JJ9" s="6">
         <v>113</v>
       </c>
+      <c r="JK9" s="32">
+        <v>114</v>
+      </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -7415,11 +7432,14 @@
       <c r="JI10" s="6">
         <v>4174</v>
       </c>
-      <c r="JJ10" s="32">
+      <c r="JJ10" s="6">
         <v>3740</v>
       </c>
+      <c r="JK10" s="32">
+        <v>3569</v>
+      </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -8227,11 +8247,14 @@
       <c r="JI11" s="6">
         <v>7544</v>
       </c>
-      <c r="JJ11" s="32">
+      <c r="JJ11" s="6">
         <v>6550</v>
       </c>
+      <c r="JK11" s="32">
+        <v>6598</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -9039,11 +9062,14 @@
       <c r="JI12" s="6">
         <v>12826</v>
       </c>
-      <c r="JJ12" s="32">
+      <c r="JJ12" s="6">
         <v>12712</v>
       </c>
+      <c r="JK12" s="32">
+        <v>12613</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -9851,11 +9877,14 @@
       <c r="JI13" s="6">
         <v>804</v>
       </c>
-      <c r="JJ13" s="32">
+      <c r="JJ13" s="6">
         <v>714</v>
       </c>
+      <c r="JK13" s="32">
+        <v>699</v>
+      </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -10663,11 +10692,14 @@
       <c r="JI14" s="6">
         <v>24</v>
       </c>
-      <c r="JJ14" s="32">
+      <c r="JJ14" s="6">
         <v>25</v>
       </c>
+      <c r="JK14" s="32">
+        <v>24</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -11475,11 +11507,14 @@
       <c r="JI15" s="6">
         <v>81</v>
       </c>
-      <c r="JJ15" s="32">
+      <c r="JJ15" s="6">
         <v>79</v>
       </c>
+      <c r="JK15" s="32">
+        <v>85</v>
+      </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -12287,11 +12322,14 @@
       <c r="JI16" s="6">
         <v>11809</v>
       </c>
-      <c r="JJ16" s="32">
+      <c r="JJ16" s="6">
         <v>11900</v>
       </c>
+      <c r="JK16" s="32">
+        <v>12100</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -13099,11 +13137,14 @@
       <c r="JI17" s="6">
         <v>598</v>
       </c>
-      <c r="JJ17" s="32">
+      <c r="JJ17" s="6">
         <v>563</v>
       </c>
+      <c r="JK17" s="32">
+        <v>543</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -13911,11 +13952,14 @@
       <c r="JI18" s="6">
         <v>11805</v>
       </c>
-      <c r="JJ18" s="32">
+      <c r="JJ18" s="6">
         <v>11388</v>
       </c>
+      <c r="JK18" s="32">
+        <v>11335</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -14723,11 +14767,14 @@
       <c r="JI19" s="6">
         <v>3770</v>
       </c>
-      <c r="JJ19" s="32">
+      <c r="JJ19" s="6">
         <v>3690</v>
       </c>
+      <c r="JK19" s="32">
+        <v>3784</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -15535,11 +15582,14 @@
       <c r="JI20" s="6">
         <v>361</v>
       </c>
-      <c r="JJ20" s="32">
+      <c r="JJ20" s="6">
         <v>357</v>
       </c>
+      <c r="JK20" s="32">
+        <v>357</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -16347,11 +16397,14 @@
       <c r="JI21" s="6">
         <v>675</v>
       </c>
-      <c r="JJ21" s="32">
+      <c r="JJ21" s="6">
         <v>678</v>
       </c>
+      <c r="JK21" s="32">
+        <v>679</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -17159,11 +17212,14 @@
       <c r="JI22" s="6">
         <v>296</v>
       </c>
-      <c r="JJ22" s="32">
+      <c r="JJ22" s="6">
         <v>298</v>
       </c>
+      <c r="JK22" s="32">
+        <v>321</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -17971,11 +18027,14 @@
       <c r="JI23" s="6">
         <v>152</v>
       </c>
-      <c r="JJ23" s="32">
+      <c r="JJ23" s="6">
         <v>157</v>
       </c>
+      <c r="JK23" s="32">
+        <v>154</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -18783,11 +18842,14 @@
       <c r="JI24" s="6">
         <v>3254</v>
       </c>
-      <c r="JJ24" s="32">
+      <c r="JJ24" s="6">
         <v>2903</v>
       </c>
+      <c r="JK24" s="32">
+        <v>2918</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -19595,11 +19657,14 @@
       <c r="JI25" s="6">
         <v>5978</v>
       </c>
-      <c r="JJ25" s="32">
+      <c r="JJ25" s="6">
         <v>5757</v>
       </c>
+      <c r="JK25" s="32">
+        <v>5936</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -20407,11 +20472,14 @@
       <c r="JI26" s="6">
         <v>3</v>
       </c>
-      <c r="JJ26" s="32">
+      <c r="JJ26" s="6">
         <v>3</v>
       </c>
+      <c r="JK26" s="32">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -21219,11 +21287,14 @@
       <c r="JI27" s="6">
         <v>194</v>
       </c>
-      <c r="JJ27" s="32">
+      <c r="JJ27" s="6">
         <v>198</v>
       </c>
+      <c r="JK27" s="32">
+        <v>200</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -22031,11 +22102,14 @@
       <c r="JI28" s="6">
         <v>2250</v>
       </c>
-      <c r="JJ28" s="32">
+      <c r="JJ28" s="6">
         <v>2237</v>
       </c>
+      <c r="JK28" s="32">
+        <v>2206</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -22843,11 +22917,14 @@
       <c r="JI29" s="6">
         <v>2957</v>
       </c>
-      <c r="JJ29" s="32">
+      <c r="JJ29" s="6">
         <v>2909</v>
       </c>
+      <c r="JK29" s="32">
+        <v>2927</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -23655,11 +23732,14 @@
       <c r="JI30" s="6">
         <v>681</v>
       </c>
-      <c r="JJ30" s="32">
+      <c r="JJ30" s="6">
         <v>665</v>
       </c>
+      <c r="JK30" s="32">
+        <v>643</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
@@ -24467,11 +24547,14 @@
       <c r="JI31" s="6">
         <v>134</v>
       </c>
-      <c r="JJ31" s="32">
+      <c r="JJ31" s="6">
         <v>143</v>
       </c>
+      <c r="JK31" s="32">
+        <v>128</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
@@ -25279,11 +25362,14 @@
       <c r="JI32" s="6">
         <v>47</v>
       </c>
-      <c r="JJ32" s="32">
+      <c r="JJ32" s="6">
         <v>46</v>
       </c>
+      <c r="JK32" s="32">
+        <v>46</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -26091,11 +26177,14 @@
       <c r="JI33" s="6">
         <v>58</v>
       </c>
-      <c r="JJ33" s="32">
+      <c r="JJ33" s="6">
         <v>58</v>
       </c>
+      <c r="JK33" s="32">
+        <v>63</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -26903,11 +26992,14 @@
       <c r="JI34" s="6">
         <v>214</v>
       </c>
-      <c r="JJ34" s="32">
+      <c r="JJ34" s="6">
         <v>214</v>
       </c>
+      <c r="JK34" s="32">
+        <v>191</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -27715,11 +27807,14 @@
       <c r="JI35" s="6">
         <v>1011</v>
       </c>
-      <c r="JJ35" s="32">
+      <c r="JJ35" s="6">
         <v>1008</v>
       </c>
+      <c r="JK35" s="32">
+        <v>1028</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -28527,11 +28622,14 @@
       <c r="JI36" s="6">
         <v>8</v>
       </c>
-      <c r="JJ36" s="32">
+      <c r="JJ36" s="6">
         <v>8</v>
       </c>
+      <c r="JK36" s="32">
+        <v>8</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -29339,11 +29437,14 @@
       <c r="JI37" s="6">
         <v>3679</v>
       </c>
-      <c r="JJ37" s="32">
+      <c r="JJ37" s="6">
         <v>3459</v>
       </c>
+      <c r="JK37" s="32">
+        <v>3394</v>
+      </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -30151,11 +30252,14 @@
       <c r="JI38" s="6">
         <v>2456</v>
       </c>
-      <c r="JJ38" s="32">
+      <c r="JJ38" s="6">
         <v>2378</v>
       </c>
+      <c r="JK38" s="32">
+        <v>2380</v>
+      </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
@@ -30963,11 +31067,14 @@
       <c r="JI39" s="6">
         <v>153</v>
       </c>
-      <c r="JJ39" s="32">
+      <c r="JJ39" s="6">
         <v>153</v>
       </c>
+      <c r="JK39" s="32">
+        <v>152</v>
+      </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
@@ -31775,11 +31882,14 @@
       <c r="JI40" s="6">
         <v>63578</v>
       </c>
-      <c r="JJ40" s="32">
+      <c r="JJ40" s="6">
         <v>64244</v>
       </c>
+      <c r="JK40" s="32">
+        <v>64754</v>
+      </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -32587,11 +32697,14 @@
       <c r="JI41" s="6">
         <v>3493</v>
       </c>
-      <c r="JJ41" s="32">
+      <c r="JJ41" s="6">
         <v>3440</v>
       </c>
+      <c r="JK41" s="32">
+        <v>3444</v>
+      </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
@@ -33399,11 +33512,14 @@
       <c r="JI42" s="6">
         <v>734</v>
       </c>
-      <c r="JJ42" s="32">
+      <c r="JJ42" s="6">
         <v>737</v>
       </c>
+      <c r="JK42" s="32">
+        <v>720</v>
+      </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -34211,11 +34327,14 @@
       <c r="JI43" s="6">
         <v>2626</v>
       </c>
-      <c r="JJ43" s="32">
+      <c r="JJ43" s="6">
         <v>2604</v>
       </c>
+      <c r="JK43" s="32">
+        <v>2273</v>
+      </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -35023,11 +35142,14 @@
       <c r="JI44" s="6">
         <v>151</v>
       </c>
-      <c r="JJ44" s="32">
+      <c r="JJ44" s="6">
         <v>150</v>
       </c>
+      <c r="JK44" s="32">
+        <v>156</v>
+      </c>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -35835,11 +35957,14 @@
       <c r="JI45" s="6">
         <v>667130</v>
       </c>
-      <c r="JJ45" s="32">
+      <c r="JJ45" s="6">
         <v>670452</v>
       </c>
+      <c r="JK45" s="32">
+        <v>675111</v>
+      </c>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
@@ -36647,11 +36772,14 @@
       <c r="JI46" s="6">
         <v>190</v>
       </c>
-      <c r="JJ46" s="32">
+      <c r="JJ46" s="6">
         <v>184</v>
       </c>
+      <c r="JK46" s="32">
+        <v>183</v>
+      </c>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
@@ -37459,11 +37587,14 @@
       <c r="JI47" s="6">
         <v>96</v>
       </c>
-      <c r="JJ47" s="32">
+      <c r="JJ47" s="6">
         <v>96</v>
       </c>
+      <c r="JK47" s="32">
+        <v>98</v>
+      </c>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -38271,11 +38402,14 @@
       <c r="JI48" s="6">
         <v>1257</v>
       </c>
-      <c r="JJ48" s="32">
+      <c r="JJ48" s="6">
         <v>1162</v>
       </c>
+      <c r="JK48" s="32">
+        <v>1425</v>
+      </c>
     </row>
-    <row r="49" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -39083,11 +39217,14 @@
       <c r="JI49" s="6">
         <v>4688</v>
       </c>
-      <c r="JJ49" s="32">
+      <c r="JJ49" s="6">
         <v>4945</v>
       </c>
+      <c r="JK49" s="32">
+        <v>5092</v>
+      </c>
     </row>
-    <row r="50" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -39895,11 +40032,14 @@
       <c r="JI50" s="6">
         <v>595</v>
       </c>
-      <c r="JJ50" s="32">
+      <c r="JJ50" s="6">
         <v>616</v>
       </c>
+      <c r="JK50" s="32">
+        <v>630</v>
+      </c>
     </row>
-    <row r="51" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -40707,11 +40847,14 @@
       <c r="JI51" s="6">
         <v>2727</v>
       </c>
-      <c r="JJ51" s="32">
+      <c r="JJ51" s="6">
         <v>2685</v>
       </c>
+      <c r="JK51" s="32">
+        <v>2683</v>
+      </c>
     </row>
-    <row r="52" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -41519,11 +41662,14 @@
       <c r="JI52" s="6">
         <v>1410</v>
       </c>
-      <c r="JJ52" s="32">
+      <c r="JJ52" s="6">
         <v>1358</v>
       </c>
+      <c r="JK52" s="32">
+        <v>1323</v>
+      </c>
     </row>
-    <row r="53" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -42331,11 +42477,14 @@
       <c r="JI53" s="6">
         <v>1920</v>
       </c>
-      <c r="JJ53" s="32">
+      <c r="JJ53" s="6">
         <v>1761</v>
       </c>
+      <c r="JK53" s="32">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="54" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>48</v>
       </c>
@@ -43143,11 +43292,14 @@
       <c r="JI54" s="6">
         <v>57</v>
       </c>
-      <c r="JJ54" s="32">
+      <c r="JJ54" s="6">
         <v>56</v>
       </c>
+      <c r="JK54" s="32">
+        <v>59</v>
+      </c>
     </row>
-    <row r="55" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
@@ -43955,11 +44107,14 @@
       <c r="JI55" s="6">
         <v>7804</v>
       </c>
-      <c r="JJ55" s="32">
+      <c r="JJ55" s="6">
         <v>7245</v>
       </c>
+      <c r="JK55" s="32">
+        <v>6724</v>
+      </c>
     </row>
-    <row r="56" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -44767,11 +44922,14 @@
       <c r="JI56" s="6">
         <v>1428</v>
       </c>
-      <c r="JJ56" s="32">
+      <c r="JJ56" s="6">
         <v>1445</v>
       </c>
+      <c r="JK56" s="32">
+        <v>1451</v>
+      </c>
     </row>
-    <row r="57" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>51</v>
       </c>
@@ -45579,11 +45737,14 @@
       <c r="JI57" s="6">
         <v>85</v>
       </c>
-      <c r="JJ57" s="32">
+      <c r="JJ57" s="6">
         <v>84</v>
       </c>
+      <c r="JK57" s="32">
+        <v>83</v>
+      </c>
     </row>
-    <row r="58" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -46391,11 +46552,14 @@
       <c r="JI58" s="6">
         <v>4918</v>
       </c>
-      <c r="JJ58" s="32">
+      <c r="JJ58" s="6">
         <v>4930</v>
       </c>
+      <c r="JK58" s="32">
+        <v>4969</v>
+      </c>
     </row>
-    <row r="59" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>53</v>
       </c>
@@ -47203,11 +47367,14 @@
       <c r="JI59" s="6">
         <v>2115</v>
       </c>
-      <c r="JJ59" s="32">
+      <c r="JJ59" s="6">
         <v>2039</v>
       </c>
+      <c r="JK59" s="32">
+        <v>2079</v>
+      </c>
     </row>
-    <row r="60" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
@@ -48015,11 +48182,14 @@
       <c r="JI60" s="6">
         <v>148</v>
       </c>
-      <c r="JJ60" s="32">
+      <c r="JJ60" s="6">
         <v>149</v>
       </c>
+      <c r="JK60" s="32">
+        <v>142</v>
+      </c>
     </row>
-    <row r="61" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>55</v>
       </c>
@@ -48827,11 +48997,14 @@
       <c r="JI61" s="6">
         <v>35554</v>
       </c>
-      <c r="JJ61" s="32">
+      <c r="JJ61" s="6">
         <v>35613</v>
       </c>
+      <c r="JK61" s="32">
+        <v>35960</v>
+      </c>
     </row>
-    <row r="62" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -49639,11 +49812,14 @@
       <c r="JI62" s="6">
         <v>1184</v>
       </c>
-      <c r="JJ62" s="32">
+      <c r="JJ62" s="6">
         <v>1199</v>
       </c>
+      <c r="JK62" s="32">
+        <v>1238</v>
+      </c>
     </row>
-    <row r="63" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
@@ -50451,11 +50627,14 @@
       <c r="JI63" s="6">
         <v>553</v>
       </c>
-      <c r="JJ63" s="32">
+      <c r="JJ63" s="6">
         <v>481</v>
       </c>
+      <c r="JK63" s="32">
+        <v>487</v>
+      </c>
     </row>
-    <row r="64" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
@@ -51263,11 +51442,14 @@
       <c r="JI64" s="6">
         <v>1062</v>
       </c>
-      <c r="JJ64" s="32">
+      <c r="JJ64" s="6">
         <v>1009</v>
       </c>
+      <c r="JK64" s="32">
+        <v>996</v>
+      </c>
     </row>
-    <row r="65" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>59</v>
       </c>
@@ -52075,11 +52257,14 @@
       <c r="JI65" s="6">
         <v>14</v>
       </c>
-      <c r="JJ65" s="32">
+      <c r="JJ65" s="6">
         <v>13</v>
       </c>
+      <c r="JK65" s="32">
+        <v>13</v>
+      </c>
     </row>
-    <row r="66" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>60</v>
       </c>
@@ -52887,11 +53072,14 @@
       <c r="JI66" s="6">
         <v>206</v>
       </c>
-      <c r="JJ66" s="32">
+      <c r="JJ66" s="6">
         <v>204</v>
       </c>
+      <c r="JK66" s="32">
+        <v>202</v>
+      </c>
     </row>
-    <row r="67" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>61</v>
       </c>
@@ -53699,11 +53887,14 @@
       <c r="JI67" s="6">
         <v>37</v>
       </c>
-      <c r="JJ67" s="32">
+      <c r="JJ67" s="6">
         <v>35</v>
       </c>
+      <c r="JK67" s="32">
+        <v>33</v>
+      </c>
     </row>
-    <row r="68" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>62</v>
       </c>
@@ -54511,11 +54702,14 @@
       <c r="JI68" s="6">
         <v>22030</v>
       </c>
-      <c r="JJ68" s="32">
+      <c r="JJ68" s="6">
         <v>22170</v>
       </c>
+      <c r="JK68" s="32">
+        <v>22423</v>
+      </c>
     </row>
-    <row r="69" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>63</v>
       </c>
@@ -55323,11 +55517,14 @@
       <c r="JI69" s="6">
         <v>548</v>
       </c>
-      <c r="JJ69" s="32">
+      <c r="JJ69" s="6">
         <v>536</v>
       </c>
+      <c r="JK69" s="32">
+        <v>538</v>
+      </c>
     </row>
-    <row r="70" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>64</v>
       </c>
@@ -56135,11 +56332,14 @@
       <c r="JI70" s="6">
         <v>529</v>
       </c>
-      <c r="JJ70" s="32">
+      <c r="JJ70" s="6">
         <v>535</v>
       </c>
+      <c r="JK70" s="32">
+        <v>542</v>
+      </c>
     </row>
-    <row r="71" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>65</v>
       </c>
@@ -56947,11 +57147,14 @@
       <c r="JI71" s="6">
         <v>4722</v>
       </c>
-      <c r="JJ71" s="32">
+      <c r="JJ71" s="6">
         <v>4728</v>
       </c>
+      <c r="JK71" s="32">
+        <v>4737</v>
+      </c>
     </row>
-    <row r="72" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>66</v>
       </c>
@@ -57759,11 +57962,14 @@
       <c r="JI72" s="6">
         <v>73222</v>
       </c>
-      <c r="JJ72" s="32">
+      <c r="JJ72" s="6">
         <v>73954</v>
       </c>
+      <c r="JK72" s="32">
+        <v>74557</v>
+      </c>
     </row>
-    <row r="73" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
@@ -58571,11 +58777,14 @@
       <c r="JI73" s="6">
         <v>13</v>
       </c>
-      <c r="JJ73" s="32">
+      <c r="JJ73" s="6">
         <v>14</v>
       </c>
+      <c r="JK73" s="32">
+        <v>14</v>
+      </c>
     </row>
-    <row r="74" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>68</v>
       </c>
@@ -59383,11 +59592,14 @@
       <c r="JI74" s="6">
         <v>31</v>
       </c>
-      <c r="JJ74" s="32">
+      <c r="JJ74" s="6">
         <v>32</v>
       </c>
+      <c r="JK74" s="32">
+        <v>32</v>
+      </c>
     </row>
-    <row r="75" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>69</v>
       </c>
@@ -60195,11 +60407,14 @@
       <c r="JI75" s="6">
         <v>74</v>
       </c>
-      <c r="JJ75" s="32">
+      <c r="JJ75" s="6">
         <v>76</v>
       </c>
+      <c r="JK75" s="32">
+        <v>73</v>
+      </c>
     </row>
-    <row r="76" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>70</v>
       </c>
@@ -61007,11 +61222,14 @@
       <c r="JI76" s="6">
         <v>3564</v>
       </c>
-      <c r="JJ76" s="32">
+      <c r="JJ76" s="6">
         <v>4366</v>
       </c>
+      <c r="JK76" s="32">
+        <v>4111</v>
+      </c>
     </row>
-    <row r="77" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
@@ -61819,11 +62037,14 @@
       <c r="JI77" s="6">
         <v>985</v>
       </c>
-      <c r="JJ77" s="32">
+      <c r="JJ77" s="6">
         <v>979</v>
       </c>
+      <c r="JK77" s="32">
+        <v>1167</v>
+      </c>
     </row>
-    <row r="78" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
@@ -62631,11 +62852,14 @@
       <c r="JI78" s="6">
         <v>15950</v>
       </c>
-      <c r="JJ78" s="32">
+      <c r="JJ78" s="6">
         <v>15902</v>
       </c>
+      <c r="JK78" s="32">
+        <v>15757</v>
+      </c>
     </row>
-    <row r="79" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
@@ -63443,11 +63667,14 @@
       <c r="JI79" s="6">
         <v>235</v>
       </c>
-      <c r="JJ79" s="32">
+      <c r="JJ79" s="6">
         <v>236</v>
       </c>
+      <c r="JK79" s="32">
+        <v>241</v>
+      </c>
     </row>
-    <row r="80" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>74</v>
       </c>
@@ -64255,11 +64482,14 @@
       <c r="JI80" s="6">
         <v>880</v>
       </c>
-      <c r="JJ80" s="32">
+      <c r="JJ80" s="6">
         <v>894</v>
       </c>
+      <c r="JK80" s="32">
+        <v>908</v>
+      </c>
     </row>
-    <row r="81" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
@@ -65067,11 +65297,14 @@
       <c r="JI81" s="6">
         <v>29</v>
       </c>
-      <c r="JJ81" s="32">
+      <c r="JJ81" s="6">
         <v>29</v>
       </c>
+      <c r="JK81" s="32">
+        <v>45</v>
+      </c>
     </row>
-    <row r="82" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>76</v>
       </c>
@@ -65879,11 +66112,14 @@
       <c r="JI82" s="6">
         <v>103</v>
       </c>
-      <c r="JJ82" s="32">
+      <c r="JJ82" s="6">
         <v>95</v>
       </c>
+      <c r="JK82" s="32">
+        <v>112</v>
+      </c>
     </row>
-    <row r="83" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>77</v>
       </c>
@@ -66691,11 +66927,14 @@
       <c r="JI83" s="6">
         <v>1228</v>
       </c>
-      <c r="JJ83" s="32">
+      <c r="JJ83" s="6">
         <v>1245</v>
       </c>
+      <c r="JK83" s="32">
+        <v>1224</v>
+      </c>
     </row>
-    <row r="84" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
@@ -67503,11 +67742,14 @@
       <c r="JI84" s="6">
         <v>3978</v>
       </c>
-      <c r="JJ84" s="32">
+      <c r="JJ84" s="6">
         <v>3907</v>
       </c>
+      <c r="JK84" s="32">
+        <v>3898</v>
+      </c>
     </row>
-    <row r="85" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
@@ -68315,11 +68557,14 @@
       <c r="JI85" s="6">
         <v>170</v>
       </c>
-      <c r="JJ85" s="32">
+      <c r="JJ85" s="6">
         <v>185</v>
       </c>
+      <c r="JK85" s="32">
+        <v>187</v>
+      </c>
     </row>
-    <row r="86" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>80</v>
       </c>
@@ -69127,11 +69372,14 @@
       <c r="JI86" s="6">
         <v>8</v>
       </c>
-      <c r="JJ86" s="32">
+      <c r="JJ86" s="6">
         <v>7</v>
       </c>
+      <c r="JK86" s="32">
+        <v>5</v>
+      </c>
     </row>
-    <row r="87" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>81</v>
       </c>
@@ -69939,11 +70187,14 @@
       <c r="JI87" s="6">
         <v>0</v>
       </c>
-      <c r="JJ87" s="32">
+      <c r="JJ87" s="6">
         <v>0</v>
       </c>
+      <c r="JK87" s="32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
@@ -70751,11 +71002,14 @@
       <c r="JI88" s="6">
         <v>5461</v>
       </c>
-      <c r="JJ88" s="32">
+      <c r="JJ88" s="6">
         <v>5361</v>
       </c>
+      <c r="JK88" s="32">
+        <v>5274</v>
+      </c>
     </row>
-    <row r="89" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>83</v>
       </c>
@@ -71563,11 +71817,14 @@
       <c r="JI89" s="6">
         <v>16203</v>
       </c>
-      <c r="JJ89" s="32">
+      <c r="JJ89" s="6">
         <v>14537</v>
       </c>
+      <c r="JK89" s="32">
+        <v>14389</v>
+      </c>
     </row>
-    <row r="90" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
@@ -72375,11 +72632,14 @@
       <c r="JI90" s="6">
         <v>405</v>
       </c>
-      <c r="JJ90" s="32">
+      <c r="JJ90" s="6">
         <v>407</v>
       </c>
+      <c r="JK90" s="32">
+        <v>409</v>
+      </c>
     </row>
-    <row r="91" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
@@ -73187,11 +73447,14 @@
       <c r="JI91" s="6">
         <v>7512</v>
       </c>
-      <c r="JJ91" s="32">
+      <c r="JJ91" s="6">
         <v>6760</v>
       </c>
+      <c r="JK91" s="32">
+        <v>6524</v>
+      </c>
     </row>
-    <row r="92" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>86</v>
       </c>
@@ -73999,11 +74262,14 @@
       <c r="JI92" s="6">
         <v>2541</v>
       </c>
-      <c r="JJ92" s="32">
+      <c r="JJ92" s="6">
         <v>2384</v>
       </c>
+      <c r="JK92" s="32">
+        <v>2286</v>
+      </c>
     </row>
-    <row r="93" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -74811,11 +75077,14 @@
       <c r="JI93" s="6">
         <v>697</v>
       </c>
-      <c r="JJ93" s="32">
+      <c r="JJ93" s="6">
         <v>690</v>
       </c>
+      <c r="JK93" s="32">
+        <v>692</v>
+      </c>
     </row>
-    <row r="94" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
@@ -75623,11 +75892,14 @@
       <c r="JI94" s="6">
         <v>347</v>
       </c>
-      <c r="JJ94" s="32">
+      <c r="JJ94" s="6">
         <v>351</v>
       </c>
+      <c r="JK94" s="32">
+        <v>347</v>
+      </c>
     </row>
-    <row r="95" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
@@ -76435,11 +76707,14 @@
       <c r="JI95" s="6">
         <v>1469</v>
       </c>
-      <c r="JJ95" s="32">
+      <c r="JJ95" s="6">
         <v>1295</v>
       </c>
+      <c r="JK95" s="32">
+        <v>1253</v>
+      </c>
     </row>
-    <row r="96" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>90</v>
       </c>
@@ -77247,11 +77522,14 @@
       <c r="JI96" s="6">
         <v>117</v>
       </c>
-      <c r="JJ96" s="32">
+      <c r="JJ96" s="6">
         <v>119</v>
       </c>
+      <c r="JK96" s="32">
+        <v>114</v>
+      </c>
     </row>
-    <row r="97" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>91</v>
       </c>
@@ -78059,11 +78337,14 @@
       <c r="JI97" s="6">
         <v>1454</v>
       </c>
-      <c r="JJ97" s="32">
+      <c r="JJ97" s="6">
         <v>1477</v>
       </c>
+      <c r="JK97" s="32">
+        <v>1465</v>
+      </c>
     </row>
-    <row r="98" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>92</v>
       </c>
@@ -78871,11 +79152,14 @@
       <c r="JI98" s="6">
         <v>476</v>
       </c>
-      <c r="JJ98" s="32">
+      <c r="JJ98" s="6">
         <v>541</v>
       </c>
+      <c r="JK98" s="32">
+        <v>577</v>
+      </c>
     </row>
-    <row r="99" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>93</v>
       </c>
@@ -79683,11 +79967,14 @@
       <c r="JI99" s="6">
         <v>38003</v>
       </c>
-      <c r="JJ99" s="32">
+      <c r="JJ99" s="6">
         <v>37938</v>
       </c>
+      <c r="JK99" s="32">
+        <v>37614</v>
+      </c>
     </row>
-    <row r="100" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>94</v>
       </c>
@@ -80495,11 +80782,14 @@
       <c r="JI100" s="6">
         <v>8056</v>
       </c>
-      <c r="JJ100" s="32">
+      <c r="JJ100" s="6">
         <v>8348</v>
       </c>
+      <c r="JK100" s="32">
+        <v>8409</v>
+      </c>
     </row>
-    <row r="101" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>95</v>
       </c>
@@ -81307,11 +81597,14 @@
       <c r="JI101" s="6">
         <v>878</v>
       </c>
-      <c r="JJ101" s="32">
+      <c r="JJ101" s="6">
         <v>856</v>
       </c>
+      <c r="JK101" s="32">
+        <v>643</v>
+      </c>
     </row>
-    <row r="102" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>96</v>
       </c>
@@ -82119,11 +82412,14 @@
       <c r="JI102" s="6">
         <v>597</v>
       </c>
-      <c r="JJ102" s="32">
+      <c r="JJ102" s="6">
         <v>583</v>
       </c>
+      <c r="JK102" s="32">
+        <v>572</v>
+      </c>
     </row>
-    <row r="103" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>97</v>
       </c>
@@ -82931,11 +83227,14 @@
       <c r="JI103" s="6">
         <v>107043</v>
       </c>
-      <c r="JJ103" s="32">
+      <c r="JJ103" s="6">
         <v>107235</v>
       </c>
+      <c r="JK103" s="32">
+        <v>108770</v>
+      </c>
     </row>
-    <row r="104" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>98</v>
       </c>
@@ -83743,11 +84042,14 @@
       <c r="JI104" s="6">
         <v>127372</v>
       </c>
-      <c r="JJ104" s="32">
+      <c r="JJ104" s="6">
         <v>127297</v>
       </c>
+      <c r="JK104" s="32">
+        <v>125816</v>
+      </c>
     </row>
-    <row r="105" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>99</v>
       </c>
@@ -84555,11 +84857,14 @@
       <c r="JI105" s="6">
         <v>834</v>
       </c>
-      <c r="JJ105" s="32">
+      <c r="JJ105" s="6">
         <v>808</v>
       </c>
+      <c r="JK105" s="32">
+        <v>947</v>
+      </c>
     </row>
-    <row r="106" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>100</v>
       </c>
@@ -85367,11 +85672,14 @@
       <c r="JI106" s="6">
         <v>1180</v>
       </c>
-      <c r="JJ106" s="32">
+      <c r="JJ106" s="6">
         <v>1186</v>
       </c>
+      <c r="JK106" s="32">
+        <v>1238</v>
+      </c>
     </row>
-    <row r="107" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>101</v>
       </c>
@@ -86179,11 +86487,14 @@
       <c r="JI107" s="6">
         <v>31504</v>
       </c>
-      <c r="JJ107" s="32">
+      <c r="JJ107" s="6">
         <v>31860</v>
       </c>
+      <c r="JK107" s="32">
+        <v>31577</v>
+      </c>
     </row>
-    <row r="108" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>102</v>
       </c>
@@ -86991,11 +87302,14 @@
       <c r="JI108" s="6">
         <v>905</v>
       </c>
-      <c r="JJ108" s="32">
+      <c r="JJ108" s="6">
         <v>899</v>
       </c>
+      <c r="JK108" s="32">
+        <v>903</v>
+      </c>
     </row>
-    <row r="109" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>103</v>
       </c>
@@ -87803,11 +88117,14 @@
       <c r="JI109" s="6">
         <v>411</v>
       </c>
-      <c r="JJ109" s="32">
+      <c r="JJ109" s="6">
         <v>412</v>
       </c>
+      <c r="JK109" s="32">
+        <v>403</v>
+      </c>
     </row>
-    <row r="110" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>104</v>
       </c>
@@ -88615,11 +88932,14 @@
       <c r="JI110" s="6">
         <v>50</v>
       </c>
-      <c r="JJ110" s="32">
+      <c r="JJ110" s="6">
         <v>50</v>
       </c>
+      <c r="JK110" s="32">
+        <v>50</v>
+      </c>
     </row>
-    <row r="111" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -89427,11 +89747,14 @@
       <c r="JI111" s="6">
         <v>1945</v>
       </c>
-      <c r="JJ111" s="32">
+      <c r="JJ111" s="6">
         <v>1933</v>
       </c>
+      <c r="JK111" s="32">
+        <v>1938</v>
+      </c>
     </row>
-    <row r="112" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>106</v>
       </c>
@@ -90239,11 +90562,14 @@
       <c r="JI112" s="6">
         <v>3096</v>
       </c>
-      <c r="JJ112" s="32">
+      <c r="JJ112" s="6">
         <v>2990</v>
       </c>
+      <c r="JK112" s="32">
+        <v>3878</v>
+      </c>
     </row>
-    <row r="113" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>107</v>
       </c>
@@ -91051,11 +91377,14 @@
       <c r="JI113" s="6">
         <v>302</v>
       </c>
-      <c r="JJ113" s="32">
+      <c r="JJ113" s="6">
         <v>297</v>
       </c>
+      <c r="JK113" s="32">
+        <v>305</v>
+      </c>
     </row>
-    <row r="114" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>108</v>
       </c>
@@ -91863,11 +92192,14 @@
       <c r="JI114" s="6">
         <v>3129</v>
       </c>
-      <c r="JJ114" s="32">
+      <c r="JJ114" s="6">
         <v>3082</v>
       </c>
+      <c r="JK114" s="32">
+        <v>3156</v>
+      </c>
     </row>
-    <row r="115" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>109</v>
       </c>
@@ -92675,11 +93007,14 @@
       <c r="JI115" s="6">
         <v>1504</v>
       </c>
-      <c r="JJ115" s="32">
+      <c r="JJ115" s="6">
         <v>1520</v>
       </c>
+      <c r="JK115" s="32">
+        <v>1515</v>
+      </c>
     </row>
-    <row r="116" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>110</v>
       </c>
@@ -93487,11 +93822,14 @@
       <c r="JI116" s="6">
         <v>553</v>
       </c>
-      <c r="JJ116" s="32">
+      <c r="JJ116" s="6">
         <v>536</v>
       </c>
+      <c r="JK116" s="32">
+        <v>532</v>
+      </c>
     </row>
-    <row r="117" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>111</v>
       </c>
@@ -94299,11 +94637,14 @@
       <c r="JI117" s="6">
         <v>2199</v>
       </c>
-      <c r="JJ117" s="32">
+      <c r="JJ117" s="6">
         <v>2223</v>
       </c>
+      <c r="JK117" s="32">
+        <v>2225</v>
+      </c>
     </row>
-    <row r="118" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>112</v>
       </c>
@@ -95111,11 +95452,14 @@
       <c r="JI118" s="6">
         <v>542</v>
       </c>
-      <c r="JJ118" s="32">
+      <c r="JJ118" s="6">
         <v>546</v>
       </c>
+      <c r="JK118" s="32">
+        <v>568</v>
+      </c>
     </row>
-    <row r="119" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>113</v>
       </c>
@@ -95923,11 +96267,14 @@
       <c r="JI119" s="6">
         <v>1129</v>
       </c>
-      <c r="JJ119" s="32">
+      <c r="JJ119" s="6">
         <v>1101</v>
       </c>
+      <c r="JK119" s="32">
+        <v>1144</v>
+      </c>
     </row>
-    <row r="120" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>114</v>
       </c>
@@ -96735,11 +97082,14 @@
       <c r="JI120" s="6">
         <v>41</v>
       </c>
-      <c r="JJ120" s="32">
+      <c r="JJ120" s="6">
         <v>41</v>
       </c>
+      <c r="JK120" s="32">
+        <v>41</v>
+      </c>
     </row>
-    <row r="121" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>115</v>
       </c>
@@ -97547,11 +97897,14 @@
       <c r="JI121" s="6">
         <v>645</v>
       </c>
-      <c r="JJ121" s="32">
+      <c r="JJ121" s="6">
         <v>646</v>
       </c>
+      <c r="JK121" s="32">
+        <v>652</v>
+      </c>
     </row>
-    <row r="122" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>116</v>
       </c>
@@ -98359,11 +98712,14 @@
       <c r="JI122" s="6">
         <v>147</v>
       </c>
-      <c r="JJ122" s="32">
+      <c r="JJ122" s="6">
         <v>139</v>
       </c>
+      <c r="JK122" s="32">
+        <v>124</v>
+      </c>
     </row>
-    <row r="123" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>117</v>
       </c>
@@ -99171,11 +99527,14 @@
       <c r="JI123" s="6">
         <v>563</v>
       </c>
-      <c r="JJ123" s="32">
+      <c r="JJ123" s="6">
         <v>556</v>
       </c>
+      <c r="JK123" s="32">
+        <v>531</v>
+      </c>
     </row>
-    <row r="124" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>118</v>
       </c>
@@ -99983,11 +100342,14 @@
       <c r="JI124" s="6">
         <v>1827</v>
       </c>
-      <c r="JJ124" s="32">
+      <c r="JJ124" s="6">
         <v>3045</v>
       </c>
+      <c r="JK124" s="32">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="125" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>119</v>
       </c>
@@ -100795,11 +101157,14 @@
       <c r="JI125" s="6">
         <v>434818</v>
       </c>
-      <c r="JJ125" s="32">
+      <c r="JJ125" s="6">
         <v>438935</v>
       </c>
+      <c r="JK125" s="32">
+        <v>442958</v>
+      </c>
     </row>
-    <row r="126" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>120</v>
       </c>
@@ -101607,11 +101972,14 @@
       <c r="JI126" s="6">
         <v>5860</v>
       </c>
-      <c r="JJ126" s="32">
+      <c r="JJ126" s="6">
         <v>5876</v>
       </c>
+      <c r="JK126" s="32">
+        <v>5788</v>
+      </c>
     </row>
-    <row r="127" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>121</v>
       </c>
@@ -102419,11 +102787,14 @@
       <c r="JI127" s="6">
         <v>53</v>
       </c>
-      <c r="JJ127" s="32">
+      <c r="JJ127" s="6">
         <v>52</v>
       </c>
+      <c r="JK127" s="32">
+        <v>51</v>
+      </c>
     </row>
-    <row r="128" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>122</v>
       </c>
@@ -103231,11 +103602,14 @@
       <c r="JI128" s="6">
         <v>2522</v>
       </c>
-      <c r="JJ128" s="32">
+      <c r="JJ128" s="6">
         <v>2576</v>
       </c>
+      <c r="JK128" s="32">
+        <v>2622</v>
+      </c>
     </row>
-    <row r="129" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>123</v>
       </c>
@@ -104043,11 +104417,14 @@
       <c r="JI129" s="6">
         <v>37423</v>
       </c>
-      <c r="JJ129" s="32">
+      <c r="JJ129" s="6">
         <v>36888</v>
       </c>
+      <c r="JK129" s="32">
+        <v>36997</v>
+      </c>
     </row>
-    <row r="130" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>124</v>
       </c>
@@ -104855,11 +105232,14 @@
       <c r="JI130" s="6">
         <v>6187</v>
       </c>
-      <c r="JJ130" s="32">
+      <c r="JJ130" s="6">
         <v>6073</v>
       </c>
+      <c r="JK130" s="32">
+        <v>6089</v>
+      </c>
     </row>
-    <row r="131" spans="1:271" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:272" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="20" t="s">
         <v>127</v>
       </c>
@@ -105667,12 +106047,15 @@
       <c r="JI131" s="21">
         <v>1884715</v>
       </c>
-      <c r="JJ131" s="33">
+      <c r="JJ131" s="21">
         <v>1888232</v>
       </c>
-      <c r="JK131" s="6"/>
+      <c r="JK131" s="33">
+        <v>1896755</v>
+      </c>
+      <c r="JL131" s="6"/>
     </row>
-    <row r="132" spans="1:271" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:272" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
@@ -105920,7 +106303,7 @@
       <c r="IL132" s="18"/>
       <c r="IM132" s="18"/>
     </row>
-    <row r="133" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>126</v>
       </c>
